--- a/Financial/SQ財報 (已修復).xlsx
+++ b/Financial/SQ財報 (已修復).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/datanny/Desktop/stuff/美股資料/SQ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\004134.TWLIFE.000\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D07BCB-132D-E34B-8C0F-03B457F97B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15975" windowHeight="6090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NOTE" sheetId="8" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="CASH FLOWS" sheetId="12" r:id="rId4"/>
     <sheet name="基本面分析評語" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="263">
   <si>
     <t>Total current assets</t>
   </si>
@@ -1190,9 +1189,6 @@
     <t>Long-term debt</t>
   </si>
   <si>
-    <t>Operating lease liabilities, non-current</t>
-  </si>
-  <si>
     <t>Other non-current liabilities</t>
   </si>
   <si>
@@ -1212,9 +1208,6 @@
   </si>
   <si>
     <t>Class B common stock, $0.0000001 par value: 500,000,000 shares authorized at December 31, 2021 and December 31, 2020; 61,706,578 and 65,997,697 issued and outstanding at December 31, 2021 and December 31, 2020, respectively.</t>
-  </si>
-  <si>
-    <t>Accumulated deficit</t>
   </si>
   <si>
     <t>Total stockholders’ equity attributable to common stockholders</t>
@@ -1266,22 +1259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Other current assets  (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>其他流動資產)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Property and equipment, net   (不動產、廠房及設備)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1339,19 +1316,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Other non-current assets  (其他非流動資產)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Customers payable (應付給客戶的負債)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Settlements payable  (應付結算)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accrued expenses and other current liabilities   (應計費用與其他短期負債 含一些應付的合約、利息、工資等費用)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1383,14 +1352,176 @@
     <t xml:space="preserve">Accumulated other comprehensive income.   (其他累計綜合收入或損失) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>Other current assets  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>其他流動資產</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) (with Restricted cash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Other non-current assets  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>其他非流動資產</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) (with Restricted cash)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operating lease liabilities, non-current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Accrued expenses and other current liabilities   (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>應計費用與其他短期負債</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>含一些應付的合約、利息、工資等費用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Build-to-suit lease asset (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>建設用的租賃資產</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Build-to-suit lease liability ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>建設用的租賃負債</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accumulated deficit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
   <fonts count="39">
@@ -1876,11 +2007,11 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1935,7 +2066,7 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
@@ -2001,10 +2132,10 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2079,7 +2210,7 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2157,7 +2288,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -2268,6 +2399,27 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2282,18 +2434,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2601,8 +2741,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10636247" y="4277205"/>
-          <a:ext cx="3687538" cy="698563"/>
+          <a:off x="10654390" y="4381527"/>
+          <a:ext cx="3673930" cy="716705"/>
           <a:chOff x="6733216" y="12634486"/>
           <a:chExt cx="2047648" cy="617478"/>
         </a:xfrm>
@@ -2735,8 +2875,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10067471" y="8490873"/>
-          <a:ext cx="1902282" cy="660487"/>
+          <a:off x="10085614" y="8681373"/>
+          <a:ext cx="1902282" cy="678629"/>
           <a:chOff x="6733217" y="12667288"/>
           <a:chExt cx="1052432" cy="584673"/>
         </a:xfrm>
@@ -2869,8 +3009,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8921752" y="7143684"/>
-          <a:ext cx="10890247" cy="349320"/>
+          <a:off x="8926287" y="7293362"/>
+          <a:ext cx="10917462" cy="358392"/>
           <a:chOff x="5995463" y="12880661"/>
           <a:chExt cx="6049148" cy="309203"/>
         </a:xfrm>
@@ -3091,8 +3231,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7892143" y="6715508"/>
-          <a:ext cx="5787572" cy="668635"/>
+          <a:off x="7892143" y="6856115"/>
+          <a:ext cx="5796644" cy="686778"/>
           <a:chOff x="6135038" y="12880661"/>
           <a:chExt cx="3214792" cy="591847"/>
         </a:xfrm>
@@ -3221,6 +3361,1096 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>748401</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>149681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="群組 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13838472" y="7211788"/>
+          <a:ext cx="9701885" cy="1455961"/>
+          <a:chOff x="4632486" y="11895924"/>
+          <a:chExt cx="5179785" cy="1254385"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="3" name="直線接點 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="4" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="4632486" y="11895924"/>
+            <a:ext cx="2062810" cy="1119563"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="文字方塊 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6695296" y="12880661"/>
+            <a:ext cx="3116975" cy="269648"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ASC 842(IFRS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>後的調整</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>),</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>原</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Build-to-suit</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>改為此項目</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>租賃負債約</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>1.356</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>億</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>830039</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>251725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>326570</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線接點 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13920110" y="8511261"/>
+          <a:ext cx="3619496" cy="210918"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>789215</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>258537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95257</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="群組 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13879286" y="4884966"/>
+          <a:ext cx="9198428" cy="1061362"/>
+          <a:chOff x="4610587" y="11511799"/>
+          <a:chExt cx="5030392" cy="1367912"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="15" name="直線接點 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="16" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="4610587" y="11511799"/>
+            <a:ext cx="1984942" cy="1167558"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="文字方塊 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6595529" y="12479002"/>
+            <a:ext cx="3045450" cy="400709"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ASC 842(IFRS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>後的調整</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>),</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> 原</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Build-to-suit</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>改為此項目</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> 租賃資產約</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>1.2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>億</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4054930</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>26948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>258537</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>108854</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="群組 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4054930" y="3455948"/>
+          <a:ext cx="8313964" cy="979977"/>
+          <a:chOff x="6324019" y="12880660"/>
+          <a:chExt cx="3164800" cy="988012"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="19" name="直線接點 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="20" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7711572" y="13212920"/>
+            <a:ext cx="1777247" cy="655752"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="文字方塊 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6324019" y="12880660"/>
+            <a:ext cx="2775107" cy="332260"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ASC 842(IFRS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>後的調整</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>該項目不再被視為資產與負債</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> 故後續改為</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Operating lease right-of-use</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7700048</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線接點 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7700048" y="3785510"/>
+          <a:ext cx="4519166" cy="4542061"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>993321</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>625928</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="橢圓 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11212286" y="12069536"/>
+          <a:ext cx="4721678" cy="435428"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="30000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5347607</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>505528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>231320</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>272153</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="54" name="群組 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5347607" y="11772242"/>
+          <a:ext cx="6014356" cy="378947"/>
+          <a:chOff x="6595529" y="12479002"/>
+          <a:chExt cx="4474201" cy="488397"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="55" name="直線接點 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="56" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9640979" y="12679356"/>
+            <a:ext cx="1428751" cy="288043"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="文字方塊 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6595529" y="12479002"/>
+            <a:ext cx="3045450" cy="400709"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>累計虧損的部分正逐年償還</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> 且償還速度逐年加速</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4871357</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>11049000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="橢圓 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4871357" y="1156607"/>
+          <a:ext cx="6177643" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="30000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7130143</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>10956471</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>288471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="橢圓 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7130143" y="6068785"/>
+          <a:ext cx="3826328" cy="683079"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="30000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3522,45 +4752,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView zoomScale="60" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="72.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20">
+    <row r="1" spans="1:16" ht="20.25">
       <c r="A1" s="80" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17">
+    <row r="2" spans="1:16">
       <c r="B2" s="91" t="s">
         <v>176</v>
       </c>
       <c r="C2" s="90"/>
-      <c r="G2" s="129" t="s">
+      <c r="G2" s="136" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
       <c r="K2" s="10"/>
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:16" ht="22">
-      <c r="A3" s="129"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
+    <row r="3" spans="1:16" ht="19.5">
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="78">
         <v>2016</v>
       </c>
@@ -3599,10 +4829,10 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="18">
-      <c r="A4" s="129"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
       <c r="E4" s="13">
         <v>197</v>
       </c>
@@ -3644,43 +4874,43 @@
       <c r="P4" s="71"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="129"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="129"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="129"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="129" t="s">
+      <c r="G7" s="136" t="s">
         <v>174</v>
       </c>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:16" ht="22">
-      <c r="A8" s="129"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
+    <row r="8" spans="1:16" ht="19.5">
+      <c r="A8" s="136"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
       <c r="E8" s="78">
         <v>2016</v>
       </c>
@@ -3719,10 +4949,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="18">
-      <c r="A9" s="129"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
       <c r="E9" s="13">
         <v>6129</v>
       </c>
@@ -3764,43 +4994,43 @@
       <c r="P9" s="71"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="129"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="129"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
+      <c r="A11" s="136"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="129"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
+      <c r="A12" s="136"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="136"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="129" t="s">
+      <c r="G12" s="136" t="s">
         <v>175</v>
       </c>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:16" ht="22">
-      <c r="A13" s="129"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
+    <row r="13" spans="1:16" ht="19.5">
+      <c r="A13" s="136"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
       <c r="E13" s="78">
         <v>2016</v>
       </c>
@@ -3839,10 +5069,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="18">
-      <c r="A14" s="129"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
+      <c r="A14" s="136"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
       <c r="E14" s="13">
         <v>354014</v>
       </c>
@@ -3886,19 +5116,19 @@
     <row r="15" spans="1:16" ht="18">
       <c r="E15" s="13"/>
     </row>
-    <row r="17" spans="1:18" ht="32" customHeight="1">
+    <row r="17" spans="1:18" ht="32.1" customHeight="1">
       <c r="A17" s="80" t="s">
         <v>124</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
-    <row r="18" spans="1:18" ht="31" customHeight="1">
+    <row r="18" spans="1:18" ht="30.95" customHeight="1">
       <c r="A18" s="82" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="22">
+    <row r="19" spans="1:18" ht="19.5">
       <c r="A19" s="70" t="s">
         <v>94</v>
       </c>
@@ -3915,7 +5145,7 @@
       <c r="F19" s="94"/>
       <c r="G19" s="94"/>
     </row>
-    <row r="20" spans="1:18" ht="18">
+    <row r="20" spans="1:18" ht="18.75">
       <c r="A20" s="79" t="s">
         <v>95</v>
       </c>
@@ -3932,7 +5162,7 @@
       <c r="F20" s="95"/>
       <c r="G20" s="95"/>
     </row>
-    <row r="21" spans="1:18" ht="18">
+    <row r="21" spans="1:18" ht="18.75">
       <c r="A21" s="79" t="s">
         <v>96</v>
       </c>
@@ -3949,7 +5179,7 @@
       <c r="F21" s="95"/>
       <c r="G21" s="95"/>
     </row>
-    <row r="22" spans="1:18" ht="18">
+    <row r="22" spans="1:18" ht="18.75">
       <c r="A22" s="79" t="s">
         <v>100</v>
       </c>
@@ -3966,7 +5196,7 @@
       <c r="F22" s="95"/>
       <c r="G22" s="95"/>
     </row>
-    <row r="23" spans="1:18" ht="18">
+    <row r="23" spans="1:18" ht="18.75">
       <c r="A23" s="74" t="s">
         <v>101</v>
       </c>
@@ -3986,7 +5216,7 @@
       <c r="F23" s="96"/>
       <c r="G23" s="96"/>
     </row>
-    <row r="24" spans="1:18" ht="22">
+    <row r="24" spans="1:18" ht="19.5">
       <c r="A24" s="79" t="s">
         <v>97</v>
       </c>
@@ -4003,7 +5233,7 @@
       <c r="F24" s="94"/>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="1:18" ht="18">
+    <row r="25" spans="1:18" ht="18.75">
       <c r="A25" s="79" t="s">
         <v>98</v>
       </c>
@@ -4020,7 +5250,7 @@
       <c r="F25" s="95"/>
       <c r="G25" s="95"/>
     </row>
-    <row r="26" spans="1:18" ht="18">
+    <row r="26" spans="1:18" ht="18.75">
       <c r="A26" s="79" t="s">
         <v>99</v>
       </c>
@@ -4037,7 +5267,7 @@
       <c r="F26" s="95"/>
       <c r="G26" s="95"/>
     </row>
-    <row r="27" spans="1:18" ht="18">
+    <row r="27" spans="1:18" ht="18.75">
       <c r="A27" s="74" t="s">
         <v>101</v>
       </c>
@@ -4057,12 +5287,12 @@
       <c r="F27" s="97"/>
       <c r="G27" s="97"/>
     </row>
-    <row r="30" spans="1:18" ht="32" customHeight="1">
+    <row r="30" spans="1:18" ht="32.1" customHeight="1">
       <c r="A30" s="80" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="22">
+    <row r="31" spans="1:18" ht="19.5">
       <c r="A31" s="70" t="s">
         <v>103</v>
       </c>
@@ -4080,7 +5310,7 @@
       <c r="G31" s="94"/>
       <c r="I31" s="68"/>
     </row>
-    <row r="32" spans="1:18" ht="22">
+    <row r="32" spans="1:18" ht="19.5">
       <c r="A32" s="70" t="s">
         <v>15</v>
       </c>
@@ -4098,7 +5328,7 @@
       <c r="G32" s="95"/>
       <c r="R32" s="68"/>
     </row>
-    <row r="33" spans="1:18" ht="18">
+    <row r="33" spans="1:18" ht="18.75">
       <c r="A33" s="70" t="s">
         <v>107</v>
       </c>
@@ -4109,7 +5339,7 @@
       <c r="F33" s="95"/>
       <c r="G33" s="95"/>
     </row>
-    <row r="34" spans="1:18" ht="22">
+    <row r="34" spans="1:18" ht="19.5">
       <c r="A34" s="70" t="s">
         <v>108</v>
       </c>
@@ -4127,7 +5357,7 @@
       <c r="G34" s="95"/>
       <c r="O34" s="68"/>
     </row>
-    <row r="35" spans="1:18" ht="22">
+    <row r="35" spans="1:18" ht="19.5">
       <c r="A35" s="70" t="s">
         <v>110</v>
       </c>
@@ -4145,7 +5375,7 @@
       <c r="G35" s="95"/>
       <c r="O35" s="68"/>
     </row>
-    <row r="36" spans="1:18" ht="22">
+    <row r="36" spans="1:18" ht="19.5">
       <c r="A36" s="70" t="s">
         <v>113</v>
       </c>
@@ -4163,7 +5393,7 @@
       <c r="G36" s="95"/>
       <c r="O36" s="68"/>
     </row>
-    <row r="37" spans="1:18" ht="18">
+    <row r="37" spans="1:18" ht="18.75">
       <c r="A37" s="70" t="s">
         <v>16</v>
       </c>
@@ -4174,7 +5404,7 @@
       <c r="F37" s="95"/>
       <c r="G37" s="95"/>
     </row>
-    <row r="38" spans="1:18" ht="22">
+    <row r="38" spans="1:18" ht="19.5">
       <c r="A38" s="70" t="s">
         <v>17</v>
       </c>
@@ -4198,7 +5428,7 @@
       <c r="O38" s="67"/>
       <c r="R38" s="68"/>
     </row>
-    <row r="39" spans="1:18" ht="18">
+    <row r="39" spans="1:18" ht="18.75">
       <c r="A39" s="70" t="s">
         <v>19</v>
       </c>
@@ -4223,19 +5453,19 @@
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
     </row>
-    <row r="42" spans="1:18" ht="32" customHeight="1">
+    <row r="42" spans="1:18" ht="32.1" customHeight="1">
       <c r="A42" s="80" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="32" customHeight="1">
+    <row r="43" spans="1:18" ht="32.1" customHeight="1">
       <c r="A43" s="80" t="s">
         <v>119</v>
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
     </row>
-    <row r="44" spans="1:18" ht="32" customHeight="1">
+    <row r="44" spans="1:18" ht="32.1" customHeight="1">
       <c r="A44" s="80" t="s">
         <v>120</v>
       </c>
@@ -4250,21 +5480,21 @@
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
     </row>
-    <row r="47" spans="1:18" ht="32" customHeight="1">
+    <row r="47" spans="1:18" ht="32.1" customHeight="1">
       <c r="A47" s="80" t="s">
         <v>121</v>
       </c>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
     </row>
-    <row r="48" spans="1:18" ht="32" customHeight="1">
+    <row r="48" spans="1:18" ht="32.1" customHeight="1">
       <c r="A48" s="82" t="s">
         <v>122</v>
       </c>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
     </row>
-    <row r="49" spans="1:14" ht="22">
+    <row r="49" spans="1:14" ht="19.5">
       <c r="A49" s="70" t="s">
         <v>125</v>
       </c>
@@ -4275,7 +5505,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="22">
+    <row r="50" spans="1:14" ht="19.5">
       <c r="A50" s="79" t="s">
         <v>126</v>
       </c>
@@ -4287,7 +5517,7 @@
       </c>
       <c r="N50" s="68"/>
     </row>
-    <row r="51" spans="1:14" ht="22">
+    <row r="51" spans="1:14" ht="19.5">
       <c r="A51" s="79" t="s">
         <v>127</v>
       </c>
@@ -4299,7 +5529,7 @@
       </c>
       <c r="I51" s="68"/>
     </row>
-    <row r="52" spans="1:14" ht="22">
+    <row r="52" spans="1:14" ht="19.5">
       <c r="A52" s="79" t="s">
         <v>128</v>
       </c>
@@ -4311,7 +5541,7 @@
       </c>
       <c r="I52" s="68"/>
     </row>
-    <row r="53" spans="1:14" ht="22">
+    <row r="53" spans="1:14" ht="19.5">
       <c r="A53" s="79" t="s">
         <v>129</v>
       </c>
@@ -4323,7 +5553,7 @@
       </c>
       <c r="I53" s="68"/>
     </row>
-    <row r="54" spans="1:14" ht="22">
+    <row r="54" spans="1:14" ht="19.5">
       <c r="A54" s="79" t="s">
         <v>130</v>
       </c>
@@ -4335,7 +5565,7 @@
       </c>
       <c r="I54" s="68"/>
     </row>
-    <row r="55" spans="1:14" ht="22">
+    <row r="55" spans="1:14" ht="19.5">
       <c r="A55" s="79" t="s">
         <v>131</v>
       </c>
@@ -4347,7 +5577,7 @@
       </c>
       <c r="I55" s="68"/>
     </row>
-    <row r="56" spans="1:14" ht="22">
+    <row r="56" spans="1:14" ht="19.5">
       <c r="A56" s="74" t="s">
         <v>132</v>
       </c>
@@ -4361,7 +5591,7 @@
       </c>
       <c r="I56" s="68"/>
     </row>
-    <row r="57" spans="1:14" ht="22">
+    <row r="57" spans="1:14" ht="19.5">
       <c r="A57" s="70" t="s">
         <v>133</v>
       </c>
@@ -4373,7 +5603,7 @@
       </c>
       <c r="I57" s="68"/>
     </row>
-    <row r="58" spans="1:14" ht="18">
+    <row r="58" spans="1:14" ht="18.75">
       <c r="A58" s="74" t="s">
         <v>134</v>
       </c>
@@ -4389,12 +5619,12 @@
     <row r="59" spans="1:14">
       <c r="A59" s="67"/>
     </row>
-    <row r="60" spans="1:14" ht="22" customHeight="1">
+    <row r="60" spans="1:14" ht="21.95" customHeight="1">
       <c r="A60" s="82" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="22">
+    <row r="61" spans="1:14" ht="19.5">
       <c r="A61" s="70" t="s">
         <v>135</v>
       </c>
@@ -4405,7 +5635,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="22">
+    <row r="62" spans="1:14" ht="19.5">
       <c r="A62" s="79" t="s">
         <v>95</v>
       </c>
@@ -4418,7 +5648,7 @@
       <c r="I62" s="67"/>
       <c r="N62" s="68"/>
     </row>
-    <row r="63" spans="1:14" ht="22">
+    <row r="63" spans="1:14" ht="19.5">
       <c r="A63" s="79" t="s">
         <v>136</v>
       </c>
@@ -4430,7 +5660,7 @@
       </c>
       <c r="I63" s="68"/>
     </row>
-    <row r="64" spans="1:14" ht="22">
+    <row r="64" spans="1:14" ht="19.5">
       <c r="A64" s="74" t="s">
         <v>137</v>
       </c>
@@ -4443,12 +5673,12 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="29" customHeight="1">
+    <row r="66" spans="1:18" ht="29.1" customHeight="1">
       <c r="A66" s="82" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="22">
+    <row r="67" spans="1:18" ht="19.5">
       <c r="A67" s="71"/>
       <c r="B67" s="78">
         <v>2019</v>
@@ -4468,7 +5698,7 @@
       <c r="M67" s="67"/>
       <c r="R67" s="68"/>
     </row>
-    <row r="68" spans="1:18" ht="22">
+    <row r="68" spans="1:18" ht="19.5">
       <c r="A68" s="79" t="s">
         <v>140</v>
       </c>
@@ -4489,7 +5719,7 @@
       <c r="L68" s="68"/>
       <c r="M68" s="68"/>
     </row>
-    <row r="69" spans="1:18" ht="22">
+    <row r="69" spans="1:18" ht="19.5">
       <c r="A69" s="79" t="s">
         <v>143</v>
       </c>
@@ -4510,7 +5740,7 @@
       <c r="L69" s="68"/>
       <c r="M69" s="68"/>
     </row>
-    <row r="70" spans="1:18" ht="22">
+    <row r="70" spans="1:18" ht="19.5">
       <c r="A70" s="79" t="s">
         <v>144</v>
       </c>
@@ -4531,7 +5761,7 @@
       <c r="L70" s="68"/>
       <c r="M70" s="68"/>
     </row>
-    <row r="71" spans="1:18" ht="18">
+    <row r="71" spans="1:18" ht="18.75">
       <c r="A71" s="79" t="s">
         <v>36</v>
       </c>
@@ -4548,7 +5778,7 @@
       <c r="F71" s="95"/>
       <c r="G71" s="95"/>
     </row>
-    <row r="72" spans="1:18" ht="22">
+    <row r="72" spans="1:18" ht="19.5">
       <c r="A72" s="74" t="s">
         <v>147</v>
       </c>
@@ -4586,7 +5816,7 @@
       <c r="M75" s="21"/>
       <c r="N75" s="21"/>
     </row>
-    <row r="76" spans="1:18" ht="22">
+    <row r="76" spans="1:18" ht="19.5">
       <c r="A76" s="70" t="s">
         <v>149</v>
       </c>
@@ -4597,7 +5827,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="22">
+    <row r="77" spans="1:18" ht="19.5">
       <c r="A77" s="79" t="s">
         <v>150</v>
       </c>
@@ -4609,7 +5839,7 @@
       </c>
       <c r="N77" s="68"/>
     </row>
-    <row r="78" spans="1:18" ht="18">
+    <row r="78" spans="1:18" ht="18.75">
       <c r="A78" s="79" t="s">
         <v>151</v>
       </c>
@@ -4620,7 +5850,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="18">
+    <row r="79" spans="1:18" ht="18.75">
       <c r="A79" s="79" t="s">
         <v>152</v>
       </c>
@@ -4631,7 +5861,7 @@
         <v>18336</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="18">
+    <row r="80" spans="1:18" ht="18.75">
       <c r="A80" s="79" t="s">
         <v>153</v>
       </c>
@@ -4642,7 +5872,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="22">
+    <row r="81" spans="1:14" ht="19.5">
       <c r="A81" s="74" t="s">
         <v>154</v>
       </c>
@@ -4656,14 +5886,14 @@
       </c>
       <c r="N81" s="68"/>
     </row>
-    <row r="82" spans="1:14" ht="22">
+    <row r="82" spans="1:14" ht="19.5">
       <c r="A82" s="70" t="s">
         <v>155</v>
       </c>
       <c r="B82" s="70"/>
       <c r="C82" s="73"/>
     </row>
-    <row r="83" spans="1:14" ht="22">
+    <row r="83" spans="1:14" ht="19.5">
       <c r="A83" s="79" t="s">
         <v>151</v>
       </c>
@@ -4675,7 +5905,7 @@
       </c>
       <c r="N83" s="68"/>
     </row>
-    <row r="84" spans="1:14" ht="18">
+    <row r="84" spans="1:14" ht="18.75">
       <c r="A84" s="79" t="s">
         <v>152</v>
       </c>
@@ -4686,7 +5916,7 @@
         <v>3604</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="18">
+    <row r="85" spans="1:14" ht="18.75">
       <c r="A85" s="79" t="s">
         <v>156</v>
       </c>
@@ -4697,7 +5927,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="22">
+    <row r="86" spans="1:14" ht="19.5">
       <c r="A86" s="74" t="s">
         <v>157</v>
       </c>
@@ -4711,14 +5941,14 @@
       </c>
       <c r="N86" s="68"/>
     </row>
-    <row r="87" spans="1:14" ht="22">
+    <row r="87" spans="1:14" ht="19.5">
       <c r="A87" s="70" t="s">
         <v>158</v>
       </c>
       <c r="B87" s="73"/>
       <c r="C87" s="73"/>
     </row>
-    <row r="88" spans="1:14" ht="22">
+    <row r="88" spans="1:14" ht="19.5">
       <c r="A88" s="79" t="s">
         <v>151</v>
       </c>
@@ -4730,7 +5960,7 @@
       </c>
       <c r="N88" s="68"/>
     </row>
-    <row r="89" spans="1:14" ht="18">
+    <row r="89" spans="1:14" ht="18.75">
       <c r="A89" s="79" t="s">
         <v>152</v>
       </c>
@@ -4741,7 +5971,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="18">
+    <row r="90" spans="1:14" ht="18.75">
       <c r="A90" s="79" t="s">
         <v>156</v>
       </c>
@@ -4752,7 +5982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="18">
+    <row r="91" spans="1:14" ht="18.75">
       <c r="A91" s="79" t="s">
         <v>159</v>
       </c>
@@ -4763,7 +5993,7 @@
         <v>3207</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="22">
+    <row r="92" spans="1:14" ht="19.5">
       <c r="A92" s="74" t="s">
         <v>160</v>
       </c>
@@ -4776,7 +6006,7 @@
         <v>6797</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="17">
+    <row r="94" spans="1:14" ht="17.25">
       <c r="A94" s="81" t="s">
         <v>161</v>
       </c>
@@ -4806,7 +6036,7 @@
       <c r="G96" s="21"/>
       <c r="H96" s="21"/>
     </row>
-    <row r="97" spans="1:8" ht="34" customHeight="1">
+    <row r="97" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A97" s="80" t="s">
         <v>163</v>
       </c>
@@ -4818,7 +6048,7 @@
       <c r="G97" s="21"/>
       <c r="H97" s="21"/>
     </row>
-    <row r="98" spans="1:8" ht="20" customHeight="1">
+    <row r="98" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A98" s="83" t="s">
         <v>162</v>
       </c>
@@ -4830,22 +6060,22 @@
       <c r="G98" s="21"/>
       <c r="H98" s="21"/>
     </row>
-    <row r="99" spans="1:8" ht="20">
+    <row r="99" spans="1:8" ht="20.25">
       <c r="A99" s="80" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="17">
+    <row r="100" spans="1:8" ht="17.25">
       <c r="A100" s="82" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="17">
+    <row r="101" spans="1:8" ht="17.25">
       <c r="A101" s="82" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="20">
+    <row r="102" spans="1:8" ht="20.25">
       <c r="A102" s="80" t="s">
         <v>167</v>
       </c>
@@ -4863,7 +6093,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000002000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -4879,7 +6109,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000001000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -4895,7 +6125,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000000000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -4918,22 +6148,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="93.5" customWidth="1"/>
     <col min="2" max="3" width="12" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:88" ht="33" customHeight="1">
@@ -5035,7 +6265,7 @@
       <c r="CI1" s="21"/>
       <c r="CJ1" s="21"/>
     </row>
-    <row r="2" spans="1:88" s="111" customFormat="1" ht="23">
+    <row r="2" spans="1:88" s="111" customFormat="1" ht="23.25">
       <c r="A2" s="110" t="s">
         <v>190</v>
       </c>
@@ -5043,7 +6273,7 @@
       <c r="C2" s="112"/>
       <c r="D2" s="112"/>
     </row>
-    <row r="3" spans="1:88" ht="23">
+    <row r="3" spans="1:88" ht="23.25">
       <c r="A3" s="12" t="s">
         <v>210</v>
       </c>
@@ -5057,7 +6287,7 @@
         <v>4793146</v>
       </c>
     </row>
-    <row r="4" spans="1:88" ht="25">
+    <row r="4" spans="1:88" ht="25.5">
       <c r="A4" s="12" t="s">
         <v>214</v>
       </c>
@@ -5071,7 +6301,7 @@
         <v>2709731</v>
       </c>
     </row>
-    <row r="5" spans="1:88" ht="23">
+    <row r="5" spans="1:88" ht="23.25">
       <c r="A5" s="12" t="s">
         <v>211</v>
       </c>
@@ -5085,7 +6315,7 @@
         <v>145679</v>
       </c>
     </row>
-    <row r="6" spans="1:88" ht="23">
+    <row r="6" spans="1:88" ht="23.25">
       <c r="A6" s="12" t="s">
         <v>212</v>
       </c>
@@ -5099,7 +6329,7 @@
         <v>10012647</v>
       </c>
     </row>
-    <row r="7" spans="1:88" ht="25">
+    <row r="7" spans="1:88" ht="25.5">
       <c r="A7" s="109" t="s">
         <v>200</v>
       </c>
@@ -5127,7 +6357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:88" s="1" customFormat="1" ht="23">
+    <row r="8" spans="1:88" s="1" customFormat="1" ht="23.25">
       <c r="A8" s="110" t="s">
         <v>191</v>
       </c>
@@ -5138,7 +6368,7 @@
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:88" ht="23">
+    <row r="9" spans="1:88" ht="23.25">
       <c r="A9" s="12" t="s">
         <v>213</v>
       </c>
@@ -5154,7 +6384,7 @@
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:88" ht="23">
+    <row r="10" spans="1:88" ht="23.25">
       <c r="A10" s="12" t="s">
         <v>215</v>
       </c>
@@ -5170,7 +6400,7 @@
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:88" ht="23">
+    <row r="11" spans="1:88" ht="23.25">
       <c r="A11" s="12" t="s">
         <v>216</v>
       </c>
@@ -5186,7 +6416,7 @@
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:88" ht="23">
+    <row r="12" spans="1:88" ht="23.25">
       <c r="A12" s="12" t="s">
         <v>217</v>
       </c>
@@ -5208,7 +6438,7 @@
         <v>1.1890529829474981</v>
       </c>
     </row>
-    <row r="13" spans="1:88" s="105" customFormat="1" ht="23">
+    <row r="13" spans="1:88" s="105" customFormat="1" ht="23.25">
       <c r="A13" s="109" t="s">
         <v>201</v>
       </c>
@@ -5235,7 +6465,7 @@
       </c>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:88" ht="23">
+    <row r="14" spans="1:88" ht="23.25">
       <c r="A14" s="109" t="s">
         <v>199</v>
       </c>
@@ -5260,7 +6490,7 @@
         <v>0.61696365234767281</v>
       </c>
     </row>
-    <row r="15" spans="1:88" s="1" customFormat="1" ht="23">
+    <row r="15" spans="1:88" s="1" customFormat="1" ht="23.25">
       <c r="A15" s="110" t="s">
         <v>192</v>
       </c>
@@ -5271,7 +6501,7 @@
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:88" ht="23">
+    <row r="16" spans="1:88" ht="23.25">
       <c r="A16" s="12" t="s">
         <v>218</v>
       </c>
@@ -5287,7 +6517,7 @@
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:9" ht="23">
+    <row r="17" spans="1:9" ht="23.25">
       <c r="A17" s="12" t="s">
         <v>219</v>
       </c>
@@ -5303,7 +6533,7 @@
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:9" ht="25">
+    <row r="18" spans="1:9" ht="25.5">
       <c r="A18" s="12" t="s">
         <v>220</v>
       </c>
@@ -5319,7 +6549,7 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:9" ht="25">
+    <row r="19" spans="1:9" ht="25.5">
       <c r="A19" s="12" t="s">
         <v>222</v>
       </c>
@@ -5335,7 +6565,7 @@
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:9" ht="25">
+    <row r="20" spans="1:9" ht="25.5">
       <c r="A20" s="12" t="s">
         <v>221</v>
       </c>
@@ -5351,7 +6581,7 @@
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="1:9" ht="23">
+    <row r="21" spans="1:9" ht="23.25">
       <c r="A21" s="109" t="s">
         <v>203</v>
       </c>
@@ -5376,7 +6606,7 @@
         <v>0.54737078086667368</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="25">
+    <row r="22" spans="1:9" ht="25.5">
       <c r="A22" s="109" t="s">
         <v>202</v>
       </c>
@@ -5404,7 +6634,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="23">
+    <row r="23" spans="1:9" ht="23.25">
       <c r="A23" s="12" t="s">
         <v>207</v>
       </c>
@@ -5420,7 +6650,7 @@
       <c r="F23" s="120"/>
       <c r="G23" s="120"/>
     </row>
-    <row r="24" spans="1:9" ht="23">
+    <row r="24" spans="1:9" ht="23.25">
       <c r="A24" s="12" t="s">
         <v>208</v>
       </c>
@@ -5436,7 +6666,7 @@
       <c r="F24" s="120"/>
       <c r="G24" s="120"/>
     </row>
-    <row r="25" spans="1:9" ht="25">
+    <row r="25" spans="1:9" ht="25.5">
       <c r="A25" s="12" t="s">
         <v>209</v>
       </c>
@@ -5452,7 +6682,7 @@
       <c r="F25" s="120"/>
       <c r="G25" s="120"/>
     </row>
-    <row r="26" spans="1:9" ht="23">
+    <row r="26" spans="1:9" ht="23.25">
       <c r="A26" s="109" t="s">
         <v>204</v>
       </c>
@@ -5477,7 +6707,7 @@
         <v>-0.27089786865585946</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="23">
+    <row r="27" spans="1:9" ht="23.25">
       <c r="A27" s="12" t="s">
         <v>193</v>
       </c>
@@ -5521,7 +6751,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="23">
+    <row r="29" spans="1:9" ht="23.25">
       <c r="A29" s="12" t="s">
         <v>194</v>
       </c>
@@ -5537,7 +6767,7 @@
       <c r="F29" s="120"/>
       <c r="G29" s="120"/>
     </row>
-    <row r="30" spans="1:9" ht="23">
+    <row r="30" spans="1:9" ht="23.25">
       <c r="A30" s="12" t="s">
         <v>195</v>
       </c>
@@ -5553,7 +6783,7 @@
       <c r="F30" s="120"/>
       <c r="G30" s="120"/>
     </row>
-    <row r="31" spans="1:9" ht="23">
+    <row r="31" spans="1:9" ht="23.25">
       <c r="A31" s="12"/>
       <c r="B31" s="113"/>
       <c r="C31" s="113"/>
@@ -5561,7 +6791,7 @@
       <c r="F31" s="120"/>
       <c r="G31" s="120"/>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" ht="23">
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="23.25">
       <c r="A32" s="110" t="s">
         <v>206</v>
       </c>
@@ -5572,7 +6802,7 @@
       <c r="G32" s="121"/>
       <c r="H32" s="20"/>
     </row>
-    <row r="33" spans="1:7" ht="23">
+    <row r="33" spans="1:7" ht="23.25">
       <c r="A33" s="48" t="s">
         <v>196</v>
       </c>
@@ -5594,7 +6824,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="23">
+    <row r="34" spans="1:7" ht="23.25">
       <c r="A34" s="48" t="s">
         <v>197</v>
       </c>
@@ -5616,7 +6846,7 @@
         <v>-0.24999999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="23">
+    <row r="35" spans="1:7" ht="23.25">
       <c r="A35" s="45" t="s">
         <v>198</v>
       </c>
@@ -5626,7 +6856,7 @@
       <c r="F35" s="120"/>
       <c r="G35" s="120"/>
     </row>
-    <row r="36" spans="1:7" ht="23">
+    <row r="36" spans="1:7" ht="23.25">
       <c r="A36" s="12" t="s">
         <v>196</v>
       </c>
@@ -5642,7 +6872,7 @@
       <c r="F36" s="120"/>
       <c r="G36" s="120"/>
     </row>
-    <row r="37" spans="1:7" ht="23">
+    <row r="37" spans="1:7" ht="23.25">
       <c r="A37" s="12" t="s">
         <v>197</v>
       </c>
@@ -5658,7 +6888,7 @@
       <c r="F37" s="120"/>
       <c r="G37" s="120"/>
     </row>
-    <row r="38" spans="1:7" ht="25">
+    <row r="38" spans="1:7" ht="25.5">
       <c r="A38" s="49" t="s">
         <v>178</v>
       </c>
@@ -5668,7 +6898,7 @@
       <c r="F38" s="120"/>
       <c r="G38" s="120"/>
     </row>
-    <row r="39" spans="1:7" ht="25">
+    <row r="39" spans="1:7" ht="25.5">
       <c r="A39" s="49" t="s">
         <v>24</v>
       </c>
@@ -5693,7 +6923,7 @@
         <v>5.6048581100907553</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="25">
+    <row r="40" spans="1:7" ht="25.5">
       <c r="A40" s="118" t="s">
         <v>29</v>
       </c>
@@ -5718,7 +6948,7 @@
         <v>-0.60791434409042122</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="25">
+    <row r="41" spans="1:7" ht="25.5">
       <c r="A41" s="119" t="s">
         <v>25</v>
       </c>
@@ -5743,7 +6973,7 @@
         <v>-0.5992066145792696</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="25">
+    <row r="42" spans="1:7" ht="25.5">
       <c r="A42" s="118" t="s">
         <v>223</v>
       </c>
@@ -5751,7 +6981,7 @@
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
     </row>
-    <row r="43" spans="1:7" ht="25">
+    <row r="43" spans="1:7" ht="25.5">
       <c r="A43" s="118" t="s">
         <v>224</v>
       </c>
@@ -5759,38 +6989,38 @@
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:7" ht="23">
+    <row r="44" spans="1:7" ht="23.25">
       <c r="A44" s="117"/>
       <c r="B44" s="95"/>
       <c r="C44" s="95"/>
       <c r="D44" s="95"/>
     </row>
-    <row r="46" spans="1:7" ht="25">
+    <row r="46" spans="1:7" ht="25.5">
       <c r="A46" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="25">
+    <row r="47" spans="1:7" ht="25.5">
       <c r="A47" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="25">
+    <row r="48" spans="1:7" ht="25.5">
       <c r="A48" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="25">
+    <row r="49" spans="1:1" ht="25.5">
       <c r="A49" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="25">
+    <row r="50" spans="1:1" ht="25.5">
       <c r="A50" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="25">
+    <row r="51" spans="1:1" ht="25.5">
       <c r="A51" s="7" t="s">
         <v>32</v>
       </c>
@@ -5802,7 +7032,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000016000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5818,7 +7048,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000015000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5834,7 +7064,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000014000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5850,7 +7080,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000013000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5894,7 +7124,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000012000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5910,7 +7140,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000011000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5926,7 +7156,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000010000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5942,7 +7172,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00000F000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5958,7 +7188,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00000E000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5974,7 +7204,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00000D000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5990,7 +7220,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00000C000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -6006,7 +7236,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00000B000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -6022,7 +7252,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00000A000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -6038,7 +7268,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000009000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -6054,7 +7284,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000008000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -6070,7 +7300,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000007000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -6134,7 +7364,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000006000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -6217,858 +7447,1697 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D21035-7B40-C74B-88E7-87614EFF25BE}">
-  <dimension ref="A1:H87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="86" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="152" customWidth="1"/>
-    <col min="2" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="146.125" customWidth="1"/>
+    <col min="2" max="3" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:12" ht="27.75">
       <c r="A1" s="68"/>
       <c r="B1" s="4">
+        <v>2017</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2018</v>
+      </c>
+      <c r="D1" s="4">
         <v>2019</v>
       </c>
-      <c r="C1" s="4">
+      <c r="E1" s="4">
         <v>2020</v>
       </c>
-      <c r="D1" s="4">
+      <c r="F1" s="4">
         <v>2021</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="23">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="22.5">
       <c r="A2" s="128" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="126"/>
-    </row>
-    <row r="3" spans="1:8" ht="23">
+      <c r="F2" s="126"/>
+    </row>
+    <row r="3" spans="1:12" ht="23.25">
       <c r="A3" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="71"/>
       <c r="C3" s="71"/>
-      <c r="D3" s="127"/>
-    </row>
-    <row r="4" spans="1:8" ht="23">
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="127"/>
+    </row>
+    <row r="4" spans="1:12" ht="23.25" customHeight="1">
       <c r="A4" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="2">
+        <v>696474</v>
+      </c>
+      <c r="C4" s="2">
+        <v>583173</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1047118</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3158058</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4443669</v>
+      </c>
+      <c r="H4" s="18">
+        <f t="shared" ref="H4:I4" si="0">(C4-B4)/ABS(B4)</f>
+        <v>-0.16267800377329233</v>
+      </c>
+      <c r="I4" s="18">
+        <f t="shared" si="0"/>
+        <v>0.79555294912487373</v>
+      </c>
+      <c r="J4" s="18">
+        <f t="shared" ref="J4:J14" si="1">(E4-D4)/ABS(D4)</f>
+        <v>2.0159523568499442</v>
+      </c>
+      <c r="K4" s="18">
+        <f t="shared" ref="K4:K14" si="2">(F4-E4)/ABS(E4)</f>
+        <v>0.40708910349334937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="25.5" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="2">
+        <v>169576</v>
+      </c>
+      <c r="C5" s="2">
+        <v>540991</v>
+      </c>
+      <c r="D5" s="2">
+        <v>492456</v>
+      </c>
+      <c r="E5" s="2">
+        <v>695112</v>
+      </c>
+      <c r="F5" s="2">
+        <v>869283</v>
+      </c>
+      <c r="H5" s="18">
+        <f t="shared" ref="H5:H18" si="3">(C5-B5)/ABS(B5)</f>
+        <v>2.1902568759730152</v>
+      </c>
+      <c r="I5" s="18">
+        <f t="shared" ref="I5:I18" si="4">(D5-C5)/ABS(C5)</f>
+        <v>-8.9714986016403236E-2</v>
+      </c>
+      <c r="J5" s="18">
+        <f t="shared" si="1"/>
+        <v>0.4115210292899264</v>
+      </c>
+      <c r="K5" s="18">
+        <f t="shared" si="2"/>
+        <v>0.25056537651486377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="2">
+        <v>620523</v>
+      </c>
+      <c r="C6" s="2">
+        <v>364946</v>
+      </c>
+      <c r="D6" s="2">
+        <v>588692</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1024895</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1171612</v>
+      </c>
+      <c r="H6" s="18">
+        <f t="shared" si="3"/>
+        <v>-0.41187353248791747</v>
+      </c>
+      <c r="I6" s="18">
+        <f t="shared" si="4"/>
+        <v>0.61309344396157239</v>
+      </c>
+      <c r="J6" s="18">
+        <f t="shared" si="1"/>
+        <v>0.74096981103870951</v>
+      </c>
+      <c r="K6" s="18">
+        <f t="shared" si="2"/>
+        <v>0.14315320105962073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A7" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="B4" s="2">
-        <v>1047118</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3158058</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4443669</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="25">
-      <c r="A5" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="B5" s="2">
-        <v>492456</v>
-      </c>
-      <c r="C5" s="2">
-        <v>695112</v>
-      </c>
-      <c r="D5" s="2">
-        <v>869283</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="23">
-      <c r="A6" s="12" t="s">
+      <c r="B7" s="2">
+        <v>103042</v>
+      </c>
+      <c r="C7" s="2">
+        <v>334017</v>
+      </c>
+      <c r="D7" s="2">
+        <v>676292</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2037832</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2830995</v>
+      </c>
+      <c r="H7" s="18">
+        <f t="shared" si="3"/>
+        <v>2.2415616932901146</v>
+      </c>
+      <c r="I7" s="18">
+        <f t="shared" si="4"/>
+        <v>1.0247232925270271</v>
+      </c>
+      <c r="J7" s="18">
+        <f t="shared" si="1"/>
+        <v>2.0132428004471441</v>
+      </c>
+      <c r="K7" s="18">
+        <f t="shared" si="2"/>
+        <v>0.389219032776009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="25.5">
+      <c r="A8" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="B6" s="2">
-        <v>588692</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1024895</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1171612</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="23">
-      <c r="A7" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="B7" s="2">
-        <v>676292</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2037832</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2830995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="25">
-      <c r="A8" s="12" t="s">
-        <v>245</v>
-      </c>
       <c r="B8" s="2">
+        <v>73420</v>
+      </c>
+      <c r="C8" s="2">
+        <v>89974</v>
+      </c>
+      <c r="D8" s="2">
         <v>164834</v>
       </c>
-      <c r="C8" s="2">
+      <c r="E8" s="2">
         <v>462665</v>
       </c>
-      <c r="D8" s="2">
+      <c r="F8" s="2">
         <v>517940</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="25">
+      <c r="H8" s="18">
+        <f t="shared" si="3"/>
+        <v>0.22546989921002453</v>
+      </c>
+      <c r="I8" s="18">
+        <f t="shared" si="4"/>
+        <v>0.8320181385733656</v>
+      </c>
+      <c r="J8" s="18">
+        <f t="shared" si="1"/>
+        <v>1.8068541684361237</v>
+      </c>
+      <c r="K8" s="18">
+        <f t="shared" si="2"/>
+        <v>0.11947089146574735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="26.25" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B9" s="2">
+        <v>115259</v>
+      </c>
+      <c r="C9" s="2">
+        <v>198804</v>
+      </c>
+      <c r="D9" s="2">
         <v>250409</v>
       </c>
-      <c r="C9" s="2">
+      <c r="E9" s="2">
         <v>383067</v>
       </c>
-      <c r="D9" s="2">
+      <c r="F9" s="2">
         <v>687429</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="23">
+      <c r="H9" s="18">
+        <f t="shared" si="3"/>
+        <v>0.72484578210812167</v>
+      </c>
+      <c r="I9" s="18">
+        <f t="shared" si="4"/>
+        <v>0.25957727208708076</v>
+      </c>
+      <c r="J9" s="18">
+        <f t="shared" si="1"/>
+        <v>0.52976530396271704</v>
+      </c>
+      <c r="K9" s="18">
+        <f t="shared" si="2"/>
+        <v>0.79453985856260134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="24" customHeight="1">
       <c r="A10" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="8">
         <f>SUM(B4:B9)</f>
-        <v>3219801</v>
+        <v>1778294</v>
       </c>
       <c r="C10" s="8">
         <f>SUM(C4:C9)</f>
-        <v>7761629</v>
+        <v>2111905</v>
       </c>
       <c r="D10" s="8">
         <f>SUM(D4:D9)</f>
+        <v>3219801</v>
+      </c>
+      <c r="E10" s="8">
+        <f>SUM(E4:E9)</f>
+        <v>7761629</v>
+      </c>
+      <c r="F10" s="8">
+        <f>SUM(F4:F9)</f>
         <v>10520928</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="23">
+      <c r="H10" s="18">
+        <f t="shared" si="3"/>
+        <v>0.18760171265268846</v>
+      </c>
+      <c r="I10" s="18">
+        <f t="shared" si="4"/>
+        <v>0.52459556656194284</v>
+      </c>
+      <c r="J10" s="18">
+        <f t="shared" si="1"/>
+        <v>1.4105927664473674</v>
+      </c>
+      <c r="K10" s="18">
+        <f t="shared" si="2"/>
+        <v>0.35550513944946349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="23.25" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B11" s="2">
+        <v>91496</v>
+      </c>
+      <c r="C11" s="2">
+        <v>142402</v>
+      </c>
+      <c r="D11" s="2">
         <v>149194</v>
       </c>
-      <c r="C11" s="2">
+      <c r="E11" s="2">
         <v>233520</v>
       </c>
-      <c r="D11" s="2">
+      <c r="F11" s="2">
         <v>282140</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="23">
+      <c r="H11" s="18">
+        <f t="shared" si="3"/>
+        <v>0.55637404913876021</v>
+      </c>
+      <c r="I11" s="18">
+        <f t="shared" si="4"/>
+        <v>4.7695959326413954E-2</v>
+      </c>
+      <c r="J11" s="18">
+        <f t="shared" si="1"/>
+        <v>0.56521039720095978</v>
+      </c>
+      <c r="K11" s="18">
+        <f t="shared" si="2"/>
+        <v>0.20820486467968483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="23.25">
       <c r="A12" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" s="2">
+        <v>58327</v>
+      </c>
+      <c r="C12" s="2">
+        <v>261705</v>
+      </c>
+      <c r="D12" s="2">
+        <v>266345</v>
+      </c>
+      <c r="E12" s="2">
+        <v>316701</v>
+      </c>
+      <c r="F12" s="2">
+        <v>519276</v>
+      </c>
+      <c r="H12" s="18">
+        <f t="shared" si="3"/>
+        <v>3.4868585732165207</v>
+      </c>
+      <c r="I12" s="18">
+        <f t="shared" si="4"/>
+        <v>1.7729886704495521E-2</v>
+      </c>
+      <c r="J12" s="18">
+        <f t="shared" si="1"/>
+        <v>0.18906305731288367</v>
+      </c>
+      <c r="K12" s="18">
+        <f t="shared" si="2"/>
+        <v>0.6396411757462086</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A13" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B13" s="2">
+        <v>14334</v>
+      </c>
+      <c r="C13" s="2">
+        <v>77102</v>
+      </c>
+      <c r="D13" s="2">
+        <v>69079</v>
+      </c>
+      <c r="E13" s="2">
+        <v>137612</v>
+      </c>
+      <c r="F13" s="2">
+        <v>257049</v>
+      </c>
+      <c r="H13" s="18">
+        <f t="shared" si="3"/>
+        <v>4.3789591181805498</v>
+      </c>
+      <c r="I13" s="18">
+        <f t="shared" si="4"/>
+        <v>-0.10405696350289227</v>
+      </c>
+      <c r="J13" s="18">
+        <f t="shared" si="1"/>
+        <v>0.99209600602209069</v>
+      </c>
+      <c r="K13" s="18">
+        <f t="shared" si="2"/>
+        <v>0.86792576228817253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A14" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="B12" s="2">
-        <v>266345</v>
-      </c>
-      <c r="C12" s="2">
-        <v>316701</v>
-      </c>
-      <c r="D12" s="2">
-        <v>519276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="23">
-      <c r="A13" s="11" t="s">
+      <c r="B14" s="2">
+        <v>203667</v>
+      </c>
+      <c r="C14" s="2">
+        <v>464680</v>
+      </c>
+      <c r="D14" s="2">
+        <v>537303</v>
+      </c>
+      <c r="E14" s="2">
+        <v>463950</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1526430</v>
+      </c>
+      <c r="H14" s="18">
+        <f t="shared" si="3"/>
+        <v>1.2815674606097207</v>
+      </c>
+      <c r="I14" s="18">
+        <f t="shared" si="4"/>
+        <v>0.15628604631144014</v>
+      </c>
+      <c r="J14" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.13652073411092067</v>
+      </c>
+      <c r="K14" s="18">
+        <f t="shared" si="2"/>
+        <v>2.2900743614613646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2">
+        <v>149000</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:12" ht="25.5" customHeight="1">
+      <c r="A16" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="B13" s="2">
-        <v>69079</v>
-      </c>
-      <c r="C13" s="2">
-        <v>137612</v>
-      </c>
-      <c r="D13" s="2">
-        <v>257049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="23">
-      <c r="A14" s="11" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="2">
+        <v>113148</v>
+      </c>
+      <c r="E16" s="2">
+        <v>456888</v>
+      </c>
+      <c r="F16" s="2">
+        <v>449406</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18">
+        <f t="shared" ref="J16:K18" si="5">(E16-D16)/ABS(D16)</f>
+        <v>3.0379679711528262</v>
+      </c>
+      <c r="K16" s="18">
+        <f t="shared" si="5"/>
+        <v>-1.6376004622577087E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="24" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" s="2">
+        <v>41152</v>
+      </c>
+      <c r="C17" s="2">
+        <v>74229</v>
+      </c>
+      <c r="D17" s="2">
+        <v>196388</v>
+      </c>
+      <c r="E17" s="2">
+        <v>499250</v>
+      </c>
+      <c r="F17" s="2">
+        <v>370535</v>
+      </c>
+      <c r="H17" s="18">
+        <f t="shared" si="3"/>
+        <v>0.80377624416796267</v>
+      </c>
+      <c r="I17" s="18">
+        <f t="shared" si="4"/>
+        <v>1.645704509019386</v>
+      </c>
+      <c r="J17" s="18">
+        <f t="shared" si="5"/>
+        <v>1.5421614355255922</v>
+      </c>
+      <c r="K17" s="18">
+        <f t="shared" si="5"/>
+        <v>-0.25781672508763143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="23.25">
+      <c r="A18" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="8">
+        <f>B10+SUM(B11:B17)</f>
+        <v>2187270</v>
+      </c>
+      <c r="C18" s="8">
+        <f>C10+SUM(C11:C17)</f>
+        <v>3281023</v>
+      </c>
+      <c r="D18" s="8">
+        <f>D10+SUM(D11:D17)</f>
+        <v>4551258</v>
+      </c>
+      <c r="E18" s="8">
+        <f>SUM(E10:E17)</f>
+        <v>9869550</v>
+      </c>
+      <c r="F18" s="8">
+        <f>SUM(F10:F17)</f>
+        <v>13925764</v>
+      </c>
+      <c r="H18" s="18">
+        <f t="shared" si="3"/>
+        <v>0.5000539485294454</v>
+      </c>
+      <c r="I18" s="18">
+        <f t="shared" si="4"/>
+        <v>0.38714602122569697</v>
+      </c>
+      <c r="J18" s="18">
+        <f t="shared" si="5"/>
+        <v>1.1685323046946581</v>
+      </c>
+      <c r="K18" s="18">
+        <f t="shared" si="5"/>
+        <v>0.41098266891600932</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A19" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="126"/>
+    </row>
+    <row r="20" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="127"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" ht="23.25" customHeight="1">
+      <c r="A21" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B21" s="2">
+        <v>733736</v>
+      </c>
+      <c r="C21" s="2">
+        <v>749215</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1273135</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3009051</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3979624</v>
+      </c>
+      <c r="H21" s="18">
+        <f t="shared" ref="H21:I21" si="6">(C21-B21)/ABS(B21)</f>
+        <v>2.1096143572074968E-2</v>
+      </c>
+      <c r="I21" s="18">
+        <f t="shared" si="6"/>
+        <v>0.69929192554874098</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" ref="J21:K24" si="7">(E21-D21)/ABS(D21)</f>
+        <v>1.3634971939346574</v>
+      </c>
+      <c r="K21" s="18">
+        <f t="shared" si="7"/>
+        <v>0.32255119637387336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="23.25" customHeight="1">
+      <c r="A22" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="B14" s="2">
-        <v>537303</v>
-      </c>
-      <c r="C14" s="2">
-        <v>463950</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1526430</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="25">
-      <c r="A15" s="11" t="s">
+      <c r="B22" s="2">
+        <v>114788</v>
+      </c>
+      <c r="C22" s="2">
+        <v>54137</v>
+      </c>
+      <c r="D22" s="2">
+        <v>95834</v>
+      </c>
+      <c r="E22" s="2">
+        <v>239362</v>
+      </c>
+      <c r="F22" s="2">
+        <v>254611</v>
+      </c>
+      <c r="H22" s="18">
+        <f t="shared" ref="H22:H31" si="8">(C22-B22)/ABS(B22)</f>
+        <v>-0.52837404606753324</v>
+      </c>
+      <c r="I22" s="18">
+        <f t="shared" ref="I22:I31" si="9">(D22-C22)/ABS(C22)</f>
+        <v>0.77021260875187025</v>
+      </c>
+      <c r="J22" s="18">
+        <f t="shared" si="7"/>
+        <v>1.497673059665672</v>
+      </c>
+      <c r="K22" s="18">
+        <f t="shared" si="7"/>
+        <v>6.3706854053692738E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="23.25" customHeight="1">
+      <c r="A23" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" s="2">
+        <v>124303</v>
+      </c>
+      <c r="C23" s="2">
+        <v>215189</v>
+      </c>
+      <c r="D23" s="2">
+        <v>297841</v>
+      </c>
+      <c r="E23" s="2">
+        <v>360850</v>
+      </c>
+      <c r="F23" s="2">
+        <v>639309</v>
+      </c>
+      <c r="H23" s="18">
+        <f t="shared" si="8"/>
+        <v>0.73116497590564988</v>
+      </c>
+      <c r="I23" s="18">
+        <f t="shared" si="9"/>
+        <v>0.3840902648369573</v>
+      </c>
+      <c r="J23" s="18">
+        <f t="shared" si="7"/>
+        <v>0.21155247262801294</v>
+      </c>
+      <c r="K23" s="18">
+        <f t="shared" si="7"/>
+        <v>0.77167521130663708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="23.25" customHeight="1">
+      <c r="A24" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="B15" s="2">
-        <v>113148</v>
-      </c>
-      <c r="C15" s="2">
-        <v>456888</v>
-      </c>
-      <c r="D15" s="2">
-        <v>449406</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="23">
-      <c r="A16" s="11" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="2">
+        <v>27275</v>
+      </c>
+      <c r="E24" s="2">
+        <v>52747</v>
+      </c>
+      <c r="F24" s="2">
+        <v>64027</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18">
+        <f t="shared" si="7"/>
+        <v>0.93389550870760774</v>
+      </c>
+      <c r="K24" s="18">
+        <f t="shared" si="7"/>
+        <v>0.21385102470282671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="23.25">
+      <c r="A25" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="B16" s="2">
-        <v>196388</v>
-      </c>
-      <c r="C16" s="2">
-        <v>499250</v>
-      </c>
-      <c r="D16" s="2">
-        <v>370535</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="23">
-      <c r="A17" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="8">
-        <f>B10+SUM(B11:B16)</f>
-        <v>4551258</v>
-      </c>
-      <c r="C17" s="8">
-        <f>SUM(C10:C16)</f>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="2">
+        <v>464094</v>
+      </c>
+      <c r="F25" s="2">
+        <v>497533</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18">
+        <f>(F25-E25)/ABS(E25)</f>
+        <v>7.2052213560183931E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="24" customHeight="1">
+      <c r="A26" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="8">
+        <f>SUM(B21:B25)</f>
+        <v>972827</v>
+      </c>
+      <c r="C26" s="8">
+        <f>SUM(C21:C25)</f>
+        <v>1018541</v>
+      </c>
+      <c r="D26" s="8">
+        <f>SUM(D21:D25)</f>
+        <v>1694085</v>
+      </c>
+      <c r="E26" s="8">
+        <f>SUM(E21:E25)</f>
+        <v>4126104</v>
+      </c>
+      <c r="F26" s="8">
+        <f>SUM(F21:F25)</f>
+        <v>5435104</v>
+      </c>
+      <c r="H26" s="18">
+        <f>(C26-B26)/ABS(B26)</f>
+        <v>4.6990883271126313E-2</v>
+      </c>
+      <c r="I26" s="18">
+        <f t="shared" si="9"/>
+        <v>0.6632467421537277</v>
+      </c>
+      <c r="J26" s="18">
+        <f>(E26-D26)/ABS(D26)</f>
+        <v>1.4355944359344426</v>
+      </c>
+      <c r="K26" s="18">
+        <f>(F26-E26)/ABS(E26)</f>
+        <v>0.3172484261181977</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="23.25">
+      <c r="A27" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" s="8">
+        <v>358572</v>
+      </c>
+      <c r="C27" s="8">
+        <v>899695</v>
+      </c>
+      <c r="D27" s="8">
+        <v>938832</v>
+      </c>
+      <c r="E27" s="8">
+        <v>2586924</v>
+      </c>
+      <c r="F27" s="8">
+        <v>4559208</v>
+      </c>
+      <c r="H27" s="18">
+        <f t="shared" si="8"/>
+        <v>1.5091055631783854</v>
+      </c>
+      <c r="I27" s="18">
+        <f t="shared" si="9"/>
+        <v>4.3500297322981676E-2</v>
+      </c>
+      <c r="J27" s="18">
+        <f>(E27-D27)/ABS(D27)</f>
+        <v>1.7554706273326857</v>
+      </c>
+      <c r="K27" s="18">
+        <f>(F27-E27)/ABS(E27)</f>
+        <v>0.76240508031932908</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="23.25" customHeight="1">
+      <c r="A28" s="133" t="s">
+        <v>261</v>
+      </c>
+      <c r="B28" s="135"/>
+      <c r="C28" s="134">
+        <v>149000</v>
+      </c>
+      <c r="D28" s="135"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" spans="1:11" ht="23.25" customHeight="1">
+      <c r="A29" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="2">
+        <v>108830</v>
+      </c>
+      <c r="E29" s="2">
+        <v>389662</v>
+      </c>
+      <c r="F29" s="2">
+        <v>395017</v>
+      </c>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18">
+        <f t="shared" ref="J29:K31" si="10">(E29-D29)/ABS(D29)</f>
+        <v>2.580464945327575</v>
+      </c>
+      <c r="K29" s="18">
+        <f t="shared" si="10"/>
+        <v>1.374267955304854E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="24" customHeight="1">
+      <c r="A30" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" s="2">
+        <v>69538</v>
+      </c>
+      <c r="C30" s="2">
+        <v>93286</v>
+      </c>
+      <c r="D30" s="2">
+        <v>94461</v>
+      </c>
+      <c r="E30" s="2">
+        <v>85291</v>
+      </c>
+      <c r="F30" s="2">
+        <v>222846</v>
+      </c>
+      <c r="H30" s="18">
+        <f t="shared" si="8"/>
+        <v>0.3415111162242227</v>
+      </c>
+      <c r="I30" s="18">
+        <f t="shared" si="9"/>
+        <v>1.2595673520142358E-2</v>
+      </c>
+      <c r="J30" s="18">
+        <f t="shared" si="10"/>
+        <v>-9.7077100602364991E-2</v>
+      </c>
+      <c r="K30" s="18">
+        <f t="shared" si="10"/>
+        <v>1.6127727427278375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="23.25">
+      <c r="A31" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="B31" s="8">
+        <f>B26+SUM(B27:B30)</f>
+        <v>1400937</v>
+      </c>
+      <c r="C31" s="8">
+        <f>C26+SUM(C27:C30)</f>
+        <v>2160522</v>
+      </c>
+      <c r="D31" s="8">
+        <f>D26+SUM(D27:D30)</f>
+        <v>2836208</v>
+      </c>
+      <c r="E31" s="8">
+        <f>E26+SUM(E27:E30)</f>
+        <v>7187981</v>
+      </c>
+      <c r="F31" s="8">
+        <f>F26+SUM(F27:F30)</f>
+        <v>10612175</v>
+      </c>
+      <c r="H31" s="18">
+        <f t="shared" si="8"/>
+        <v>0.54219782902443148</v>
+      </c>
+      <c r="I31" s="18">
+        <f t="shared" si="9"/>
+        <v>0.31274201327271833</v>
+      </c>
+      <c r="J31" s="18">
+        <f t="shared" si="10"/>
+        <v>1.5343631355669261</v>
+      </c>
+      <c r="K31" s="18">
+        <f t="shared" si="10"/>
+        <v>0.47637771997449629</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="23.25" customHeight="1">
+      <c r="A32" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A33" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="1:11" ht="23.25">
+      <c r="A34" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+    </row>
+    <row r="35" spans="1:11" ht="23.25">
+      <c r="A35" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+    </row>
+    <row r="36" spans="1:11" ht="23.25">
+      <c r="A36" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+    </row>
+    <row r="37" spans="1:11" ht="23.25" customHeight="1">
+      <c r="A37" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1630386</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2012328</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2233749</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2955464</v>
+      </c>
+      <c r="F37" s="2">
+        <v>3317255</v>
+      </c>
+      <c r="H37" s="18">
+        <f t="shared" ref="H37:I37" si="11">(C37-B37)/ABS(B37)</f>
+        <v>0.23426476920189451</v>
+      </c>
+      <c r="I37" s="18">
+        <f t="shared" si="11"/>
+        <v>0.11003226114231875</v>
+      </c>
+      <c r="J37" s="18">
+        <f t="shared" ref="J37:K40" si="12">(E37-D37)/ABS(D37)</f>
+        <v>0.32309583574519785</v>
+      </c>
+      <c r="K37" s="18">
+        <f t="shared" si="12"/>
+        <v>0.12241428080328504</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="48" customHeight="1">
+      <c r="A38" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38" s="2">
+        <v>-1318</v>
+      </c>
+      <c r="C38" s="2">
+        <v>-6053</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1629</v>
+      </c>
+      <c r="E38" s="2">
+        <v>23328</v>
+      </c>
+      <c r="F38" s="2">
+        <v>-16435</v>
+      </c>
+      <c r="H38" s="18">
+        <f t="shared" ref="H38:H40" si="13">(C38-B38)/ABS(B38)</f>
+        <v>-3.5925644916540214</v>
+      </c>
+      <c r="I38" s="18">
+        <f t="shared" ref="I38:I40" si="14">(D38-C38)/ABS(C38)</f>
+        <v>1.2691227490500578</v>
+      </c>
+      <c r="J38" s="18">
+        <f t="shared" si="12"/>
+        <v>13.320441988950277</v>
+      </c>
+      <c r="K38" s="18">
+        <f t="shared" si="12"/>
+        <v>-1.7045181755829903</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="60" customHeight="1">
+      <c r="A39" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B39" s="2">
+        <v>-842735</v>
+      </c>
+      <c r="C39" s="2">
+        <v>-885774</v>
+      </c>
+      <c r="D39" s="2">
+        <v>-510328</v>
+      </c>
+      <c r="E39" s="2">
+        <v>-297223</v>
+      </c>
+      <c r="F39" s="2">
+        <v>-27965</v>
+      </c>
+      <c r="H39" s="18">
+        <f t="shared" si="13"/>
+        <v>-5.1070621251045702E-2</v>
+      </c>
+      <c r="I39" s="18">
+        <f t="shared" si="14"/>
+        <v>0.42386206865408105</v>
+      </c>
+      <c r="J39" s="18">
+        <f t="shared" si="12"/>
+        <v>0.41758437710648838</v>
+      </c>
+      <c r="K39" s="18">
+        <f t="shared" si="12"/>
+        <v>0.90591239574326343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="60" customHeight="1">
+      <c r="A40" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="B40" s="8">
+        <f>SUM(B37:B39)</f>
+        <v>786333</v>
+      </c>
+      <c r="C40" s="8">
+        <f>SUM(C37:C39)</f>
+        <v>1120501</v>
+      </c>
+      <c r="D40" s="8">
+        <f>SUM(D37:D39)</f>
+        <v>1725050</v>
+      </c>
+      <c r="E40" s="8">
+        <f>SUM(E37:E39)</f>
+        <v>2681569</v>
+      </c>
+      <c r="F40" s="8">
+        <f>SUM(F37:F39)</f>
+        <v>3272855</v>
+      </c>
+      <c r="H40" s="18">
+        <f t="shared" si="13"/>
+        <v>0.42497008264946273</v>
+      </c>
+      <c r="I40" s="18">
+        <f t="shared" si="14"/>
+        <v>0.53953454749259488</v>
+      </c>
+      <c r="J40" s="18">
+        <f t="shared" si="12"/>
+        <v>0.55448769600881131</v>
+      </c>
+      <c r="K40" s="18">
+        <f t="shared" si="12"/>
+        <v>0.2205000132385182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="23.25">
+      <c r="A41" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="2">
+        <v>40734</v>
+      </c>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+    </row>
+    <row r="42" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A42" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="B42" s="8">
+        <f>B40</f>
+        <v>786333</v>
+      </c>
+      <c r="C42" s="8">
+        <f>C40</f>
+        <v>1120501</v>
+      </c>
+      <c r="D42" s="8">
+        <f>D40</f>
+        <v>1725050</v>
+      </c>
+      <c r="E42" s="8">
+        <f>E40</f>
+        <v>2681569</v>
+      </c>
+      <c r="F42" s="8">
+        <f>F40</f>
+        <v>3272855</v>
+      </c>
+      <c r="H42" s="18">
+        <f t="shared" ref="H42:I42" si="15">(C42-B42)/ABS(B42)</f>
+        <v>0.42497008264946273</v>
+      </c>
+      <c r="I42" s="18">
+        <f t="shared" si="15"/>
+        <v>0.53953454749259488</v>
+      </c>
+      <c r="J42" s="18">
+        <f t="shared" ref="J42:K44" si="16">(E42-D42)/ABS(D42)</f>
+        <v>0.55448769600881131</v>
+      </c>
+      <c r="K42" s="18">
+        <f t="shared" si="16"/>
+        <v>0.2205000132385182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="24" customHeight="1">
+      <c r="A43" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="B43" s="8">
+        <f>B42+B31</f>
+        <v>2187270</v>
+      </c>
+      <c r="C43" s="8">
+        <f>C42+C31</f>
+        <v>3281023</v>
+      </c>
+      <c r="D43" s="8">
+        <f>D42+D31</f>
+        <v>4561258</v>
+      </c>
+      <c r="E43" s="8">
+        <f>E42+E31</f>
         <v>9869550</v>
       </c>
-      <c r="D17" s="8">
-        <f>SUM(D10:D16)</f>
+      <c r="F43" s="8">
+        <f>F42+F31+F41</f>
         <v>13925764</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="23">
-      <c r="A18" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-    </row>
-    <row r="19" spans="1:5" ht="23">
-      <c r="A19" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="127"/>
-    </row>
-    <row r="20" spans="1:5" ht="23">
-      <c r="A20" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1273135</v>
-      </c>
-      <c r="C20" s="2">
-        <v>3009051</v>
-      </c>
-      <c r="D20" s="2">
-        <v>3979624</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="23">
-      <c r="A21" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="B21" s="2">
-        <v>95834</v>
-      </c>
-      <c r="C21" s="2">
-        <v>239362</v>
-      </c>
-      <c r="D21" s="2">
-        <v>254611</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="23">
-      <c r="A22" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="B22" s="2">
-        <v>297841</v>
-      </c>
-      <c r="C22" s="2">
-        <v>360850</v>
-      </c>
-      <c r="D22" s="2">
-        <v>639309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="23">
-      <c r="A23" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="B23" s="2">
-        <v>27275</v>
-      </c>
-      <c r="C23" s="2">
-        <v>52747</v>
-      </c>
-      <c r="D23" s="2">
-        <v>64027</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="23">
-      <c r="A24" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="2">
-        <v>464094</v>
-      </c>
-      <c r="D24" s="2">
-        <v>497533</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="23">
-      <c r="A25" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="8">
-        <f>SUM(B20:B24)</f>
-        <v>1694085</v>
-      </c>
-      <c r="C25" s="8">
-        <f>SUM(C20:C24)</f>
-        <v>4126104</v>
-      </c>
-      <c r="D25" s="8">
-        <f>SUM(D20:D24)</f>
-        <v>5435104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="23">
-      <c r="A26" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="B26" s="8">
-        <v>938832</v>
-      </c>
-      <c r="C26" s="8">
-        <v>2586924</v>
-      </c>
-      <c r="D26" s="8">
-        <v>4559208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="23">
-      <c r="A27" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="B27" s="2">
-        <v>108830</v>
-      </c>
-      <c r="C27" s="2">
-        <v>389662</v>
-      </c>
-      <c r="D27" s="2">
-        <v>395017</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="23">
-      <c r="A28" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="B28" s="2">
-        <v>94461</v>
-      </c>
-      <c r="C28" s="2">
-        <v>85291</v>
-      </c>
-      <c r="D28" s="2">
-        <v>222846</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="23">
-      <c r="A29" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="B29" s="8">
-        <f>B25+SUM(B26:B28)</f>
-        <v>2836208</v>
-      </c>
-      <c r="C29" s="8">
-        <f>C25+SUM(C26:C28)</f>
-        <v>7187981</v>
-      </c>
-      <c r="D29" s="8">
-        <f>D25+SUM(D26:D28)</f>
-        <v>10612175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="23">
-      <c r="A30" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="23">
-      <c r="A31" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="23">
-      <c r="A32" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="23">
-      <c r="A33" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="23">
-      <c r="A34" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="23">
-      <c r="A35" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="B35" s="2">
-        <v>2233749</v>
-      </c>
-      <c r="C35" s="2">
-        <v>2955464</v>
-      </c>
-      <c r="D35" s="2">
-        <v>3317255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="23">
-      <c r="A36" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B36" s="2">
-        <v>1629</v>
-      </c>
-      <c r="C36" s="2">
-        <v>23328</v>
-      </c>
-      <c r="D36" s="2">
-        <v>-16435</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="23">
-      <c r="A37" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="B37" s="2">
-        <v>-510328</v>
-      </c>
-      <c r="C37" s="2">
-        <v>-297223</v>
-      </c>
-      <c r="D37" s="2">
-        <v>-27965</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="23">
-      <c r="A38" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="B38" s="8">
-        <f>SUM(B35:B37)</f>
-        <v>1725050</v>
-      </c>
-      <c r="C38" s="8">
-        <f>SUM(C35:C37)</f>
-        <v>2681569</v>
-      </c>
-      <c r="D38" s="8">
-        <f>SUM(D35:D37)</f>
-        <v>3272855</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="23">
-      <c r="A39" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="2">
-        <v>40734</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="23">
-      <c r="A40" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="B40" s="8">
-        <f>B38</f>
-        <v>1725050</v>
-      </c>
-      <c r="C40" s="8">
-        <f>C38</f>
-        <v>2681569</v>
-      </c>
-      <c r="D40" s="8">
-        <f>D38</f>
-        <v>3272855</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="23">
-      <c r="A41" s="47" t="s">
-        <v>241</v>
-      </c>
-      <c r="B41" s="8">
-        <f>B40+B29</f>
-        <v>4561258</v>
-      </c>
-      <c r="C41" s="8">
-        <f>C40+C29</f>
-        <v>9869550</v>
-      </c>
-      <c r="D41" s="8">
-        <f>D40+D29+D39</f>
-        <v>13925764</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="25">
-      <c r="A42" s="49" t="s">
+      <c r="H43" s="18">
+        <f t="shared" ref="H43:H46" si="17">(C43-B43)/ABS(B43)</f>
+        <v>0.5000539485294454</v>
+      </c>
+      <c r="I43" s="18">
+        <f t="shared" ref="I43:I46" si="18">(D43-C43)/ABS(C43)</f>
+        <v>0.3901938511250912</v>
+      </c>
+      <c r="J43" s="18">
+        <f t="shared" si="16"/>
+        <v>1.1637780629817476</v>
+      </c>
+      <c r="K43" s="18">
+        <f t="shared" si="16"/>
+        <v>0.41098266891600932</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="25.5">
+      <c r="A44" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="136">
-        <f>B10/B25</f>
+      <c r="B44" s="130">
+        <f>B10/B26</f>
+        <v>1.8279653011275385</v>
+      </c>
+      <c r="C44" s="130">
+        <f>C10/C26</f>
+        <v>2.0734609603344394</v>
+      </c>
+      <c r="D44" s="130">
+        <f>D10/D26</f>
         <v>1.9006136055746907</v>
       </c>
-      <c r="C42" s="136">
-        <f t="shared" ref="C42:D42" si="0">C10/C25</f>
+      <c r="E44" s="130">
+        <f>E10/E26</f>
         <v>1.8811035785816355</v>
       </c>
-      <c r="D42" s="136">
-        <f t="shared" si="0"/>
+      <c r="F44" s="130">
+        <f>F10/F26</f>
         <v>1.9357362802993283</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="25">
-      <c r="A43" s="49" t="s">
+      <c r="H44" s="18">
+        <f t="shared" si="17"/>
+        <v>0.13429995583366516</v>
+      </c>
+      <c r="I44" s="18">
+        <f t="shared" si="18"/>
+        <v>-8.3361759910767358E-2</v>
+      </c>
+      <c r="J44" s="18">
+        <f t="shared" si="16"/>
+        <v>-1.0265120135850018E-2</v>
+      </c>
+      <c r="K44" s="18">
+        <f t="shared" si="16"/>
+        <v>2.9042899253259768E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="25.5">
+      <c r="A45" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-    </row>
-    <row r="44" spans="1:4" ht="25">
-      <c r="A44" s="49" t="s">
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+    </row>
+    <row r="46" spans="1:11" ht="25.5">
+      <c r="A46" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="136">
-        <f>B29/B40</f>
+      <c r="B46" s="130">
+        <f>B31/B42</f>
+        <v>1.7816077921186062</v>
+      </c>
+      <c r="C46" s="130">
+        <f>C31/C42</f>
+        <v>1.928174986010722</v>
+      </c>
+      <c r="D46" s="130">
+        <f>D31/D42</f>
         <v>1.6441308947566737</v>
       </c>
-      <c r="C44" s="136">
-        <f t="shared" ref="C44:D44" si="1">C29/C40</f>
+      <c r="E46" s="130">
+        <f t="shared" ref="E46:F46" si="19">E31/E42</f>
         <v>2.6805131622568728</v>
       </c>
-      <c r="D44" s="136">
-        <f t="shared" si="1"/>
+      <c r="F46" s="130">
+        <f t="shared" si="19"/>
         <v>3.2424824808920651</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="25">
-      <c r="A45" s="49" t="s">
+      <c r="H46" s="18">
+        <f t="shared" si="17"/>
+        <v>8.2266812336863906E-2</v>
+      </c>
+      <c r="I46" s="18">
+        <f t="shared" si="18"/>
+        <v>-0.14731240334245721</v>
+      </c>
+      <c r="J46" s="18">
+        <f>(E46-D46)/ABS(D46)</f>
+        <v>0.63035265063465662</v>
+      </c>
+      <c r="K46" s="18">
+        <f>(F46-E46)/ABS(E46)</f>
+        <v>0.20964990082795909</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="25.5">
+      <c r="A47" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="127"/>
-    </row>
-    <row r="46" spans="1:4" ht="25">
-      <c r="A46" s="49" t="s">
+      <c r="B47" s="127"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="127"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+    </row>
+    <row r="48" spans="1:11" ht="25.5">
+      <c r="A48" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="93"/>
-      <c r="C46" s="136">
-        <f>INCOME成長性!C7/('BALANCE SHEET穩定性'!C6+'BALANCE SHEET穩定性'!B6)*0.5</f>
+      <c r="B48" s="130"/>
+      <c r="C48" s="130"/>
+      <c r="D48" s="130">
+        <f>INCOME成長性!B7/('BALANCE SHEET穩定性'!D6+'BALANCE SHEET穩定性'!C6)*0.5</f>
+        <v>2.4713255973440655</v>
+      </c>
+      <c r="E48" s="130">
+        <f>INCOME成長性!C7/('BALANCE SHEET穩定性'!E6+'BALANCE SHEET穩定性'!D6)*0.5</f>
         <v>2.9430015239339435</v>
       </c>
-      <c r="D46" s="136">
-        <f>INCOME成長性!D7/('BALANCE SHEET穩定性'!D6+'BALANCE SHEET穩定性'!C6)*0.5</f>
+      <c r="F48" s="130">
+        <f>INCOME成長性!D7/('BALANCE SHEET穩定性'!F6+'BALANCE SHEET穩定性'!E6)*0.5</f>
         <v>4.020292901411195</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="25">
-      <c r="A47" s="51" t="s">
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18">
+        <f t="shared" ref="I48:J48" si="20">(E48-D48)/ABS(D48)</f>
+        <v>0.19085948330595867</v>
+      </c>
+      <c r="K48" s="18">
+        <f>(F48-E48)/ABS(E48)</f>
+        <v>0.36605192648260126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="25.5">
+      <c r="A49" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="71"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="134"/>
-    </row>
-    <row r="48" spans="1:4" ht="25">
-      <c r="A48" s="51" t="s">
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="129"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+    </row>
+    <row r="50" spans="1:11" ht="25.5">
+      <c r="A50" s="49" t="s">
         <v>56</v>
-      </c>
-      <c r="B48" s="71"/>
-      <c r="C48" s="135">
-        <f>INCOME成長性!C13/(B25+C25)*0.5</f>
-        <v>0.58109530463701442</v>
-      </c>
-      <c r="D48" s="135">
-        <f>INCOME成長性!D13/(C25+D25)*0.5</f>
-        <v>0.69245329669640066</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="25">
-      <c r="A49" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="93"/>
-      <c r="C49" s="136">
-        <f>365/C46</f>
-        <v>124.02304145330525</v>
-      </c>
-      <c r="D49" s="136">
-        <f>365/D46</f>
-        <v>90.789404889349839</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="25">
-      <c r="A50" s="49" t="s">
-        <v>58</v>
       </c>
       <c r="B50" s="93"/>
       <c r="C50" s="93"/>
-      <c r="D50" s="137"/>
-    </row>
-    <row r="51" spans="1:4" ht="25">
+      <c r="D50" s="130">
+        <f>INCOME成長性!B13/(C26+D26)*0.5</f>
+        <v>0.52049471619014198</v>
+      </c>
+      <c r="E50" s="130">
+        <f>INCOME成長性!C13/(D26+E26)*0.5</f>
+        <v>0.58109530463701442</v>
+      </c>
+      <c r="F50" s="130">
+        <f>INCOME成長性!D13/(E26+F26)*0.5</f>
+        <v>0.69245329669640066</v>
+      </c>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18">
+        <f>(E50-D50)/ABS(D50)</f>
+        <v>0.11642882542679728</v>
+      </c>
+      <c r="K50" s="18">
+        <f>(F50-E50)/ABS(E50)</f>
+        <v>0.19163464438754474</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="25.5">
       <c r="A51" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="93"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="130">
+        <f>365/D48</f>
+        <v>147.69401506311658</v>
+      </c>
+      <c r="E51" s="130">
+        <f>365/E48</f>
+        <v>124.02304145330525</v>
+      </c>
+      <c r="F51" s="130">
+        <f>365/F48</f>
+        <v>90.789404889349839</v>
+      </c>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18">
+        <f>(E51-D51)/ABS(D51)</f>
+        <v>-0.16027036437255504</v>
+      </c>
+      <c r="K51" s="18">
+        <f>(F51-E51)/ABS(E51)</f>
+        <v>-0.26796340562626741</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="25.5">
+      <c r="A52" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="131"/>
+      <c r="C52" s="131"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="131"/>
+      <c r="F52" s="132"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+    </row>
+    <row r="53" spans="1:11" ht="25.5">
+      <c r="A53" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="93"/>
-      <c r="C51" s="136">
-        <f>365/C48</f>
+      <c r="B53" s="93"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="130">
+        <f>365/D50</f>
+        <v>701.25591796913034</v>
+      </c>
+      <c r="E53" s="130">
+        <f>365/E50</f>
         <v>628.12415981918832</v>
       </c>
-      <c r="D51" s="136">
-        <f>365/D48</f>
+      <c r="F53" s="130">
+        <f>365/F50</f>
         <v>527.11136150461664</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="124"/>
-      <c r="D52" s="124"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="124"/>
-      <c r="D53" s="124"/>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18">
+        <f>(E53-D53)/ABS(D53)</f>
+        <v>-0.10428683206230185</v>
+      </c>
+      <c r="K53" s="18">
+        <f>(F53-E53)/ABS(E53)</f>
+        <v>-0.16081661043518722</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="21" customHeight="1">
       <c r="A54" s="124"/>
-      <c r="D54" s="124"/>
-    </row>
-    <row r="55" spans="1:4" ht="25">
-      <c r="A55" s="7" t="s">
+      <c r="F54" s="124"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="124"/>
+      <c r="F55" s="124"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="124"/>
+      <c r="F56" s="124"/>
+    </row>
+    <row r="57" spans="1:11" ht="25.5">
+      <c r="A57" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="124"/>
-    </row>
-    <row r="56" spans="1:4" ht="25">
-      <c r="A56" s="7" t="s">
+      <c r="F57" s="124"/>
+    </row>
+    <row r="58" spans="1:11" ht="25.5">
+      <c r="A58" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="124"/>
-    </row>
-    <row r="57" spans="1:4" ht="25">
-      <c r="A57" s="7" t="s">
+      <c r="F58" s="124"/>
+    </row>
+    <row r="59" spans="1:11" ht="25.5">
+      <c r="A59" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="124"/>
-    </row>
-    <row r="58" spans="1:4" ht="25">
-      <c r="A58" s="7" t="s">
+      <c r="F59" s="124"/>
+    </row>
+    <row r="60" spans="1:11" ht="25.5">
+      <c r="A60" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="124"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="124"/>
-      <c r="D59" s="124"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="124"/>
-      <c r="D60" s="124"/>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="F60" s="124"/>
+    </row>
+    <row r="61" spans="1:11" ht="187.5" customHeight="1">
       <c r="A61" s="124"/>
-      <c r="D61" s="124"/>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="F61" s="124"/>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="124"/>
-      <c r="D62" s="124"/>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="F62" s="124"/>
+    </row>
+    <row r="63" spans="1:11" ht="247.5" customHeight="1">
       <c r="A63" s="124"/>
-      <c r="D63" s="124"/>
-    </row>
-    <row r="64" spans="1:4" ht="22">
-      <c r="A64" s="123"/>
-      <c r="D64" s="68"/>
-    </row>
-    <row r="65" spans="1:4" ht="22">
+      <c r="F63" s="124"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="124"/>
+      <c r="F64" s="124"/>
+    </row>
+    <row r="65" spans="1:6" ht="244.5" customHeight="1">
       <c r="A65" s="124"/>
-      <c r="D65" s="68"/>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="F65" s="124"/>
+    </row>
+    <row r="66" spans="1:6" ht="19.5">
+      <c r="A66" s="123"/>
+      <c r="F66" s="68"/>
+    </row>
+    <row r="67" spans="1:6" ht="19.5">
       <c r="A67" s="124"/>
-      <c r="D67" s="124"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="124"/>
-      <c r="D68" s="124"/>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="F67" s="68"/>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="124"/>
-      <c r="D69" s="124"/>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="F69" s="124"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="124"/>
+      <c r="F70" s="124"/>
+    </row>
+    <row r="71" spans="1:6" ht="21" customHeight="1">
       <c r="A71" s="124"/>
-      <c r="D71" s="124"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="124"/>
-      <c r="D72" s="124"/>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="F71" s="124"/>
+    </row>
+    <row r="73" spans="1:6" ht="33.75" customHeight="1">
       <c r="A73" s="124"/>
-      <c r="D73" s="124"/>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="F73" s="124"/>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="124"/>
-      <c r="D74" s="124"/>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="F74" s="124"/>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="124"/>
-      <c r="D75" s="124"/>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="F75" s="124"/>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="124"/>
-      <c r="D76" s="124"/>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="F76" s="124"/>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="124"/>
-      <c r="D77" s="124"/>
-    </row>
-    <row r="78" spans="1:4" ht="22">
+      <c r="F77" s="124"/>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="124"/>
-      <c r="D78" s="68"/>
-    </row>
-    <row r="79" spans="1:4" ht="22">
+      <c r="F78" s="124"/>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="124"/>
-      <c r="D79" s="68"/>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="67"/>
-      <c r="D80" s="124"/>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="67"/>
-      <c r="D81" s="124"/>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="F79" s="124"/>
+    </row>
+    <row r="80" spans="1:6" ht="19.5">
+      <c r="A80" s="124"/>
+      <c r="F80" s="68"/>
+    </row>
+    <row r="81" spans="1:6" ht="19.5">
+      <c r="A81" s="124"/>
+      <c r="F81" s="68"/>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="67"/>
-      <c r="D82" s="124"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="124"/>
-      <c r="D83" s="124"/>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="124"/>
-      <c r="D84" s="124"/>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="F82" s="124"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="67"/>
+      <c r="F83" s="124"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="67"/>
+      <c r="F84" s="124"/>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="124"/>
-      <c r="D85" s="125"/>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="F85" s="124"/>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="124"/>
-      <c r="D86" s="124"/>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="F86" s="124"/>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="124"/>
-      <c r="D87" s="124"/>
+      <c r="F87" s="125"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="124"/>
+      <c r="F88" s="124"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="124"/>
+      <c r="F89" s="124"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{74BD3701-537A-9341-955C-39F646DDB93D}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7079,12 +9148,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B41:D41</xm:f>
-              <xm:sqref>E41</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H53:K53</xm:f>
+              <xm:sqref>L53</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{7ED83FDB-E893-3944-9068-6CB4D0EA3EAE}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7095,12 +9164,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B40:D40</xm:f>
-              <xm:sqref>E40</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H52:K52</xm:f>
+              <xm:sqref>L52</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{5944CFA9-AE8A-FA4A-93D7-739D9B8528A7}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7111,12 +9180,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B37:D37</xm:f>
-              <xm:sqref>E37</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H51:K51</xm:f>
+              <xm:sqref>L51</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{09AD54D7-C377-294D-8DC8-D37EBDA65760}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7127,12 +9196,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B36:D36</xm:f>
-              <xm:sqref>E36</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H50:K50</xm:f>
+              <xm:sqref>L50</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{B87571F2-3B74-2242-B1B9-30D2F83F9956}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7143,12 +9212,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B35:D35</xm:f>
-              <xm:sqref>E35</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H49:K49</xm:f>
+              <xm:sqref>L49</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{E0473A98-DB1F-1F41-BA4D-4B6C292FADB3}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7159,12 +9228,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B31:D31</xm:f>
-              <xm:sqref>E31</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H48:K48</xm:f>
+              <xm:sqref>L48</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{C6C37B07-BC81-644F-9FC5-BF7E07EF0DE9}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7175,12 +9244,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B30:D30</xm:f>
-              <xm:sqref>E30</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H47:K47</xm:f>
+              <xm:sqref>L47</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{8EBEBDFF-E164-D746-9AA7-DBF0E73C17B6}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7191,12 +9260,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B29:D29</xm:f>
-              <xm:sqref>E29</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H46:K46</xm:f>
+              <xm:sqref>L46</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{3D7935F8-B549-1743-A139-245C699A30FA}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7207,12 +9276,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B28:D28</xm:f>
-              <xm:sqref>E28</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H45:K45</xm:f>
+              <xm:sqref>L45</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{84F32317-B8D2-C84A-88D0-95F759D52596}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7223,12 +9292,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B27:D27</xm:f>
-              <xm:sqref>E27</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H44:K44</xm:f>
+              <xm:sqref>L44</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{1845DF14-694A-A541-B8D9-53E07F4FD68F}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7239,12 +9308,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B26:D26</xm:f>
-              <xm:sqref>E26</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H43:K43</xm:f>
+              <xm:sqref>L43</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{6E885F54-7C05-F348-8A3B-245CE279D559}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7255,12 +9324,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B25:D25</xm:f>
-              <xm:sqref>E25</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H42:K42</xm:f>
+              <xm:sqref>L42</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{4C0B1F92-451B-BA40-A9AB-FB96C5B48CD8}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7271,12 +9340,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B24:D24</xm:f>
-              <xm:sqref>E24</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H41:K41</xm:f>
+              <xm:sqref>L41</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{9243BA95-442F-4645-B890-B8A7EF366A94}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7287,12 +9356,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B23:D23</xm:f>
-              <xm:sqref>E23</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H40:K40</xm:f>
+              <xm:sqref>L40</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{012F4F10-2657-074B-889E-CA0760C0D761}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7303,12 +9372,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B22:D22</xm:f>
-              <xm:sqref>E22</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H39:K39</xm:f>
+              <xm:sqref>L39</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{A5E1EF78-B503-2B49-AD44-EE5788A6D1C6}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7319,12 +9388,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B21:D21</xm:f>
-              <xm:sqref>E21</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H38:K38</xm:f>
+              <xm:sqref>L38</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{C24DF766-A9BA-BB49-B121-5573947660BB}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7335,12 +9404,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B20:D20</xm:f>
-              <xm:sqref>E20</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H37:K37</xm:f>
+              <xm:sqref>L37</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{ECBE4B5A-DAD9-4447-A0D5-05452BA356C9}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7351,12 +9420,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B19:D19</xm:f>
-              <xm:sqref>E19</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H31:K31</xm:f>
+              <xm:sqref>L31</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{D3D96A0F-D906-1A42-8EF6-88504E8F9DF1}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7367,12 +9436,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B17:D17</xm:f>
-              <xm:sqref>E17</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H30:K30</xm:f>
+              <xm:sqref>L30</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{3A0D3D9F-E263-A640-99DF-C3D312C213BC}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7383,12 +9452,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B16:D16</xm:f>
-              <xm:sqref>E16</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H29:K29</xm:f>
+              <xm:sqref>L29</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{E4E7326C-86C5-A341-9DDD-B1542F9C9FA5}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7399,12 +9468,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B15:D15</xm:f>
-              <xm:sqref>E15</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H27:K27</xm:f>
+              <xm:sqref>L27</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{5B161242-AD90-514F-B8EC-E05EFCBB295B}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7415,12 +9484,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B14:D14</xm:f>
-              <xm:sqref>E14</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H26:K26</xm:f>
+              <xm:sqref>L26</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{6B9D22D9-D352-1849-92D5-226F4221A946}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7431,12 +9500,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B13:D13</xm:f>
-              <xm:sqref>E13</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H25:K25</xm:f>
+              <xm:sqref>L25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{8A68F8D6-9E31-B846-B85D-F00B978F3FFE}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7447,12 +9516,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B12:D12</xm:f>
-              <xm:sqref>E12</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H24:K24</xm:f>
+              <xm:sqref>L24</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{10B7A5D3-B3FE-8F43-A793-961E449C7DC1}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7463,12 +9532,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B11:D11</xm:f>
-              <xm:sqref>E11</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H23:K23</xm:f>
+              <xm:sqref>L23</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{091927A4-EF52-C74C-889C-F4CCAAC1D2AF}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7479,12 +9548,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B10:D10</xm:f>
-              <xm:sqref>E10</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H22:K22</xm:f>
+              <xm:sqref>L22</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{E232BF2A-F83E-F449-8754-5BD564A097A3}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7495,12 +9564,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B9:D9</xm:f>
-              <xm:sqref>E9</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H21:K21</xm:f>
+              <xm:sqref>L21</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{43B9705D-66B8-A041-A2BF-AEF30C92B474}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7511,12 +9580,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B8:D8</xm:f>
-              <xm:sqref>E8</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H18:K18</xm:f>
+              <xm:sqref>L18</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{B05C8BE3-9EEC-7748-BD25-AD0C8DC90337}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7527,12 +9596,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B7:D7</xm:f>
-              <xm:sqref>E7</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H17:K17</xm:f>
+              <xm:sqref>L17</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{ACB292C1-0AE1-EE4D-BAE6-2E733C3F8F7E}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7543,12 +9612,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B6:D6</xm:f>
-              <xm:sqref>E6</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H16:K16</xm:f>
+              <xm:sqref>L16</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{0E346F3D-7EAC-D345-849F-E68590B44313}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7559,12 +9628,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B5:D5</xm:f>
-              <xm:sqref>E5</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H15:K15</xm:f>
+              <xm:sqref>L15</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{D8CB3CC5-B997-F74D-B524-EAD751290ADD}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7575,12 +9644,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B4:D4</xm:f>
-              <xm:sqref>E4</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H14:K14</xm:f>
+              <xm:sqref>L14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{70A8414E-18D0-EC4F-B48D-1143A47DEFF8}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7591,12 +9660,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B51:D51</xm:f>
-              <xm:sqref>E51</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H13:K13</xm:f>
+              <xm:sqref>L13</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{0F423B7F-B537-0346-9076-6E5661538E1A}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7607,12 +9676,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B50:D50</xm:f>
-              <xm:sqref>E50</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H12:K12</xm:f>
+              <xm:sqref>L12</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{C01F02EC-433F-1843-A89D-8F31394576E5}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7623,12 +9692,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B49:D49</xm:f>
-              <xm:sqref>E49</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H11:K11</xm:f>
+              <xm:sqref>L11</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{BABEB4FB-C425-084E-A268-6FCFE7A01533}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7639,12 +9708,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B48:D48</xm:f>
-              <xm:sqref>E48</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H10:K10</xm:f>
+              <xm:sqref>L10</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{4FD64722-1444-BB47-9146-B5D0CA399C11}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7655,12 +9724,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B47:D47</xm:f>
-              <xm:sqref>E47</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H9:K9</xm:f>
+              <xm:sqref>L9</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{85103A9E-3AB2-7441-A50E-B5E87DCE894E}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7671,12 +9740,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B46:D46</xm:f>
-              <xm:sqref>E46</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H8:K8</xm:f>
+              <xm:sqref>L8</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{F41F4243-AF37-0448-A83C-63CF3942959F}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7687,12 +9756,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B45:D45</xm:f>
-              <xm:sqref>E45</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H7:K7</xm:f>
+              <xm:sqref>L7</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{7810D8F6-4AA9-494E-ABBB-44204D7ECFB4}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7703,12 +9772,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B44:D44</xm:f>
-              <xm:sqref>E44</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H6:K6</xm:f>
+              <xm:sqref>L6</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{D04D34EA-7481-FE40-A9FE-482FAD027383}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7719,12 +9788,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B43:D43</xm:f>
-              <xm:sqref>E43</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H5:K5</xm:f>
+              <xm:sqref>L5</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{C4EAA661-31A9-404C-BD80-9EF5CD307288}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7735,8 +9804,396 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B42:D42</xm:f>
-              <xm:sqref>E42</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H4:K4</xm:f>
+              <xm:sqref>L4</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B18:F18</xm:f>
+              <xm:sqref>G18</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B17:F17</xm:f>
+              <xm:sqref>G17</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B16:F16</xm:f>
+              <xm:sqref>G16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B15:F15</xm:f>
+              <xm:sqref>G15</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B14:F14</xm:f>
+              <xm:sqref>G14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B13:F13</xm:f>
+              <xm:sqref>G13</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B12:F12</xm:f>
+              <xm:sqref>G12</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B11:F11</xm:f>
+              <xm:sqref>G11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B10:F10</xm:f>
+              <xm:sqref>G10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B9:F9</xm:f>
+              <xm:sqref>G9</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B8:F8</xm:f>
+              <xm:sqref>G8</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B7:F7</xm:f>
+              <xm:sqref>G7</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B6:F6</xm:f>
+              <xm:sqref>G6</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B5:F5</xm:f>
+              <xm:sqref>G5</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B48:F48</xm:f>
+              <xm:sqref>G48</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B4:F4</xm:f>
+              <xm:sqref>G4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B20:F20</xm:f>
+              <xm:sqref>G20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B21:F21</xm:f>
+              <xm:sqref>G21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B22:F22</xm:f>
+              <xm:sqref>G22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B23:F23</xm:f>
+              <xm:sqref>G23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B24:F24</xm:f>
+              <xm:sqref>G24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B25:F25</xm:f>
+              <xm:sqref>G25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B26:F26</xm:f>
+              <xm:sqref>G26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B27:F27</xm:f>
+              <xm:sqref>G27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B28:F28</xm:f>
+              <xm:sqref>G28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B29:F29</xm:f>
+              <xm:sqref>G29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B30:F30</xm:f>
+              <xm:sqref>G30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B31:F31</xm:f>
+              <xm:sqref>G31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B32:F32</xm:f>
+              <xm:sqref>G32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B33:F33</xm:f>
+              <xm:sqref>G33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B34:F34</xm:f>
+              <xm:sqref>G34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B35:F35</xm:f>
+              <xm:sqref>G35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B36:F36</xm:f>
+              <xm:sqref>G36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B37:F37</xm:f>
+              <xm:sqref>G37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B38:F38</xm:f>
+              <xm:sqref>G38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B39:F39</xm:f>
+              <xm:sqref>G39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B40:F40</xm:f>
+              <xm:sqref>G40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B41:F41</xm:f>
+              <xm:sqref>G41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B42:F42</xm:f>
+              <xm:sqref>G42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B43:F43</xm:f>
+              <xm:sqref>G43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B44:F44</xm:f>
+              <xm:sqref>G44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B45:F45</xm:f>
+              <xm:sqref>G45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B46:F46</xm:f>
+              <xm:sqref>G46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B47:F47</xm:f>
+              <xm:sqref>G47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B49:F49</xm:f>
+              <xm:sqref>G49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B50:F50</xm:f>
+              <xm:sqref>G50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B51:F51</xm:f>
+              <xm:sqref>G51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B52:F52</xm:f>
+              <xm:sqref>G52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B53:F53</xm:f>
+              <xm:sqref>G53</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -7747,19 +10204,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1232"/>
   <sheetViews>
     <sheetView zoomScale="54" workbookViewId="0">
       <selection activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="175" style="27" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" customWidth="1"/>
+    <col min="16" max="16" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33" customHeight="1">
@@ -7810,7 +10267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="64" customFormat="1" ht="32">
+    <row r="2" spans="1:16" s="64" customFormat="1" ht="30">
       <c r="A2" s="60" t="s">
         <v>35</v>
       </c>
@@ -7872,7 +10329,7 @@
         <v>-7.8534031413612562E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="23">
+    <row r="4" spans="1:16" ht="23.25">
       <c r="A4" s="34" t="s">
         <v>60</v>
       </c>
@@ -7884,7 +10341,7 @@
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:16" ht="23">
+    <row r="5" spans="1:16" ht="23.25">
       <c r="A5" s="12" t="s">
         <v>80</v>
       </c>
@@ -7910,7 +10367,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="23">
+    <row r="6" spans="1:16" ht="23.25">
       <c r="A6" s="12" t="s">
         <v>81</v>
       </c>
@@ -7936,7 +10393,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="23">
+    <row r="7" spans="1:16" ht="23.25">
       <c r="A7" s="33" t="s">
         <v>82</v>
       </c>
@@ -7962,7 +10419,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="23">
+    <row r="8" spans="1:16" ht="23.25">
       <c r="A8" s="33" t="s">
         <v>83</v>
       </c>
@@ -7988,7 +10445,7 @@
         <v>-482</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="23">
+    <row r="9" spans="1:16" ht="23.25">
       <c r="A9" s="33" t="s">
         <v>84</v>
       </c>
@@ -8014,7 +10471,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="25">
+    <row r="10" spans="1:16" ht="25.5">
       <c r="A10" s="33" t="s">
         <v>85</v>
       </c>
@@ -8040,7 +10497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="23">
+    <row r="11" spans="1:16" ht="23.25">
       <c r="A11" s="33" t="s">
         <v>36</v>
       </c>
@@ -8066,7 +10523,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="23">
+    <row r="12" spans="1:16" ht="23.25">
       <c r="A12" s="34" t="s">
         <v>37</v>
       </c>
@@ -8078,7 +10535,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="1:16" ht="23">
+    <row r="13" spans="1:16" ht="23.25">
       <c r="A13" s="33" t="s">
         <v>86</v>
       </c>
@@ -8128,7 +10585,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="25">
+    <row r="14" spans="1:16" ht="25.5">
       <c r="A14" s="33" t="s">
         <v>62</v>
       </c>
@@ -8154,7 +10611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="23">
+    <row r="15" spans="1:16" ht="23.25">
       <c r="A15" s="33" t="s">
         <v>92</v>
       </c>
@@ -8180,7 +10637,7 @@
         <v>-1178</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="23">
+    <row r="16" spans="1:16" ht="23.25">
       <c r="A16" s="33" t="s">
         <v>89</v>
       </c>
@@ -8206,7 +10663,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="23">
+    <row r="17" spans="1:21" ht="23.25">
       <c r="A17" s="33" t="s">
         <v>79</v>
       </c>
@@ -8232,7 +10689,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="23">
+    <row r="18" spans="1:21" ht="23.25">
       <c r="A18" s="33" t="s">
         <v>90</v>
       </c>
@@ -8258,7 +10715,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="23">
+    <row r="19" spans="1:21" ht="23.25">
       <c r="A19" s="33" t="s">
         <v>91</v>
       </c>
@@ -8284,7 +10741,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="43" customHeight="1">
+    <row r="20" spans="1:21" ht="42.95" customHeight="1">
       <c r="A20" s="35" t="s">
         <v>75</v>
       </c>
@@ -8341,7 +10798,7 @@
         <v>8.302015715749915E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="64" customFormat="1" ht="32">
+    <row r="21" spans="1:21" s="64" customFormat="1" ht="30">
       <c r="A21" s="60"/>
       <c r="B21" s="61"/>
       <c r="C21" s="62"/>
@@ -8351,7 +10808,7 @@
       <c r="G21" s="62"/>
       <c r="H21" s="62"/>
     </row>
-    <row r="22" spans="1:21" ht="23">
+    <row r="22" spans="1:21" ht="23.25">
       <c r="A22" s="33" t="s">
         <v>87</v>
       </c>
@@ -8377,7 +10834,7 @@
         <v>-908</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="23">
+    <row r="23" spans="1:21" ht="23.25">
       <c r="A23" s="33" t="s">
         <v>88</v>
       </c>
@@ -8403,7 +10860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="25">
+    <row r="24" spans="1:21" ht="25.5">
       <c r="A24" s="33" t="s">
         <v>61</v>
       </c>
@@ -8429,7 +10886,7 @@
         <v>-1594</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="23">
+    <row r="25" spans="1:21" ht="23.25">
       <c r="A25" s="33" t="s">
         <v>64</v>
       </c>
@@ -8476,7 +10933,7 @@
       </c>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:21" ht="23">
+    <row r="26" spans="1:21" ht="23.25">
       <c r="A26" s="33" t="s">
         <v>65</v>
       </c>
@@ -8528,7 +10985,7 @@
       <c r="T26" s="66"/>
       <c r="U26" s="66"/>
     </row>
-    <row r="27" spans="1:21" ht="23">
+    <row r="27" spans="1:21" ht="23.25">
       <c r="A27" s="33" t="s">
         <v>63</v>
       </c>
@@ -8554,7 +11011,7 @@
         <v>-2763</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="23">
+    <row r="28" spans="1:21" ht="23.25">
       <c r="A28" s="33" t="s">
         <v>77</v>
       </c>
@@ -8580,7 +11037,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="38" customHeight="1">
+    <row r="29" spans="1:21" ht="38.1" customHeight="1">
       <c r="A29" s="35" t="s">
         <v>74</v>
       </c>
@@ -8637,7 +11094,7 @@
         <v>0.65624614625724509</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1" ht="28">
+    <row r="30" spans="1:21" s="1" customFormat="1" ht="27.75">
       <c r="A30" s="60" t="s">
         <v>66</v>
       </c>
@@ -8649,7 +11106,7 @@
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
     </row>
-    <row r="31" spans="1:21" ht="23">
+    <row r="31" spans="1:21" ht="23.25">
       <c r="A31" s="33" t="s">
         <v>68</v>
       </c>
@@ -8676,7 +11133,7 @@
       </c>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:21" ht="23">
+    <row r="32" spans="1:21" ht="23.25">
       <c r="A32" s="33" t="s">
         <v>67</v>
       </c>
@@ -8703,7 +11160,7 @@
       </c>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:15" ht="23">
+    <row r="33" spans="1:15" ht="23.25">
       <c r="A33" s="33" t="s">
         <v>70</v>
       </c>
@@ -8730,7 +11187,7 @@
       </c>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:15" ht="23">
+    <row r="34" spans="1:15" ht="23.25">
       <c r="A34" s="33" t="s">
         <v>69</v>
       </c>
@@ -8758,7 +11215,7 @@
       <c r="I34" s="9"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:15" ht="25">
+    <row r="35" spans="1:15" ht="25.5">
       <c r="A35" s="33" t="s">
         <v>93</v>
       </c>
@@ -8785,7 +11242,7 @@
       </c>
       <c r="J35" s="18"/>
     </row>
-    <row r="36" spans="1:15" ht="23">
+    <row r="36" spans="1:15" ht="23.25">
       <c r="A36" s="33" t="s">
         <v>71</v>
       </c>
@@ -8812,7 +11269,7 @@
       </c>
       <c r="J36" s="18"/>
     </row>
-    <row r="37" spans="1:15" ht="23">
+    <row r="37" spans="1:15" ht="23.25">
       <c r="A37" s="33" t="s">
         <v>78</v>
       </c>
@@ -8840,7 +11297,7 @@
       <c r="I37" s="9"/>
       <c r="J37" s="18"/>
     </row>
-    <row r="38" spans="1:15" ht="23">
+    <row r="38" spans="1:15" ht="23.25">
       <c r="A38" s="33" t="s">
         <v>76</v>
       </c>
@@ -8867,7 +11324,7 @@
       </c>
       <c r="J38" s="18"/>
     </row>
-    <row r="39" spans="1:15" ht="40" customHeight="1">
+    <row r="39" spans="1:15" ht="39.950000000000003" customHeight="1">
       <c r="A39" s="35" t="s">
         <v>72</v>
       </c>
@@ -8924,7 +11381,7 @@
         <v>-1.0611591418507844</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="23">
+    <row r="40" spans="1:15" ht="23.25">
       <c r="A40" s="33" t="s">
         <v>38</v>
       </c>
@@ -8951,7 +11408,7 @@
       </c>
       <c r="J40" s="18"/>
     </row>
-    <row r="41" spans="1:15" ht="41" customHeight="1">
+    <row r="41" spans="1:15" ht="41.1" customHeight="1">
       <c r="A41" s="35" t="s">
         <v>171</v>
       </c>
@@ -9007,7 +11464,7 @@
         <v>-1.0047888550282977</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="23">
+    <row r="42" spans="1:15" ht="23.25">
       <c r="A42" s="33" t="s">
         <v>46</v>
       </c>
@@ -9034,7 +11491,7 @@
       </c>
       <c r="J42" s="18"/>
     </row>
-    <row r="43" spans="1:15" ht="40" customHeight="1">
+    <row r="43" spans="1:15" ht="39.950000000000003" customHeight="1">
       <c r="A43" s="35" t="s">
         <v>73</v>
       </c>
@@ -9091,7 +11548,7 @@
         <v>-6.0975609756097561E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="1" customFormat="1" ht="23">
+    <row r="44" spans="1:15" s="1" customFormat="1" ht="23.25">
       <c r="A44" s="32" t="s">
         <v>39</v>
       </c>
@@ -9104,7 +11561,7 @@
       <c r="H44" s="39"/>
       <c r="K44" s="40"/>
     </row>
-    <row r="45" spans="1:15" ht="23">
+    <row r="45" spans="1:15" ht="23.25">
       <c r="A45" s="33" t="s">
         <v>40</v>
       </c>
@@ -9131,7 +11588,7 @@
       </c>
       <c r="K45" s="18"/>
     </row>
-    <row r="46" spans="1:15" ht="23">
+    <row r="46" spans="1:15" ht="23.25">
       <c r="A46" s="33" t="s">
         <v>41</v>
       </c>
@@ -9158,7 +11615,7 @@
       </c>
       <c r="K46" s="18"/>
     </row>
-    <row r="47" spans="1:15" s="1" customFormat="1" ht="25">
+    <row r="47" spans="1:15" s="1" customFormat="1" ht="25.5">
       <c r="A47" s="36" t="s">
         <v>47</v>
       </c>
@@ -9171,7 +11628,7 @@
       <c r="H47" s="39"/>
       <c r="K47" s="40"/>
     </row>
-    <row r="48" spans="1:15" ht="23">
+    <row r="48" spans="1:15" ht="23.25">
       <c r="A48" s="33" t="s">
         <v>42</v>
       </c>
@@ -9198,7 +11655,7 @@
       </c>
       <c r="K48" s="18"/>
     </row>
-    <row r="49" spans="1:15" ht="23">
+    <row r="49" spans="1:15" ht="23.25">
       <c r="A49" s="33" t="s">
         <v>43</v>
       </c>
@@ -9225,7 +11682,7 @@
       </c>
       <c r="K49" s="18"/>
     </row>
-    <row r="50" spans="1:15" ht="23">
+    <row r="50" spans="1:15" ht="23.25">
       <c r="A50" s="33" t="s">
         <v>44</v>
       </c>
@@ -9252,7 +11709,7 @@
       </c>
       <c r="K50" s="18"/>
     </row>
-    <row r="51" spans="1:15" ht="35" customHeight="1">
+    <row r="51" spans="1:15" ht="35.1" customHeight="1">
       <c r="A51" s="35" t="s">
         <v>45</v>
       </c>
@@ -10546,7 +13003,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" low="1" xr2:uid="{00000000-0003-0000-0400-000022000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" low="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10618,7 +13075,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1" xr2:uid="{00000000-0003-0000-0400-000021000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10702,7 +13159,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" xr2:uid="{00000000-0003-0000-0400-000020000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10734,7 +13191,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" xr2:uid="{00000000-0003-0000-0400-00001F000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10750,7 +13207,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" low="1" xr2:uid="{00000000-0003-0000-0400-00001E000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" low="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10813,21 +13270,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M27"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="88"/>
-    <col min="2" max="2" width="153.6640625" style="88" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="10.875" style="88"/>
+    <col min="2" max="2" width="153.625" style="88" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="10"/>
     <col min="4" max="4" width="3.5" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="27.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="13" max="13" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
@@ -10882,23 +13339,23 @@
       <c r="B7" s="89"/>
       <c r="C7" s="43"/>
     </row>
-    <row r="8" spans="1:13" ht="27">
+    <row r="8" spans="1:13" ht="27.75">
       <c r="A8" s="84">
         <v>6</v>
       </c>
       <c r="B8" s="89"/>
       <c r="C8" s="43"/>
-      <c r="E8" s="132" t="s">
+      <c r="E8" s="139" t="s">
         <v>179</v>
       </c>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="84">
@@ -10906,15 +13363,15 @@
       </c>
       <c r="B9" s="89"/>
       <c r="C9" s="43"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="131"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="131"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="84">
@@ -10922,15 +13379,15 @@
       </c>
       <c r="B10" s="89"/>
       <c r="C10" s="43"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="84">
@@ -10938,15 +13395,15 @@
       </c>
       <c r="B11" s="89"/>
       <c r="C11" s="43"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="133"/>
-      <c r="M11" s="133"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="140"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="84">
@@ -10954,15 +13411,15 @@
       </c>
       <c r="B12" s="89"/>
       <c r="C12" s="43"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="133"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="84">
@@ -10970,30 +13427,30 @@
       </c>
       <c r="B13" s="89"/>
       <c r="C13" s="43"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="133"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="140"/>
     </row>
     <row r="14" spans="1:13">
       <c r="C14" s="107">
         <f>SUM(C3:C13)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="133"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="87" t="s">
@@ -11001,15 +13458,15 @@
       </c>
       <c r="B15" s="89"/>
       <c r="C15" s="43"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="133"/>
-      <c r="M15" s="133"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="140"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="85">
@@ -11017,15 +13474,15 @@
       </c>
       <c r="B16" s="89"/>
       <c r="C16" s="43"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="133"/>
-      <c r="M16" s="133"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="140"/>
+      <c r="K16" s="140"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="140"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="85">
@@ -11033,15 +13490,15 @@
       </c>
       <c r="B17" s="89"/>
       <c r="C17" s="43"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="133"/>
-      <c r="K17" s="133"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="133"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="140"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="85">
@@ -11049,15 +13506,15 @@
       </c>
       <c r="B18" s="89"/>
       <c r="C18" s="43"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="133"/>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="140"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="85">
@@ -11065,15 +13522,15 @@
       </c>
       <c r="B19" s="89"/>
       <c r="C19" s="43"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="133"/>
-      <c r="J19" s="133"/>
-      <c r="K19" s="133"/>
-      <c r="L19" s="133"/>
-      <c r="M19" s="133"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="140"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="140"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="85">

--- a/Financial/SQ財報 (已修復).xlsx
+++ b/Financial/SQ財報 (已修復).xlsx
@@ -35,6 +35,325 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>本機超級管理員</author>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">美國機構證券 
+公司債券
+商業票據   
+市政證券  
+存款證 
+美國政府證券 
+外國政府證券 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>指客户交易的第三方支付處理商應支付的款項。應收結算款通常在交易日的一兩個工作日内收到</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>1.現金</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>轉換中的資金</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">
+3.现金等价物:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">   
+        </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>貨幣市場基金</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+        </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>反向回購協議
+    美國機構證券</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+        </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>美國政府證券</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+ 4. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>短期债务證券</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : 
+        </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>美國機構證券</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+        </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>美國政府證券</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">   </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>貸款出售是指在貸款形成之後，將貸款債權出售給第三方，重新獲得資金來源並獲取手續費收入的一種方式。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>當收購金額超過所收購的可識別有形和無形净資產的公允价價值時，就會記錄為商譽</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>應付款項是指欠賣家或現金應用的客户其: 
+交易金额 -公司赚取的收入。
+應付金额包括因時間差異而欠客户的金额，因為本公司通常在一個工作日内结算。該餘額還包括本公司對存放在現金應用中的客户資金的責任。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>幫助企業申請低息私人貸款以支付其工資和某些其他費用</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="263">
   <si>
@@ -1226,48 +1545,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Settlements receivable  (應收結算)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Customer funds  (客戶的存放資金)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Loans held for sale  (將</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>貸款拿來出售</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Property and equipment, net   (不動產、廠房及設備)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goodwill (商譽)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acquired intangible assets, net.   (無形資產)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1316,14 +1598,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Customers payable (應付給客戶的負債)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Settlements payable  (應付結算)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Operating lease liabilities, current   (經營租借使用權的負債)</t>
     </r>
@@ -1338,10 +1612,6 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPP Liquidity Facility advances  (PPP 借錢企劃的預付款)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1514,6 +1784,191 @@
     <t>Accumulated deficit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>Loans held for sale  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>將</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>貸款拿來出售</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Customers payable (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>應付給客戶的款項</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Settlements payable  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>應付結算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Settlements receivable  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>應收結算款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PPP Liquidity Facility advances  (Paycheck Protection Program </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>薪資保障企劃的預付款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Goodwill (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>商譽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Acquired intangible assets, net.   (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>無形資產</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1524,7 +1979,7 @@
     <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1801,6 +2256,41 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="81"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="81"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="11">
@@ -3394,8 +3884,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13838472" y="7211788"/>
-          <a:ext cx="9701885" cy="1455961"/>
+          <a:off x="14573258" y="7239002"/>
+          <a:ext cx="9701885" cy="1483175"/>
           <a:chOff x="4632486" y="11895924"/>
           <a:chExt cx="5179785" cy="1254385"/>
         </a:xfrm>
@@ -3693,8 +4183,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13879286" y="4884966"/>
-          <a:ext cx="9198428" cy="1061362"/>
+          <a:off x="14614072" y="4912180"/>
+          <a:ext cx="9198428" cy="1061363"/>
           <a:chOff x="4610587" y="11511799"/>
           <a:chExt cx="5030392" cy="1367912"/>
         </a:xfrm>
@@ -3900,7 +4390,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="4054930" y="3455948"/>
-          <a:ext cx="8313964" cy="979977"/>
+          <a:ext cx="9048750" cy="1007192"/>
           <a:chOff x="6324019" y="12880660"/>
           <a:chExt cx="3164800" cy="988012"/>
         </a:xfrm>
@@ -3920,8 +4410,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7711572" y="13212920"/>
-            <a:ext cx="1777247" cy="655752"/>
+            <a:off x="7608976" y="13212920"/>
+            <a:ext cx="1879843" cy="655752"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -3961,7 +4451,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="6324019" y="12880660"/>
-            <a:ext cx="2775107" cy="332260"/>
+            <a:ext cx="2569912" cy="332260"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4063,9 +4553,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7700048</xdr:colOff>
+      <xdr:colOff>7728859</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>57153</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
@@ -4088,8 +4578,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7700048" y="3785510"/>
-          <a:ext cx="4519166" cy="4542061"/>
+          <a:off x="7728859" y="3785506"/>
+          <a:ext cx="5225141" cy="4569279"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4182,7 +4672,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>5347607</xdr:colOff>
+      <xdr:colOff>6150429</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>505528</xdr:rowOff>
     </xdr:from>
@@ -4205,8 +4695,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5347607" y="11772242"/>
-          <a:ext cx="6014356" cy="378947"/>
+          <a:off x="6150429" y="11826671"/>
+          <a:ext cx="5946320" cy="378946"/>
           <a:chOff x="6595529" y="12479002"/>
           <a:chExt cx="4474201" cy="488397"/>
         </a:xfrm>
@@ -4331,26 +4821,189 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4871357</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>217714</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>762006</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>258533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>11049000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>408218</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="群組 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="21240756" y="3687533"/>
+          <a:ext cx="5116283" cy="1102182"/>
+          <a:chOff x="4938011" y="11424112"/>
+          <a:chExt cx="2797968" cy="1420521"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="22" name="直線接點 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="23" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="4938011" y="11424112"/>
+            <a:ext cx="1657518" cy="1237706"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="文字方塊 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6595530" y="12479002"/>
+            <a:ext cx="1140449" cy="365631"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>收購</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Afterpay</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> 與 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>TIDAL</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>258535</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>843642</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>312964</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="橢圓 60"/>
+        <xdr:cNvPr id="24" name="橢圓 23"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4871357" y="1156607"/>
-          <a:ext cx="6177643" cy="1333500"/>
+          <a:off x="20737285" y="3537857"/>
+          <a:ext cx="585107" cy="204107"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4394,63 +5047,150 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7130143</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>217714</xdr:rowOff>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>10956471</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>288471</xdr:rowOff>
+      <xdr:colOff>4082141</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="橢圓 61"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="38" name="群組 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7130143" y="6068785"/>
-          <a:ext cx="3826328" cy="683079"/>
+          <a:off x="557893" y="1947889"/>
+          <a:ext cx="3524248" cy="1821290"/>
+          <a:chOff x="5414262" y="11093561"/>
+          <a:chExt cx="1927325" cy="2347323"/>
         </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00">
-            <a:alpha val="30000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="39" name="直線接點 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="40" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="5414262" y="11521890"/>
+            <a:ext cx="258534" cy="1918994"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="文字方塊 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5672796" y="11093561"/>
+            <a:ext cx="1668791" cy="856658"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>收購的金額紀錄在無形資產</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>超過公允價值的部分則會記錄在商譽</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6104,8 +6844,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>NOTE!K14:O14</xm:f>
-              <xm:sqref>P14</xm:sqref>
+              <xm:f>NOTE!K9:O9</xm:f>
+              <xm:sqref>P9</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -6136,8 +6876,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>NOTE!K9:O9</xm:f>
-              <xm:sqref>P9</xm:sqref>
+              <xm:f>NOTE!K14:O14</xm:f>
+              <xm:sqref>P14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -7043,8 +7783,68 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!B41:D41</xm:f>
-              <xm:sqref>E41</xm:sqref>
+              <xm:f>INCOME成長性!B7:D7</xm:f>
+              <xm:sqref>E7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B8:D8</xm:f>
+              <xm:sqref>E8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B13:D13</xm:f>
+              <xm:sqref>E13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B14:D14</xm:f>
+              <xm:sqref>E14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B15:D15</xm:f>
+              <xm:sqref>E15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B21:D21</xm:f>
+              <xm:sqref>E21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B22:D22</xm:f>
+              <xm:sqref>E22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B26:D26</xm:f>
+              <xm:sqref>E26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B28:D28</xm:f>
+              <xm:sqref>E28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B31:D31</xm:f>
+              <xm:sqref>E31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B32:D32</xm:f>
+              <xm:sqref>E32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B33:D33</xm:f>
+              <xm:sqref>E33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B34:D34</xm:f>
+              <xm:sqref>E34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B35:D35</xm:f>
+              <xm:sqref>E35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B38:D38</xm:f>
+              <xm:sqref>E38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B12:D12</xm:f>
+              <xm:sqref>E12</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -7059,8 +7859,276 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!B40:D40</xm:f>
-              <xm:sqref>E40</xm:sqref>
+              <xm:f>INCOME成長性!F7:G7</xm:f>
+              <xm:sqref>H7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F9:G9</xm:f>
+              <xm:sqref>H9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F10:G10</xm:f>
+              <xm:sqref>H10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F11:G11</xm:f>
+              <xm:sqref>H11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F12:G12</xm:f>
+              <xm:sqref>H12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F13:G13</xm:f>
+              <xm:sqref>H13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F14:G14</xm:f>
+              <xm:sqref>H14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F16:G16</xm:f>
+              <xm:sqref>H16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F17:G17</xm:f>
+              <xm:sqref>H17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F18:G18</xm:f>
+              <xm:sqref>H18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F19:G19</xm:f>
+              <xm:sqref>H19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F20:G20</xm:f>
+              <xm:sqref>H20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F21:G21</xm:f>
+              <xm:sqref>H21</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F22:G22</xm:f>
+              <xm:sqref>H22</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F23:G23</xm:f>
+              <xm:sqref>H23</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F24:G24</xm:f>
+              <xm:sqref>H24</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F25:G25</xm:f>
+              <xm:sqref>H25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F26:G26</xm:f>
+              <xm:sqref>H26</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F27:G27</xm:f>
+              <xm:sqref>H27</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F28:G28</xm:f>
+              <xm:sqref>H28</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F29:G29</xm:f>
+              <xm:sqref>H29</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F30:G30</xm:f>
+              <xm:sqref>H30</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F31:G31</xm:f>
+              <xm:sqref>H31</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F33:G33</xm:f>
+              <xm:sqref>H33</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F34:G34</xm:f>
+              <xm:sqref>H34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F35:G35</xm:f>
+              <xm:sqref>H35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F36:G36</xm:f>
+              <xm:sqref>H36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F37:G37</xm:f>
+              <xm:sqref>H37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F38:G38</xm:f>
+              <xm:sqref>H38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F39:G39</xm:f>
+              <xm:sqref>H39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F40:G40</xm:f>
+              <xm:sqref>H40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F41:G41</xm:f>
+              <xm:sqref>H41</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -7081,7 +8149,7 @@
           </x14:sparklines>
         </x14:sparklineGroup>
         <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
           <x14:colorMarkers rgb="FF0070C0"/>
@@ -7091,212 +8159,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F34:G34</xm:f>
-              <xm:sqref>H34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F35:G35</xm:f>
-              <xm:sqref>H35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F36:G36</xm:f>
-              <xm:sqref>H36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F37:G37</xm:f>
-              <xm:sqref>H37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F38:G38</xm:f>
-              <xm:sqref>H38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F39:G39</xm:f>
-              <xm:sqref>H39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F40:G40</xm:f>
-              <xm:sqref>H40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F41:G41</xm:f>
-              <xm:sqref>H41</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F33:G33</xm:f>
-              <xm:sqref>H33</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F31:G31</xm:f>
-              <xm:sqref>H31</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F30:G30</xm:f>
-              <xm:sqref>H30</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F29:G29</xm:f>
-              <xm:sqref>H29</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F28:G28</xm:f>
-              <xm:sqref>H28</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F27:G27</xm:f>
-              <xm:sqref>H27</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F26:G26</xm:f>
-              <xm:sqref>H26</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F25:G25</xm:f>
-              <xm:sqref>H25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F24:G24</xm:f>
-              <xm:sqref>H24</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F23:G23</xm:f>
-              <xm:sqref>H23</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F22:G22</xm:f>
-              <xm:sqref>H22</xm:sqref>
+              <xm:f>INCOME成長性!B40:D40</xm:f>
+              <xm:sqref>E40</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -7311,132 +8175,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F7:G7</xm:f>
-              <xm:sqref>H7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F9:G9</xm:f>
-              <xm:sqref>H9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F10:G10</xm:f>
-              <xm:sqref>H10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F11:G11</xm:f>
-              <xm:sqref>H11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F12:G12</xm:f>
-              <xm:sqref>H12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F13:G13</xm:f>
-              <xm:sqref>H13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F14:G14</xm:f>
-              <xm:sqref>H14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F16:G16</xm:f>
-              <xm:sqref>H16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F17:G17</xm:f>
-              <xm:sqref>H17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F18:G18</xm:f>
-              <xm:sqref>H18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F19:G19</xm:f>
-              <xm:sqref>H19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F20:G20</xm:f>
-              <xm:sqref>H20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F21:G21</xm:f>
-              <xm:sqref>H21</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B7:D7</xm:f>
-              <xm:sqref>E7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B8:D8</xm:f>
-              <xm:sqref>E8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B13:D13</xm:f>
-              <xm:sqref>E13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B14:D14</xm:f>
-              <xm:sqref>E14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B15:D15</xm:f>
-              <xm:sqref>E15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B21:D21</xm:f>
-              <xm:sqref>E21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B22:D22</xm:f>
-              <xm:sqref>E22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B26:D26</xm:f>
-              <xm:sqref>E26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B28:D28</xm:f>
-              <xm:sqref>E28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B31:D31</xm:f>
-              <xm:sqref>E31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B32:D32</xm:f>
-              <xm:sqref>E32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B33:D33</xm:f>
-              <xm:sqref>E33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B34:D34</xm:f>
-              <xm:sqref>E34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B35:D35</xm:f>
-              <xm:sqref>E35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B38:D38</xm:f>
-              <xm:sqref>E38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B12:D12</xm:f>
-              <xm:sqref>E12</xm:sqref>
+              <xm:f>INCOME成長性!B41:D41</xm:f>
+              <xm:sqref>E41</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -7447,16 +8187,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="146.125" customWidth="1"/>
+    <col min="1" max="1" width="155.75" customWidth="1"/>
     <col min="2" max="3" width="12.875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
@@ -7554,7 +8294,7 @@
     </row>
     <row r="5" spans="1:12" ht="25.5" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B5" s="2">
         <v>169576</v>
@@ -7590,7 +8330,7 @@
     </row>
     <row r="6" spans="1:12" ht="23.25" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="B6" s="2">
         <v>620523</v>
@@ -7626,7 +8366,7 @@
     </row>
     <row r="7" spans="1:12" ht="23.25" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B7" s="2">
         <v>103042</v>
@@ -7662,7 +8402,7 @@
     </row>
     <row r="8" spans="1:12" ht="25.5">
       <c r="A8" s="12" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B8" s="2">
         <v>73420</v>
@@ -7698,7 +8438,7 @@
     </row>
     <row r="9" spans="1:12" ht="26.25" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B9" s="2">
         <v>115259</v>
@@ -7775,7 +8515,7 @@
     </row>
     <row r="11" spans="1:12" ht="23.25" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B11" s="2">
         <v>91496</v>
@@ -7809,9 +8549,9 @@
         <v>0.20820486467968483</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="23.25">
+    <row r="12" spans="1:12" ht="25.5">
       <c r="A12" s="11" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="B12" s="2">
         <v>58327</v>
@@ -7847,7 +8587,7 @@
     </row>
     <row r="13" spans="1:12" ht="23.25" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="B13" s="2">
         <v>14334</v>
@@ -7883,7 +8623,7 @@
     </row>
     <row r="14" spans="1:12" ht="23.25" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B14" s="2">
         <v>203667</v>
@@ -7919,7 +8659,7 @@
     </row>
     <row r="15" spans="1:12" ht="23.25" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2">
@@ -7935,7 +8675,7 @@
     </row>
     <row r="16" spans="1:12" ht="25.5" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -7961,7 +8701,7 @@
     </row>
     <row r="17" spans="1:11" ht="24" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B17" s="2">
         <v>41152</v>
@@ -8063,7 +8803,7 @@
     </row>
     <row r="21" spans="1:11" ht="23.25" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B21" s="2">
         <v>733736</v>
@@ -8099,7 +8839,7 @@
     </row>
     <row r="22" spans="1:11" ht="23.25" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B22" s="2">
         <v>114788</v>
@@ -8135,7 +8875,7 @@
     </row>
     <row r="23" spans="1:11" ht="23.25" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B23" s="2">
         <v>124303</v>
@@ -8171,7 +8911,7 @@
     </row>
     <row r="24" spans="1:11" ht="23.25" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -8195,9 +8935,9 @@
         <v>0.21385102470282671</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="23.25">
+    <row r="25" spans="1:11" ht="25.5">
       <c r="A25" s="12" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -8295,7 +9035,7 @@
     </row>
     <row r="28" spans="1:11" ht="23.25" customHeight="1">
       <c r="A28" s="133" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B28" s="135"/>
       <c r="C28" s="134">
@@ -8311,7 +9051,7 @@
     </row>
     <row r="29" spans="1:11" ht="23.25" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -8484,7 +9224,7 @@
     </row>
     <row r="37" spans="1:11" ht="23.25" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B37" s="2">
         <v>1630386</v>
@@ -8520,7 +9260,7 @@
     </row>
     <row r="38" spans="1:11" ht="48" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B38" s="2">
         <v>-1318</v>
@@ -8556,7 +9296,7 @@
     </row>
     <row r="39" spans="1:11" ht="60" customHeight="1">
       <c r="A39" s="12" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B39" s="2">
         <v>-842735</v>
@@ -8862,7 +9602,7 @@
       <c r="H48" s="18"/>
       <c r="I48" s="18"/>
       <c r="J48" s="18">
-        <f t="shared" ref="I48:J48" si="20">(E48-D48)/ABS(D48)</f>
+        <f t="shared" ref="J48" si="20">(E48-D48)/ABS(D48)</f>
         <v>0.19085948330595867</v>
       </c>
       <c r="K48" s="18">
@@ -9134,6 +9874,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -9148,8 +9889,140 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H53:K53</xm:f>
-              <xm:sqref>L53</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!B4:F4</xm:f>
+              <xm:sqref>G4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B20:F20</xm:f>
+              <xm:sqref>G20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B21:F21</xm:f>
+              <xm:sqref>G21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B22:F22</xm:f>
+              <xm:sqref>G22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B23:F23</xm:f>
+              <xm:sqref>G23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B24:F24</xm:f>
+              <xm:sqref>G24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B25:F25</xm:f>
+              <xm:sqref>G25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B26:F26</xm:f>
+              <xm:sqref>G26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B27:F27</xm:f>
+              <xm:sqref>G27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B28:F28</xm:f>
+              <xm:sqref>G28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B29:F29</xm:f>
+              <xm:sqref>G29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B30:F30</xm:f>
+              <xm:sqref>G30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B31:F31</xm:f>
+              <xm:sqref>G31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B32:F32</xm:f>
+              <xm:sqref>G32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B33:F33</xm:f>
+              <xm:sqref>G33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B34:F34</xm:f>
+              <xm:sqref>G34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B35:F35</xm:f>
+              <xm:sqref>G35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B36:F36</xm:f>
+              <xm:sqref>G36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B37:F37</xm:f>
+              <xm:sqref>G37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B38:F38</xm:f>
+              <xm:sqref>G38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B39:F39</xm:f>
+              <xm:sqref>G39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B40:F40</xm:f>
+              <xm:sqref>G40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B41:F41</xm:f>
+              <xm:sqref>G41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B42:F42</xm:f>
+              <xm:sqref>G42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B43:F43</xm:f>
+              <xm:sqref>G43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B44:F44</xm:f>
+              <xm:sqref>G44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B45:F45</xm:f>
+              <xm:sqref>G45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B46:F46</xm:f>
+              <xm:sqref>G46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B47:F47</xm:f>
+              <xm:sqref>G47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B49:F49</xm:f>
+              <xm:sqref>G49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B50:F50</xm:f>
+              <xm:sqref>G50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B51:F51</xm:f>
+              <xm:sqref>G51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B52:F52</xm:f>
+              <xm:sqref>G52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B53:F53</xm:f>
+              <xm:sqref>G53</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9164,8 +10037,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H52:K52</xm:f>
-              <xm:sqref>L52</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!B48:F48</xm:f>
+              <xm:sqref>G48</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9180,8 +10053,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H51:K51</xm:f>
-              <xm:sqref>L51</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!B5:F5</xm:f>
+              <xm:sqref>G5</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9196,8 +10069,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H50:K50</xm:f>
-              <xm:sqref>L50</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!B6:F6</xm:f>
+              <xm:sqref>G6</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9212,8 +10085,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H49:K49</xm:f>
-              <xm:sqref>L49</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!B7:F7</xm:f>
+              <xm:sqref>G7</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9228,8 +10101,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H48:K48</xm:f>
-              <xm:sqref>L48</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!B8:F8</xm:f>
+              <xm:sqref>G8</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9244,8 +10117,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H47:K47</xm:f>
-              <xm:sqref>L47</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!B9:F9</xm:f>
+              <xm:sqref>G9</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9260,8 +10133,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H46:K46</xm:f>
-              <xm:sqref>L46</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!B10:F10</xm:f>
+              <xm:sqref>G10</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9276,8 +10149,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H45:K45</xm:f>
-              <xm:sqref>L45</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!B11:F11</xm:f>
+              <xm:sqref>G11</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9292,8 +10165,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H44:K44</xm:f>
-              <xm:sqref>L44</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!B12:F12</xm:f>
+              <xm:sqref>G12</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9308,8 +10181,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H43:K43</xm:f>
-              <xm:sqref>L43</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!B13:F13</xm:f>
+              <xm:sqref>G13</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9324,8 +10197,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H42:K42</xm:f>
-              <xm:sqref>L42</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!B14:F14</xm:f>
+              <xm:sqref>G14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9340,8 +10213,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H41:K41</xm:f>
-              <xm:sqref>L41</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!B15:F15</xm:f>
+              <xm:sqref>G15</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9356,8 +10229,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H40:K40</xm:f>
-              <xm:sqref>L40</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!B16:F16</xm:f>
+              <xm:sqref>G16</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9372,8 +10245,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H39:K39</xm:f>
-              <xm:sqref>L39</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!B17:F17</xm:f>
+              <xm:sqref>G17</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9388,8 +10261,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H38:K38</xm:f>
-              <xm:sqref>L38</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!B18:F18</xm:f>
+              <xm:sqref>G18</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9404,8 +10277,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H37:K37</xm:f>
-              <xm:sqref>L37</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H4:K4</xm:f>
+              <xm:sqref>L4</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9420,8 +10293,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H31:K31</xm:f>
-              <xm:sqref>L31</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H5:K5</xm:f>
+              <xm:sqref>L5</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9436,8 +10309,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H30:K30</xm:f>
-              <xm:sqref>L30</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H6:K6</xm:f>
+              <xm:sqref>L6</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9452,8 +10325,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H29:K29</xm:f>
-              <xm:sqref>L29</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H7:K7</xm:f>
+              <xm:sqref>L7</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9468,8 +10341,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H27:K27</xm:f>
-              <xm:sqref>L27</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H8:K8</xm:f>
+              <xm:sqref>L8</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9484,8 +10357,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H26:K26</xm:f>
-              <xm:sqref>L26</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H9:K9</xm:f>
+              <xm:sqref>L9</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9500,8 +10373,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H25:K25</xm:f>
-              <xm:sqref>L25</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H10:K10</xm:f>
+              <xm:sqref>L10</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9516,8 +10389,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H24:K24</xm:f>
-              <xm:sqref>L24</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H11:K11</xm:f>
+              <xm:sqref>L11</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9532,8 +10405,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H23:K23</xm:f>
-              <xm:sqref>L23</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H12:K12</xm:f>
+              <xm:sqref>L12</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9548,8 +10421,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H22:K22</xm:f>
-              <xm:sqref>L22</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H13:K13</xm:f>
+              <xm:sqref>L13</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9564,8 +10437,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H21:K21</xm:f>
-              <xm:sqref>L21</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H14:K14</xm:f>
+              <xm:sqref>L14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9580,8 +10453,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H18:K18</xm:f>
-              <xm:sqref>L18</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H15:K15</xm:f>
+              <xm:sqref>L15</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9596,8 +10469,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H17:K17</xm:f>
-              <xm:sqref>L17</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H16:K16</xm:f>
+              <xm:sqref>L16</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9612,8 +10485,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H16:K16</xm:f>
-              <xm:sqref>L16</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H17:K17</xm:f>
+              <xm:sqref>L17</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9628,8 +10501,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H15:K15</xm:f>
-              <xm:sqref>L15</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H18:K18</xm:f>
+              <xm:sqref>L18</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9644,8 +10517,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H14:K14</xm:f>
-              <xm:sqref>L14</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H21:K21</xm:f>
+              <xm:sqref>L21</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9660,8 +10533,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H13:K13</xm:f>
-              <xm:sqref>L13</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H22:K22</xm:f>
+              <xm:sqref>L22</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9676,8 +10549,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H12:K12</xm:f>
-              <xm:sqref>L12</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H23:K23</xm:f>
+              <xm:sqref>L23</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9692,8 +10565,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H11:K11</xm:f>
-              <xm:sqref>L11</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H24:K24</xm:f>
+              <xm:sqref>L24</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9708,8 +10581,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H10:K10</xm:f>
-              <xm:sqref>L10</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H25:K25</xm:f>
+              <xm:sqref>L25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9724,8 +10597,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H9:K9</xm:f>
-              <xm:sqref>L9</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H26:K26</xm:f>
+              <xm:sqref>L26</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9740,8 +10613,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H8:K8</xm:f>
-              <xm:sqref>L8</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H27:K27</xm:f>
+              <xm:sqref>L27</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9756,8 +10629,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H7:K7</xm:f>
-              <xm:sqref>L7</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H29:K29</xm:f>
+              <xm:sqref>L29</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9772,8 +10645,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H6:K6</xm:f>
-              <xm:sqref>L6</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H30:K30</xm:f>
+              <xm:sqref>L30</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9788,8 +10661,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H5:K5</xm:f>
-              <xm:sqref>L5</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H31:K31</xm:f>
+              <xm:sqref>L31</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9804,8 +10677,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H4:K4</xm:f>
-              <xm:sqref>L4</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H37:K37</xm:f>
+              <xm:sqref>L37</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9820,8 +10693,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B18:F18</xm:f>
-              <xm:sqref>G18</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H38:K38</xm:f>
+              <xm:sqref>L38</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9836,8 +10709,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B17:F17</xm:f>
-              <xm:sqref>G17</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H39:K39</xm:f>
+              <xm:sqref>L39</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9852,8 +10725,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B16:F16</xm:f>
-              <xm:sqref>G16</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H40:K40</xm:f>
+              <xm:sqref>L40</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9868,8 +10741,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B15:F15</xm:f>
-              <xm:sqref>G15</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H41:K41</xm:f>
+              <xm:sqref>L41</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9884,8 +10757,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B14:F14</xm:f>
-              <xm:sqref>G14</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H42:K42</xm:f>
+              <xm:sqref>L42</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9900,8 +10773,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B13:F13</xm:f>
-              <xm:sqref>G13</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H43:K43</xm:f>
+              <xm:sqref>L43</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9916,8 +10789,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B12:F12</xm:f>
-              <xm:sqref>G12</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H44:K44</xm:f>
+              <xm:sqref>L44</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9932,8 +10805,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B11:F11</xm:f>
-              <xm:sqref>G11</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H45:K45</xm:f>
+              <xm:sqref>L45</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9948,8 +10821,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B10:F10</xm:f>
-              <xm:sqref>G10</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H46:K46</xm:f>
+              <xm:sqref>L46</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9964,8 +10837,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B9:F9</xm:f>
-              <xm:sqref>G9</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H47:K47</xm:f>
+              <xm:sqref>L47</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9980,8 +10853,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B8:F8</xm:f>
-              <xm:sqref>G8</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H48:K48</xm:f>
+              <xm:sqref>L48</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9996,8 +10869,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B7:F7</xm:f>
-              <xm:sqref>G7</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H49:K49</xm:f>
+              <xm:sqref>L49</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10012,8 +10885,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B6:F6</xm:f>
-              <xm:sqref>G6</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H50:K50</xm:f>
+              <xm:sqref>L50</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10028,8 +10901,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B5:F5</xm:f>
-              <xm:sqref>G5</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H51:K51</xm:f>
+              <xm:sqref>L51</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10044,8 +10917,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B48:F48</xm:f>
-              <xm:sqref>G48</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H52:K52</xm:f>
+              <xm:sqref>L52</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10060,140 +10933,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B4:F4</xm:f>
-              <xm:sqref>G4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B20:F20</xm:f>
-              <xm:sqref>G20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B21:F21</xm:f>
-              <xm:sqref>G21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B22:F22</xm:f>
-              <xm:sqref>G22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B23:F23</xm:f>
-              <xm:sqref>G23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B24:F24</xm:f>
-              <xm:sqref>G24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B25:F25</xm:f>
-              <xm:sqref>G25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B26:F26</xm:f>
-              <xm:sqref>G26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B27:F27</xm:f>
-              <xm:sqref>G27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B28:F28</xm:f>
-              <xm:sqref>G28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B29:F29</xm:f>
-              <xm:sqref>G29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B30:F30</xm:f>
-              <xm:sqref>G30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B31:F31</xm:f>
-              <xm:sqref>G31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B32:F32</xm:f>
-              <xm:sqref>G32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B33:F33</xm:f>
-              <xm:sqref>G33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B34:F34</xm:f>
-              <xm:sqref>G34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B35:F35</xm:f>
-              <xm:sqref>G35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B36:F36</xm:f>
-              <xm:sqref>G36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B37:F37</xm:f>
-              <xm:sqref>G37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B38:F38</xm:f>
-              <xm:sqref>G38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B39:F39</xm:f>
-              <xm:sqref>G39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B40:F40</xm:f>
-              <xm:sqref>G40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B41:F41</xm:f>
-              <xm:sqref>G41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B42:F42</xm:f>
-              <xm:sqref>G42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B43:F43</xm:f>
-              <xm:sqref>G43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B44:F44</xm:f>
-              <xm:sqref>G44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B45:F45</xm:f>
-              <xm:sqref>G45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B46:F46</xm:f>
-              <xm:sqref>G46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B47:F47</xm:f>
-              <xm:sqref>G47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B49:F49</xm:f>
-              <xm:sqref>G49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B50:F50</xm:f>
-              <xm:sqref>G50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B51:F51</xm:f>
-              <xm:sqref>G51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B52:F52</xm:f>
-              <xm:sqref>G52</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B53:F53</xm:f>
-              <xm:sqref>G53</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!H53:K53</xm:f>
+              <xm:sqref>L53</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -13014,64 +13755,96 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B20:H20</xm:f>
-              <xm:sqref>I20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B21:H21</xm:f>
-              <xm:sqref>I21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B29:H29</xm:f>
-              <xm:sqref>I29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B30:H30</xm:f>
-              <xm:sqref>I30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B39:H39</xm:f>
-              <xm:sqref>I39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B41:H41</xm:f>
-              <xm:sqref>I41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B43:H43</xm:f>
-              <xm:sqref>I43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B44:H44</xm:f>
-              <xm:sqref>I44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B51:H51</xm:f>
-              <xm:sqref>I51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B3:H3</xm:f>
-              <xm:sqref>I3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B4:H4</xm:f>
-              <xm:sqref>I4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B12:H12</xm:f>
-              <xm:sqref>I12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B13:H13</xm:f>
-              <xm:sqref>I13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B26:H26</xm:f>
-              <xm:sqref>I26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B25:H25</xm:f>
-              <xm:sqref>I25</xm:sqref>
+              <xm:f>'CASH FLOWS'!J41:O41</xm:f>
+              <xm:sqref>P41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J42:O42</xm:f>
+              <xm:sqref>P42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J43:O43</xm:f>
+              <xm:sqref>P43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J44:O44</xm:f>
+              <xm:sqref>P44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J45:O45</xm:f>
+              <xm:sqref>P45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J46:O46</xm:f>
+              <xm:sqref>P46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J47:O47</xm:f>
+              <xm:sqref>P47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J48:O48</xm:f>
+              <xm:sqref>P48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J49:O49</xm:f>
+              <xm:sqref>P49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J50:O50</xm:f>
+              <xm:sqref>P50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J51:O51</xm:f>
+              <xm:sqref>P51</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J39:O39</xm:f>
+              <xm:sqref>P39</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J29:O29</xm:f>
+              <xm:sqref>P29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J28:O28</xm:f>
+              <xm:sqref>P28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J27:O27</xm:f>
+              <xm:sqref>P27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J26:O26</xm:f>
+              <xm:sqref>P26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J25:O25</xm:f>
+              <xm:sqref>P25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -13159,54 +13932,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFFF0000"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J29:O29</xm:f>
-              <xm:sqref>P29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J28:O28</xm:f>
-              <xm:sqref>P28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J27:O27</xm:f>
-              <xm:sqref>P27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J26:O26</xm:f>
-              <xm:sqref>P26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J25:O25</xm:f>
-              <xm:sqref>P25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFFF0000"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J39:O39</xm:f>
-              <xm:sqref>P39</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
         <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" low="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
@@ -13218,48 +13943,64 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J41:O41</xm:f>
-              <xm:sqref>P41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J42:O42</xm:f>
-              <xm:sqref>P42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J43:O43</xm:f>
-              <xm:sqref>P43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J44:O44</xm:f>
-              <xm:sqref>P44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J45:O45</xm:f>
-              <xm:sqref>P45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J46:O46</xm:f>
-              <xm:sqref>P46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J47:O47</xm:f>
-              <xm:sqref>P47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J48:O48</xm:f>
-              <xm:sqref>P48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J49:O49</xm:f>
-              <xm:sqref>P49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J50:O50</xm:f>
-              <xm:sqref>P50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J51:O51</xm:f>
-              <xm:sqref>P51</xm:sqref>
+              <xm:f>'CASH FLOWS'!B20:H20</xm:f>
+              <xm:sqref>I20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B21:H21</xm:f>
+              <xm:sqref>I21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B29:H29</xm:f>
+              <xm:sqref>I29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B30:H30</xm:f>
+              <xm:sqref>I30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B39:H39</xm:f>
+              <xm:sqref>I39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B41:H41</xm:f>
+              <xm:sqref>I41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B43:H43</xm:f>
+              <xm:sqref>I43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B44:H44</xm:f>
+              <xm:sqref>I44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B51:H51</xm:f>
+              <xm:sqref>I51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B3:H3</xm:f>
+              <xm:sqref>I3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B4:H4</xm:f>
+              <xm:sqref>I4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B12:H12</xm:f>
+              <xm:sqref>I12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B13:H13</xm:f>
+              <xm:sqref>I13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B26:H26</xm:f>
+              <xm:sqref>I26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B25:H25</xm:f>
+              <xm:sqref>I25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/Financial/SQ財報 (已修復).xlsx
+++ b/Financial/SQ財報 (已修復).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -318,6 +318,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="A14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>企業進行長期債券投資,目的是為了能夠有長期穩定的收益</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A21" authorId="0" shapeId="0">
       <text>
         <r>
@@ -355,7 +370,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="264">
   <si>
     <t>Total current assets</t>
   </si>
@@ -1575,10 +1590,6 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Investments in long-term debt securities  (投資長期債券)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1967,6 +1978,35 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Investments in long-term debt securities  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>投資長期債券</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>項目佔比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2293,7 +2333,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2351,6 +2391,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2501,7 +2547,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2923,6 +2969,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3860,13 +3945,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>748401</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>149681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>13607</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>108856</xdr:rowOff>
@@ -3884,8 +3969,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14573258" y="7239002"/>
-          <a:ext cx="9701885" cy="1483175"/>
+          <a:off x="15480401" y="7229931"/>
+          <a:ext cx="9679206" cy="1483175"/>
           <a:chOff x="4632486" y="11895924"/>
           <a:chExt cx="5179785" cy="1254385"/>
         </a:xfrm>
@@ -4102,13 +4187,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>830039</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>251725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>326570</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
@@ -4159,13 +4244,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>789215</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>258537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>394607</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>95257</xdr:rowOff>
@@ -4183,8 +4268,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14614072" y="4912180"/>
-          <a:ext cx="9198428" cy="1061363"/>
+          <a:off x="15521215" y="4894037"/>
+          <a:ext cx="9178017" cy="1059095"/>
           <a:chOff x="4610587" y="11511799"/>
           <a:chExt cx="5030392" cy="1367912"/>
         </a:xfrm>
@@ -4371,7 +4456,7 @@
       <xdr:rowOff>26948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>258537</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>108854</xdr:rowOff>
@@ -4389,8 +4474,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4054930" y="3455948"/>
-          <a:ext cx="9048750" cy="1007192"/>
+          <a:off x="4054930" y="3440073"/>
+          <a:ext cx="9951357" cy="1002656"/>
           <a:chOff x="6324019" y="12880660"/>
           <a:chExt cx="3164800" cy="988012"/>
         </a:xfrm>
@@ -4410,8 +4495,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7608976" y="13212920"/>
-            <a:ext cx="1879843" cy="655752"/>
+            <a:off x="7431699" y="13212920"/>
+            <a:ext cx="2057120" cy="655752"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -4451,7 +4536,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="6324019" y="12880660"/>
-            <a:ext cx="2569912" cy="332260"/>
+            <a:ext cx="2215360" cy="332260"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4553,12 +4638,12 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7728859</xdr:colOff>
+      <xdr:colOff>7579180</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>39087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>108857</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>68035</xdr:rowOff>
@@ -4578,8 +4663,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7728859" y="3785506"/>
-          <a:ext cx="5225141" cy="4569279"/>
+          <a:off x="7579180" y="3794658"/>
+          <a:ext cx="6395356" cy="4587341"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4609,13 +4694,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>81643</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>993321</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>625928</xdr:rowOff>
@@ -4677,7 +4762,7 @@
       <xdr:rowOff>505528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>231320</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>272153</xdr:rowOff>
@@ -4695,8 +4780,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6150429" y="11826671"/>
-          <a:ext cx="5946320" cy="378946"/>
+          <a:off x="6150429" y="11840278"/>
+          <a:ext cx="6844391" cy="369875"/>
           <a:chOff x="6595529" y="12479002"/>
           <a:chExt cx="4474201" cy="488397"/>
         </a:xfrm>
@@ -4821,13 +4906,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>762006</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>258533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>408218</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>136072</xdr:rowOff>
@@ -4845,8 +4930,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21240756" y="3687533"/>
-          <a:ext cx="5116283" cy="1102182"/>
+          <a:off x="22129756" y="3671658"/>
+          <a:ext cx="5107212" cy="1099914"/>
           <a:chOff x="4938011" y="11424112"/>
           <a:chExt cx="2797968" cy="1420521"/>
         </a:xfrm>
@@ -4984,13 +5069,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>258535</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>843642</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>312964</xdr:rowOff>
@@ -5070,8 +5155,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="557893" y="1947889"/>
-          <a:ext cx="3524248" cy="1821290"/>
+          <a:off x="557893" y="1941085"/>
+          <a:ext cx="3524248" cy="1803148"/>
           <a:chOff x="5414262" y="11093561"/>
           <a:chExt cx="1927325" cy="2347323"/>
         </a:xfrm>
@@ -5191,6 +5276,130 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>813707</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="橢圓 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19923125" y="1222375"/>
+          <a:ext cx="575582" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="30000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>918482</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="橢圓 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14090650" y="1517650"/>
+          <a:ext cx="575582" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="30000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6844,8 +7053,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>NOTE!K9:O9</xm:f>
-              <xm:sqref>P9</xm:sqref>
+              <xm:f>NOTE!K14:O14</xm:f>
+              <xm:sqref>P14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -6876,8 +7085,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>NOTE!K14:O14</xm:f>
-              <xm:sqref>P14</xm:sqref>
+              <xm:f>NOTE!K9:O9</xm:f>
+              <xm:sqref>P9</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -6891,8 +7100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -7783,68 +7992,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!B7:D7</xm:f>
-              <xm:sqref>E7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B8:D8</xm:f>
-              <xm:sqref>E8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B13:D13</xm:f>
-              <xm:sqref>E13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B14:D14</xm:f>
-              <xm:sqref>E14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B15:D15</xm:f>
-              <xm:sqref>E15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B21:D21</xm:f>
-              <xm:sqref>E21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B22:D22</xm:f>
-              <xm:sqref>E22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B26:D26</xm:f>
-              <xm:sqref>E26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B28:D28</xm:f>
-              <xm:sqref>E28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B31:D31</xm:f>
-              <xm:sqref>E31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B32:D32</xm:f>
-              <xm:sqref>E32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B33:D33</xm:f>
-              <xm:sqref>E33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B34:D34</xm:f>
-              <xm:sqref>E34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B35:D35</xm:f>
-              <xm:sqref>E35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B38:D38</xm:f>
-              <xm:sqref>E38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B12:D12</xm:f>
-              <xm:sqref>E12</xm:sqref>
+              <xm:f>INCOME成長性!B41:D41</xm:f>
+              <xm:sqref>E41</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -7859,56 +8008,24 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F7:G7</xm:f>
-              <xm:sqref>H7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F9:G9</xm:f>
-              <xm:sqref>H9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F10:G10</xm:f>
-              <xm:sqref>H10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F11:G11</xm:f>
-              <xm:sqref>H11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F12:G12</xm:f>
-              <xm:sqref>H12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F13:G13</xm:f>
-              <xm:sqref>H13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F14:G14</xm:f>
-              <xm:sqref>H14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F16:G16</xm:f>
-              <xm:sqref>H16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F17:G17</xm:f>
-              <xm:sqref>H17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F18:G18</xm:f>
-              <xm:sqref>H18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F19:G19</xm:f>
-              <xm:sqref>H19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F20:G20</xm:f>
-              <xm:sqref>H20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F21:G21</xm:f>
-              <xm:sqref>H21</xm:sqref>
+              <xm:f>INCOME成長性!B40:D40</xm:f>
+              <xm:sqref>E40</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B39:D39</xm:f>
+              <xm:sqref>E39</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -7923,8 +8040,36 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F22:G22</xm:f>
-              <xm:sqref>H22</xm:sqref>
+              <xm:f>INCOME成長性!F34:G34</xm:f>
+              <xm:sqref>H34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F35:G35</xm:f>
+              <xm:sqref>H35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F36:G36</xm:f>
+              <xm:sqref>H36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F37:G37</xm:f>
+              <xm:sqref>H37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F38:G38</xm:f>
+              <xm:sqref>H38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F39:G39</xm:f>
+              <xm:sqref>H39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F40:G40</xm:f>
+              <xm:sqref>H40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F41:G41</xm:f>
+              <xm:sqref>H41</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -7939,8 +8084,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F23:G23</xm:f>
-              <xm:sqref>H23</xm:sqref>
+              <xm:f>INCOME成長性!F33:G33</xm:f>
+              <xm:sqref>H33</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -7955,8 +8100,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F24:G24</xm:f>
-              <xm:sqref>H24</xm:sqref>
+              <xm:f>INCOME成長性!F31:G31</xm:f>
+              <xm:sqref>H31</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -7971,8 +8116,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F25:G25</xm:f>
-              <xm:sqref>H25</xm:sqref>
+              <xm:f>INCOME成長性!F30:G30</xm:f>
+              <xm:sqref>H30</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -7987,8 +8132,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F26:G26</xm:f>
-              <xm:sqref>H26</xm:sqref>
+              <xm:f>INCOME成長性!F29:G29</xm:f>
+              <xm:sqref>H29</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -8003,8 +8148,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F27:G27</xm:f>
-              <xm:sqref>H27</xm:sqref>
+              <xm:f>INCOME成長性!F28:G28</xm:f>
+              <xm:sqref>H28</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -8019,8 +8164,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F28:G28</xm:f>
-              <xm:sqref>H28</xm:sqref>
+              <xm:f>INCOME成長性!F27:G27</xm:f>
+              <xm:sqref>H27</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -8035,8 +8180,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F29:G29</xm:f>
-              <xm:sqref>H29</xm:sqref>
+              <xm:f>INCOME成長性!F26:G26</xm:f>
+              <xm:sqref>H26</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -8051,8 +8196,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F30:G30</xm:f>
-              <xm:sqref>H30</xm:sqref>
+              <xm:f>INCOME成長性!F25:G25</xm:f>
+              <xm:sqref>H25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -8067,8 +8212,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F31:G31</xm:f>
-              <xm:sqref>H31</xm:sqref>
+              <xm:f>INCOME成長性!F24:G24</xm:f>
+              <xm:sqref>H24</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -8083,8 +8228,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F33:G33</xm:f>
-              <xm:sqref>H33</xm:sqref>
+              <xm:f>INCOME成長性!F23:G23</xm:f>
+              <xm:sqref>H23</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -8099,36 +8244,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F34:G34</xm:f>
-              <xm:sqref>H34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F35:G35</xm:f>
-              <xm:sqref>H35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F36:G36</xm:f>
-              <xm:sqref>H36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F37:G37</xm:f>
-              <xm:sqref>H37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F38:G38</xm:f>
-              <xm:sqref>H38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F39:G39</xm:f>
-              <xm:sqref>H39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F40:G40</xm:f>
-              <xm:sqref>H40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F41:G41</xm:f>
-              <xm:sqref>H41</xm:sqref>
+              <xm:f>INCOME成長性!F22:G22</xm:f>
+              <xm:sqref>H22</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -8143,8 +8260,56 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!B39:D39</xm:f>
-              <xm:sqref>E39</xm:sqref>
+              <xm:f>INCOME成長性!F7:G7</xm:f>
+              <xm:sqref>H7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F9:G9</xm:f>
+              <xm:sqref>H9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F10:G10</xm:f>
+              <xm:sqref>H10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F11:G11</xm:f>
+              <xm:sqref>H11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F12:G12</xm:f>
+              <xm:sqref>H12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F13:G13</xm:f>
+              <xm:sqref>H13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F14:G14</xm:f>
+              <xm:sqref>H14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F16:G16</xm:f>
+              <xm:sqref>H16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F17:G17</xm:f>
+              <xm:sqref>H17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F18:G18</xm:f>
+              <xm:sqref>H18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F19:G19</xm:f>
+              <xm:sqref>H19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F20:G20</xm:f>
+              <xm:sqref>H20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F21:G21</xm:f>
+              <xm:sqref>H21</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -8159,24 +8324,68 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!B40:D40</xm:f>
-              <xm:sqref>E40</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B41:D41</xm:f>
-              <xm:sqref>E41</xm:sqref>
+              <xm:f>INCOME成長性!B7:D7</xm:f>
+              <xm:sqref>E7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B8:D8</xm:f>
+              <xm:sqref>E8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B13:D13</xm:f>
+              <xm:sqref>E13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B14:D14</xm:f>
+              <xm:sqref>E14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B15:D15</xm:f>
+              <xm:sqref>E15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B21:D21</xm:f>
+              <xm:sqref>E21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B22:D22</xm:f>
+              <xm:sqref>E22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B26:D26</xm:f>
+              <xm:sqref>E26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B28:D28</xm:f>
+              <xm:sqref>E28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B31:D31</xm:f>
+              <xm:sqref>E31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B32:D32</xm:f>
+              <xm:sqref>E32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B33:D33</xm:f>
+              <xm:sqref>E33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B34:D34</xm:f>
+              <xm:sqref>E34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B35:D35</xm:f>
+              <xm:sqref>E35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B38:D38</xm:f>
+              <xm:sqref>E38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B12:D12</xm:f>
+              <xm:sqref>E12</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -8188,1686 +8397,2260 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="155.75" customWidth="1"/>
-    <col min="2" max="3" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="150" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.75">
+    <row r="1" spans="1:18" ht="27.75">
       <c r="A1" s="68"/>
-      <c r="B1" s="4">
+      <c r="B1" s="142" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="4">
         <v>2017</v>
       </c>
-      <c r="C1" s="4">
+      <c r="D1" s="4">
         <v>2018</v>
       </c>
-      <c r="D1" s="4">
+      <c r="E1" s="4">
         <v>2019</v>
       </c>
-      <c r="E1" s="4">
+      <c r="F1" s="4">
         <v>2020</v>
       </c>
-      <c r="F1" s="4">
+      <c r="G1" s="4">
         <v>2021</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="22.5">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="22.5">
       <c r="A2" s="128" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="126"/>
-    </row>
-    <row r="3" spans="1:12" ht="23.25">
+      <c r="B2" s="143"/>
+      <c r="G2" s="126"/>
+    </row>
+    <row r="3" spans="1:18" ht="23.25">
       <c r="A3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="71"/>
+      <c r="B3" s="141"/>
       <c r="C3" s="71"/>
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
-      <c r="F3" s="127"/>
-    </row>
-    <row r="4" spans="1:12" ht="23.25" customHeight="1">
+      <c r="F3" s="71"/>
+      <c r="G3" s="127"/>
+    </row>
+    <row r="4" spans="1:18" ht="23.25" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="151">
+        <v>0.36</v>
+      </c>
+      <c r="C4" s="2">
         <v>696474</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>583173</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>1047118</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>3158058</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>4443669</v>
       </c>
-      <c r="H4" s="18">
-        <f t="shared" ref="H4:I4" si="0">(C4-B4)/ABS(B4)</f>
+      <c r="I4" s="18">
+        <f t="shared" ref="I4:J4" si="0">(D4-C4)/ABS(C4)</f>
         <v>-0.16267800377329233</v>
       </c>
-      <c r="I4" s="18">
+      <c r="J4" s="18">
         <f t="shared" si="0"/>
         <v>0.79555294912487373</v>
       </c>
-      <c r="J4" s="18">
-        <f t="shared" ref="J4:J14" si="1">(E4-D4)/ABS(D4)</f>
+      <c r="K4" s="18">
+        <f t="shared" ref="K4:K14" si="1">(F4-E4)/ABS(E4)</f>
         <v>2.0159523568499442</v>
       </c>
-      <c r="K4" s="18">
-        <f t="shared" ref="K4:K14" si="2">(F4-E4)/ABS(E4)</f>
+      <c r="L4" s="18">
+        <f t="shared" ref="L4:L14" si="2">(G4-F4)/ABS(F4)</f>
         <v>0.40708910349334937</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="25.5" customHeight="1">
+      <c r="N4" s="18">
+        <f>C4/C$10</f>
+        <v>0.39165289878951398</v>
+      </c>
+      <c r="O4" s="18">
+        <f t="shared" ref="O4:R9" si="3">D4/D$10</f>
+        <v>0.27613600043562564</v>
+      </c>
+      <c r="P4" s="18">
+        <f t="shared" si="3"/>
+        <v>0.3252120239729101</v>
+      </c>
+      <c r="Q4" s="18">
+        <f t="shared" si="3"/>
+        <v>0.40688082360030348</v>
+      </c>
+      <c r="R4" s="18">
+        <f t="shared" si="3"/>
+        <v>0.42236473816758369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="25.5" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="151">
+        <v>0.13</v>
+      </c>
+      <c r="C5" s="2">
         <v>169576</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>540991</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>492456</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>695112</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>869283</v>
-      </c>
-      <c r="H5" s="18">
-        <f t="shared" ref="H5:H18" si="3">(C5-B5)/ABS(B5)</f>
-        <v>2.1902568759730152</v>
       </c>
       <c r="I5" s="18">
         <f t="shared" ref="I5:I18" si="4">(D5-C5)/ABS(C5)</f>
+        <v>2.1902568759730152</v>
+      </c>
+      <c r="J5" s="18">
+        <f t="shared" ref="J5:J18" si="5">(E5-D5)/ABS(D5)</f>
         <v>-8.9714986016403236E-2</v>
       </c>
-      <c r="J5" s="18">
+      <c r="K5" s="18">
         <f t="shared" si="1"/>
         <v>0.4115210292899264</v>
       </c>
-      <c r="K5" s="18">
+      <c r="L5" s="18">
         <f t="shared" si="2"/>
         <v>0.25056537651486377</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="23.25" customHeight="1">
+      <c r="N5" s="18">
+        <f t="shared" ref="N5:N9" si="6">C5/C$10</f>
+        <v>9.5358810185492388E-2</v>
+      </c>
+      <c r="O5" s="18">
+        <f t="shared" si="3"/>
+        <v>0.25616256413048882</v>
+      </c>
+      <c r="P5" s="18">
+        <f t="shared" si="3"/>
+        <v>0.15294609822159816</v>
+      </c>
+      <c r="Q5" s="18">
+        <f t="shared" si="3"/>
+        <v>8.9557488511754421E-2</v>
+      </c>
+      <c r="R5" s="18">
+        <f t="shared" si="3"/>
+        <v>8.2624175357915192E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="23.25" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="B6" s="2">
+        <v>258</v>
+      </c>
+      <c r="B6" s="151">
+        <v>0.19</v>
+      </c>
+      <c r="C6" s="2">
         <v>620523</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>364946</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>588692</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>1024895</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>1171612</v>
-      </c>
-      <c r="H6" s="18">
-        <f t="shared" si="3"/>
-        <v>-0.41187353248791747</v>
       </c>
       <c r="I6" s="18">
         <f t="shared" si="4"/>
+        <v>-0.41187353248791747</v>
+      </c>
+      <c r="J6" s="18">
+        <f t="shared" si="5"/>
         <v>0.61309344396157239</v>
       </c>
-      <c r="J6" s="18">
+      <c r="K6" s="18">
         <f t="shared" si="1"/>
         <v>0.74096981103870951</v>
       </c>
-      <c r="K6" s="18">
+      <c r="L6" s="18">
         <f t="shared" si="2"/>
         <v>0.14315320105962073</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="23.25" customHeight="1">
+      <c r="N6" s="18">
+        <f t="shared" si="6"/>
+        <v>0.34894286321609363</v>
+      </c>
+      <c r="O6" s="18">
+        <f t="shared" si="3"/>
+        <v>0.17280417443019455</v>
+      </c>
+      <c r="P6" s="18">
+        <f t="shared" si="3"/>
+        <v>0.1828349019085341</v>
+      </c>
+      <c r="Q6" s="18">
+        <f t="shared" si="3"/>
+        <v>0.13204637840845007</v>
+      </c>
+      <c r="R6" s="18">
+        <f t="shared" si="3"/>
+        <v>0.11136013857332737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="23.25" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="151">
+        <v>0.19</v>
+      </c>
+      <c r="C7" s="2">
         <v>103042</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>334017</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>676292</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>2037832</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>2830995</v>
-      </c>
-      <c r="H7" s="18">
-        <f t="shared" si="3"/>
-        <v>2.2415616932901146</v>
       </c>
       <c r="I7" s="18">
         <f t="shared" si="4"/>
+        <v>2.2415616932901146</v>
+      </c>
+      <c r="J7" s="18">
+        <f t="shared" si="5"/>
         <v>1.0247232925270271</v>
       </c>
-      <c r="J7" s="18">
+      <c r="K7" s="18">
         <f t="shared" si="1"/>
         <v>2.0132428004471441</v>
       </c>
-      <c r="K7" s="18">
+      <c r="L7" s="18">
         <f t="shared" si="2"/>
         <v>0.389219032776009</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="25.5">
+      <c r="N7" s="18">
+        <f t="shared" si="6"/>
+        <v>5.794429942405474E-2</v>
+      </c>
+      <c r="O7" s="18">
+        <f t="shared" si="3"/>
+        <v>0.15815910280055212</v>
+      </c>
+      <c r="P7" s="18">
+        <f t="shared" si="3"/>
+        <v>0.21004155225742213</v>
+      </c>
+      <c r="Q7" s="18">
+        <f t="shared" si="3"/>
+        <v>0.26255210085408615</v>
+      </c>
+      <c r="R7" s="18">
+        <f t="shared" si="3"/>
+        <v>0.26908225205989433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="25.5">
       <c r="A8" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8" s="2">
+        <v>255</v>
+      </c>
+      <c r="B8" s="141">
+        <v>0.05</v>
+      </c>
+      <c r="C8" s="2">
         <v>73420</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>89974</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>164834</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>462665</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>517940</v>
-      </c>
-      <c r="H8" s="18">
-        <f t="shared" si="3"/>
-        <v>0.22546989921002453</v>
       </c>
       <c r="I8" s="18">
         <f t="shared" si="4"/>
+        <v>0.22546989921002453</v>
+      </c>
+      <c r="J8" s="18">
+        <f t="shared" si="5"/>
         <v>0.8320181385733656</v>
       </c>
-      <c r="J8" s="18">
+      <c r="K8" s="18">
         <f t="shared" si="1"/>
         <v>1.8068541684361237</v>
       </c>
-      <c r="K8" s="18">
+      <c r="L8" s="18">
         <f t="shared" si="2"/>
         <v>0.11947089146574735</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="26.25" customHeight="1">
+      <c r="N8" s="18">
+        <f t="shared" si="6"/>
+        <v>4.1286761356671059E-2</v>
+      </c>
+      <c r="O8" s="18">
+        <f t="shared" si="3"/>
+        <v>4.260324209659052E-2</v>
+      </c>
+      <c r="P8" s="18">
+        <f t="shared" si="3"/>
+        <v>5.1193847073157626E-2</v>
+      </c>
+      <c r="Q8" s="18">
+        <f t="shared" si="3"/>
+        <v>5.9609265013826351E-2</v>
+      </c>
+      <c r="R8" s="18">
+        <f t="shared" si="3"/>
+        <v>4.9229497626064926E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="26.25" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="B9" s="2">
+        <v>248</v>
+      </c>
+      <c r="B9" s="141">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C9" s="2">
         <v>115259</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>198804</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>250409</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>383067</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>687429</v>
-      </c>
-      <c r="H9" s="18">
-        <f t="shared" si="3"/>
-        <v>0.72484578210812167</v>
       </c>
       <c r="I9" s="18">
         <f t="shared" si="4"/>
+        <v>0.72484578210812167</v>
+      </c>
+      <c r="J9" s="18">
+        <f t="shared" si="5"/>
         <v>0.25957727208708076</v>
       </c>
-      <c r="J9" s="18">
+      <c r="K9" s="18">
         <f t="shared" si="1"/>
         <v>0.52976530396271704</v>
       </c>
-      <c r="K9" s="18">
+      <c r="L9" s="18">
         <f t="shared" si="2"/>
         <v>0.79453985856260134</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="24" customHeight="1">
+      <c r="N9" s="18">
+        <f t="shared" si="6"/>
+        <v>6.4814367028174197E-2</v>
+      </c>
+      <c r="O9" s="18">
+        <f t="shared" si="3"/>
+        <v>9.4134916106548353E-2</v>
+      </c>
+      <c r="P9" s="18">
+        <f t="shared" si="3"/>
+        <v>7.7771576566377856E-2</v>
+      </c>
+      <c r="Q9" s="18">
+        <f t="shared" si="3"/>
+        <v>4.9353943611579479E-2</v>
+      </c>
+      <c r="R9" s="18">
+        <f t="shared" si="3"/>
+        <v>6.5339198215214472E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="24" customHeight="1">
       <c r="A10" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="8">
-        <f>SUM(B4:B9)</f>
-        <v>1778294</v>
-      </c>
+      <c r="B10" s="144"/>
       <c r="C10" s="8">
         <f>SUM(C4:C9)</f>
-        <v>2111905</v>
+        <v>1778294</v>
       </c>
       <c r="D10" s="8">
         <f>SUM(D4:D9)</f>
-        <v>3219801</v>
+        <v>2111905</v>
       </c>
       <c r="E10" s="8">
         <f>SUM(E4:E9)</f>
-        <v>7761629</v>
+        <v>3219801</v>
       </c>
       <c r="F10" s="8">
         <f>SUM(F4:F9)</f>
+        <v>7761629</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(G4:G9)</f>
         <v>10520928</v>
-      </c>
-      <c r="H10" s="18">
-        <f t="shared" si="3"/>
-        <v>0.18760171265268846</v>
       </c>
       <c r="I10" s="18">
         <f t="shared" si="4"/>
+        <v>0.18760171265268846</v>
+      </c>
+      <c r="J10" s="18">
+        <f t="shared" si="5"/>
         <v>0.52459556656194284</v>
       </c>
-      <c r="J10" s="18">
+      <c r="K10" s="18">
         <f t="shared" si="1"/>
         <v>1.4105927664473674</v>
       </c>
-      <c r="K10" s="18">
+      <c r="L10" s="18">
         <f t="shared" si="2"/>
         <v>0.35550513944946349</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="23.25" customHeight="1">
+    <row r="11" spans="1:18" ht="23.25" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="151">
+        <v>0.13</v>
+      </c>
+      <c r="C11" s="2">
         <v>91496</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>142402</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>149194</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>233520</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>282140</v>
-      </c>
-      <c r="H11" s="18">
-        <f t="shared" si="3"/>
-        <v>0.55637404913876021</v>
       </c>
       <c r="I11" s="18">
         <f t="shared" si="4"/>
+        <v>0.55637404913876021</v>
+      </c>
+      <c r="J11" s="18">
+        <f t="shared" si="5"/>
         <v>4.7695959326413954E-2</v>
       </c>
-      <c r="J11" s="18">
+      <c r="K11" s="18">
         <f t="shared" si="1"/>
         <v>0.56521039720095978</v>
       </c>
-      <c r="K11" s="18">
+      <c r="L11" s="18">
         <f t="shared" si="2"/>
         <v>0.20820486467968483</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="25.5">
+      <c r="N11" s="18">
+        <f>C11/(C$18-C$10)</f>
+        <v>0.22371972927506747</v>
+      </c>
+      <c r="O11" s="18">
+        <f t="shared" ref="O11:R17" si="7">D11/(D$18-D$10)</f>
+        <v>0.12180293178276273</v>
+      </c>
+      <c r="P11" s="18">
+        <f t="shared" si="7"/>
+        <v>0.11205318684719071</v>
+      </c>
+      <c r="Q11" s="18">
+        <f t="shared" si="7"/>
+        <v>0.11078214031740279</v>
+      </c>
+      <c r="R11" s="18">
+        <f t="shared" si="7"/>
+        <v>8.2864490389551806E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="25.5">
       <c r="A12" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="B12" s="2">
+        <v>260</v>
+      </c>
+      <c r="B12" s="151">
+        <v>0.17</v>
+      </c>
+      <c r="C12" s="2">
         <v>58327</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>261705</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>266345</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>316701</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>519276</v>
-      </c>
-      <c r="H12" s="18">
-        <f t="shared" si="3"/>
-        <v>3.4868585732165207</v>
       </c>
       <c r="I12" s="18">
         <f t="shared" si="4"/>
+        <v>3.4868585732165207</v>
+      </c>
+      <c r="J12" s="18">
+        <f t="shared" si="5"/>
         <v>1.7729886704495521E-2</v>
       </c>
-      <c r="J12" s="18">
+      <c r="K12" s="18">
         <f t="shared" si="1"/>
         <v>0.18906305731288367</v>
       </c>
-      <c r="K12" s="18">
+      <c r="L12" s="18">
         <f t="shared" si="2"/>
         <v>0.6396411757462086</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="23.25" customHeight="1">
+      <c r="N12" s="18">
+        <f t="shared" ref="N12:N17" si="8">C12/(C$18-C$10)</f>
+        <v>0.14261717068972263</v>
+      </c>
+      <c r="O12" s="18">
+        <f t="shared" si="7"/>
+        <v>0.223848234309967</v>
+      </c>
+      <c r="P12" s="18">
+        <f t="shared" si="7"/>
+        <v>0.20004025665117237</v>
+      </c>
+      <c r="Q12" s="18">
+        <f t="shared" si="7"/>
+        <v>0.15024329659413233</v>
+      </c>
+      <c r="R12" s="18">
+        <f t="shared" si="7"/>
+        <v>0.15251131038323137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="23.25" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="B13" s="2">
+        <v>261</v>
+      </c>
+      <c r="B13" s="141">
+        <v>0.06</v>
+      </c>
+      <c r="C13" s="2">
         <v>14334</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>77102</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>69079</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>137612</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>257049</v>
-      </c>
-      <c r="H13" s="18">
-        <f t="shared" si="3"/>
-        <v>4.3789591181805498</v>
       </c>
       <c r="I13" s="18">
         <f t="shared" si="4"/>
+        <v>4.3789591181805498</v>
+      </c>
+      <c r="J13" s="18">
+        <f t="shared" si="5"/>
         <v>-0.10405696350289227</v>
       </c>
-      <c r="J13" s="18">
+      <c r="K13" s="18">
         <f t="shared" si="1"/>
         <v>0.99209600602209069</v>
       </c>
-      <c r="K13" s="18">
+      <c r="L13" s="18">
         <f t="shared" si="2"/>
         <v>0.86792576228817253</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="23.25" customHeight="1">
+      <c r="N13" s="18">
+        <f t="shared" si="8"/>
+        <v>3.5048511404092174E-2</v>
+      </c>
+      <c r="O13" s="18">
+        <f t="shared" si="7"/>
+        <v>6.5948860594054665E-2</v>
+      </c>
+      <c r="P13" s="18">
+        <f t="shared" si="7"/>
+        <v>5.1882261312231635E-2</v>
+      </c>
+      <c r="Q13" s="18">
+        <f t="shared" si="7"/>
+        <v>6.5283281489201914E-2</v>
+      </c>
+      <c r="R13" s="18">
+        <f t="shared" si="7"/>
+        <v>7.5495266144977327E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="23.25" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="B14" s="2">
+        <v>262</v>
+      </c>
+      <c r="B14" s="151">
+        <v>0.4</v>
+      </c>
+      <c r="C14" s="2">
         <v>203667</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>464680</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>537303</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>463950</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>1526430</v>
-      </c>
-      <c r="H14" s="18">
-        <f t="shared" si="3"/>
-        <v>1.2815674606097207</v>
       </c>
       <c r="I14" s="18">
         <f t="shared" si="4"/>
+        <v>1.2815674606097207</v>
+      </c>
+      <c r="J14" s="18">
+        <f t="shared" si="5"/>
         <v>0.15628604631144014</v>
       </c>
-      <c r="J14" s="18">
+      <c r="K14" s="18">
         <f t="shared" si="1"/>
         <v>-0.13652073411092067</v>
       </c>
-      <c r="K14" s="18">
+      <c r="L14" s="18">
         <f t="shared" si="2"/>
         <v>2.2900743614613646</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="23.25" customHeight="1">
+      <c r="N14" s="18">
+        <f t="shared" si="8"/>
+        <v>0.49799254723993586</v>
+      </c>
+      <c r="O14" s="18">
+        <f t="shared" si="7"/>
+        <v>0.39746201837624601</v>
+      </c>
+      <c r="P14" s="18">
+        <f t="shared" si="7"/>
+        <v>0.4035451388967124</v>
+      </c>
+      <c r="Q14" s="18">
+        <f t="shared" si="7"/>
+        <v>0.22009838129607323</v>
+      </c>
+      <c r="R14" s="18">
+        <f t="shared" si="7"/>
+        <v>0.44831234162232775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="23.25" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2">
+        <v>252</v>
+      </c>
+      <c r="B15" s="141">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
         <v>149000</v>
       </c>
-      <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="H15" s="18"/>
+      <c r="G15" s="13"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="1:12" ht="25.5" customHeight="1">
+      <c r="L15" s="18"/>
+      <c r="N15" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="18">
+        <f t="shared" si="7"/>
+        <v>0.12744650240608732</v>
+      </c>
+      <c r="P15" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="25.5" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="B16" s="13"/>
+        <v>244</v>
+      </c>
+      <c r="B16" s="141">
+        <v>8.6999999999999994E-2</v>
+      </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="2">
+      <c r="D16" s="13"/>
+      <c r="E16" s="2">
         <v>113148</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>456888</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>449406</v>
       </c>
-      <c r="H16" s="18"/>
       <c r="I16" s="18"/>
-      <c r="J16" s="18">
-        <f t="shared" ref="J16:K18" si="5">(E16-D16)/ABS(D16)</f>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18">
+        <f t="shared" ref="K16:L18" si="9">(F16-E16)/ABS(E16)</f>
         <v>3.0379679711528262</v>
       </c>
-      <c r="K16" s="18">
-        <f t="shared" si="5"/>
+      <c r="L16" s="18">
+        <f t="shared" si="9"/>
         <v>-1.6376004622577087E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="24" customHeight="1">
+      <c r="N16" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="18">
+        <f t="shared" si="7"/>
+        <v>8.4980588933777051E-2</v>
+      </c>
+      <c r="Q16" s="18">
+        <f t="shared" si="7"/>
+        <v>0.21674816086561119</v>
+      </c>
+      <c r="R16" s="18">
+        <f t="shared" si="7"/>
+        <v>0.131990498220766</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="24" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="B17" s="2">
+        <v>249</v>
+      </c>
+      <c r="B17" s="151">
+        <v>0.13</v>
+      </c>
+      <c r="C17" s="2">
         <v>41152</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>74229</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>196388</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>499250</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>370535</v>
-      </c>
-      <c r="H17" s="18">
-        <f t="shared" si="3"/>
-        <v>0.80377624416796267</v>
       </c>
       <c r="I17" s="18">
         <f t="shared" si="4"/>
-        <v>1.645704509019386</v>
+        <v>0.80377624416796267</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" si="5"/>
+        <v>1.645704509019386</v>
+      </c>
+      <c r="K17" s="18">
+        <f t="shared" si="9"/>
         <v>1.5421614355255922</v>
       </c>
-      <c r="K17" s="18">
-        <f t="shared" si="5"/>
+      <c r="L17" s="18">
+        <f t="shared" si="9"/>
         <v>-0.25781672508763143</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="23.25">
+      <c r="N17" s="18">
+        <f t="shared" si="8"/>
+        <v>0.10062204139118187</v>
+      </c>
+      <c r="O17" s="18">
+        <f t="shared" si="7"/>
+        <v>6.3491452530882259E-2</v>
+      </c>
+      <c r="P17" s="18">
+        <f t="shared" si="7"/>
+        <v>0.14749856735891584</v>
+      </c>
+      <c r="Q17" s="18">
+        <f t="shared" si="7"/>
+        <v>0.23684473943757856</v>
+      </c>
+      <c r="R17" s="18">
+        <f t="shared" si="7"/>
+        <v>0.10882609323914573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="23.25">
       <c r="A18" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="8">
-        <f>B10+SUM(B11:B17)</f>
-        <v>2187270</v>
-      </c>
+      <c r="B18" s="144"/>
       <c r="C18" s="8">
         <f>C10+SUM(C11:C17)</f>
-        <v>3281023</v>
+        <v>2187270</v>
       </c>
       <c r="D18" s="8">
         <f>D10+SUM(D11:D17)</f>
+        <v>3281023</v>
+      </c>
+      <c r="E18" s="8">
+        <f>E10+SUM(E11:E17)</f>
         <v>4551258</v>
-      </c>
-      <c r="E18" s="8">
-        <f>SUM(E10:E17)</f>
-        <v>9869550</v>
       </c>
       <c r="F18" s="8">
         <f>SUM(F10:F17)</f>
+        <v>9869550</v>
+      </c>
+      <c r="G18" s="8">
+        <f>SUM(G10:G17)</f>
         <v>13925764</v>
-      </c>
-      <c r="H18" s="18">
-        <f t="shared" si="3"/>
-        <v>0.5000539485294454</v>
       </c>
       <c r="I18" s="18">
         <f t="shared" si="4"/>
-        <v>0.38714602122569697</v>
+        <v>0.5000539485294454</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" si="5"/>
+        <v>0.38714602122569697</v>
+      </c>
+      <c r="K18" s="18">
+        <f t="shared" si="9"/>
         <v>1.1685323046946581</v>
       </c>
-      <c r="K18" s="18">
-        <f t="shared" si="5"/>
+      <c r="L18" s="18">
+        <f t="shared" si="9"/>
         <v>0.41098266891600932</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="23.25" customHeight="1">
+    <row r="19" spans="1:18" s="1" customFormat="1" ht="23.25" customHeight="1">
       <c r="A19" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="F19" s="126"/>
+      <c r="B19" s="143"/>
       <c r="G19" s="126"/>
       <c r="H19" s="126"/>
       <c r="I19" s="126"/>
       <c r="J19" s="126"/>
       <c r="K19" s="126"/>
-    </row>
-    <row r="20" spans="1:11" ht="24.75" customHeight="1">
+      <c r="L19" s="126"/>
+    </row>
+    <row r="20" spans="1:18" ht="24.75" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B20" s="71"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="71"/>
       <c r="D20" s="71"/>
       <c r="E20" s="71"/>
-      <c r="F20" s="127"/>
-      <c r="H20" s="18"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="127"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="1:11" ht="23.25" customHeight="1">
+      <c r="L20" s="18"/>
+    </row>
+    <row r="21" spans="1:18" ht="23.25" customHeight="1">
       <c r="A21" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B21" s="151">
+        <v>0.74</v>
+      </c>
+      <c r="C21" s="2">
+        <v>733736</v>
+      </c>
+      <c r="D21" s="2">
+        <v>749215</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1273135</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3009051</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3979624</v>
+      </c>
+      <c r="I21" s="18">
+        <f t="shared" ref="I21:J21" si="10">(D21-C21)/ABS(C21)</f>
+        <v>2.1096143572074968E-2</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" si="10"/>
+        <v>0.69929192554874098</v>
+      </c>
+      <c r="K21" s="18">
+        <f t="shared" ref="K21:L24" si="11">(F21-E21)/ABS(E21)</f>
+        <v>1.3634971939346574</v>
+      </c>
+      <c r="L21" s="18">
+        <f t="shared" si="11"/>
+        <v>0.32255119637387336</v>
+      </c>
+      <c r="N21" s="18">
+        <f>C21/C$26</f>
+        <v>0.7542307111130756</v>
+      </c>
+      <c r="O21" s="18">
+        <f t="shared" ref="O21:R25" si="12">D21/D$26</f>
+        <v>0.73557667290761986</v>
+      </c>
+      <c r="P21" s="18">
+        <f t="shared" si="12"/>
+        <v>0.75151778098501554</v>
+      </c>
+      <c r="Q21" s="18">
+        <f t="shared" si="12"/>
+        <v>0.72927172945713437</v>
+      </c>
+      <c r="R21" s="18">
+        <f t="shared" si="12"/>
+        <v>0.7322075161763234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="23.25" customHeight="1">
+      <c r="A22" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="B21" s="2">
-        <v>733736</v>
-      </c>
-      <c r="C21" s="2">
-        <v>749215</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1273135</v>
-      </c>
-      <c r="E21" s="2">
-        <v>3009051</v>
-      </c>
-      <c r="F21" s="2">
-        <v>3979624</v>
-      </c>
-      <c r="H21" s="18">
-        <f t="shared" ref="H21:I21" si="6">(C21-B21)/ABS(B21)</f>
-        <v>2.1096143572074968E-2</v>
-      </c>
-      <c r="I21" s="18">
-        <f t="shared" si="6"/>
-        <v>0.69929192554874098</v>
-      </c>
-      <c r="J21" s="18">
-        <f t="shared" ref="J21:K24" si="7">(E21-D21)/ABS(D21)</f>
-        <v>1.3634971939346574</v>
-      </c>
-      <c r="K21" s="18">
-        <f t="shared" si="7"/>
-        <v>0.32255119637387336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A22" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B22" s="2">
+      <c r="B22" s="141">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C22" s="2">
         <v>114788</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D22" s="2">
         <v>54137</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>95834</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <v>239362</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G22" s="2">
         <v>254611</v>
       </c>
-      <c r="H22" s="18">
-        <f t="shared" ref="H22:H31" si="8">(C22-B22)/ABS(B22)</f>
+      <c r="I22" s="18">
+        <f t="shared" ref="I22:I31" si="13">(D22-C22)/ABS(C22)</f>
         <v>-0.52837404606753324</v>
       </c>
-      <c r="I22" s="18">
-        <f t="shared" ref="I22:I31" si="9">(D22-C22)/ABS(C22)</f>
+      <c r="J22" s="18">
+        <f t="shared" ref="J22:J31" si="14">(E22-D22)/ABS(D22)</f>
         <v>0.77021260875187025</v>
       </c>
-      <c r="J22" s="18">
-        <f t="shared" si="7"/>
+      <c r="K22" s="18">
+        <f t="shared" si="11"/>
         <v>1.497673059665672</v>
       </c>
-      <c r="K22" s="18">
-        <f t="shared" si="7"/>
+      <c r="L22" s="18">
+        <f t="shared" si="11"/>
         <v>6.3706854053692738E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="23.25" customHeight="1">
+      <c r="N22" s="18">
+        <f t="shared" ref="N22:N25" si="15">C22/C$26</f>
+        <v>0.11799425797186962</v>
+      </c>
+      <c r="O22" s="18">
+        <f t="shared" si="12"/>
+        <v>5.3151517710136362E-2</v>
+      </c>
+      <c r="P22" s="18">
+        <f t="shared" si="12"/>
+        <v>5.656977070217846E-2</v>
+      </c>
+      <c r="Q22" s="18">
+        <f t="shared" si="12"/>
+        <v>5.8011625494655494E-2</v>
+      </c>
+      <c r="R22" s="18">
+        <f t="shared" si="12"/>
+        <v>4.6845653735420704E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="23.25" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="B23" s="2">
+        <v>251</v>
+      </c>
+      <c r="B23" s="151">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C23" s="2">
         <v>124303</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="2">
         <v>215189</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>297841</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <v>360850</v>
       </c>
-      <c r="F23" s="2">
+      <c r="G23" s="2">
         <v>639309</v>
       </c>
-      <c r="H23" s="18">
-        <f t="shared" si="8"/>
+      <c r="I23" s="18">
+        <f t="shared" si="13"/>
         <v>0.73116497590564988</v>
       </c>
-      <c r="I23" s="18">
-        <f t="shared" si="9"/>
+      <c r="J23" s="18">
+        <f t="shared" si="14"/>
         <v>0.3840902648369573</v>
       </c>
-      <c r="J23" s="18">
-        <f t="shared" si="7"/>
+      <c r="K23" s="18">
+        <f t="shared" si="11"/>
         <v>0.21155247262801294</v>
       </c>
-      <c r="K23" s="18">
-        <f t="shared" si="7"/>
+      <c r="L23" s="18">
+        <f t="shared" si="11"/>
         <v>0.77167521130663708</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="23.25" customHeight="1">
+      <c r="N23" s="18">
+        <f t="shared" si="15"/>
+        <v>0.12777503091505479</v>
+      </c>
+      <c r="O23" s="18">
+        <f t="shared" si="12"/>
+        <v>0.21127180938224382</v>
+      </c>
+      <c r="P23" s="18">
+        <f t="shared" si="12"/>
+        <v>0.17581231166086708</v>
+      </c>
+      <c r="Q23" s="18">
+        <f t="shared" si="12"/>
+        <v>8.7455381638465723E-2</v>
+      </c>
+      <c r="R23" s="18">
+        <f t="shared" si="12"/>
+        <v>0.11762590007477318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="23.25" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="B24" s="13"/>
+        <v>245</v>
+      </c>
+      <c r="B24" s="141">
+        <v>0.01</v>
+      </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="2">
+      <c r="D24" s="13"/>
+      <c r="E24" s="2">
         <v>27275</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <v>52747</v>
       </c>
-      <c r="F24" s="2">
+      <c r="G24" s="2">
         <v>64027</v>
       </c>
-      <c r="H24" s="18"/>
       <c r="I24" s="18"/>
-      <c r="J24" s="18">
-        <f t="shared" si="7"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18">
+        <f t="shared" si="11"/>
         <v>0.93389550870760774</v>
       </c>
-      <c r="K24" s="18">
-        <f t="shared" si="7"/>
+      <c r="L24" s="18">
+        <f t="shared" si="11"/>
         <v>0.21385102470282671</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="25.5">
+      <c r="N24" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="18">
+        <f t="shared" si="12"/>
+        <v>1.6100136651938952E-2</v>
+      </c>
+      <c r="Q24" s="18">
+        <f t="shared" si="12"/>
+        <v>1.2783730124107391E-2</v>
+      </c>
+      <c r="R24" s="18">
+        <f t="shared" si="12"/>
+        <v>1.1780271361872744E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="25.5">
       <c r="A25" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B25" s="13"/>
+        <v>259</v>
+      </c>
+      <c r="B25" s="141">
+        <v>0.04</v>
+      </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="2">
+      <c r="E25" s="13"/>
+      <c r="F25" s="2">
         <v>464094</v>
       </c>
-      <c r="F25" s="2">
+      <c r="G25" s="2">
         <v>497533</v>
       </c>
-      <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="18">
-        <f>(F25-E25)/ABS(E25)</f>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18">
+        <f>(G25-F25)/ABS(F25)</f>
         <v>7.2052213560183931E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="24" customHeight="1">
+      <c r="N25" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="18">
+        <f t="shared" si="12"/>
+        <v>0.112477533285637</v>
+      </c>
+      <c r="R25" s="18">
+        <f t="shared" si="12"/>
+        <v>9.1540658651609985E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="24" customHeight="1">
       <c r="A26" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="8">
-        <f>SUM(B21:B25)</f>
-        <v>972827</v>
-      </c>
+      <c r="B26" s="144"/>
       <c r="C26" s="8">
         <f>SUM(C21:C25)</f>
-        <v>1018541</v>
+        <v>972827</v>
       </c>
       <c r="D26" s="8">
         <f>SUM(D21:D25)</f>
-        <v>1694085</v>
+        <v>1018541</v>
       </c>
       <c r="E26" s="8">
         <f>SUM(E21:E25)</f>
-        <v>4126104</v>
+        <v>1694085</v>
       </c>
       <c r="F26" s="8">
         <f>SUM(F21:F25)</f>
+        <v>4126104</v>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(G21:G25)</f>
         <v>5435104</v>
       </c>
-      <c r="H26" s="18">
-        <f>(C26-B26)/ABS(B26)</f>
+      <c r="I26" s="18">
+        <f>(D26-C26)/ABS(C26)</f>
         <v>4.6990883271126313E-2</v>
       </c>
-      <c r="I26" s="18">
-        <f t="shared" si="9"/>
+      <c r="J26" s="18">
+        <f t="shared" si="14"/>
         <v>0.6632467421537277</v>
-      </c>
-      <c r="J26" s="18">
-        <f>(E26-D26)/ABS(D26)</f>
-        <v>1.4355944359344426</v>
       </c>
       <c r="K26" s="18">
         <f>(F26-E26)/ABS(E26)</f>
+        <v>1.4355944359344426</v>
+      </c>
+      <c r="L26" s="18">
+        <f>(G26-F26)/ABS(F26)</f>
         <v>0.3172484261181977</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="23.25">
+    <row r="27" spans="1:18" ht="23.25">
       <c r="A27" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="151">
+        <v>0.83</v>
+      </c>
+      <c r="C27" s="8">
         <v>358572</v>
       </c>
-      <c r="C27" s="8">
+      <c r="D27" s="8">
         <v>899695</v>
       </c>
-      <c r="D27" s="8">
+      <c r="E27" s="8">
         <v>938832</v>
       </c>
-      <c r="E27" s="8">
+      <c r="F27" s="8">
         <v>2586924</v>
       </c>
-      <c r="F27" s="8">
+      <c r="G27" s="8">
         <v>4559208</v>
       </c>
-      <c r="H27" s="18">
-        <f t="shared" si="8"/>
+      <c r="I27" s="18">
+        <f t="shared" si="13"/>
         <v>1.5091055631783854</v>
       </c>
-      <c r="I27" s="18">
-        <f t="shared" si="9"/>
+      <c r="J27" s="18">
+        <f t="shared" si="14"/>
         <v>4.3500297322981676E-2</v>
-      </c>
-      <c r="J27" s="18">
-        <f>(E27-D27)/ABS(D27)</f>
-        <v>1.7554706273326857</v>
       </c>
       <c r="K27" s="18">
         <f>(F27-E27)/ABS(E27)</f>
+        <v>1.7554706273326857</v>
+      </c>
+      <c r="L27" s="18">
+        <f>(G27-F27)/ABS(F27)</f>
         <v>0.76240508031932908</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="23.25" customHeight="1">
+      <c r="N27" s="18">
+        <f>C27/(C$31-C$26)</f>
+        <v>0.83756978346686595</v>
+      </c>
+      <c r="O27" s="18">
+        <f t="shared" ref="O27:R30" si="16">D27/(D$31-D$26)</f>
+        <v>0.78783710061726075</v>
+      </c>
+      <c r="P27" s="18">
+        <f t="shared" si="16"/>
+        <v>0.82200603612745737</v>
+      </c>
+      <c r="Q27" s="18">
+        <f t="shared" si="16"/>
+        <v>0.84488175063857884</v>
+      </c>
+      <c r="R27" s="18">
+        <f t="shared" si="16"/>
+        <v>0.88065394505889527</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="23.25" customHeight="1">
       <c r="A28" s="133" t="s">
-        <v>254</v>
-      </c>
-      <c r="B28" s="135"/>
-      <c r="C28" s="134">
+        <v>253</v>
+      </c>
+      <c r="B28" s="145">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C28" s="135"/>
+      <c r="D28" s="134">
         <v>149000</v>
       </c>
-      <c r="D28" s="135"/>
       <c r="E28" s="135"/>
       <c r="F28" s="135"/>
-      <c r="H28" s="18"/>
+      <c r="G28" s="135"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
-    </row>
-    <row r="29" spans="1:11" ht="23.25" customHeight="1">
+      <c r="L28" s="18"/>
+      <c r="N28" s="18">
+        <f t="shared" ref="N28:N30" si="17">C28/(C$31-C$26)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="18">
+        <f t="shared" si="16"/>
+        <v>0.13047502541635983</v>
+      </c>
+      <c r="P28" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="23.25" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="B29" s="13"/>
+        <v>250</v>
+      </c>
+      <c r="B29" s="141">
+        <v>0.06</v>
+      </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="2">
+      <c r="D29" s="13"/>
+      <c r="E29" s="2">
         <v>108830</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F29" s="2">
         <v>389662</v>
       </c>
-      <c r="F29" s="2">
+      <c r="G29" s="2">
         <v>395017</v>
       </c>
-      <c r="H29" s="18"/>
       <c r="I29" s="18"/>
-      <c r="J29" s="18">
-        <f t="shared" ref="J29:K31" si="10">(E29-D29)/ABS(D29)</f>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18">
+        <f t="shared" ref="K29:L31" si="18">(F29-E29)/ABS(E29)</f>
         <v>2.580464945327575</v>
       </c>
-      <c r="K29" s="18">
-        <f t="shared" si="10"/>
+      <c r="L29" s="18">
+        <f t="shared" si="18"/>
         <v>1.374267955304854E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="24" customHeight="1">
+      <c r="N29" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="18">
+        <f t="shared" si="16"/>
+        <v>9.5287460282298841E-2</v>
+      </c>
+      <c r="Q29" s="18">
+        <f t="shared" si="16"/>
+        <v>0.12726246024905638</v>
+      </c>
+      <c r="R29" s="18">
+        <f t="shared" si="16"/>
+        <v>7.630125219453239E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="24" customHeight="1">
       <c r="A30" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="141">
+        <v>0.08</v>
+      </c>
+      <c r="C30" s="2">
         <v>69538</v>
       </c>
-      <c r="C30" s="2">
+      <c r="D30" s="2">
         <v>93286</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <v>94461</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="2">
         <v>85291</v>
       </c>
-      <c r="F30" s="2">
+      <c r="G30" s="2">
         <v>222846</v>
       </c>
-      <c r="H30" s="18">
-        <f t="shared" si="8"/>
+      <c r="I30" s="18">
+        <f t="shared" si="13"/>
         <v>0.3415111162242227</v>
       </c>
-      <c r="I30" s="18">
-        <f t="shared" si="9"/>
+      <c r="J30" s="18">
+        <f t="shared" si="14"/>
         <v>1.2595673520142358E-2</v>
       </c>
-      <c r="J30" s="18">
-        <f t="shared" si="10"/>
+      <c r="K30" s="18">
+        <f t="shared" si="18"/>
         <v>-9.7077100602364991E-2</v>
       </c>
-      <c r="K30" s="18">
-        <f t="shared" si="10"/>
+      <c r="L30" s="18">
+        <f t="shared" si="18"/>
         <v>1.6127727427278375</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="23.25">
+      <c r="N30" s="18">
+        <f t="shared" si="17"/>
+        <v>0.162430216533134</v>
+      </c>
+      <c r="O30" s="18">
+        <f t="shared" si="16"/>
+        <v>8.1687873966379471E-2</v>
+      </c>
+      <c r="P30" s="18">
+        <f t="shared" si="16"/>
+        <v>8.2706503590243785E-2</v>
+      </c>
+      <c r="Q30" s="18">
+        <f t="shared" si="16"/>
+        <v>2.7855789112364734E-2</v>
+      </c>
+      <c r="R30" s="18">
+        <f t="shared" si="16"/>
+        <v>4.3044802746572339E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="23.25">
       <c r="A31" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="B31" s="8">
-        <f>B26+SUM(B27:B30)</f>
-        <v>1400937</v>
-      </c>
+      <c r="B31" s="144"/>
       <c r="C31" s="8">
         <f>C26+SUM(C27:C30)</f>
-        <v>2160522</v>
+        <v>1400937</v>
       </c>
       <c r="D31" s="8">
         <f>D26+SUM(D27:D30)</f>
-        <v>2836208</v>
+        <v>2160522</v>
       </c>
       <c r="E31" s="8">
         <f>E26+SUM(E27:E30)</f>
-        <v>7187981</v>
+        <v>2836208</v>
       </c>
       <c r="F31" s="8">
         <f>F26+SUM(F27:F30)</f>
+        <v>7187981</v>
+      </c>
+      <c r="G31" s="8">
+        <f>G26+SUM(G27:G30)</f>
         <v>10612175</v>
       </c>
-      <c r="H31" s="18">
-        <f t="shared" si="8"/>
+      <c r="I31" s="18">
+        <f t="shared" si="13"/>
         <v>0.54219782902443148</v>
       </c>
-      <c r="I31" s="18">
-        <f t="shared" si="9"/>
+      <c r="J31" s="18">
+        <f t="shared" si="14"/>
         <v>0.31274201327271833</v>
       </c>
-      <c r="J31" s="18">
-        <f t="shared" si="10"/>
+      <c r="K31" s="18">
+        <f t="shared" si="18"/>
         <v>1.5343631355669261</v>
       </c>
-      <c r="K31" s="18">
-        <f t="shared" si="10"/>
+      <c r="L31" s="18">
+        <f t="shared" si="18"/>
         <v>0.47637771997449629</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="23.25" customHeight="1">
+    <row r="32" spans="1:18" ht="23.25" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="B32" s="13"/>
+      <c r="B32" s="141"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="13"/>
       <c r="F32" s="2"/>
-      <c r="H32" s="18"/>
+      <c r="G32" s="2"/>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
-    </row>
-    <row r="33" spans="1:11" ht="24.75" customHeight="1">
+      <c r="L32" s="18"/>
+    </row>
+    <row r="33" spans="1:12" ht="24.75" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B33" s="13"/>
+      <c r="B33" s="141"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="2"/>
+      <c r="E33" s="13"/>
       <c r="F33" s="2"/>
-      <c r="H33" s="18"/>
+      <c r="G33" s="2"/>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
-    </row>
-    <row r="34" spans="1:11" ht="23.25">
+      <c r="L33" s="18"/>
+    </row>
+    <row r="34" spans="1:12" ht="23.25">
       <c r="A34" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B34" s="13"/>
+      <c r="B34" s="141"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="13"/>
       <c r="F34" s="2"/>
-      <c r="H34" s="18"/>
+      <c r="G34" s="2"/>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
-    </row>
-    <row r="35" spans="1:11" ht="23.25">
+      <c r="L34" s="18"/>
+    </row>
+    <row r="35" spans="1:12" ht="23.25">
       <c r="A35" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="B35" s="13"/>
+      <c r="B35" s="141"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="2"/>
+      <c r="E35" s="13"/>
       <c r="F35" s="2"/>
-      <c r="H35" s="18"/>
+      <c r="G35" s="2"/>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
-    </row>
-    <row r="36" spans="1:11" ht="23.25">
+      <c r="L35" s="18"/>
+    </row>
+    <row r="36" spans="1:12" ht="23.25">
       <c r="A36" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B36" s="13"/>
+      <c r="B36" s="141"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="2"/>
+      <c r="E36" s="13"/>
       <c r="F36" s="2"/>
-      <c r="H36" s="18"/>
+      <c r="G36" s="2"/>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
-    </row>
-    <row r="37" spans="1:11" ht="23.25" customHeight="1">
+      <c r="L36" s="18"/>
+    </row>
+    <row r="37" spans="1:12" ht="23.25" customHeight="1">
       <c r="A37" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B37" s="141"/>
+      <c r="C37" s="2">
+        <v>1630386</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2012328</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2233749</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2955464</v>
+      </c>
+      <c r="G37" s="2">
+        <v>3317255</v>
+      </c>
+      <c r="I37" s="18">
+        <f t="shared" ref="I37:J37" si="19">(D37-C37)/ABS(C37)</f>
+        <v>0.23426476920189451</v>
+      </c>
+      <c r="J37" s="18">
+        <f t="shared" si="19"/>
+        <v>0.11003226114231875</v>
+      </c>
+      <c r="K37" s="18">
+        <f t="shared" ref="K37:L40" si="20">(F37-E37)/ABS(E37)</f>
+        <v>0.32309583574519785</v>
+      </c>
+      <c r="L37" s="18">
+        <f t="shared" si="20"/>
+        <v>0.12241428080328504</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="48" customHeight="1">
+      <c r="A38" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="B37" s="2">
-        <v>1630386</v>
-      </c>
-      <c r="C37" s="2">
-        <v>2012328</v>
-      </c>
-      <c r="D37" s="2">
-        <v>2233749</v>
-      </c>
-      <c r="E37" s="2">
-        <v>2955464</v>
-      </c>
-      <c r="F37" s="2">
-        <v>3317255</v>
-      </c>
-      <c r="H37" s="18">
-        <f t="shared" ref="H37:I37" si="11">(C37-B37)/ABS(B37)</f>
-        <v>0.23426476920189451</v>
-      </c>
-      <c r="I37" s="18">
-        <f t="shared" si="11"/>
-        <v>0.11003226114231875</v>
-      </c>
-      <c r="J37" s="18">
-        <f t="shared" ref="J37:K40" si="12">(E37-D37)/ABS(D37)</f>
-        <v>0.32309583574519785</v>
-      </c>
-      <c r="K37" s="18">
-        <f t="shared" si="12"/>
-        <v>0.12241428080328504</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="48" customHeight="1">
-      <c r="A38" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="B38" s="2">
+      <c r="B38" s="141"/>
+      <c r="C38" s="2">
         <v>-1318</v>
       </c>
-      <c r="C38" s="2">
+      <c r="D38" s="2">
         <v>-6053</v>
       </c>
-      <c r="D38" s="2">
+      <c r="E38" s="2">
         <v>1629</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>23328</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>-16435</v>
       </c>
-      <c r="H38" s="18">
-        <f t="shared" ref="H38:H40" si="13">(C38-B38)/ABS(B38)</f>
+      <c r="I38" s="18">
+        <f t="shared" ref="I38:I40" si="21">(D38-C38)/ABS(C38)</f>
         <v>-3.5925644916540214</v>
       </c>
-      <c r="I38" s="18">
-        <f t="shared" ref="I38:I40" si="14">(D38-C38)/ABS(C38)</f>
+      <c r="J38" s="18">
+        <f t="shared" ref="J38:J40" si="22">(E38-D38)/ABS(D38)</f>
         <v>1.2691227490500578</v>
       </c>
-      <c r="J38" s="18">
-        <f t="shared" si="12"/>
+      <c r="K38" s="18">
+        <f t="shared" si="20"/>
         <v>13.320441988950277</v>
       </c>
-      <c r="K38" s="18">
-        <f t="shared" si="12"/>
+      <c r="L38" s="18">
+        <f t="shared" si="20"/>
         <v>-1.7045181755829903</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="60" customHeight="1">
+    <row r="39" spans="1:12" ht="60" customHeight="1">
       <c r="A39" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="B39" s="2">
+        <v>254</v>
+      </c>
+      <c r="B39" s="141"/>
+      <c r="C39" s="2">
         <v>-842735</v>
       </c>
-      <c r="C39" s="2">
+      <c r="D39" s="2">
         <v>-885774</v>
       </c>
-      <c r="D39" s="2">
+      <c r="E39" s="2">
         <v>-510328</v>
       </c>
-      <c r="E39" s="2">
+      <c r="F39" s="2">
         <v>-297223</v>
       </c>
-      <c r="F39" s="2">
+      <c r="G39" s="2">
         <v>-27965</v>
       </c>
-      <c r="H39" s="18">
-        <f t="shared" si="13"/>
+      <c r="I39" s="18">
+        <f t="shared" si="21"/>
         <v>-5.1070621251045702E-2</v>
       </c>
-      <c r="I39" s="18">
-        <f t="shared" si="14"/>
+      <c r="J39" s="18">
+        <f t="shared" si="22"/>
         <v>0.42386206865408105</v>
       </c>
-      <c r="J39" s="18">
-        <f t="shared" si="12"/>
+      <c r="K39" s="18">
+        <f t="shared" si="20"/>
         <v>0.41758437710648838</v>
       </c>
-      <c r="K39" s="18">
-        <f t="shared" si="12"/>
+      <c r="L39" s="18">
+        <f t="shared" si="20"/>
         <v>0.90591239574326343</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="60" customHeight="1">
+    <row r="40" spans="1:12" ht="60" customHeight="1">
       <c r="A40" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="B40" s="8">
-        <f>SUM(B37:B39)</f>
-        <v>786333</v>
-      </c>
+      <c r="B40" s="144"/>
       <c r="C40" s="8">
         <f>SUM(C37:C39)</f>
-        <v>1120501</v>
+        <v>786333</v>
       </c>
       <c r="D40" s="8">
         <f>SUM(D37:D39)</f>
-        <v>1725050</v>
+        <v>1120501</v>
       </c>
       <c r="E40" s="8">
         <f>SUM(E37:E39)</f>
-        <v>2681569</v>
+        <v>1725050</v>
       </c>
       <c r="F40" s="8">
         <f>SUM(F37:F39)</f>
+        <v>2681569</v>
+      </c>
+      <c r="G40" s="8">
+        <f>SUM(G37:G39)</f>
         <v>3272855</v>
       </c>
-      <c r="H40" s="18">
-        <f t="shared" si="13"/>
+      <c r="I40" s="18">
+        <f t="shared" si="21"/>
         <v>0.42497008264946273</v>
       </c>
-      <c r="I40" s="18">
-        <f t="shared" si="14"/>
+      <c r="J40" s="18">
+        <f t="shared" si="22"/>
         <v>0.53953454749259488</v>
       </c>
-      <c r="J40" s="18">
-        <f t="shared" si="12"/>
+      <c r="K40" s="18">
+        <f t="shared" si="20"/>
         <v>0.55448769600881131</v>
       </c>
-      <c r="K40" s="18">
-        <f t="shared" si="12"/>
+      <c r="L40" s="18">
+        <f t="shared" si="20"/>
         <v>0.2205000132385182</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="23.25">
+    <row r="41" spans="1:12" ht="23.25">
       <c r="A41" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="141"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="2">
+      <c r="G41" s="2">
         <v>40734</v>
       </c>
-      <c r="H41" s="18"/>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
       <c r="K41" s="18"/>
-    </row>
-    <row r="42" spans="1:11" ht="25.5" customHeight="1">
+      <c r="L41" s="18"/>
+    </row>
+    <row r="42" spans="1:12" ht="25.5" customHeight="1">
       <c r="A42" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="B42" s="8">
-        <f>B40</f>
-        <v>786333</v>
-      </c>
+      <c r="B42" s="144"/>
       <c r="C42" s="8">
         <f>C40</f>
-        <v>1120501</v>
+        <v>786333</v>
       </c>
       <c r="D42" s="8">
         <f>D40</f>
-        <v>1725050</v>
+        <v>1120501</v>
       </c>
       <c r="E42" s="8">
         <f>E40</f>
-        <v>2681569</v>
+        <v>1725050</v>
       </c>
       <c r="F42" s="8">
         <f>F40</f>
+        <v>2681569</v>
+      </c>
+      <c r="G42" s="8">
+        <f>G40</f>
         <v>3272855</v>
       </c>
-      <c r="H42" s="18">
-        <f t="shared" ref="H42:I42" si="15">(C42-B42)/ABS(B42)</f>
+      <c r="I42" s="18">
+        <f t="shared" ref="I42:J42" si="23">(D42-C42)/ABS(C42)</f>
         <v>0.42497008264946273</v>
       </c>
-      <c r="I42" s="18">
-        <f t="shared" si="15"/>
+      <c r="J42" s="18">
+        <f t="shared" si="23"/>
         <v>0.53953454749259488</v>
       </c>
-      <c r="J42" s="18">
-        <f t="shared" ref="J42:K44" si="16">(E42-D42)/ABS(D42)</f>
+      <c r="K42" s="18">
+        <f t="shared" ref="K42:L44" si="24">(F42-E42)/ABS(E42)</f>
         <v>0.55448769600881131</v>
       </c>
-      <c r="K42" s="18">
-        <f t="shared" si="16"/>
+      <c r="L42" s="18">
+        <f t="shared" si="24"/>
         <v>0.2205000132385182</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="24" customHeight="1">
+    <row r="43" spans="1:12" ht="24" customHeight="1">
       <c r="A43" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="B43" s="8">
-        <f>B42+B31</f>
-        <v>2187270</v>
-      </c>
+      <c r="B43" s="144"/>
       <c r="C43" s="8">
         <f>C42+C31</f>
-        <v>3281023</v>
+        <v>2187270</v>
       </c>
       <c r="D43" s="8">
         <f>D42+D31</f>
-        <v>4561258</v>
+        <v>3281023</v>
       </c>
       <c r="E43" s="8">
         <f>E42+E31</f>
+        <v>4561258</v>
+      </c>
+      <c r="F43" s="8">
+        <f>F42+F31</f>
         <v>9869550</v>
       </c>
-      <c r="F43" s="8">
-        <f>F42+F31+F41</f>
+      <c r="G43" s="8">
+        <f>G42+G31+G41</f>
         <v>13925764</v>
       </c>
-      <c r="H43" s="18">
-        <f t="shared" ref="H43:H46" si="17">(C43-B43)/ABS(B43)</f>
+      <c r="I43" s="18">
+        <f t="shared" ref="I43:I46" si="25">(D43-C43)/ABS(C43)</f>
         <v>0.5000539485294454</v>
       </c>
-      <c r="I43" s="18">
-        <f t="shared" ref="I43:I46" si="18">(D43-C43)/ABS(C43)</f>
+      <c r="J43" s="18">
+        <f t="shared" ref="J43:J46" si="26">(E43-D43)/ABS(D43)</f>
         <v>0.3901938511250912</v>
       </c>
-      <c r="J43" s="18">
-        <f t="shared" si="16"/>
+      <c r="K43" s="18">
+        <f t="shared" si="24"/>
         <v>1.1637780629817476</v>
       </c>
-      <c r="K43" s="18">
-        <f t="shared" si="16"/>
+      <c r="L43" s="18">
+        <f t="shared" si="24"/>
         <v>0.41098266891600932</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="25.5">
+    <row r="44" spans="1:12" ht="25.5">
       <c r="A44" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="130">
-        <f>B10/B26</f>
-        <v>1.8279653011275385</v>
-      </c>
+      <c r="B44" s="152"/>
       <c r="C44" s="130">
         <f>C10/C26</f>
-        <v>2.0734609603344394</v>
+        <v>1.8279653011275385</v>
       </c>
       <c r="D44" s="130">
         <f>D10/D26</f>
-        <v>1.9006136055746907</v>
+        <v>2.0734609603344394</v>
       </c>
       <c r="E44" s="130">
         <f>E10/E26</f>
-        <v>1.8811035785816355</v>
+        <v>1.9006136055746907</v>
       </c>
       <c r="F44" s="130">
         <f>F10/F26</f>
+        <v>1.8811035785816355</v>
+      </c>
+      <c r="G44" s="130">
+        <f>G10/G26</f>
         <v>1.9357362802993283</v>
       </c>
-      <c r="H44" s="18">
-        <f t="shared" si="17"/>
+      <c r="I44" s="18">
+        <f t="shared" si="25"/>
         <v>0.13429995583366516</v>
       </c>
-      <c r="I44" s="18">
-        <f t="shared" si="18"/>
+      <c r="J44" s="18">
+        <f t="shared" si="26"/>
         <v>-8.3361759910767358E-2</v>
       </c>
-      <c r="J44" s="18">
-        <f t="shared" si="16"/>
+      <c r="K44" s="18">
+        <f t="shared" si="24"/>
         <v>-1.0265120135850018E-2</v>
       </c>
-      <c r="K44" s="18">
-        <f t="shared" si="16"/>
+      <c r="L44" s="18">
+        <f t="shared" si="24"/>
         <v>2.9042899253259768E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="25.5">
+    <row r="45" spans="1:12" ht="25.5">
       <c r="A45" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="71"/>
+      <c r="B45" s="153"/>
       <c r="C45" s="71"/>
       <c r="D45" s="71"/>
       <c r="E45" s="71"/>
       <c r="F45" s="71"/>
-      <c r="H45" s="18"/>
+      <c r="G45" s="71"/>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
       <c r="K45" s="18"/>
-    </row>
-    <row r="46" spans="1:11" ht="25.5">
+      <c r="L45" s="18"/>
+    </row>
+    <row r="46" spans="1:12" ht="25.5">
       <c r="A46" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="130">
-        <f>B31/B42</f>
-        <v>1.7816077921186062</v>
-      </c>
+      <c r="B46" s="152"/>
       <c r="C46" s="130">
         <f>C31/C42</f>
-        <v>1.928174986010722</v>
+        <v>1.7816077921186062</v>
       </c>
       <c r="D46" s="130">
         <f>D31/D42</f>
+        <v>1.928174986010722</v>
+      </c>
+      <c r="E46" s="130">
+        <f>E31/E42</f>
         <v>1.6441308947566737</v>
       </c>
-      <c r="E46" s="130">
-        <f t="shared" ref="E46:F46" si="19">E31/E42</f>
+      <c r="F46" s="130">
+        <f t="shared" ref="F46:G46" si="27">F31/F42</f>
         <v>2.6805131622568728</v>
       </c>
-      <c r="F46" s="130">
-        <f t="shared" si="19"/>
+      <c r="G46" s="130">
+        <f t="shared" si="27"/>
         <v>3.2424824808920651</v>
       </c>
-      <c r="H46" s="18">
-        <f t="shared" si="17"/>
+      <c r="I46" s="18">
+        <f t="shared" si="25"/>
         <v>8.2266812336863906E-2</v>
       </c>
-      <c r="I46" s="18">
-        <f t="shared" si="18"/>
+      <c r="J46" s="18">
+        <f t="shared" si="26"/>
         <v>-0.14731240334245721</v>
-      </c>
-      <c r="J46" s="18">
-        <f>(E46-D46)/ABS(D46)</f>
-        <v>0.63035265063465662</v>
       </c>
       <c r="K46" s="18">
         <f>(F46-E46)/ABS(E46)</f>
+        <v>0.63035265063465662</v>
+      </c>
+      <c r="L46" s="18">
+        <f>(G46-F46)/ABS(F46)</f>
         <v>0.20964990082795909</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="25.5">
+    <row r="47" spans="1:12" ht="25.5">
       <c r="A47" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="127"/>
+      <c r="B47" s="153"/>
       <c r="C47" s="127"/>
       <c r="D47" s="127"/>
       <c r="E47" s="127"/>
       <c r="F47" s="127"/>
-      <c r="H47" s="18"/>
+      <c r="G47" s="127"/>
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
       <c r="K47" s="18"/>
-    </row>
-    <row r="48" spans="1:11" ht="25.5">
+      <c r="L47" s="18"/>
+    </row>
+    <row r="48" spans="1:12" ht="25.5">
       <c r="A48" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="130"/>
+      <c r="B48" s="152"/>
       <c r="C48" s="130"/>
-      <c r="D48" s="130">
-        <f>INCOME成長性!B7/('BALANCE SHEET穩定性'!D6+'BALANCE SHEET穩定性'!C6)*0.5</f>
+      <c r="D48" s="130"/>
+      <c r="E48" s="130">
+        <f>INCOME成長性!B7/('BALANCE SHEET穩定性'!E6+'BALANCE SHEET穩定性'!D6)*0.5</f>
         <v>2.4713255973440655</v>
       </c>
-      <c r="E48" s="130">
-        <f>INCOME成長性!C7/('BALANCE SHEET穩定性'!E6+'BALANCE SHEET穩定性'!D6)*0.5</f>
+      <c r="F48" s="130">
+        <f>INCOME成長性!C7/('BALANCE SHEET穩定性'!F6+'BALANCE SHEET穩定性'!E6)*0.5</f>
         <v>2.9430015239339435</v>
       </c>
-      <c r="F48" s="130">
-        <f>INCOME成長性!D7/('BALANCE SHEET穩定性'!F6+'BALANCE SHEET穩定性'!E6)*0.5</f>
+      <c r="G48" s="130">
+        <f>INCOME成長性!D7/('BALANCE SHEET穩定性'!G6+'BALANCE SHEET穩定性'!F6)*0.5</f>
         <v>4.020292901411195</v>
       </c>
-      <c r="H48" s="18"/>
       <c r="I48" s="18"/>
-      <c r="J48" s="18">
-        <f t="shared" ref="J48" si="20">(E48-D48)/ABS(D48)</f>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18">
+        <f t="shared" ref="K48" si="28">(F48-E48)/ABS(E48)</f>
         <v>0.19085948330595867</v>
       </c>
-      <c r="K48" s="18">
-        <f>(F48-E48)/ABS(E48)</f>
+      <c r="L48" s="18">
+        <f>(G48-F48)/ABS(F48)</f>
         <v>0.36605192648260126</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="25.5">
+    <row r="49" spans="1:12" ht="25.5">
       <c r="A49" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="71"/>
+      <c r="B49" s="153"/>
       <c r="C49" s="71"/>
       <c r="D49" s="71"/>
       <c r="E49" s="71"/>
-      <c r="F49" s="129"/>
-      <c r="H49" s="18"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="129"/>
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
       <c r="K49" s="18"/>
-    </row>
-    <row r="50" spans="1:11" ht="25.5">
+      <c r="L49" s="18"/>
+    </row>
+    <row r="50" spans="1:12" ht="25.5">
       <c r="A50" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="93"/>
+      <c r="B50" s="152"/>
       <c r="C50" s="93"/>
-      <c r="D50" s="130">
-        <f>INCOME成長性!B13/(C26+D26)*0.5</f>
+      <c r="D50" s="93"/>
+      <c r="E50" s="130">
+        <f>INCOME成長性!B13/(D26+E26)*0.5</f>
         <v>0.52049471619014198</v>
       </c>
-      <c r="E50" s="130">
-        <f>INCOME成長性!C13/(D26+E26)*0.5</f>
+      <c r="F50" s="130">
+        <f>INCOME成長性!C13/(E26+F26)*0.5</f>
         <v>0.58109530463701442</v>
       </c>
-      <c r="F50" s="130">
-        <f>INCOME成長性!D13/(E26+F26)*0.5</f>
+      <c r="G50" s="130">
+        <f>INCOME成長性!D13/(F26+G26)*0.5</f>
         <v>0.69245329669640066</v>
       </c>
-      <c r="H50" s="18"/>
       <c r="I50" s="18"/>
-      <c r="J50" s="18">
-        <f>(E50-D50)/ABS(D50)</f>
-        <v>0.11642882542679728</v>
-      </c>
+      <c r="J50" s="18"/>
       <c r="K50" s="18">
         <f>(F50-E50)/ABS(E50)</f>
+        <v>0.11642882542679728</v>
+      </c>
+      <c r="L50" s="18">
+        <f>(G50-F50)/ABS(F50)</f>
         <v>0.19163464438754474</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="25.5">
+    <row r="51" spans="1:12" ht="25.5">
       <c r="A51" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="93"/>
+      <c r="B51" s="152"/>
       <c r="C51" s="93"/>
-      <c r="D51" s="130">
-        <f>365/D48</f>
-        <v>147.69401506311658</v>
-      </c>
+      <c r="D51" s="93"/>
       <c r="E51" s="130">
         <f>365/E48</f>
-        <v>124.02304145330525</v>
+        <v>147.69401506311658</v>
       </c>
       <c r="F51" s="130">
         <f>365/F48</f>
+        <v>124.02304145330525</v>
+      </c>
+      <c r="G51" s="130">
+        <f>365/G48</f>
         <v>90.789404889349839</v>
       </c>
-      <c r="H51" s="18"/>
       <c r="I51" s="18"/>
-      <c r="J51" s="18">
-        <f>(E51-D51)/ABS(D51)</f>
-        <v>-0.16027036437255504</v>
-      </c>
+      <c r="J51" s="18"/>
       <c r="K51" s="18">
         <f>(F51-E51)/ABS(E51)</f>
+        <v>-0.16027036437255504</v>
+      </c>
+      <c r="L51" s="18">
+        <f>(G51-F51)/ABS(F51)</f>
         <v>-0.26796340562626741</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="25.5">
+    <row r="52" spans="1:12" ht="25.5">
       <c r="A52" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="131"/>
+      <c r="B52" s="153"/>
       <c r="C52" s="131"/>
       <c r="D52" s="131"/>
       <c r="E52" s="131"/>
-      <c r="F52" s="132"/>
-      <c r="H52" s="18"/>
+      <c r="F52" s="131"/>
+      <c r="G52" s="132"/>
       <c r="I52" s="18"/>
       <c r="J52" s="18"/>
       <c r="K52" s="18"/>
-    </row>
-    <row r="53" spans="1:11" ht="25.5">
+      <c r="L52" s="18"/>
+    </row>
+    <row r="53" spans="1:12" ht="25.5">
       <c r="A53" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="93"/>
+      <c r="B53" s="152"/>
       <c r="C53" s="93"/>
-      <c r="D53" s="130">
-        <f>365/D50</f>
-        <v>701.25591796913034</v>
-      </c>
+      <c r="D53" s="93"/>
       <c r="E53" s="130">
         <f>365/E50</f>
-        <v>628.12415981918832</v>
+        <v>701.25591796913034</v>
       </c>
       <c r="F53" s="130">
         <f>365/F50</f>
+        <v>628.12415981918832</v>
+      </c>
+      <c r="G53" s="130">
+        <f>365/G50</f>
         <v>527.11136150461664</v>
       </c>
-      <c r="H53" s="18"/>
       <c r="I53" s="18"/>
-      <c r="J53" s="18">
-        <f>(E53-D53)/ABS(D53)</f>
-        <v>-0.10428683206230185</v>
-      </c>
+      <c r="J53" s="18"/>
       <c r="K53" s="18">
         <f>(F53-E53)/ABS(E53)</f>
+        <v>-0.10428683206230185</v>
+      </c>
+      <c r="L53" s="18">
+        <f>(G53-F53)/ABS(F53)</f>
         <v>-0.16081661043518722</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="21" customHeight="1">
+    <row r="54" spans="1:12" ht="21" customHeight="1">
       <c r="A54" s="124"/>
-      <c r="F54" s="124"/>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="B54" s="146"/>
+      <c r="G54" s="124"/>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="124"/>
-      <c r="F55" s="124"/>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="B55" s="146"/>
+      <c r="G55" s="124"/>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="124"/>
-      <c r="F56" s="124"/>
-    </row>
-    <row r="57" spans="1:11" ht="25.5">
+      <c r="B56" s="146"/>
+      <c r="G56" s="124"/>
+    </row>
+    <row r="57" spans="1:12" ht="25.5">
       <c r="A57" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="124"/>
-    </row>
-    <row r="58" spans="1:11" ht="25.5">
+      <c r="B57" s="147"/>
+      <c r="G57" s="124"/>
+    </row>
+    <row r="58" spans="1:12" ht="25.5">
       <c r="A58" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="124"/>
-    </row>
-    <row r="59" spans="1:11" ht="25.5">
+      <c r="B58" s="147"/>
+      <c r="G58" s="124"/>
+    </row>
+    <row r="59" spans="1:12" ht="25.5">
       <c r="A59" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="124"/>
-    </row>
-    <row r="60" spans="1:11" ht="25.5">
+      <c r="B59" s="147"/>
+      <c r="G59" s="124"/>
+    </row>
+    <row r="60" spans="1:12" ht="25.5">
       <c r="A60" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="124"/>
-    </row>
-    <row r="61" spans="1:11" ht="187.5" customHeight="1">
+      <c r="B60" s="147"/>
+      <c r="G60" s="124"/>
+    </row>
+    <row r="61" spans="1:12" ht="187.5" customHeight="1">
       <c r="A61" s="124"/>
-      <c r="F61" s="124"/>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="B61" s="146"/>
+      <c r="G61" s="124"/>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="124"/>
-      <c r="F62" s="124"/>
-    </row>
-    <row r="63" spans="1:11" ht="247.5" customHeight="1">
+      <c r="B62" s="146"/>
+      <c r="G62" s="124"/>
+    </row>
+    <row r="63" spans="1:12" ht="247.5" customHeight="1">
       <c r="A63" s="124"/>
-      <c r="F63" s="124"/>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="B63" s="146"/>
+      <c r="G63" s="124"/>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="124"/>
-      <c r="F64" s="124"/>
-    </row>
-    <row r="65" spans="1:6" ht="244.5" customHeight="1">
+      <c r="B64" s="146"/>
+      <c r="G64" s="124"/>
+    </row>
+    <row r="65" spans="1:7" ht="244.5" customHeight="1">
       <c r="A65" s="124"/>
-      <c r="F65" s="124"/>
-    </row>
-    <row r="66" spans="1:6" ht="19.5">
+      <c r="B65" s="146"/>
+      <c r="G65" s="124"/>
+    </row>
+    <row r="66" spans="1:7" ht="19.5">
       <c r="A66" s="123"/>
-      <c r="F66" s="68"/>
-    </row>
-    <row r="67" spans="1:6" ht="19.5">
+      <c r="B66" s="148"/>
+      <c r="G66" s="68"/>
+    </row>
+    <row r="67" spans="1:7" ht="19.5">
       <c r="A67" s="124"/>
-      <c r="F67" s="68"/>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="B67" s="146"/>
+      <c r="G67" s="68"/>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="124"/>
-      <c r="F69" s="124"/>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="B69" s="146"/>
+      <c r="G69" s="124"/>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="124"/>
-      <c r="F70" s="124"/>
-    </row>
-    <row r="71" spans="1:6" ht="21" customHeight="1">
+      <c r="B70" s="146"/>
+      <c r="G70" s="124"/>
+    </row>
+    <row r="71" spans="1:7" ht="21" customHeight="1">
       <c r="A71" s="124"/>
-      <c r="F71" s="124"/>
-    </row>
-    <row r="73" spans="1:6" ht="33.75" customHeight="1">
+      <c r="B71" s="146"/>
+      <c r="G71" s="124"/>
+    </row>
+    <row r="73" spans="1:7" ht="33.75" customHeight="1">
       <c r="A73" s="124"/>
-      <c r="F73" s="124"/>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="B73" s="146"/>
+      <c r="G73" s="124"/>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="124"/>
-      <c r="F74" s="124"/>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="B74" s="146"/>
+      <c r="G74" s="124"/>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="124"/>
-      <c r="F75" s="124"/>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="B75" s="146"/>
+      <c r="G75" s="124"/>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="124"/>
-      <c r="F76" s="124"/>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="B76" s="146"/>
+      <c r="G76" s="124"/>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="124"/>
-      <c r="F77" s="124"/>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="B77" s="146"/>
+      <c r="G77" s="124"/>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="124"/>
-      <c r="F78" s="124"/>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="B78" s="146"/>
+      <c r="G78" s="124"/>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="124"/>
-      <c r="F79" s="124"/>
-    </row>
-    <row r="80" spans="1:6" ht="19.5">
+      <c r="B79" s="146"/>
+      <c r="G79" s="124"/>
+    </row>
+    <row r="80" spans="1:7" ht="19.5">
       <c r="A80" s="124"/>
-      <c r="F80" s="68"/>
-    </row>
-    <row r="81" spans="1:6" ht="19.5">
+      <c r="B80" s="146"/>
+      <c r="G80" s="68"/>
+    </row>
+    <row r="81" spans="1:7" ht="19.5">
       <c r="A81" s="124"/>
-      <c r="F81" s="68"/>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="B81" s="146"/>
+      <c r="G81" s="68"/>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="67"/>
-      <c r="F82" s="124"/>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="B82" s="149"/>
+      <c r="G82" s="124"/>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="67"/>
-      <c r="F83" s="124"/>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="B83" s="149"/>
+      <c r="G83" s="124"/>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="67"/>
-      <c r="F84" s="124"/>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="B84" s="149"/>
+      <c r="G84" s="124"/>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="124"/>
-      <c r="F85" s="124"/>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="B85" s="146"/>
+      <c r="G85" s="124"/>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="124"/>
-      <c r="F86" s="124"/>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="B86" s="146"/>
+      <c r="G86" s="124"/>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="124"/>
-      <c r="F87" s="125"/>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="B87" s="146"/>
+      <c r="G87" s="125"/>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="124"/>
-      <c r="F88" s="124"/>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="B88" s="146"/>
+      <c r="G88" s="124"/>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="124"/>
-      <c r="F89" s="124"/>
+      <c r="B89" s="146"/>
+      <c r="G89" s="124"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9889,140 +10672,140 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B4:F4</xm:f>
-              <xm:sqref>G4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B20:F20</xm:f>
-              <xm:sqref>G20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B21:F21</xm:f>
-              <xm:sqref>G21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B22:F22</xm:f>
-              <xm:sqref>G22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B23:F23</xm:f>
-              <xm:sqref>G23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B24:F24</xm:f>
-              <xm:sqref>G24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B25:F25</xm:f>
-              <xm:sqref>G25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B26:F26</xm:f>
-              <xm:sqref>G26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B27:F27</xm:f>
-              <xm:sqref>G27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B28:F28</xm:f>
-              <xm:sqref>G28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B29:F29</xm:f>
-              <xm:sqref>G29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B30:F30</xm:f>
-              <xm:sqref>G30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B31:F31</xm:f>
-              <xm:sqref>G31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B32:F32</xm:f>
-              <xm:sqref>G32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B33:F33</xm:f>
-              <xm:sqref>G33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B34:F34</xm:f>
-              <xm:sqref>G34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B35:F35</xm:f>
-              <xm:sqref>G35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B36:F36</xm:f>
-              <xm:sqref>G36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B37:F37</xm:f>
-              <xm:sqref>G37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B38:F38</xm:f>
-              <xm:sqref>G38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B39:F39</xm:f>
-              <xm:sqref>G39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B40:F40</xm:f>
-              <xm:sqref>G40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B41:F41</xm:f>
-              <xm:sqref>G41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B42:F42</xm:f>
-              <xm:sqref>G42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B43:F43</xm:f>
-              <xm:sqref>G43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B44:F44</xm:f>
-              <xm:sqref>G44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B45:F45</xm:f>
-              <xm:sqref>G45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B46:F46</xm:f>
-              <xm:sqref>G46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B47:F47</xm:f>
-              <xm:sqref>G47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B49:F49</xm:f>
-              <xm:sqref>G49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B50:F50</xm:f>
-              <xm:sqref>G50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B51:F51</xm:f>
-              <xm:sqref>G51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B52:F52</xm:f>
-              <xm:sqref>G52</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B53:F53</xm:f>
-              <xm:sqref>G53</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C4:G4</xm:f>
+              <xm:sqref>H4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C20:G20</xm:f>
+              <xm:sqref>H20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C21:G21</xm:f>
+              <xm:sqref>H21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C22:G22</xm:f>
+              <xm:sqref>H22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C23:G23</xm:f>
+              <xm:sqref>H23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C24:G24</xm:f>
+              <xm:sqref>H24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C25:G25</xm:f>
+              <xm:sqref>H25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C26:G26</xm:f>
+              <xm:sqref>H26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C27:G27</xm:f>
+              <xm:sqref>H27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C28:G28</xm:f>
+              <xm:sqref>H28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C29:G29</xm:f>
+              <xm:sqref>H29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C30:G30</xm:f>
+              <xm:sqref>H30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C31:G31</xm:f>
+              <xm:sqref>H31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C32:G32</xm:f>
+              <xm:sqref>H32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C33:G33</xm:f>
+              <xm:sqref>H33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C34:G34</xm:f>
+              <xm:sqref>H34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C35:G35</xm:f>
+              <xm:sqref>H35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C36:G36</xm:f>
+              <xm:sqref>H36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C37:G37</xm:f>
+              <xm:sqref>H37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C38:G38</xm:f>
+              <xm:sqref>H38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C39:G39</xm:f>
+              <xm:sqref>H39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C40:G40</xm:f>
+              <xm:sqref>H40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C41:G41</xm:f>
+              <xm:sqref>H41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C42:G42</xm:f>
+              <xm:sqref>H42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C43:G43</xm:f>
+              <xm:sqref>H43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C44:G44</xm:f>
+              <xm:sqref>H44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C45:G45</xm:f>
+              <xm:sqref>H45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C46:G46</xm:f>
+              <xm:sqref>H46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C47:G47</xm:f>
+              <xm:sqref>H47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C49:G49</xm:f>
+              <xm:sqref>H49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C50:G50</xm:f>
+              <xm:sqref>H50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C51:G51</xm:f>
+              <xm:sqref>H51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C52:G52</xm:f>
+              <xm:sqref>H52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C53:G53</xm:f>
+              <xm:sqref>H53</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10037,8 +10820,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B48:F48</xm:f>
-              <xm:sqref>G48</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C48:G48</xm:f>
+              <xm:sqref>H48</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10053,8 +10836,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B5:F5</xm:f>
-              <xm:sqref>G5</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C5:G5</xm:f>
+              <xm:sqref>H5</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10069,8 +10852,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B6:F6</xm:f>
-              <xm:sqref>G6</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C6:G6</xm:f>
+              <xm:sqref>H6</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10085,8 +10868,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B7:F7</xm:f>
-              <xm:sqref>G7</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C7:G7</xm:f>
+              <xm:sqref>H7</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10101,8 +10884,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B8:F8</xm:f>
-              <xm:sqref>G8</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C8:G8</xm:f>
+              <xm:sqref>H8</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10117,8 +10900,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B9:F9</xm:f>
-              <xm:sqref>G9</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C9:G9</xm:f>
+              <xm:sqref>H9</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10133,8 +10916,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B10:F10</xm:f>
-              <xm:sqref>G10</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C10:G10</xm:f>
+              <xm:sqref>H10</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10149,8 +10932,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B11:F11</xm:f>
-              <xm:sqref>G11</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C11:G11</xm:f>
+              <xm:sqref>H11</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10165,8 +10948,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B12:F12</xm:f>
-              <xm:sqref>G12</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C12:G12</xm:f>
+              <xm:sqref>H12</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10181,8 +10964,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B13:F13</xm:f>
-              <xm:sqref>G13</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C13:G13</xm:f>
+              <xm:sqref>H13</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10197,8 +10980,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B14:F14</xm:f>
-              <xm:sqref>G14</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C14:G14</xm:f>
+              <xm:sqref>H14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10213,8 +10996,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B15:F15</xm:f>
-              <xm:sqref>G15</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C15:G15</xm:f>
+              <xm:sqref>H15</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10229,8 +11012,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B16:F16</xm:f>
-              <xm:sqref>G16</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C16:G16</xm:f>
+              <xm:sqref>H16</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10245,8 +11028,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B17:F17</xm:f>
-              <xm:sqref>G17</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C17:G17</xm:f>
+              <xm:sqref>H17</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10261,8 +11044,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B18:F18</xm:f>
-              <xm:sqref>G18</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C18:G18</xm:f>
+              <xm:sqref>H18</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10277,8 +11060,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H4:K4</xm:f>
-              <xm:sqref>L4</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I4:L4</xm:f>
+              <xm:sqref>M4</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10293,8 +11076,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H5:K5</xm:f>
-              <xm:sqref>L5</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I5:L5</xm:f>
+              <xm:sqref>M5</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10309,8 +11092,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H6:K6</xm:f>
-              <xm:sqref>L6</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I6:L6</xm:f>
+              <xm:sqref>M6</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10325,8 +11108,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H7:K7</xm:f>
-              <xm:sqref>L7</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I7:L7</xm:f>
+              <xm:sqref>M7</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10341,8 +11124,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H8:K8</xm:f>
-              <xm:sqref>L8</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I8:L8</xm:f>
+              <xm:sqref>M8</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10357,8 +11140,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H9:K9</xm:f>
-              <xm:sqref>L9</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I9:L9</xm:f>
+              <xm:sqref>M9</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10373,8 +11156,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H10:K10</xm:f>
-              <xm:sqref>L10</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I10:L10</xm:f>
+              <xm:sqref>M10</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10389,8 +11172,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H11:K11</xm:f>
-              <xm:sqref>L11</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I11:L11</xm:f>
+              <xm:sqref>M11</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10405,8 +11188,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H12:K12</xm:f>
-              <xm:sqref>L12</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I12:L12</xm:f>
+              <xm:sqref>M12</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10421,8 +11204,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H13:K13</xm:f>
-              <xm:sqref>L13</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I13:L13</xm:f>
+              <xm:sqref>M13</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10437,8 +11220,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H14:K14</xm:f>
-              <xm:sqref>L14</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I14:L14</xm:f>
+              <xm:sqref>M14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10453,8 +11236,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H15:K15</xm:f>
-              <xm:sqref>L15</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I15:L15</xm:f>
+              <xm:sqref>M15</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10469,8 +11252,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H16:K16</xm:f>
-              <xm:sqref>L16</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I16:L16</xm:f>
+              <xm:sqref>M16</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10485,8 +11268,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H17:K17</xm:f>
-              <xm:sqref>L17</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I17:L17</xm:f>
+              <xm:sqref>M17</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10501,8 +11284,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H18:K18</xm:f>
-              <xm:sqref>L18</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I18:L18</xm:f>
+              <xm:sqref>M18</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10517,8 +11300,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H21:K21</xm:f>
-              <xm:sqref>L21</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I21:L21</xm:f>
+              <xm:sqref>M21</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10533,8 +11316,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H22:K22</xm:f>
-              <xm:sqref>L22</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I22:L22</xm:f>
+              <xm:sqref>M22</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10549,8 +11332,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H23:K23</xm:f>
-              <xm:sqref>L23</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I23:L23</xm:f>
+              <xm:sqref>M23</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10565,8 +11348,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H24:K24</xm:f>
-              <xm:sqref>L24</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I24:L24</xm:f>
+              <xm:sqref>M24</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10581,8 +11364,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H25:K25</xm:f>
-              <xm:sqref>L25</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I25:L25</xm:f>
+              <xm:sqref>M25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10597,8 +11380,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H26:K26</xm:f>
-              <xm:sqref>L26</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I26:L26</xm:f>
+              <xm:sqref>M26</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10613,8 +11396,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H27:K27</xm:f>
-              <xm:sqref>L27</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I27:L27</xm:f>
+              <xm:sqref>M27</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10629,8 +11412,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H29:K29</xm:f>
-              <xm:sqref>L29</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I29:L29</xm:f>
+              <xm:sqref>M29</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10645,8 +11428,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H30:K30</xm:f>
-              <xm:sqref>L30</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I30:L30</xm:f>
+              <xm:sqref>M30</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10661,8 +11444,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H31:K31</xm:f>
-              <xm:sqref>L31</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I31:L31</xm:f>
+              <xm:sqref>M31</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10677,8 +11460,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H37:K37</xm:f>
-              <xm:sqref>L37</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I37:L37</xm:f>
+              <xm:sqref>M37</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10693,8 +11476,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H38:K38</xm:f>
-              <xm:sqref>L38</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I38:L38</xm:f>
+              <xm:sqref>M38</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10709,8 +11492,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H39:K39</xm:f>
-              <xm:sqref>L39</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I39:L39</xm:f>
+              <xm:sqref>M39</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10725,8 +11508,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H40:K40</xm:f>
-              <xm:sqref>L40</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I40:L40</xm:f>
+              <xm:sqref>M40</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10741,8 +11524,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H41:K41</xm:f>
-              <xm:sqref>L41</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I41:L41</xm:f>
+              <xm:sqref>M41</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10757,8 +11540,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H42:K42</xm:f>
-              <xm:sqref>L42</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I42:L42</xm:f>
+              <xm:sqref>M42</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10773,8 +11556,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H43:K43</xm:f>
-              <xm:sqref>L43</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I43:L43</xm:f>
+              <xm:sqref>M43</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10789,8 +11572,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H44:K44</xm:f>
-              <xm:sqref>L44</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I44:L44</xm:f>
+              <xm:sqref>M44</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10805,8 +11588,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H45:K45</xm:f>
-              <xm:sqref>L45</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I45:L45</xm:f>
+              <xm:sqref>M45</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10821,8 +11604,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H46:K46</xm:f>
-              <xm:sqref>L46</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I46:L46</xm:f>
+              <xm:sqref>M46</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10837,8 +11620,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H47:K47</xm:f>
-              <xm:sqref>L47</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I47:L47</xm:f>
+              <xm:sqref>M47</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10853,8 +11636,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H48:K48</xm:f>
-              <xm:sqref>L48</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I48:L48</xm:f>
+              <xm:sqref>M48</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10869,8 +11652,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H49:K49</xm:f>
-              <xm:sqref>L49</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I49:L49</xm:f>
+              <xm:sqref>M49</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10885,8 +11668,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H50:K50</xm:f>
-              <xm:sqref>L50</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I50:L50</xm:f>
+              <xm:sqref>M50</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10901,8 +11684,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H51:K51</xm:f>
-              <xm:sqref>L51</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I51:L51</xm:f>
+              <xm:sqref>M51</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10917,8 +11700,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H52:K52</xm:f>
-              <xm:sqref>L52</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I52:L52</xm:f>
+              <xm:sqref>M52</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10933,8 +11716,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!H53:K53</xm:f>
-              <xm:sqref>L53</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I53:L53</xm:f>
+              <xm:sqref>M53</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -13755,48 +14538,148 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J41:O41</xm:f>
-              <xm:sqref>P41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J42:O42</xm:f>
-              <xm:sqref>P42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J43:O43</xm:f>
-              <xm:sqref>P43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J44:O44</xm:f>
-              <xm:sqref>P44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J45:O45</xm:f>
-              <xm:sqref>P45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J46:O46</xm:f>
-              <xm:sqref>P46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J47:O47</xm:f>
-              <xm:sqref>P47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J48:O48</xm:f>
-              <xm:sqref>P48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J49:O49</xm:f>
-              <xm:sqref>P49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J50:O50</xm:f>
-              <xm:sqref>P50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J51:O51</xm:f>
-              <xm:sqref>P51</xm:sqref>
+              <xm:f>'CASH FLOWS'!B20:H20</xm:f>
+              <xm:sqref>I20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B21:H21</xm:f>
+              <xm:sqref>I21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B29:H29</xm:f>
+              <xm:sqref>I29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B30:H30</xm:f>
+              <xm:sqref>I30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B39:H39</xm:f>
+              <xm:sqref>I39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B41:H41</xm:f>
+              <xm:sqref>I41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B43:H43</xm:f>
+              <xm:sqref>I43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B44:H44</xm:f>
+              <xm:sqref>I44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B51:H51</xm:f>
+              <xm:sqref>I51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B3:H3</xm:f>
+              <xm:sqref>I3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B4:H4</xm:f>
+              <xm:sqref>I4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B12:H12</xm:f>
+              <xm:sqref>I12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B13:H13</xm:f>
+              <xm:sqref>I13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B26:H26</xm:f>
+              <xm:sqref>I26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B25:H25</xm:f>
+              <xm:sqref>I25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FF92D050"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J20:O20</xm:f>
+              <xm:sqref>P20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J19:O19</xm:f>
+              <xm:sqref>P19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J18:O18</xm:f>
+              <xm:sqref>P18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J17:O17</xm:f>
+              <xm:sqref>P17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J16:O16</xm:f>
+              <xm:sqref>P16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J15:O15</xm:f>
+              <xm:sqref>P15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J14:O14</xm:f>
+              <xm:sqref>P14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J13:O13</xm:f>
+              <xm:sqref>P13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J12:O12</xm:f>
+              <xm:sqref>P12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J11:O11</xm:f>
+              <xm:sqref>P11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J10:O10</xm:f>
+              <xm:sqref>P10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J9:O9</xm:f>
+              <xm:sqref>P9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J8:O8</xm:f>
+              <xm:sqref>P8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J7:O7</xm:f>
+              <xm:sqref>P7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J6:O6</xm:f>
+              <xm:sqref>P6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J5:O5</xm:f>
+              <xm:sqref>P5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J4:O4</xm:f>
+              <xm:sqref>P4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J3:O3</xm:f>
+              <xm:sqref>P3</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -13811,8 +14694,24 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J39:O39</xm:f>
-              <xm:sqref>P39</xm:sqref>
+              <xm:f>'CASH FLOWS'!J29:O29</xm:f>
+              <xm:sqref>P29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J28:O28</xm:f>
+              <xm:sqref>P28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J27:O27</xm:f>
+              <xm:sqref>P27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J26:O26</xm:f>
+              <xm:sqref>P26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J25:O25</xm:f>
+              <xm:sqref>P25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -13827,108 +14726,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J29:O29</xm:f>
-              <xm:sqref>P29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J28:O28</xm:f>
-              <xm:sqref>P28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J27:O27</xm:f>
-              <xm:sqref>P27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J26:O26</xm:f>
-              <xm:sqref>P26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J25:O25</xm:f>
-              <xm:sqref>P25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFFF0000"/>
-          <x14:colorLow rgb="FF92D050"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J20:O20</xm:f>
-              <xm:sqref>P20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J19:O19</xm:f>
-              <xm:sqref>P19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J18:O18</xm:f>
-              <xm:sqref>P18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J17:O17</xm:f>
-              <xm:sqref>P17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J16:O16</xm:f>
-              <xm:sqref>P16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J15:O15</xm:f>
-              <xm:sqref>P15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J14:O14</xm:f>
-              <xm:sqref>P14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J13:O13</xm:f>
-              <xm:sqref>P13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J12:O12</xm:f>
-              <xm:sqref>P12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J11:O11</xm:f>
-              <xm:sqref>P11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J10:O10</xm:f>
-              <xm:sqref>P10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J9:O9</xm:f>
-              <xm:sqref>P9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J8:O8</xm:f>
-              <xm:sqref>P8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J7:O7</xm:f>
-              <xm:sqref>P7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J6:O6</xm:f>
-              <xm:sqref>P6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J5:O5</xm:f>
-              <xm:sqref>P5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J4:O4</xm:f>
-              <xm:sqref>P4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J3:O3</xm:f>
-              <xm:sqref>P3</xm:sqref>
+              <xm:f>'CASH FLOWS'!J39:O39</xm:f>
+              <xm:sqref>P39</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -13943,64 +14742,48 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B20:H20</xm:f>
-              <xm:sqref>I20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B21:H21</xm:f>
-              <xm:sqref>I21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B29:H29</xm:f>
-              <xm:sqref>I29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B30:H30</xm:f>
-              <xm:sqref>I30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B39:H39</xm:f>
-              <xm:sqref>I39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B41:H41</xm:f>
-              <xm:sqref>I41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B43:H43</xm:f>
-              <xm:sqref>I43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B44:H44</xm:f>
-              <xm:sqref>I44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B51:H51</xm:f>
-              <xm:sqref>I51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B3:H3</xm:f>
-              <xm:sqref>I3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B4:H4</xm:f>
-              <xm:sqref>I4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B12:H12</xm:f>
-              <xm:sqref>I12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B13:H13</xm:f>
-              <xm:sqref>I13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B26:H26</xm:f>
-              <xm:sqref>I26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B25:H25</xm:f>
-              <xm:sqref>I25</xm:sqref>
+              <xm:f>'CASH FLOWS'!J41:O41</xm:f>
+              <xm:sqref>P41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J42:O42</xm:f>
+              <xm:sqref>P42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J43:O43</xm:f>
+              <xm:sqref>P43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J44:O44</xm:f>
+              <xm:sqref>P44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J45:O45</xm:f>
+              <xm:sqref>P45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J46:O46</xm:f>
+              <xm:sqref>P46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J47:O47</xm:f>
+              <xm:sqref>P47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J48:O48</xm:f>
+              <xm:sqref>P48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J49:O49</xm:f>
+              <xm:sqref>P49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J50:O50</xm:f>
+              <xm:sqref>P50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J51:O51</xm:f>
+              <xm:sqref>P51</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/Financial/SQ財報 (已修復).xlsx
+++ b/Financial/SQ財報 (已修復).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\004134.TWLIFE.000\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/datanny/Desktop/stuff/美股資料/SQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D1E4DD-E180-864D-BBE1-5E67C91765BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15975" windowHeight="6090" activeTab="2"/>
+    <workbookView xWindow="420" yWindow="1040" windowWidth="28800" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTE" sheetId="8" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="CASH FLOWS" sheetId="12" r:id="rId4"/>
     <sheet name="基本面分析評語" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,41 +37,1047 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Microsoft Office User</author>
     <author>本機超級管理員</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{728B0270-F295-2943-BF1E-109030E781B7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>現金（</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Cash</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>）</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>與約當現金（</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Cash Equivalents</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>）</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>約當現金也叫做「現金等價物」，它的定義嚴格來說，是指短期且具高度流動性之短期投資；因為變現容易且交易成本低，因此可視為現金。約當現金擁有一些特性，如隨時可轉換為定額現金、即將到期、利率變動對其價值影響小。</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>所以，投資日起三個月到期或清償之國庫券</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t> Treasury bill, Treasury securities</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>、商業本票、貨幣市場基金、可轉讓定期存單、銀行承兌匯票</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>……</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>等，皆可視為約當現金。</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>用白話來說，就是任何金融資產如果能在</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>90</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>天之內變成現金，對公司來說，它就是一種很像現金的資產，叫做「約當現金」。一般而言，公司需要持續經營，如果沒有特殊狀況，持續經營個</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>5</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>、</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>10</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>年都很正常，所以</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>90</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>天對公司經營或企業生命來說，是一個非常短的期間。所以在財務界中，任何一種在</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>90</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>天內到期的金融資產，對企業而言就像一、兩天而已，視為現金的一種，因此叫它「約當現金」。</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{1253019C-1692-1A4A-BE60-20EF8D326B30}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="18"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
             <charset val="136"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">美國機構證券 
-公司債券
-商業票據   
-市政證券  
-存款證 
-美國政府證券 
-外國政府證券 </t>
+          <t>短期投資指持有時間不準備超過</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>年的投資，例如股票、債券、基金等</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>如：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">1. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>公平價值變動列入損益之金融資產</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>流動</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">2. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>備供出售金融資產</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>流動</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>以成本衡量的金融資產－流動</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">4. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>持有至到期日金融資產</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>流動</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">5. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>避險之衍生性金融資產</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>流動</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">6. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>無活絡市場的債券投資－流動</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>SQ</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>的短期投資內容為</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>美國機構證券</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>公司債券</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>商業票據</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">   </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>市政證券</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>存款證</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>美國政府證券</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>外國政府證券</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="18"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="細明體"/>
-            <family val="3"/>
+            <family val="1"/>
             <charset val="136"/>
           </rPr>
           <t>指客户交易的第三方支付處理商應支付的款項。應收結算款通常在交易日的一兩個工作日内收到</t>
@@ -78,7 +1085,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -87,81 +1094,160 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{0BB8C8F8-2456-D743-BCBD-A5A18530877E}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="18"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
             <charset val="136"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>1.現金</t>
+          <t>1.</t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="18"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>現金</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
-            <sz val="16"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
-2. </t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">2. </t>
         </r>
         <r>
           <rPr>
             <b/>
-            <sz val="16"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
             <charset val="136"/>
+            <scheme val="minor"/>
           </rPr>
           <t>轉換中的資金</t>
         </r>
         <r>
           <rPr>
-            <b/>
-            <sz val="18"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
             <charset val="136"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
-3.现金等价物:</t>
+</t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="18"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">   
-        </t>
+          <t>3.</t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="18"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
             <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>现金等价物</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">:   </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">        </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
           </rPr>
           <t>貨幣市場基金</t>
         </r>
@@ -169,44 +1255,131 @@
           <rPr>
             <b/>
             <sz val="18"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve"> 
-        </t>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="18"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
             <charset val="136"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>反向回購協議
-    美國機構證券</t>
+          <t xml:space="preserve">        </t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="18"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve"> 
-        </t>
+          <t>反向回購協議</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="18"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
             <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">    </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>美國機構證券</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">        </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
           </rPr>
           <t>美國政府證券</t>
         </r>
@@ -214,21 +1387,47 @@
           <rPr>
             <b/>
             <sz val="18"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve"> 
- 4. </t>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="18"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
             <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> 4. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
           </rPr>
           <t>短期债务證券</t>
         </r>
@@ -236,21 +1435,47 @@
           <rPr>
             <b/>
             <sz val="18"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve"> : 
-        </t>
+          <t xml:space="preserve"> : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="18"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
             <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">        </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
           </rPr>
           <t>美國機構證券</t>
         </r>
@@ -258,21 +1483,47 @@
           <rPr>
             <b/>
             <sz val="18"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve"> 
-        </t>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="18"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
             <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">        </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
           </rPr>
           <t>美國政府證券</t>
         </r>
@@ -280,85 +1531,199 @@
           <rPr>
             <b/>
             <sz val="18"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">   </t>
         </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="新細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0" shapeId="0">
+    <comment ref="A8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="18"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="細明體"/>
-            <family val="3"/>
+            <family val="1"/>
             <charset val="136"/>
           </rPr>
           <t>貸款出售是指在貸款形成之後，將貸款債權出售給第三方，重新獲得資金來源並獲取手續費收入的一種方式。</t>
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="A12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="18"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="細明體"/>
-            <family val="3"/>
+            <family val="1"/>
             <charset val="136"/>
           </rPr>
           <t>當收購金額超過所收購的可識別有形和無形净資產的公允价價值時，就會記錄為商譽</t>
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment ref="A14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="18"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="細明體"/>
-            <family val="3"/>
+            <family val="1"/>
             <charset val="136"/>
           </rPr>
-          <t>企業進行長期債券投資,目的是為了能夠有長期穩定的收益</t>
+          <t>企業進行長期債券投資</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+          </rPr>
+          <t>目的是為了能夠有長期穩定的收益</t>
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0" shapeId="0">
+    <comment ref="A21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="18"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="細明體"/>
-            <family val="3"/>
+            <family val="1"/>
             <charset val="136"/>
           </rPr>
-          <t>應付款項是指欠賣家或現金應用的客户其: 
-交易金额 -公司赚取的收入。
-應付金额包括因時間差異而欠客户的金额，因為本公司通常在一個工作日内结算。該餘額還包括本公司對存放在現金應用中的客户資金的責任。</t>
+          <t>應付款項是指欠賣家或現金應用的客户其</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+          </rPr>
+          <t>交易金额</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve"> -</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+          </rPr>
+          <t>公司赚取的收入。</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="細明體"/>
+            <family val="1"/>
+            <charset val="136"/>
+          </rPr>
+          <t>應付金额包括因時間差異而欠客户的金额，因為本公司通常在一個工作日内结算。該餘額還包括本公司對存放在現金應用中的客户資金的責任。</t>
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0">
+    <comment ref="A25" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="18"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="細明體"/>
-            <family val="3"/>
+            <family val="1"/>
             <charset val="136"/>
           </rPr>
           <t>幫助企業申請低息私人貸款以支付其工資和某些其他費用</t>
@@ -1451,10 +2816,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sales and marketing 市場與收購費用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">General and administrative </t>
     </r>
@@ -1554,18 +2915,6 @@
   </si>
   <si>
     <t>Total liabilities and stockholders’ equity</t>
-  </si>
-  <si>
-    <t>Cash and cash equivalents  (現金與現金等價物)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Customer funds  (客戶的存放資金)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Property and equipment, net   (不動產、廠房及設備)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1665,31 +3014,6 @@
         <charset val="136"/>
       </rPr>
       <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Other non-current assets  (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>其他非流動資產</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>) (with Restricted cash)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2009,17 +3333,133 @@
     <t>項目佔比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>Cash and cash equivalents  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>現金與現金等價物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Customer funds  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>客戶的存放資金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Property and equipment, net   (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不動產、廠房及設備</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sales and marketing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>市場與收購費用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Other non-current assets  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>其他非流動資產</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) (with Restricted cash)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="47">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2298,37 +3738,65 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="81"/>
-      <name val="細明體"/>
-      <family val="3"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="16"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="16"/>
-      <color indexed="81"/>
-      <name val="細明體"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
       <family val="3"/>
       <charset val="136"/>
     </font>
@@ -2543,11 +4011,11 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2602,7 +4070,7 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
@@ -2668,10 +4136,10 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2746,7 +4214,7 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2824,7 +4292,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -2857,7 +4325,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2956,21 +4424,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3009,6 +4462,24 @@
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3292,23 +4763,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>693961</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>13634</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236171</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>251047</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>299356</xdr:colOff>
+      <xdr:colOff>1155868</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>131625</xdr:rowOff>
+      <xdr:rowOff>116858</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="群組 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3316,10 +4787,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10654390" y="4381527"/>
-          <a:ext cx="3673930" cy="716705"/>
-          <a:chOff x="6733216" y="12634486"/>
-          <a:chExt cx="2047648" cy="617478"/>
+          <a:off x="11503729" y="4267791"/>
+          <a:ext cx="3681209" cy="751858"/>
+          <a:chOff x="7209645" y="12584006"/>
+          <a:chExt cx="2047648" cy="655091"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -3327,7 +4798,7 @@
           <xdr:cNvPr id="3" name="直線接點 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3336,9 +4807,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="7757041" y="12634486"/>
-            <a:ext cx="60224" cy="246167"/>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="7875063" y="12584006"/>
+            <a:ext cx="358406" cy="283788"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -3369,7 +4840,7 @@
           <xdr:cNvPr id="4" name="文字方塊 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3377,7 +4848,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6733216" y="12880661"/>
+            <a:off x="7209645" y="12867794"/>
             <a:ext cx="2047648" cy="371303"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3442,7 +4913,7 @@
         <xdr:cNvPr id="11" name="群組 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3450,8 +4921,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10085614" y="8681373"/>
-          <a:ext cx="1902282" cy="678629"/>
+          <a:off x="10078441" y="8579900"/>
+          <a:ext cx="1910299" cy="670612"/>
           <a:chOff x="6733217" y="12667288"/>
           <a:chExt cx="1052432" cy="584673"/>
         </a:xfrm>
@@ -3461,7 +4932,7 @@
           <xdr:cNvPr id="12" name="直線接點 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3503,7 +4974,7 @@
           <xdr:cNvPr id="13" name="文字方塊 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3576,7 +5047,7 @@
         <xdr:cNvPr id="16" name="群組 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3584,8 +5055,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8926287" y="7293362"/>
-          <a:ext cx="10917462" cy="358392"/>
+          <a:off x="8917954" y="7210770"/>
+          <a:ext cx="10915986" cy="354384"/>
           <a:chOff x="5995463" y="12880661"/>
           <a:chExt cx="6049148" cy="309203"/>
         </a:xfrm>
@@ -3595,7 +5066,7 @@
           <xdr:cNvPr id="17" name="直線接點 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3637,7 +5108,7 @@
           <xdr:cNvPr id="18" name="文字方塊 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3798,7 +5269,7 @@
         <xdr:cNvPr id="14" name="群組 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319851A0-8AA2-3F47-9825-CC3BF91A13E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3806,8 +5277,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7892143" y="6856115"/>
-          <a:ext cx="5796644" cy="686778"/>
+          <a:off x="7879907" y="6779219"/>
+          <a:ext cx="5812888" cy="677074"/>
           <a:chOff x="6135038" y="12880661"/>
           <a:chExt cx="3214792" cy="591847"/>
         </a:xfrm>
@@ -3817,7 +5288,7 @@
           <xdr:cNvPr id="15" name="直線接點 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CFCD739-B9F5-D65F-C5F1-2F4006490C7B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3859,7 +5330,7 @@
           <xdr:cNvPr id="19" name="文字方塊 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B19E0195-CC14-F2C6-B5D4-8B4EF9523954}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3969,8 +5440,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15480401" y="7229931"/>
-          <a:ext cx="9679206" cy="1483175"/>
+          <a:off x="15449613" y="7134681"/>
+          <a:ext cx="9713842" cy="1460084"/>
           <a:chOff x="4632486" y="11895924"/>
           <a:chExt cx="5179785" cy="1254385"/>
         </a:xfrm>
@@ -4203,7 +5674,7 @@
         <xdr:cNvPr id="6" name="直線接點 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4260,7 +5731,7 @@
         <xdr:cNvPr id="14" name="群組 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4268,8 +5739,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15521215" y="4894037"/>
-          <a:ext cx="9178017" cy="1059095"/>
+          <a:off x="15490427" y="4857476"/>
+          <a:ext cx="9207362" cy="1048993"/>
           <a:chOff x="4610587" y="11511799"/>
           <a:chExt cx="5030392" cy="1367912"/>
         </a:xfrm>
@@ -4279,7 +5750,7 @@
           <xdr:cNvPr id="15" name="直線接點 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4321,7 +5792,7 @@
           <xdr:cNvPr id="16" name="文字方塊 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4466,7 +5937,7 @@
         <xdr:cNvPr id="18" name="群組 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4474,8 +5945,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4054930" y="3440073"/>
-          <a:ext cx="9951357" cy="1002656"/>
+          <a:off x="4054930" y="3432857"/>
+          <a:ext cx="9923455" cy="986300"/>
           <a:chOff x="6324019" y="12880660"/>
           <a:chExt cx="3164800" cy="988012"/>
         </a:xfrm>
@@ -4485,7 +5956,7 @@
           <xdr:cNvPr id="19" name="直線接點 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4527,7 +5998,7 @@
           <xdr:cNvPr id="20" name="文字方塊 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4653,7 +6124,7 @@
         <xdr:cNvPr id="25" name="直線接點 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4707,7 +6178,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="橢圓 52"/>
+        <xdr:cNvPr id="53" name="橢圓 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4772,7 +6249,7 @@
         <xdr:cNvPr id="54" name="群組 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4780,8 +6257,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6150429" y="11840278"/>
-          <a:ext cx="6844391" cy="369875"/>
+          <a:off x="6150429" y="11627649"/>
+          <a:ext cx="6819376" cy="382383"/>
           <a:chOff x="6595529" y="12479002"/>
           <a:chExt cx="4474201" cy="488397"/>
         </a:xfrm>
@@ -4791,7 +6268,7 @@
           <xdr:cNvPr id="55" name="直線接點 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4833,7 +6310,7 @@
           <xdr:cNvPr id="56" name="文字方塊 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4922,7 +6399,7 @@
         <xdr:cNvPr id="21" name="群組 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4930,8 +6407,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="22129756" y="3671658"/>
-          <a:ext cx="5107212" cy="1099914"/>
+          <a:off x="22121097" y="3664442"/>
+          <a:ext cx="5130303" cy="1070569"/>
           <a:chOff x="4938011" y="11424112"/>
           <a:chExt cx="2797968" cy="1420521"/>
         </a:xfrm>
@@ -4941,7 +6418,7 @@
           <xdr:cNvPr id="22" name="直線接點 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4983,7 +6460,7 @@
           <xdr:cNvPr id="23" name="文字方塊 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5082,7 +6559,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="橢圓 23"/>
+        <xdr:cNvPr id="24" name="橢圓 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5147,7 +6630,7 @@
         <xdr:cNvPr id="38" name="群組 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5155,8 +6638,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="557893" y="1941085"/>
-          <a:ext cx="3524248" cy="1803148"/>
+          <a:off x="557893" y="1950225"/>
+          <a:ext cx="3524248" cy="1796413"/>
           <a:chOff x="5414262" y="11093561"/>
           <a:chExt cx="1927325" cy="2347323"/>
         </a:xfrm>
@@ -5166,7 +6649,7 @@
           <xdr:cNvPr id="39" name="直線接點 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5208,7 +6691,7 @@
           <xdr:cNvPr id="40" name="文字方塊 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5280,68 +6763,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>813707</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="橢圓 29"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19923125" y="1222375"/>
-          <a:ext cx="575582" cy="349250"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00">
-            <a:alpha val="30000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -5355,7 +6776,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="橢圓 30"/>
+        <xdr:cNvPr id="31" name="橢圓 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5400,6 +6827,1755 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>291954</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>277356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>35467</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>36677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="橢圓 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E791E6FA-09EE-A448-BE2D-C9827F8A5062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21633793" y="1853908"/>
+          <a:ext cx="575582" cy="343229"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="30000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>277355</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>277359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>43792</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>29196</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="橢圓 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF23459E-6DB8-8744-AB55-2AD9B2FD1559}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20787125" y="4014370"/>
+          <a:ext cx="1430575" cy="335746"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="30000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>303839</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>304156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>44850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>43353</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="橢圓 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F611E400-62F7-0E40-9F67-85539A05D387}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19961625" y="3098156"/>
+          <a:ext cx="575582" cy="337911"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="30000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>299357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>820511</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11339</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="橢圓 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C56BFD6-EA0A-FC4B-ABDF-EEA9C603E330}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21571858" y="4880428"/>
+          <a:ext cx="575582" cy="337911"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="30000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>212768</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>291110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>788350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>31955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="橢圓 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCFF6EFE-8C82-3D49-A3A3-AF869B311BC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21542995" y="6049405"/>
+          <a:ext cx="575582" cy="332550"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="30000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>264145</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>284760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2682</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="橢圓 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A71C0AE5-8952-1E40-8D2B-6A1FE5DB76D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20757327" y="6043055"/>
+          <a:ext cx="575582" cy="332550"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="30000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>230909</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>274206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>806491</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>15051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="橢圓 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5D99D96-7844-7448-9ACA-0E85107F481C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19887045" y="7807615"/>
+          <a:ext cx="575582" cy="332550"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="30000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>191393</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>246758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>768936</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>6079</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="橢圓 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA1A71A-9BE9-CE4C-B795-B32CFA1457BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20748460" y="924091"/>
+          <a:ext cx="577543" cy="335055"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="30000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>251038</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>257120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>828581</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12903</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="橢圓 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{184BA1A5-0910-EA4B-9EEA-1C67DCA1B5F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20808105" y="1831920"/>
+          <a:ext cx="577543" cy="331516"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="30000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>568657</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>227463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>720299</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>682388</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="43" name="群組 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2270E9C-2B31-8BC0-DE3C-10C810525B37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="24025172" y="10483675"/>
+          <a:ext cx="8618309" cy="1936592"/>
+          <a:chOff x="24016269" y="10330597"/>
+          <a:chExt cx="8491940" cy="1914478"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="矩形 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBAC1D01-0D8D-BD7B-23D5-D9BFC2EFDD9F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="24016269" y="10330597"/>
+            <a:ext cx="8491940" cy="1914478"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="41" name="圖片 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{467B5536-6718-5623-23FB-85C757651FB1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="24395373" y="10482238"/>
+            <a:ext cx="7772400" cy="1589398"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>880534</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>237067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>568657</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>327926</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線接點 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE3EB00-ABE2-D248-9871-C4EDE69CDB82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="16543867" y="8111067"/>
+          <a:ext cx="7528257" cy="3291259"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>677333</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>169330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>186268</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>67731</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="57" name="群組 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D3EED6-9D12-594A-9212-2C2FCA27C591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="21189757" y="1131451"/>
+          <a:ext cx="11766359" cy="1745674"/>
+          <a:chOff x="4938011" y="11424112"/>
+          <a:chExt cx="3975790" cy="1317717"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="58" name="直線接點 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7126AC44-2B7A-6668-F5BA-F54DA24689E4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="59" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="4938011" y="11424112"/>
+            <a:ext cx="1657519" cy="1186306"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="59" name="文字方塊 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C03DD94-5DFA-1B85-55E9-6726DD8961CD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6595530" y="12479002"/>
+            <a:ext cx="2318271" cy="262827"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>因為發行了</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>20</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>億以上的債券（負債）</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> 故因為資產負債表需平衡</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>資產增加了約</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>20</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>億</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>880534</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>232461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>97326</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>270933</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線接點 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D1265A-B815-304E-8101-9779B5E453E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16543867" y="2704728"/>
+          <a:ext cx="9596926" cy="5440205"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7573538</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>210379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>170366</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139384</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="67" name="群組 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F38650-6904-5C4B-8F86-E0224895BBC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7573538" y="595227"/>
+          <a:ext cx="6316676" cy="1122036"/>
+          <a:chOff x="6254731" y="12479003"/>
+          <a:chExt cx="3489366" cy="1487869"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="68" name="直線接點 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{877ED067-18A6-2DDE-2617-D9CED02C6256}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="69" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="7735978" y="12645355"/>
+            <a:ext cx="2008119" cy="1321517"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="69" name="文字方塊 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{878D8FCE-758B-D030-7781-A47C88D378A3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6254731" y="12479003"/>
+            <a:ext cx="1481248" cy="332699"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>結算日遇到週末</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>來不及算帳</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>92927</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>86491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>340733</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>108416</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="74" name="群組 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D50FCE-CE1C-F244-A4E7-106BFFF165BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="21452018" y="471339"/>
+          <a:ext cx="8271897" cy="1503592"/>
+          <a:chOff x="4099532" y="11506223"/>
+          <a:chExt cx="4515652" cy="1994513"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="75" name="直線接點 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A64000-B06E-9935-5D45-46D0F82CE885}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="76" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4099532" y="11713096"/>
+            <a:ext cx="2025616" cy="1787640"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="76" name="文字方塊 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71220199-DC6D-87C7-4CC6-35B4641D96FD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6125148" y="11506223"/>
+            <a:ext cx="2490036" cy="413746"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>客戶存款的投資增加</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>應主要與疫情期間交易量</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>GPV</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>增加有關</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>44850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>123901</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>46466</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="82" name="群組 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B8AED16-ADCB-324A-BB01-F8D07C3DB16B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="20557274" y="3283282"/>
+          <a:ext cx="13183142" cy="784851"/>
+          <a:chOff x="2670742" y="12289860"/>
+          <a:chExt cx="7193434" cy="1069226"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="83" name="直線接點 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F294528-79AE-A002-0D7A-29ECEAEC423D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="84" idx="1"/>
+            <a:endCxn id="32" idx="6"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="2670742" y="12289860"/>
+            <a:ext cx="3924789" cy="629179"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="文字方塊 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BBB2425-80D5-5A2D-F385-A8694F53C5F7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6595531" y="12479004"/>
+            <a:ext cx="3268645" cy="880082"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Property and equipment, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>net</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 裡面租賃資產的改良</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(Leasehold improvements)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400" u="sng" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+                <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
+                  <a:extLst>
+                    <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
+                      <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
+                    </a:ext>
+                  </a:extLst>
+                </a:hlinkClick>
+              </a:rPr>
+              <a:t>該年度沒有太多</a:t>
+            </a:r>
+            <a:endParaRPr lang="en" altLang="zh-TW" sz="1400" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
+                <a:extLst>
+                  <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
+                    <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
+                  </a:ext>
+                </a:extLst>
+              </a:hlinkClick>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>433658</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>29204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>160574</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>108421</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="94" name="群組 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAB45492-727E-7E4D-9DD7-DA5CEB083548}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="18001991" y="4339507"/>
+          <a:ext cx="3517674" cy="367853"/>
+          <a:chOff x="2765708" y="11300183"/>
+          <a:chExt cx="1918876" cy="488715"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="95" name="直線接點 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2FA831-553C-4A9E-0A78-C48796E9DC67}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="96" idx="3"/>
+            <a:endCxn id="29" idx="4"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="4537393" y="11300183"/>
+            <a:ext cx="147191" cy="306851"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="96" name="文字方塊 95">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A00FAD8C-8585-7E0F-FB54-6806D1FF177D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2765708" y="11425163"/>
+            <a:ext cx="1771685" cy="363735"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>看似是單純增加投資美國與公司債券</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5701,45 +8877,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView zoomScale="60" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="72.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.25">
+    <row r="1" spans="1:16" ht="20">
       <c r="A1" s="80" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" ht="17">
       <c r="B2" s="91" t="s">
         <v>176</v>
       </c>
       <c r="C2" s="90"/>
-      <c r="G2" s="136" t="s">
+      <c r="G2" s="149" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
       <c r="K2" s="10"/>
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:16" ht="19.5">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
+    <row r="3" spans="1:16" ht="22">
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
       <c r="E3" s="78">
         <v>2016</v>
       </c>
@@ -5778,10 +8954,10 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="18">
-      <c r="A4" s="136"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
+      <c r="A4" s="149"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
       <c r="E4" s="13">
         <v>197</v>
       </c>
@@ -5823,43 +8999,43 @@
       <c r="P4" s="71"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="136"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
+      <c r="A5" s="149"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="136"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
+      <c r="A6" s="149"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="136"/>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
+      <c r="A7" s="149"/>
+      <c r="B7" s="149"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="136" t="s">
+      <c r="G7" s="149" t="s">
         <v>174</v>
       </c>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="149"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:16" ht="19.5">
-      <c r="A8" s="136"/>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
+    <row r="8" spans="1:16" ht="22">
+      <c r="A8" s="149"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
       <c r="E8" s="78">
         <v>2016</v>
       </c>
@@ -5898,10 +9074,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="18">
-      <c r="A9" s="136"/>
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
+      <c r="A9" s="149"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="149"/>
       <c r="E9" s="13">
         <v>6129</v>
       </c>
@@ -5943,43 +9119,43 @@
       <c r="P9" s="71"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="136"/>
-      <c r="B10" s="136"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="136"/>
+      <c r="A10" s="149"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="136"/>
-      <c r="B11" s="136"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="136"/>
+      <c r="A11" s="149"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="136"/>
-      <c r="B12" s="136"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="136"/>
+      <c r="A12" s="149"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="136" t="s">
+      <c r="G12" s="149" t="s">
         <v>175</v>
       </c>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="136"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="149"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:16" ht="19.5">
-      <c r="A13" s="136"/>
-      <c r="B13" s="136"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
+    <row r="13" spans="1:16" ht="22">
+      <c r="A13" s="149"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
       <c r="E13" s="78">
         <v>2016</v>
       </c>
@@ -6018,10 +9194,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="18">
-      <c r="A14" s="136"/>
-      <c r="B14" s="136"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
+      <c r="A14" s="149"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
       <c r="E14" s="13">
         <v>354014</v>
       </c>
@@ -6065,19 +9241,19 @@
     <row r="15" spans="1:16" ht="18">
       <c r="E15" s="13"/>
     </row>
-    <row r="17" spans="1:18" ht="32.1" customHeight="1">
+    <row r="17" spans="1:18" ht="32" customHeight="1">
       <c r="A17" s="80" t="s">
         <v>124</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
-    <row r="18" spans="1:18" ht="30.95" customHeight="1">
+    <row r="18" spans="1:18" ht="31" customHeight="1">
       <c r="A18" s="82" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="19.5">
+    <row r="19" spans="1:18" ht="22">
       <c r="A19" s="70" t="s">
         <v>94</v>
       </c>
@@ -6094,7 +9270,7 @@
       <c r="F19" s="94"/>
       <c r="G19" s="94"/>
     </row>
-    <row r="20" spans="1:18" ht="18.75">
+    <row r="20" spans="1:18" ht="18">
       <c r="A20" s="79" t="s">
         <v>95</v>
       </c>
@@ -6111,7 +9287,7 @@
       <c r="F20" s="95"/>
       <c r="G20" s="95"/>
     </row>
-    <row r="21" spans="1:18" ht="18.75">
+    <row r="21" spans="1:18" ht="18">
       <c r="A21" s="79" t="s">
         <v>96</v>
       </c>
@@ -6128,7 +9304,7 @@
       <c r="F21" s="95"/>
       <c r="G21" s="95"/>
     </row>
-    <row r="22" spans="1:18" ht="18.75">
+    <row r="22" spans="1:18" ht="18">
       <c r="A22" s="79" t="s">
         <v>100</v>
       </c>
@@ -6145,7 +9321,7 @@
       <c r="F22" s="95"/>
       <c r="G22" s="95"/>
     </row>
-    <row r="23" spans="1:18" ht="18.75">
+    <row r="23" spans="1:18" ht="18">
       <c r="A23" s="74" t="s">
         <v>101</v>
       </c>
@@ -6165,7 +9341,7 @@
       <c r="F23" s="96"/>
       <c r="G23" s="96"/>
     </row>
-    <row r="24" spans="1:18" ht="19.5">
+    <row r="24" spans="1:18" ht="22">
       <c r="A24" s="79" t="s">
         <v>97</v>
       </c>
@@ -6182,7 +9358,7 @@
       <c r="F24" s="94"/>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="1:18" ht="18.75">
+    <row r="25" spans="1:18" ht="18">
       <c r="A25" s="79" t="s">
         <v>98</v>
       </c>
@@ -6199,7 +9375,7 @@
       <c r="F25" s="95"/>
       <c r="G25" s="95"/>
     </row>
-    <row r="26" spans="1:18" ht="18.75">
+    <row r="26" spans="1:18" ht="18">
       <c r="A26" s="79" t="s">
         <v>99</v>
       </c>
@@ -6216,7 +9392,7 @@
       <c r="F26" s="95"/>
       <c r="G26" s="95"/>
     </row>
-    <row r="27" spans="1:18" ht="18.75">
+    <row r="27" spans="1:18" ht="18">
       <c r="A27" s="74" t="s">
         <v>101</v>
       </c>
@@ -6236,12 +9412,12 @@
       <c r="F27" s="97"/>
       <c r="G27" s="97"/>
     </row>
-    <row r="30" spans="1:18" ht="32.1" customHeight="1">
+    <row r="30" spans="1:18" ht="32" customHeight="1">
       <c r="A30" s="80" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="19.5">
+    <row r="31" spans="1:18" ht="22">
       <c r="A31" s="70" t="s">
         <v>103</v>
       </c>
@@ -6259,7 +9435,7 @@
       <c r="G31" s="94"/>
       <c r="I31" s="68"/>
     </row>
-    <row r="32" spans="1:18" ht="19.5">
+    <row r="32" spans="1:18" ht="22">
       <c r="A32" s="70" t="s">
         <v>15</v>
       </c>
@@ -6277,7 +9453,7 @@
       <c r="G32" s="95"/>
       <c r="R32" s="68"/>
     </row>
-    <row r="33" spans="1:18" ht="18.75">
+    <row r="33" spans="1:18" ht="18">
       <c r="A33" s="70" t="s">
         <v>107</v>
       </c>
@@ -6288,7 +9464,7 @@
       <c r="F33" s="95"/>
       <c r="G33" s="95"/>
     </row>
-    <row r="34" spans="1:18" ht="19.5">
+    <row r="34" spans="1:18" ht="22">
       <c r="A34" s="70" t="s">
         <v>108</v>
       </c>
@@ -6306,7 +9482,7 @@
       <c r="G34" s="95"/>
       <c r="O34" s="68"/>
     </row>
-    <row r="35" spans="1:18" ht="19.5">
+    <row r="35" spans="1:18" ht="22">
       <c r="A35" s="70" t="s">
         <v>110</v>
       </c>
@@ -6324,7 +9500,7 @@
       <c r="G35" s="95"/>
       <c r="O35" s="68"/>
     </row>
-    <row r="36" spans="1:18" ht="19.5">
+    <row r="36" spans="1:18" ht="22">
       <c r="A36" s="70" t="s">
         <v>113</v>
       </c>
@@ -6342,7 +9518,7 @@
       <c r="G36" s="95"/>
       <c r="O36" s="68"/>
     </row>
-    <row r="37" spans="1:18" ht="18.75">
+    <row r="37" spans="1:18" ht="18">
       <c r="A37" s="70" t="s">
         <v>16</v>
       </c>
@@ -6353,7 +9529,7 @@
       <c r="F37" s="95"/>
       <c r="G37" s="95"/>
     </row>
-    <row r="38" spans="1:18" ht="19.5">
+    <row r="38" spans="1:18" ht="22">
       <c r="A38" s="70" t="s">
         <v>17</v>
       </c>
@@ -6377,7 +9553,7 @@
       <c r="O38" s="67"/>
       <c r="R38" s="68"/>
     </row>
-    <row r="39" spans="1:18" ht="18.75">
+    <row r="39" spans="1:18" ht="18">
       <c r="A39" s="70" t="s">
         <v>19</v>
       </c>
@@ -6402,19 +9578,19 @@
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
     </row>
-    <row r="42" spans="1:18" ht="32.1" customHeight="1">
+    <row r="42" spans="1:18" ht="32" customHeight="1">
       <c r="A42" s="80" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="32.1" customHeight="1">
+    <row r="43" spans="1:18" ht="32" customHeight="1">
       <c r="A43" s="80" t="s">
         <v>119</v>
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
     </row>
-    <row r="44" spans="1:18" ht="32.1" customHeight="1">
+    <row r="44" spans="1:18" ht="32" customHeight="1">
       <c r="A44" s="80" t="s">
         <v>120</v>
       </c>
@@ -6429,21 +9605,21 @@
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
     </row>
-    <row r="47" spans="1:18" ht="32.1" customHeight="1">
+    <row r="47" spans="1:18" ht="32" customHeight="1">
       <c r="A47" s="80" t="s">
         <v>121</v>
       </c>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
     </row>
-    <row r="48" spans="1:18" ht="32.1" customHeight="1">
+    <row r="48" spans="1:18" ht="32" customHeight="1">
       <c r="A48" s="82" t="s">
         <v>122</v>
       </c>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
     </row>
-    <row r="49" spans="1:14" ht="19.5">
+    <row r="49" spans="1:14" ht="22">
       <c r="A49" s="70" t="s">
         <v>125</v>
       </c>
@@ -6454,7 +9630,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="19.5">
+    <row r="50" spans="1:14" ht="22">
       <c r="A50" s="79" t="s">
         <v>126</v>
       </c>
@@ -6466,7 +9642,7 @@
       </c>
       <c r="N50" s="68"/>
     </row>
-    <row r="51" spans="1:14" ht="19.5">
+    <row r="51" spans="1:14" ht="22">
       <c r="A51" s="79" t="s">
         <v>127</v>
       </c>
@@ -6478,7 +9654,7 @@
       </c>
       <c r="I51" s="68"/>
     </row>
-    <row r="52" spans="1:14" ht="19.5">
+    <row r="52" spans="1:14" ht="22">
       <c r="A52" s="79" t="s">
         <v>128</v>
       </c>
@@ -6490,7 +9666,7 @@
       </c>
       <c r="I52" s="68"/>
     </row>
-    <row r="53" spans="1:14" ht="19.5">
+    <row r="53" spans="1:14" ht="22">
       <c r="A53" s="79" t="s">
         <v>129</v>
       </c>
@@ -6502,7 +9678,7 @@
       </c>
       <c r="I53" s="68"/>
     </row>
-    <row r="54" spans="1:14" ht="19.5">
+    <row r="54" spans="1:14" ht="22">
       <c r="A54" s="79" t="s">
         <v>130</v>
       </c>
@@ -6514,7 +9690,7 @@
       </c>
       <c r="I54" s="68"/>
     </row>
-    <row r="55" spans="1:14" ht="19.5">
+    <row r="55" spans="1:14" ht="22">
       <c r="A55" s="79" t="s">
         <v>131</v>
       </c>
@@ -6526,7 +9702,7 @@
       </c>
       <c r="I55" s="68"/>
     </row>
-    <row r="56" spans="1:14" ht="19.5">
+    <row r="56" spans="1:14" ht="22">
       <c r="A56" s="74" t="s">
         <v>132</v>
       </c>
@@ -6540,7 +9716,7 @@
       </c>
       <c r="I56" s="68"/>
     </row>
-    <row r="57" spans="1:14" ht="19.5">
+    <row r="57" spans="1:14" ht="22">
       <c r="A57" s="70" t="s">
         <v>133</v>
       </c>
@@ -6552,7 +9728,7 @@
       </c>
       <c r="I57" s="68"/>
     </row>
-    <row r="58" spans="1:14" ht="18.75">
+    <row r="58" spans="1:14" ht="18">
       <c r="A58" s="74" t="s">
         <v>134</v>
       </c>
@@ -6568,12 +9744,12 @@
     <row r="59" spans="1:14">
       <c r="A59" s="67"/>
     </row>
-    <row r="60" spans="1:14" ht="21.95" customHeight="1">
+    <row r="60" spans="1:14" ht="22" customHeight="1">
       <c r="A60" s="82" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="19.5">
+    <row r="61" spans="1:14" ht="22">
       <c r="A61" s="70" t="s">
         <v>135</v>
       </c>
@@ -6584,7 +9760,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="19.5">
+    <row r="62" spans="1:14" ht="22">
       <c r="A62" s="79" t="s">
         <v>95</v>
       </c>
@@ -6597,7 +9773,7 @@
       <c r="I62" s="67"/>
       <c r="N62" s="68"/>
     </row>
-    <row r="63" spans="1:14" ht="19.5">
+    <row r="63" spans="1:14" ht="22">
       <c r="A63" s="79" t="s">
         <v>136</v>
       </c>
@@ -6609,7 +9785,7 @@
       </c>
       <c r="I63" s="68"/>
     </row>
-    <row r="64" spans="1:14" ht="19.5">
+    <row r="64" spans="1:14" ht="22">
       <c r="A64" s="74" t="s">
         <v>137</v>
       </c>
@@ -6622,12 +9798,12 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="29.1" customHeight="1">
+    <row r="66" spans="1:18" ht="29" customHeight="1">
       <c r="A66" s="82" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="19.5">
+    <row r="67" spans="1:18" ht="22">
       <c r="A67" s="71"/>
       <c r="B67" s="78">
         <v>2019</v>
@@ -6647,7 +9823,7 @@
       <c r="M67" s="67"/>
       <c r="R67" s="68"/>
     </row>
-    <row r="68" spans="1:18" ht="19.5">
+    <row r="68" spans="1:18" ht="22">
       <c r="A68" s="79" t="s">
         <v>140</v>
       </c>
@@ -6668,7 +9844,7 @@
       <c r="L68" s="68"/>
       <c r="M68" s="68"/>
     </row>
-    <row r="69" spans="1:18" ht="19.5">
+    <row r="69" spans="1:18" ht="22">
       <c r="A69" s="79" t="s">
         <v>143</v>
       </c>
@@ -6689,7 +9865,7 @@
       <c r="L69" s="68"/>
       <c r="M69" s="68"/>
     </row>
-    <row r="70" spans="1:18" ht="19.5">
+    <row r="70" spans="1:18" ht="22">
       <c r="A70" s="79" t="s">
         <v>144</v>
       </c>
@@ -6710,7 +9886,7 @@
       <c r="L70" s="68"/>
       <c r="M70" s="68"/>
     </row>
-    <row r="71" spans="1:18" ht="18.75">
+    <row r="71" spans="1:18" ht="18">
       <c r="A71" s="79" t="s">
         <v>36</v>
       </c>
@@ -6727,7 +9903,7 @@
       <c r="F71" s="95"/>
       <c r="G71" s="95"/>
     </row>
-    <row r="72" spans="1:18" ht="19.5">
+    <row r="72" spans="1:18" ht="22">
       <c r="A72" s="74" t="s">
         <v>147</v>
       </c>
@@ -6765,7 +9941,7 @@
       <c r="M75" s="21"/>
       <c r="N75" s="21"/>
     </row>
-    <row r="76" spans="1:18" ht="19.5">
+    <row r="76" spans="1:18" ht="22">
       <c r="A76" s="70" t="s">
         <v>149</v>
       </c>
@@ -6776,7 +9952,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="19.5">
+    <row r="77" spans="1:18" ht="22">
       <c r="A77" s="79" t="s">
         <v>150</v>
       </c>
@@ -6788,7 +9964,7 @@
       </c>
       <c r="N77" s="68"/>
     </row>
-    <row r="78" spans="1:18" ht="18.75">
+    <row r="78" spans="1:18" ht="18">
       <c r="A78" s="79" t="s">
         <v>151</v>
       </c>
@@ -6799,7 +9975,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="18.75">
+    <row r="79" spans="1:18" ht="18">
       <c r="A79" s="79" t="s">
         <v>152</v>
       </c>
@@ -6810,7 +9986,7 @@
         <v>18336</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="18.75">
+    <row r="80" spans="1:18" ht="18">
       <c r="A80" s="79" t="s">
         <v>153</v>
       </c>
@@ -6821,7 +9997,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="19.5">
+    <row r="81" spans="1:14" ht="22">
       <c r="A81" s="74" t="s">
         <v>154</v>
       </c>
@@ -6835,14 +10011,14 @@
       </c>
       <c r="N81" s="68"/>
     </row>
-    <row r="82" spans="1:14" ht="19.5">
+    <row r="82" spans="1:14" ht="22">
       <c r="A82" s="70" t="s">
         <v>155</v>
       </c>
       <c r="B82" s="70"/>
       <c r="C82" s="73"/>
     </row>
-    <row r="83" spans="1:14" ht="19.5">
+    <row r="83" spans="1:14" ht="22">
       <c r="A83" s="79" t="s">
         <v>151</v>
       </c>
@@ -6854,7 +10030,7 @@
       </c>
       <c r="N83" s="68"/>
     </row>
-    <row r="84" spans="1:14" ht="18.75">
+    <row r="84" spans="1:14" ht="18">
       <c r="A84" s="79" t="s">
         <v>152</v>
       </c>
@@ -6865,7 +10041,7 @@
         <v>3604</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="18.75">
+    <row r="85" spans="1:14" ht="18">
       <c r="A85" s="79" t="s">
         <v>156</v>
       </c>
@@ -6876,7 +10052,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="19.5">
+    <row r="86" spans="1:14" ht="22">
       <c r="A86" s="74" t="s">
         <v>157</v>
       </c>
@@ -6890,14 +10066,14 @@
       </c>
       <c r="N86" s="68"/>
     </row>
-    <row r="87" spans="1:14" ht="19.5">
+    <row r="87" spans="1:14" ht="22">
       <c r="A87" s="70" t="s">
         <v>158</v>
       </c>
       <c r="B87" s="73"/>
       <c r="C87" s="73"/>
     </row>
-    <row r="88" spans="1:14" ht="19.5">
+    <row r="88" spans="1:14" ht="22">
       <c r="A88" s="79" t="s">
         <v>151</v>
       </c>
@@ -6909,7 +10085,7 @@
       </c>
       <c r="N88" s="68"/>
     </row>
-    <row r="89" spans="1:14" ht="18.75">
+    <row r="89" spans="1:14" ht="18">
       <c r="A89" s="79" t="s">
         <v>152</v>
       </c>
@@ -6920,7 +10096,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="18.75">
+    <row r="90" spans="1:14" ht="18">
       <c r="A90" s="79" t="s">
         <v>156</v>
       </c>
@@ -6931,7 +10107,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="18.75">
+    <row r="91" spans="1:14" ht="18">
       <c r="A91" s="79" t="s">
         <v>159</v>
       </c>
@@ -6942,7 +10118,7 @@
         <v>3207</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="19.5">
+    <row r="92" spans="1:14" ht="22">
       <c r="A92" s="74" t="s">
         <v>160</v>
       </c>
@@ -6955,7 +10131,7 @@
         <v>6797</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="17.25">
+    <row r="94" spans="1:14" ht="17">
       <c r="A94" s="81" t="s">
         <v>161</v>
       </c>
@@ -6985,7 +10161,7 @@
       <c r="G96" s="21"/>
       <c r="H96" s="21"/>
     </row>
-    <row r="97" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="97" spans="1:8" ht="34" customHeight="1">
       <c r="A97" s="80" t="s">
         <v>163</v>
       </c>
@@ -6997,7 +10173,7 @@
       <c r="G97" s="21"/>
       <c r="H97" s="21"/>
     </row>
-    <row r="98" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="98" spans="1:8" ht="20" customHeight="1">
       <c r="A98" s="83" t="s">
         <v>162</v>
       </c>
@@ -7009,22 +10185,22 @@
       <c r="G98" s="21"/>
       <c r="H98" s="21"/>
     </row>
-    <row r="99" spans="1:8" ht="20.25">
+    <row r="99" spans="1:8" ht="20">
       <c r="A99" s="80" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="17.25">
+    <row r="100" spans="1:8" ht="17">
       <c r="A100" s="82" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="17.25">
+    <row r="101" spans="1:8" ht="17">
       <c r="A101" s="82" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="20.25">
+    <row r="102" spans="1:8" ht="20">
       <c r="A102" s="80" t="s">
         <v>167</v>
       </c>
@@ -7042,7 +10218,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000002000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7053,12 +10229,12 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>NOTE!K14:O14</xm:f>
-              <xm:sqref>P14</xm:sqref>
+              <xm:f>NOTE!K9:O9</xm:f>
+              <xm:sqref>P9</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000001000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7074,7 +10250,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000000000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7085,8 +10261,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>NOTE!K9:O9</xm:f>
-              <xm:sqref>P9</xm:sqref>
+              <xm:f>NOTE!K14:O14</xm:f>
+              <xm:sqref>P14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -7097,22 +10273,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CJ51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="A6" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="93.5" customWidth="1"/>
     <col min="2" max="3" width="12" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:88" ht="33" customHeight="1">
@@ -7214,7 +10390,7 @@
       <c r="CI1" s="21"/>
       <c r="CJ1" s="21"/>
     </row>
-    <row r="2" spans="1:88" s="111" customFormat="1" ht="23.25">
+    <row r="2" spans="1:88" s="111" customFormat="1" ht="23">
       <c r="A2" s="110" t="s">
         <v>190</v>
       </c>
@@ -7222,7 +10398,7 @@
       <c r="C2" s="112"/>
       <c r="D2" s="112"/>
     </row>
-    <row r="3" spans="1:88" ht="23.25">
+    <row r="3" spans="1:88" ht="23">
       <c r="A3" s="12" t="s">
         <v>210</v>
       </c>
@@ -7236,7 +10412,7 @@
         <v>4793146</v>
       </c>
     </row>
-    <row r="4" spans="1:88" ht="25.5">
+    <row r="4" spans="1:88" ht="25">
       <c r="A4" s="12" t="s">
         <v>214</v>
       </c>
@@ -7250,7 +10426,7 @@
         <v>2709731</v>
       </c>
     </row>
-    <row r="5" spans="1:88" ht="23.25">
+    <row r="5" spans="1:88" ht="23">
       <c r="A5" s="12" t="s">
         <v>211</v>
       </c>
@@ -7264,7 +10440,7 @@
         <v>145679</v>
       </c>
     </row>
-    <row r="6" spans="1:88" ht="23.25">
+    <row r="6" spans="1:88" ht="23">
       <c r="A6" s="12" t="s">
         <v>212</v>
       </c>
@@ -7278,7 +10454,7 @@
         <v>10012647</v>
       </c>
     </row>
-    <row r="7" spans="1:88" ht="25.5">
+    <row r="7" spans="1:88" ht="25">
       <c r="A7" s="109" t="s">
         <v>200</v>
       </c>
@@ -7306,7 +10482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:88" s="1" customFormat="1" ht="23.25">
+    <row r="8" spans="1:88" s="1" customFormat="1" ht="23">
       <c r="A8" s="110" t="s">
         <v>191</v>
       </c>
@@ -7317,7 +10493,7 @@
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:88" ht="23.25">
+    <row r="9" spans="1:88" ht="23">
       <c r="A9" s="12" t="s">
         <v>213</v>
       </c>
@@ -7333,7 +10509,7 @@
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:88" ht="23.25">
+    <row r="10" spans="1:88" ht="23">
       <c r="A10" s="12" t="s">
         <v>215</v>
       </c>
@@ -7349,7 +10525,7 @@
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:88" ht="23.25">
+    <row r="11" spans="1:88" ht="23">
       <c r="A11" s="12" t="s">
         <v>216</v>
       </c>
@@ -7365,7 +10541,7 @@
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:88" ht="23.25">
+    <row r="12" spans="1:88" ht="23">
       <c r="A12" s="12" t="s">
         <v>217</v>
       </c>
@@ -7387,7 +10563,7 @@
         <v>1.1890529829474981</v>
       </c>
     </row>
-    <row r="13" spans="1:88" s="105" customFormat="1" ht="23.25">
+    <row r="13" spans="1:88" s="105" customFormat="1" ht="23">
       <c r="A13" s="109" t="s">
         <v>201</v>
       </c>
@@ -7414,7 +10590,7 @@
       </c>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:88" ht="23.25">
+    <row r="14" spans="1:88" ht="23">
       <c r="A14" s="109" t="s">
         <v>199</v>
       </c>
@@ -7439,7 +10615,7 @@
         <v>0.61696365234767281</v>
       </c>
     </row>
-    <row r="15" spans="1:88" s="1" customFormat="1" ht="23.25">
+    <row r="15" spans="1:88" s="1" customFormat="1" ht="23">
       <c r="A15" s="110" t="s">
         <v>192</v>
       </c>
@@ -7450,7 +10626,7 @@
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:88" ht="23.25">
+    <row r="16" spans="1:88" ht="23">
       <c r="A16" s="12" t="s">
         <v>218</v>
       </c>
@@ -7466,9 +10642,9 @@
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:9" ht="23.25">
+    <row r="17" spans="1:9" ht="25">
       <c r="A17" s="12" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="B17" s="13">
         <v>625126</v>
@@ -7482,9 +10658,9 @@
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:9" ht="25.5">
+    <row r="18" spans="1:9" ht="25">
       <c r="A18" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B18" s="13">
         <v>436878</v>
@@ -7498,9 +10674,9 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:9" ht="25.5">
+    <row r="19" spans="1:9" ht="25">
       <c r="A19" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B19" s="13">
         <v>126959</v>
@@ -7514,9 +10690,9 @@
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:9" ht="25.5">
+    <row r="20" spans="1:9" ht="25">
       <c r="A20" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>22</v>
@@ -7530,7 +10706,7 @@
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="1:9" ht="23.25">
+    <row r="21" spans="1:9" ht="23">
       <c r="A21" s="109" t="s">
         <v>203</v>
       </c>
@@ -7555,7 +10731,7 @@
         <v>0.54737078086667368</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="25.5">
+    <row r="22" spans="1:9" ht="25">
       <c r="A22" s="109" t="s">
         <v>202</v>
       </c>
@@ -7583,7 +10759,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="23.25">
+    <row r="23" spans="1:9" ht="23">
       <c r="A23" s="12" t="s">
         <v>207</v>
       </c>
@@ -7599,7 +10775,7 @@
       <c r="F23" s="120"/>
       <c r="G23" s="120"/>
     </row>
-    <row r="24" spans="1:9" ht="23.25">
+    <row r="24" spans="1:9" ht="23">
       <c r="A24" s="12" t="s">
         <v>208</v>
       </c>
@@ -7615,7 +10791,7 @@
       <c r="F24" s="120"/>
       <c r="G24" s="120"/>
     </row>
-    <row r="25" spans="1:9" ht="25.5">
+    <row r="25" spans="1:9" ht="25">
       <c r="A25" s="12" t="s">
         <v>209</v>
       </c>
@@ -7631,7 +10807,7 @@
       <c r="F25" s="120"/>
       <c r="G25" s="120"/>
     </row>
-    <row r="26" spans="1:9" ht="23.25">
+    <row r="26" spans="1:9" ht="23">
       <c r="A26" s="109" t="s">
         <v>204</v>
       </c>
@@ -7656,7 +10832,7 @@
         <v>-0.27089786865585946</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="23.25">
+    <row r="27" spans="1:9" ht="23">
       <c r="A27" s="12" t="s">
         <v>193</v>
       </c>
@@ -7700,7 +10876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="23.25">
+    <row r="29" spans="1:9" ht="23">
       <c r="A29" s="12" t="s">
         <v>194</v>
       </c>
@@ -7716,7 +10892,7 @@
       <c r="F29" s="120"/>
       <c r="G29" s="120"/>
     </row>
-    <row r="30" spans="1:9" ht="23.25">
+    <row r="30" spans="1:9" ht="23">
       <c r="A30" s="12" t="s">
         <v>195</v>
       </c>
@@ -7732,7 +10908,7 @@
       <c r="F30" s="120"/>
       <c r="G30" s="120"/>
     </row>
-    <row r="31" spans="1:9" ht="23.25">
+    <row r="31" spans="1:9" ht="23">
       <c r="A31" s="12"/>
       <c r="B31" s="113"/>
       <c r="C31" s="113"/>
@@ -7740,7 +10916,7 @@
       <c r="F31" s="120"/>
       <c r="G31" s="120"/>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" ht="23.25">
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="23">
       <c r="A32" s="110" t="s">
         <v>206</v>
       </c>
@@ -7751,7 +10927,7 @@
       <c r="G32" s="121"/>
       <c r="H32" s="20"/>
     </row>
-    <row r="33" spans="1:7" ht="23.25">
+    <row r="33" spans="1:7" ht="23">
       <c r="A33" s="48" t="s">
         <v>196</v>
       </c>
@@ -7773,7 +10949,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="23.25">
+    <row r="34" spans="1:7" ht="23">
       <c r="A34" s="48" t="s">
         <v>197</v>
       </c>
@@ -7795,7 +10971,7 @@
         <v>-0.24999999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="23.25">
+    <row r="35" spans="1:7" ht="23">
       <c r="A35" s="45" t="s">
         <v>198</v>
       </c>
@@ -7805,7 +10981,7 @@
       <c r="F35" s="120"/>
       <c r="G35" s="120"/>
     </row>
-    <row r="36" spans="1:7" ht="23.25">
+    <row r="36" spans="1:7" ht="23">
       <c r="A36" s="12" t="s">
         <v>196</v>
       </c>
@@ -7821,7 +10997,7 @@
       <c r="F36" s="120"/>
       <c r="G36" s="120"/>
     </row>
-    <row r="37" spans="1:7" ht="23.25">
+    <row r="37" spans="1:7" ht="23">
       <c r="A37" s="12" t="s">
         <v>197</v>
       </c>
@@ -7837,7 +11013,7 @@
       <c r="F37" s="120"/>
       <c r="G37" s="120"/>
     </row>
-    <row r="38" spans="1:7" ht="25.5">
+    <row r="38" spans="1:7" ht="25">
       <c r="A38" s="49" t="s">
         <v>178</v>
       </c>
@@ -7847,7 +11023,7 @@
       <c r="F38" s="120"/>
       <c r="G38" s="120"/>
     </row>
-    <row r="39" spans="1:7" ht="25.5">
+    <row r="39" spans="1:7" ht="25">
       <c r="A39" s="49" t="s">
         <v>24</v>
       </c>
@@ -7872,7 +11048,7 @@
         <v>5.6048581100907553</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="25.5">
+    <row r="40" spans="1:7" ht="25">
       <c r="A40" s="118" t="s">
         <v>29</v>
       </c>
@@ -7897,7 +11073,7 @@
         <v>-0.60791434409042122</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="25.5">
+    <row r="41" spans="1:7" ht="25">
       <c r="A41" s="119" t="s">
         <v>25</v>
       </c>
@@ -7922,54 +11098,54 @@
         <v>-0.5992066145792696</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="25.5">
+    <row r="42" spans="1:7" ht="25">
       <c r="A42" s="118" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
     </row>
-    <row r="43" spans="1:7" ht="25.5">
+    <row r="43" spans="1:7" ht="25">
       <c r="A43" s="118" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:7" ht="23.25">
+    <row r="44" spans="1:7" ht="23">
       <c r="A44" s="117"/>
       <c r="B44" s="95"/>
       <c r="C44" s="95"/>
       <c r="D44" s="95"/>
     </row>
-    <row r="46" spans="1:7" ht="25.5">
+    <row r="46" spans="1:7" ht="25">
       <c r="A46" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="25.5">
+    <row r="47" spans="1:7" ht="25">
       <c r="A47" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="25.5">
+    <row r="48" spans="1:7" ht="25">
       <c r="A48" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="25.5">
+    <row r="49" spans="1:1" ht="25">
       <c r="A49" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="25.5">
+    <row r="50" spans="1:1" ht="25">
       <c r="A50" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="25.5">
+    <row r="51" spans="1:1" ht="25">
       <c r="A51" s="7" t="s">
         <v>32</v>
       </c>
@@ -7981,7 +11157,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000013000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7992,12 +11168,92 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!B41:D41</xm:f>
-              <xm:sqref>E41</xm:sqref>
+              <xm:f>INCOME成長性!B7:D7</xm:f>
+              <xm:sqref>E7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B8:D8</xm:f>
+              <xm:sqref>E8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B13:D13</xm:f>
+              <xm:sqref>E13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B14:D14</xm:f>
+              <xm:sqref>E14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B15:D15</xm:f>
+              <xm:sqref>E15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B21:D21</xm:f>
+              <xm:sqref>E21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B22:D22</xm:f>
+              <xm:sqref>E22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B26:D26</xm:f>
+              <xm:sqref>E26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B28:D28</xm:f>
+              <xm:sqref>E28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B31:D31</xm:f>
+              <xm:sqref>E31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B32:D32</xm:f>
+              <xm:sqref>E32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B33:D33</xm:f>
+              <xm:sqref>E33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B34:D34</xm:f>
+              <xm:sqref>E34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B35:D35</xm:f>
+              <xm:sqref>E35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B38:D38</xm:f>
+              <xm:sqref>E38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B12:D12</xm:f>
+              <xm:sqref>E12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B20:D20</xm:f>
+              <xm:sqref>E20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B19:D19</xm:f>
+              <xm:sqref>E19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B18:D18</xm:f>
+              <xm:sqref>E18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B17:D17</xm:f>
+              <xm:sqref>E17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B16:D16</xm:f>
+              <xm:sqref>E16</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000012000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -8008,12 +11264,280 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!B40:D40</xm:f>
-              <xm:sqref>E40</xm:sqref>
+              <xm:f>INCOME成長性!F7:G7</xm:f>
+              <xm:sqref>H7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F9:G9</xm:f>
+              <xm:sqref>H9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F10:G10</xm:f>
+              <xm:sqref>H10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F11:G11</xm:f>
+              <xm:sqref>H11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F12:G12</xm:f>
+              <xm:sqref>H12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F13:G13</xm:f>
+              <xm:sqref>H13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F14:G14</xm:f>
+              <xm:sqref>H14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F16:G16</xm:f>
+              <xm:sqref>H16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F17:G17</xm:f>
+              <xm:sqref>H17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F18:G18</xm:f>
+              <xm:sqref>H18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F19:G19</xm:f>
+              <xm:sqref>H19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F20:G20</xm:f>
+              <xm:sqref>H20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F21:G21</xm:f>
+              <xm:sqref>H21</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000011000000}">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F22:G22</xm:f>
+              <xm:sqref>H22</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000010000000}">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F23:G23</xm:f>
+              <xm:sqref>H23</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-00000F000000}">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F24:G24</xm:f>
+              <xm:sqref>H24</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-00000E000000}">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F25:G25</xm:f>
+              <xm:sqref>H25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-00000D000000}">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F26:G26</xm:f>
+              <xm:sqref>H26</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-00000C000000}">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F27:G27</xm:f>
+              <xm:sqref>H27</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-00000B000000}">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F28:G28</xm:f>
+              <xm:sqref>H28</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-00000A000000}">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F29:G29</xm:f>
+              <xm:sqref>H29</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000009000000}">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F30:G30</xm:f>
+              <xm:sqref>H30</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000008000000}">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F31:G31</xm:f>
+              <xm:sqref>H31</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000007000000}">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F33:G33</xm:f>
+              <xm:sqref>H33</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000006000000}">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F34:G34</xm:f>
+              <xm:sqref>H34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F35:G35</xm:f>
+              <xm:sqref>H35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F36:G36</xm:f>
+              <xm:sqref>H36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F37:G37</xm:f>
+              <xm:sqref>H37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F38:G38</xm:f>
+              <xm:sqref>H38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F39:G39</xm:f>
+              <xm:sqref>H39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F40:G40</xm:f>
+              <xm:sqref>H40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F41:G41</xm:f>
+              <xm:sqref>H41</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000005000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -8029,227 +11553,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F34:G34</xm:f>
-              <xm:sqref>H34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F35:G35</xm:f>
-              <xm:sqref>H35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F36:G36</xm:f>
-              <xm:sqref>H36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F37:G37</xm:f>
-              <xm:sqref>H37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F38:G38</xm:f>
-              <xm:sqref>H38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F39:G39</xm:f>
-              <xm:sqref>H39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F40:G40</xm:f>
-              <xm:sqref>H40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F41:G41</xm:f>
-              <xm:sqref>H41</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F33:G33</xm:f>
-              <xm:sqref>H33</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F31:G31</xm:f>
-              <xm:sqref>H31</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F30:G30</xm:f>
-              <xm:sqref>H30</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F29:G29</xm:f>
-              <xm:sqref>H29</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F28:G28</xm:f>
-              <xm:sqref>H28</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F27:G27</xm:f>
-              <xm:sqref>H27</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F26:G26</xm:f>
-              <xm:sqref>H26</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F25:G25</xm:f>
-              <xm:sqref>H25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F24:G24</xm:f>
-              <xm:sqref>H24</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F23:G23</xm:f>
-              <xm:sqref>H23</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F22:G22</xm:f>
-              <xm:sqref>H22</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000004000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -8260,60 +11564,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F7:G7</xm:f>
-              <xm:sqref>H7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F9:G9</xm:f>
-              <xm:sqref>H9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F10:G10</xm:f>
-              <xm:sqref>H10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F11:G11</xm:f>
-              <xm:sqref>H11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F12:G12</xm:f>
-              <xm:sqref>H12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F13:G13</xm:f>
-              <xm:sqref>H13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F14:G14</xm:f>
-              <xm:sqref>H14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F16:G16</xm:f>
-              <xm:sqref>H16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F17:G17</xm:f>
-              <xm:sqref>H17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F18:G18</xm:f>
-              <xm:sqref>H18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F19:G19</xm:f>
-              <xm:sqref>H19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F20:G20</xm:f>
-              <xm:sqref>H20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F21:G21</xm:f>
-              <xm:sqref>H21</xm:sqref>
+              <xm:f>INCOME成長性!B40:D40</xm:f>
+              <xm:sqref>E40</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000003000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -8324,68 +11580,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!B7:D7</xm:f>
-              <xm:sqref>E7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B8:D8</xm:f>
-              <xm:sqref>E8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B13:D13</xm:f>
-              <xm:sqref>E13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B14:D14</xm:f>
-              <xm:sqref>E14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B15:D15</xm:f>
-              <xm:sqref>E15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B21:D21</xm:f>
-              <xm:sqref>E21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B22:D22</xm:f>
-              <xm:sqref>E22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B26:D26</xm:f>
-              <xm:sqref>E26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B28:D28</xm:f>
-              <xm:sqref>E28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B31:D31</xm:f>
-              <xm:sqref>E31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B32:D32</xm:f>
-              <xm:sqref>E32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B33:D33</xm:f>
-              <xm:sqref>E33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B34:D34</xm:f>
-              <xm:sqref>E34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B35:D35</xm:f>
-              <xm:sqref>E35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B38:D38</xm:f>
-              <xm:sqref>E38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B12:D12</xm:f>
-              <xm:sqref>E12</xm:sqref>
+              <xm:f>INCOME成長性!B41:D41</xm:f>
+              <xm:sqref>E41</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -8396,28 +11592,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="155.75" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="150" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="155.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="145" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27.75">
+    <row r="1" spans="1:18" ht="30">
       <c r="A1" s="68"/>
-      <c r="B1" s="142" t="s">
-        <v>263</v>
+      <c r="B1" s="137" t="s">
+        <v>258</v>
       </c>
       <c r="C1" s="4">
         <v>2017</v>
@@ -8453,29 +11649,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="22.5">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="23">
       <c r="A2" s="128" t="s">
-        <v>225</v>
-      </c>
-      <c r="B2" s="143"/>
+        <v>224</v>
+      </c>
+      <c r="B2" s="138"/>
       <c r="G2" s="126"/>
     </row>
-    <row r="3" spans="1:18" ht="23.25">
+    <row r="3" spans="1:18" ht="23">
       <c r="A3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="141"/>
+      <c r="B3" s="136"/>
       <c r="C3" s="71"/>
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
+      <c r="F3" s="154"/>
       <c r="G3" s="127"/>
     </row>
     <row r="4" spans="1:18" ht="23.25" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="B4" s="151">
+        <v>259</v>
+      </c>
+      <c r="B4" s="146">
         <v>0.36</v>
       </c>
       <c r="C4" s="2">
@@ -8532,9 +11728,9 @@
     </row>
     <row r="5" spans="1:18" ht="25.5" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" s="151">
+        <v>239</v>
+      </c>
+      <c r="B5" s="146">
         <v>0.13</v>
       </c>
       <c r="C5" s="2">
@@ -8591,9 +11787,9 @@
     </row>
     <row r="6" spans="1:18" ht="23.25" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B6" s="151">
+        <v>253</v>
+      </c>
+      <c r="B6" s="146">
         <v>0.19</v>
       </c>
       <c r="C6" s="2">
@@ -8650,9 +11846,9 @@
     </row>
     <row r="7" spans="1:18" ht="23.25" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="B7" s="151">
+        <v>260</v>
+      </c>
+      <c r="B7" s="146">
         <v>0.19</v>
       </c>
       <c r="C7" s="2">
@@ -8707,11 +11903,11 @@
         <v>0.26908225205989433</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="25.5">
+    <row r="8" spans="1:18" ht="25">
       <c r="A8" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="B8" s="141">
+        <v>250</v>
+      </c>
+      <c r="B8" s="136">
         <v>0.05</v>
       </c>
       <c r="C8" s="2">
@@ -8768,9 +11964,9 @@
     </row>
     <row r="9" spans="1:18" ht="26.25" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="B9" s="141">
+        <v>244</v>
+      </c>
+      <c r="B9" s="136">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C9" s="2">
@@ -8829,7 +12025,7 @@
       <c r="A10" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="144"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="8">
         <f>SUM(C4:C9)</f>
         <v>1778294</v>
@@ -8869,9 +12065,9 @@
     </row>
     <row r="11" spans="1:18" ht="23.25" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B11" s="151">
+        <v>261</v>
+      </c>
+      <c r="B11" s="146">
         <v>0.13</v>
       </c>
       <c r="C11" s="2">
@@ -8926,11 +12122,11 @@
         <v>8.2864490389551806E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="25.5">
+    <row r="12" spans="1:18" ht="25">
       <c r="A12" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="B12" s="151">
+        <v>255</v>
+      </c>
+      <c r="B12" s="146">
         <v>0.17</v>
       </c>
       <c r="C12" s="2">
@@ -8987,9 +12183,9 @@
     </row>
     <row r="13" spans="1:18" ht="23.25" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="B13" s="141">
+        <v>256</v>
+      </c>
+      <c r="B13" s="136">
         <v>0.06</v>
       </c>
       <c r="C13" s="2">
@@ -9046,9 +12242,9 @@
     </row>
     <row r="14" spans="1:18" ht="23.25" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="B14" s="151">
+        <v>257</v>
+      </c>
+      <c r="B14" s="146">
         <v>0.4</v>
       </c>
       <c r="C14" s="2">
@@ -9095,7 +12291,7 @@
         <v>0.4035451388967124</v>
       </c>
       <c r="Q14" s="18">
-        <f t="shared" si="7"/>
+        <f>F14/(F$18-F$10)</f>
         <v>0.22009838129607323</v>
       </c>
       <c r="R14" s="18">
@@ -9105,9 +12301,9 @@
     </row>
     <row r="15" spans="1:18" ht="23.25" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B15" s="141">
+        <v>247</v>
+      </c>
+      <c r="B15" s="136">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C15" s="2"/>
@@ -9144,9 +12340,9 @@
     </row>
     <row r="16" spans="1:18" ht="25.5" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="B16" s="141">
+        <v>240</v>
+      </c>
+      <c r="B16" s="136">
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="C16" s="13"/>
@@ -9193,9 +12389,9 @@
     </row>
     <row r="17" spans="1:18" ht="24" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="B17" s="151">
+        <v>263</v>
+      </c>
+      <c r="B17" s="146">
         <v>0.13</v>
       </c>
       <c r="C17" s="2">
@@ -9250,11 +12446,11 @@
         <v>0.10882609323914573</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="23.25">
+    <row r="18" spans="1:18" ht="23">
       <c r="A18" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="144"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="8">
         <f>C10+SUM(C11:C17)</f>
         <v>2187270</v>
@@ -9294,9 +12490,9 @@
     </row>
     <row r="19" spans="1:18" s="1" customFormat="1" ht="23.25" customHeight="1">
       <c r="A19" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="B19" s="143"/>
+        <v>225</v>
+      </c>
+      <c r="B19" s="138"/>
       <c r="G19" s="126"/>
       <c r="H19" s="126"/>
       <c r="I19" s="126"/>
@@ -9306,9 +12502,9 @@
     </row>
     <row r="20" spans="1:18" ht="24.75" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="B20" s="141"/>
+        <v>226</v>
+      </c>
+      <c r="B20" s="136"/>
       <c r="C20" s="71"/>
       <c r="D20" s="71"/>
       <c r="E20" s="71"/>
@@ -9321,9 +12517,9 @@
     </row>
     <row r="21" spans="1:18" ht="23.25" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="B21" s="151">
+        <v>251</v>
+      </c>
+      <c r="B21" s="146">
         <v>0.74</v>
       </c>
       <c r="C21" s="2">
@@ -9380,9 +12576,9 @@
     </row>
     <row r="22" spans="1:18" ht="23.25" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="B22" s="141">
+        <v>252</v>
+      </c>
+      <c r="B22" s="136">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C22" s="2">
@@ -9439,9 +12635,9 @@
     </row>
     <row r="23" spans="1:18" ht="23.25" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="B23" s="151">
+        <v>246</v>
+      </c>
+      <c r="B23" s="146">
         <v>0.14000000000000001</v>
       </c>
       <c r="C23" s="2">
@@ -9498,9 +12694,9 @@
     </row>
     <row r="24" spans="1:18" ht="23.25" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="B24" s="141">
+        <v>241</v>
+      </c>
+      <c r="B24" s="136">
         <v>0.01</v>
       </c>
       <c r="C24" s="13"/>
@@ -9545,11 +12741,11 @@
         <v>1.1780271361872744E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="25.5">
+    <row r="25" spans="1:18" ht="25">
       <c r="A25" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="B25" s="141">
+        <v>254</v>
+      </c>
+      <c r="B25" s="136">
         <v>0.04</v>
       </c>
       <c r="C25" s="13"/>
@@ -9593,7 +12789,7 @@
       <c r="A26" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="144"/>
+      <c r="B26" s="139"/>
       <c r="C26" s="8">
         <f>SUM(C21:C25)</f>
         <v>972827</v>
@@ -9631,11 +12827,11 @@
         <v>0.3172484261181977</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="23.25">
+    <row r="27" spans="1:18" ht="23">
       <c r="A27" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="B27" s="151">
+        <v>227</v>
+      </c>
+      <c r="B27" s="146">
         <v>0.83</v>
       </c>
       <c r="C27" s="8">
@@ -9692,9 +12888,9 @@
     </row>
     <row r="28" spans="1:18" ht="23.25" customHeight="1">
       <c r="A28" s="133" t="s">
-        <v>253</v>
-      </c>
-      <c r="B28" s="145">
+        <v>248</v>
+      </c>
+      <c r="B28" s="140">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="C28" s="135"/>
@@ -9731,9 +12927,9 @@
     </row>
     <row r="29" spans="1:18" ht="23.25" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="B29" s="141">
+        <v>245</v>
+      </c>
+      <c r="B29" s="136">
         <v>0.06</v>
       </c>
       <c r="C29" s="13"/>
@@ -9780,9 +12976,9 @@
     </row>
     <row r="30" spans="1:18" ht="24" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="B30" s="141">
+        <v>228</v>
+      </c>
+      <c r="B30" s="136">
         <v>0.08</v>
       </c>
       <c r="C30" s="2">
@@ -9837,11 +13033,11 @@
         <v>4.3044802746572339E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="23.25">
+    <row r="31" spans="1:18" ht="23">
       <c r="A31" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="B31" s="144"/>
+        <v>229</v>
+      </c>
+      <c r="B31" s="139"/>
       <c r="C31" s="8">
         <f>C26+SUM(C27:C30)</f>
         <v>1400937</v>
@@ -9881,9 +13077,9 @@
     </row>
     <row r="32" spans="1:18" ht="23.25" customHeight="1">
       <c r="A32" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="B32" s="141"/>
+        <v>230</v>
+      </c>
+      <c r="B32" s="136"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
@@ -9896,9 +13092,9 @@
     </row>
     <row r="33" spans="1:12" ht="24.75" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="B33" s="141"/>
+        <v>231</v>
+      </c>
+      <c r="B33" s="136"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
@@ -9909,11 +13105,11 @@
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
     </row>
-    <row r="34" spans="1:12" ht="23.25">
+    <row r="34" spans="1:12" ht="23">
       <c r="A34" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B34" s="141"/>
+        <v>232</v>
+      </c>
+      <c r="B34" s="136"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
@@ -9924,11 +13120,11 @@
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
     </row>
-    <row r="35" spans="1:12" ht="23.25">
+    <row r="35" spans="1:12" ht="23">
       <c r="A35" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="B35" s="141"/>
+        <v>233</v>
+      </c>
+      <c r="B35" s="136"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
@@ -9939,11 +13135,11 @@
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
     </row>
-    <row r="36" spans="1:12" ht="23.25">
+    <row r="36" spans="1:12" ht="23">
       <c r="A36" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="B36" s="141"/>
+        <v>234</v>
+      </c>
+      <c r="B36" s="136"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
@@ -9956,9 +13152,9 @@
     </row>
     <row r="37" spans="1:12" ht="23.25" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="B37" s="141"/>
+        <v>242</v>
+      </c>
+      <c r="B37" s="136"/>
       <c r="C37" s="2">
         <v>1630386</v>
       </c>
@@ -9993,9 +13189,9 @@
     </row>
     <row r="38" spans="1:12" ht="48" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="B38" s="141"/>
+        <v>243</v>
+      </c>
+      <c r="B38" s="136"/>
       <c r="C38" s="2">
         <v>-1318</v>
       </c>
@@ -10030,9 +13226,9 @@
     </row>
     <row r="39" spans="1:12" ht="60" customHeight="1">
       <c r="A39" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="B39" s="141"/>
+        <v>249</v>
+      </c>
+      <c r="B39" s="136"/>
       <c r="C39" s="2">
         <v>-842735</v>
       </c>
@@ -10067,9 +13263,9 @@
     </row>
     <row r="40" spans="1:12" ht="60" customHeight="1">
       <c r="A40" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="B40" s="144"/>
+        <v>235</v>
+      </c>
+      <c r="B40" s="139"/>
       <c r="C40" s="8">
         <f>SUM(C37:C39)</f>
         <v>786333</v>
@@ -10107,11 +13303,11 @@
         <v>0.2205000132385182</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="23.25">
+    <row r="41" spans="1:12" ht="23">
       <c r="A41" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="B41" s="141"/>
+        <v>236</v>
+      </c>
+      <c r="B41" s="136"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -10128,9 +13324,9 @@
     </row>
     <row r="42" spans="1:12" ht="25.5" customHeight="1">
       <c r="A42" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="B42" s="144"/>
+        <v>237</v>
+      </c>
+      <c r="B42" s="139"/>
       <c r="C42" s="8">
         <f>C40</f>
         <v>786333</v>
@@ -10170,9 +13366,9 @@
     </row>
     <row r="43" spans="1:12" ht="24" customHeight="1">
       <c r="A43" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="B43" s="144"/>
+        <v>238</v>
+      </c>
+      <c r="B43" s="139"/>
       <c r="C43" s="8">
         <f>C42+C31</f>
         <v>2187270</v>
@@ -10210,11 +13406,11 @@
         <v>0.41098266891600932</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="25.5">
+    <row r="44" spans="1:12" ht="25">
       <c r="A44" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="152"/>
+      <c r="B44" s="147"/>
       <c r="C44" s="130">
         <f>C10/C26</f>
         <v>1.8279653011275385</v>
@@ -10252,11 +13448,11 @@
         <v>2.9042899253259768E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="25.5">
+    <row r="45" spans="1:12" ht="25">
       <c r="A45" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="153"/>
+      <c r="B45" s="148"/>
       <c r="C45" s="71"/>
       <c r="D45" s="71"/>
       <c r="E45" s="71"/>
@@ -10267,11 +13463,11 @@
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
     </row>
-    <row r="46" spans="1:12" ht="25.5">
+    <row r="46" spans="1:12" ht="25">
       <c r="A46" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="152"/>
+      <c r="B46" s="147"/>
       <c r="C46" s="130">
         <f>C31/C42</f>
         <v>1.7816077921186062</v>
@@ -10309,11 +13505,11 @@
         <v>0.20964990082795909</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="25.5">
+    <row r="47" spans="1:12" ht="25">
       <c r="A47" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="153"/>
+      <c r="B47" s="148"/>
       <c r="C47" s="127"/>
       <c r="D47" s="127"/>
       <c r="E47" s="127"/>
@@ -10324,11 +13520,11 @@
       <c r="K47" s="18"/>
       <c r="L47" s="18"/>
     </row>
-    <row r="48" spans="1:12" ht="25.5">
+    <row r="48" spans="1:12" ht="25">
       <c r="A48" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="152"/>
+      <c r="B48" s="147"/>
       <c r="C48" s="130"/>
       <c r="D48" s="130"/>
       <c r="E48" s="130">
@@ -10354,11 +13550,11 @@
         <v>0.36605192648260126</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="25.5">
+    <row r="49" spans="1:16" ht="25">
       <c r="A49" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="153"/>
+      <c r="B49" s="148"/>
       <c r="C49" s="71"/>
       <c r="D49" s="71"/>
       <c r="E49" s="71"/>
@@ -10369,11 +13565,11 @@
       <c r="K49" s="18"/>
       <c r="L49" s="18"/>
     </row>
-    <row r="50" spans="1:12" ht="25.5">
+    <row r="50" spans="1:16" ht="25">
       <c r="A50" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="152"/>
+      <c r="B50" s="147"/>
       <c r="C50" s="93"/>
       <c r="D50" s="93"/>
       <c r="E50" s="130">
@@ -10399,11 +13595,11 @@
         <v>0.19163464438754474</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="25.5">
+    <row r="51" spans="1:16" ht="25">
       <c r="A51" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="152"/>
+      <c r="B51" s="147"/>
       <c r="C51" s="93"/>
       <c r="D51" s="93"/>
       <c r="E51" s="130">
@@ -10429,11 +13625,11 @@
         <v>-0.26796340562626741</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="25.5">
+    <row r="52" spans="1:16" ht="25">
       <c r="A52" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="153"/>
+      <c r="B52" s="148"/>
       <c r="C52" s="131"/>
       <c r="D52" s="131"/>
       <c r="E52" s="131"/>
@@ -10444,11 +13640,11 @@
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
     </row>
-    <row r="53" spans="1:12" ht="25.5">
+    <row r="53" spans="1:16" ht="25">
       <c r="A53" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="152"/>
+      <c r="B53" s="147"/>
       <c r="C53" s="93"/>
       <c r="D53" s="93"/>
       <c r="E53" s="130">
@@ -10474,182 +13670,185 @@
         <v>-0.16081661043518722</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="21" customHeight="1">
+    <row r="54" spans="1:16" ht="21" customHeight="1">
       <c r="A54" s="124"/>
-      <c r="B54" s="146"/>
+      <c r="B54" s="141"/>
       <c r="G54" s="124"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:16">
       <c r="A55" s="124"/>
-      <c r="B55" s="146"/>
+      <c r="B55" s="141"/>
       <c r="G55" s="124"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:16">
       <c r="A56" s="124"/>
-      <c r="B56" s="146"/>
+      <c r="B56" s="141"/>
       <c r="G56" s="124"/>
     </row>
-    <row r="57" spans="1:12" ht="25.5">
+    <row r="57" spans="1:16" ht="25">
       <c r="A57" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="147"/>
+      <c r="B57" s="142"/>
       <c r="G57" s="124"/>
     </row>
-    <row r="58" spans="1:12" ht="25.5">
+    <row r="58" spans="1:16" ht="25">
       <c r="A58" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="147"/>
+      <c r="B58" s="142"/>
       <c r="G58" s="124"/>
     </row>
-    <row r="59" spans="1:12" ht="25.5">
+    <row r="59" spans="1:16" ht="25">
       <c r="A59" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="147"/>
+      <c r="B59" s="142"/>
       <c r="G59" s="124"/>
-    </row>
-    <row r="60" spans="1:12" ht="25.5">
+      <c r="P59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="25">
       <c r="A60" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="147"/>
+      <c r="B60" s="142"/>
       <c r="G60" s="124"/>
     </row>
-    <row r="61" spans="1:12" ht="187.5" customHeight="1">
+    <row r="61" spans="1:16" ht="187.5" customHeight="1">
       <c r="A61" s="124"/>
-      <c r="B61" s="146"/>
+      <c r="B61" s="141"/>
       <c r="G61" s="124"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:16">
       <c r="A62" s="124"/>
-      <c r="B62" s="146"/>
+      <c r="B62" s="141"/>
       <c r="G62" s="124"/>
     </row>
-    <row r="63" spans="1:12" ht="247.5" customHeight="1">
+    <row r="63" spans="1:16" ht="247.5" customHeight="1">
       <c r="A63" s="124"/>
-      <c r="B63" s="146"/>
+      <c r="B63" s="141"/>
       <c r="G63" s="124"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:16">
       <c r="A64" s="124"/>
-      <c r="B64" s="146"/>
+      <c r="B64" s="141"/>
       <c r="G64" s="124"/>
     </row>
     <row r="65" spans="1:7" ht="244.5" customHeight="1">
       <c r="A65" s="124"/>
-      <c r="B65" s="146"/>
+      <c r="B65" s="141"/>
       <c r="G65" s="124"/>
     </row>
-    <row r="66" spans="1:7" ht="19.5">
+    <row r="66" spans="1:7" ht="22">
       <c r="A66" s="123"/>
-      <c r="B66" s="148"/>
+      <c r="B66" s="143"/>
       <c r="G66" s="68"/>
     </row>
-    <row r="67" spans="1:7" ht="19.5">
+    <row r="67" spans="1:7" ht="22">
       <c r="A67" s="124"/>
-      <c r="B67" s="146"/>
+      <c r="B67" s="141"/>
       <c r="G67" s="68"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="124"/>
-      <c r="B69" s="146"/>
+      <c r="B69" s="141"/>
       <c r="G69" s="124"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="124"/>
-      <c r="B70" s="146"/>
+      <c r="B70" s="141"/>
       <c r="G70" s="124"/>
     </row>
     <row r="71" spans="1:7" ht="21" customHeight="1">
       <c r="A71" s="124"/>
-      <c r="B71" s="146"/>
+      <c r="B71" s="141"/>
       <c r="G71" s="124"/>
     </row>
     <row r="73" spans="1:7" ht="33.75" customHeight="1">
       <c r="A73" s="124"/>
-      <c r="B73" s="146"/>
+      <c r="B73" s="141"/>
       <c r="G73" s="124"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="124"/>
-      <c r="B74" s="146"/>
+      <c r="B74" s="141"/>
       <c r="G74" s="124"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="124"/>
-      <c r="B75" s="146"/>
+      <c r="B75" s="141"/>
       <c r="G75" s="124"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="124"/>
-      <c r="B76" s="146"/>
+      <c r="B76" s="141"/>
       <c r="G76" s="124"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="124"/>
-      <c r="B77" s="146"/>
+      <c r="B77" s="141"/>
       <c r="G77" s="124"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="124"/>
-      <c r="B78" s="146"/>
+      <c r="B78" s="141"/>
       <c r="G78" s="124"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="124"/>
-      <c r="B79" s="146"/>
+      <c r="B79" s="141"/>
       <c r="G79" s="124"/>
     </row>
-    <row r="80" spans="1:7" ht="19.5">
+    <row r="80" spans="1:7" ht="22">
       <c r="A80" s="124"/>
-      <c r="B80" s="146"/>
+      <c r="B80" s="141"/>
       <c r="G80" s="68"/>
     </row>
-    <row r="81" spans="1:7" ht="19.5">
+    <row r="81" spans="1:7" ht="22">
       <c r="A81" s="124"/>
-      <c r="B81" s="146"/>
+      <c r="B81" s="141"/>
       <c r="G81" s="68"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="67"/>
-      <c r="B82" s="149"/>
+      <c r="B82" s="144"/>
       <c r="G82" s="124"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="67"/>
-      <c r="B83" s="149"/>
+      <c r="B83" s="144"/>
       <c r="G83" s="124"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="67"/>
-      <c r="B84" s="149"/>
+      <c r="B84" s="144"/>
       <c r="G84" s="124"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="124"/>
-      <c r="B85" s="146"/>
+      <c r="B85" s="141"/>
       <c r="G85" s="124"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="124"/>
-      <c r="B86" s="146"/>
+      <c r="B86" s="141"/>
       <c r="G86" s="124"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="124"/>
-      <c r="B87" s="146"/>
+      <c r="B87" s="141"/>
       <c r="G87" s="125"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="124"/>
-      <c r="B88" s="146"/>
+      <c r="B88" s="141"/>
       <c r="G88" s="124"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="124"/>
-      <c r="B89" s="146"/>
+      <c r="B89" s="141"/>
       <c r="G89" s="124"/>
     </row>
   </sheetData>
@@ -10661,7 +13860,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00004D000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10672,144 +13871,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C4:G4</xm:f>
-              <xm:sqref>H4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C20:G20</xm:f>
-              <xm:sqref>H20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C21:G21</xm:f>
-              <xm:sqref>H21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C22:G22</xm:f>
-              <xm:sqref>H22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C23:G23</xm:f>
-              <xm:sqref>H23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C24:G24</xm:f>
-              <xm:sqref>H24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C25:G25</xm:f>
-              <xm:sqref>H25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C26:G26</xm:f>
-              <xm:sqref>H26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C27:G27</xm:f>
-              <xm:sqref>H27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C28:G28</xm:f>
-              <xm:sqref>H28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C29:G29</xm:f>
-              <xm:sqref>H29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C30:G30</xm:f>
-              <xm:sqref>H30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C31:G31</xm:f>
-              <xm:sqref>H31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C32:G32</xm:f>
-              <xm:sqref>H32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C33:G33</xm:f>
-              <xm:sqref>H33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C34:G34</xm:f>
-              <xm:sqref>H34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C35:G35</xm:f>
-              <xm:sqref>H35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C36:G36</xm:f>
-              <xm:sqref>H36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C37:G37</xm:f>
-              <xm:sqref>H37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C38:G38</xm:f>
-              <xm:sqref>H38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C39:G39</xm:f>
-              <xm:sqref>H39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C40:G40</xm:f>
-              <xm:sqref>H40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C41:G41</xm:f>
-              <xm:sqref>H41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C42:G42</xm:f>
-              <xm:sqref>H42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C43:G43</xm:f>
-              <xm:sqref>H43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C44:G44</xm:f>
-              <xm:sqref>H44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C45:G45</xm:f>
-              <xm:sqref>H45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C46:G46</xm:f>
-              <xm:sqref>H46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C47:G47</xm:f>
-              <xm:sqref>H47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C49:G49</xm:f>
-              <xm:sqref>H49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C50:G50</xm:f>
-              <xm:sqref>H50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C51:G51</xm:f>
-              <xm:sqref>H51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C52:G52</xm:f>
-              <xm:sqref>H52</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C53:G53</xm:f>
-              <xm:sqref>H53</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I53:L53</xm:f>
+              <xm:sqref>M53</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00004C000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10820,12 +13887,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C48:G48</xm:f>
-              <xm:sqref>H48</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I52:L52</xm:f>
+              <xm:sqref>M52</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00004B000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10836,12 +13903,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C5:G5</xm:f>
-              <xm:sqref>H5</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I51:L51</xm:f>
+              <xm:sqref>M51</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00004A000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10852,12 +13919,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C6:G6</xm:f>
-              <xm:sqref>H6</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I50:L50</xm:f>
+              <xm:sqref>M50</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000049000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10868,12 +13935,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C7:G7</xm:f>
-              <xm:sqref>H7</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I49:L49</xm:f>
+              <xm:sqref>M49</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000048000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10884,12 +13951,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C8:G8</xm:f>
-              <xm:sqref>H8</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I48:L48</xm:f>
+              <xm:sqref>M48</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000047000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10900,12 +13967,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C9:G9</xm:f>
-              <xm:sqref>H9</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I47:L47</xm:f>
+              <xm:sqref>M47</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000046000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10916,12 +13983,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C10:G10</xm:f>
-              <xm:sqref>H10</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I46:L46</xm:f>
+              <xm:sqref>M46</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000045000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10932,12 +13999,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C11:G11</xm:f>
-              <xm:sqref>H11</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I45:L45</xm:f>
+              <xm:sqref>M45</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000044000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10948,12 +14015,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C12:G12</xm:f>
-              <xm:sqref>H12</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I44:L44</xm:f>
+              <xm:sqref>M44</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000043000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10964,12 +14031,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C13:G13</xm:f>
-              <xm:sqref>H13</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I43:L43</xm:f>
+              <xm:sqref>M43</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000042000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10980,12 +14047,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C14:G14</xm:f>
-              <xm:sqref>H14</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I42:L42</xm:f>
+              <xm:sqref>M42</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000041000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10996,12 +14063,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C15:G15</xm:f>
-              <xm:sqref>H15</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I41:L41</xm:f>
+              <xm:sqref>M41</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000040000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11012,12 +14079,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C16:G16</xm:f>
-              <xm:sqref>H16</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I40:L40</xm:f>
+              <xm:sqref>M40</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00003F000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11028,12 +14095,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C17:G17</xm:f>
-              <xm:sqref>H17</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I39:L39</xm:f>
+              <xm:sqref>M39</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00003E000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11044,12 +14111,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C18:G18</xm:f>
-              <xm:sqref>H18</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I38:L38</xm:f>
+              <xm:sqref>M38</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00003D000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11060,12 +14127,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I4:L4</xm:f>
-              <xm:sqref>M4</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I37:L37</xm:f>
+              <xm:sqref>M37</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00003C000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11076,12 +14143,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I5:L5</xm:f>
-              <xm:sqref>M5</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I31:L31</xm:f>
+              <xm:sqref>M31</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00003B000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11092,12 +14159,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I6:L6</xm:f>
-              <xm:sqref>M6</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I30:L30</xm:f>
+              <xm:sqref>M30</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00003A000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11108,12 +14175,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I7:L7</xm:f>
-              <xm:sqref>M7</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I29:L29</xm:f>
+              <xm:sqref>M29</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000039000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11124,12 +14191,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I8:L8</xm:f>
-              <xm:sqref>M8</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I27:L27</xm:f>
+              <xm:sqref>M27</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000038000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11140,12 +14207,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I9:L9</xm:f>
-              <xm:sqref>M9</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I26:L26</xm:f>
+              <xm:sqref>M26</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000037000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11156,12 +14223,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I10:L10</xm:f>
-              <xm:sqref>M10</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I25:L25</xm:f>
+              <xm:sqref>M25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000036000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11172,12 +14239,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I11:L11</xm:f>
-              <xm:sqref>M11</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I24:L24</xm:f>
+              <xm:sqref>M24</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000035000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11188,12 +14255,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I12:L12</xm:f>
-              <xm:sqref>M12</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I23:L23</xm:f>
+              <xm:sqref>M23</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000034000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11204,12 +14271,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I13:L13</xm:f>
-              <xm:sqref>M13</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I22:L22</xm:f>
+              <xm:sqref>M22</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000033000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11220,12 +14287,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I14:L14</xm:f>
-              <xm:sqref>M14</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I21:L21</xm:f>
+              <xm:sqref>M21</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000032000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11236,12 +14303,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I15:L15</xm:f>
-              <xm:sqref>M15</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I18:L18</xm:f>
+              <xm:sqref>M18</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000031000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11252,12 +14319,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I16:L16</xm:f>
-              <xm:sqref>M16</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I17:L17</xm:f>
+              <xm:sqref>M17</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000030000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11268,12 +14335,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I17:L17</xm:f>
-              <xm:sqref>M17</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I16:L16</xm:f>
+              <xm:sqref>M16</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00002F000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11284,12 +14351,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I18:L18</xm:f>
-              <xm:sqref>M18</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I15:L15</xm:f>
+              <xm:sqref>M15</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00002E000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11300,12 +14367,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I21:L21</xm:f>
-              <xm:sqref>M21</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I14:L14</xm:f>
+              <xm:sqref>M14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00002D000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11316,12 +14383,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I22:L22</xm:f>
-              <xm:sqref>M22</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I13:L13</xm:f>
+              <xm:sqref>M13</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00002C000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11332,12 +14399,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I23:L23</xm:f>
-              <xm:sqref>M23</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I12:L12</xm:f>
+              <xm:sqref>M12</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00002B000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11348,12 +14415,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I24:L24</xm:f>
-              <xm:sqref>M24</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I11:L11</xm:f>
+              <xm:sqref>M11</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00002A000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11364,12 +14431,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I25:L25</xm:f>
-              <xm:sqref>M25</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I10:L10</xm:f>
+              <xm:sqref>M10</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000029000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11380,12 +14447,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I26:L26</xm:f>
-              <xm:sqref>M26</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I9:L9</xm:f>
+              <xm:sqref>M9</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000028000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11396,12 +14463,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I27:L27</xm:f>
-              <xm:sqref>M27</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I8:L8</xm:f>
+              <xm:sqref>M8</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000027000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11412,12 +14479,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I29:L29</xm:f>
-              <xm:sqref>M29</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I7:L7</xm:f>
+              <xm:sqref>M7</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000026000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11428,12 +14495,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I30:L30</xm:f>
-              <xm:sqref>M30</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I6:L6</xm:f>
+              <xm:sqref>M6</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000025000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11444,12 +14511,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I31:L31</xm:f>
-              <xm:sqref>M31</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I5:L5</xm:f>
+              <xm:sqref>M5</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000024000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11460,12 +14527,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I37:L37</xm:f>
-              <xm:sqref>M37</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I4:L4</xm:f>
+              <xm:sqref>M4</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000023000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11476,12 +14543,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I38:L38</xm:f>
-              <xm:sqref>M38</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C18:G18</xm:f>
+              <xm:sqref>H18</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000022000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11492,12 +14559,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I39:L39</xm:f>
-              <xm:sqref>M39</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C17:G17</xm:f>
+              <xm:sqref>H17</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000021000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11508,12 +14575,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I40:L40</xm:f>
-              <xm:sqref>M40</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C16:G16</xm:f>
+              <xm:sqref>H16</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000020000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11524,12 +14591,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I41:L41</xm:f>
-              <xm:sqref>M41</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C15:G15</xm:f>
+              <xm:sqref>H15</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00001F000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11540,12 +14607,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I42:L42</xm:f>
-              <xm:sqref>M42</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C14:G14</xm:f>
+              <xm:sqref>H14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00001E000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11556,12 +14623,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I43:L43</xm:f>
-              <xm:sqref>M43</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C13:G13</xm:f>
+              <xm:sqref>H13</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00001D000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11572,12 +14639,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I44:L44</xm:f>
-              <xm:sqref>M44</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C12:G12</xm:f>
+              <xm:sqref>H12</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00001C000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11588,12 +14655,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I45:L45</xm:f>
-              <xm:sqref>M45</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C11:G11</xm:f>
+              <xm:sqref>H11</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00001B000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11604,12 +14671,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I46:L46</xm:f>
-              <xm:sqref>M46</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C10:G10</xm:f>
+              <xm:sqref>H10</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00001A000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11620,12 +14687,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I47:L47</xm:f>
-              <xm:sqref>M47</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C9:G9</xm:f>
+              <xm:sqref>H9</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000019000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11636,12 +14703,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I48:L48</xm:f>
-              <xm:sqref>M48</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C8:G8</xm:f>
+              <xm:sqref>H8</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000018000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11652,12 +14719,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I49:L49</xm:f>
-              <xm:sqref>M49</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C7:G7</xm:f>
+              <xm:sqref>H7</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000017000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11668,12 +14735,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I50:L50</xm:f>
-              <xm:sqref>M50</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C6:G6</xm:f>
+              <xm:sqref>H6</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000016000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11684,12 +14751,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I51:L51</xm:f>
-              <xm:sqref>M51</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C5:G5</xm:f>
+              <xm:sqref>H5</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000015000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11700,12 +14767,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I52:L52</xm:f>
-              <xm:sqref>M52</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C48:G48</xm:f>
+              <xm:sqref>H48</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000014000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11716,8 +14783,140 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I53:L53</xm:f>
-              <xm:sqref>M53</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C4:G4</xm:f>
+              <xm:sqref>H4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C20:G20</xm:f>
+              <xm:sqref>H20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C21:G21</xm:f>
+              <xm:sqref>H21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C22:G22</xm:f>
+              <xm:sqref>H22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C23:G23</xm:f>
+              <xm:sqref>H23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C24:G24</xm:f>
+              <xm:sqref>H24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C25:G25</xm:f>
+              <xm:sqref>H25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C26:G26</xm:f>
+              <xm:sqref>H26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C27:G27</xm:f>
+              <xm:sqref>H27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C28:G28</xm:f>
+              <xm:sqref>H28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C29:G29</xm:f>
+              <xm:sqref>H29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C30:G30</xm:f>
+              <xm:sqref>H30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C31:G31</xm:f>
+              <xm:sqref>H31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C32:G32</xm:f>
+              <xm:sqref>H32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C33:G33</xm:f>
+              <xm:sqref>H33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C34:G34</xm:f>
+              <xm:sqref>H34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C35:G35</xm:f>
+              <xm:sqref>H35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C36:G36</xm:f>
+              <xm:sqref>H36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C37:G37</xm:f>
+              <xm:sqref>H37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C38:G38</xm:f>
+              <xm:sqref>H38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C39:G39</xm:f>
+              <xm:sqref>H39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C40:G40</xm:f>
+              <xm:sqref>H40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C41:G41</xm:f>
+              <xm:sqref>H41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C42:G42</xm:f>
+              <xm:sqref>H42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C43:G43</xm:f>
+              <xm:sqref>H43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C44:G44</xm:f>
+              <xm:sqref>H44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C45:G45</xm:f>
+              <xm:sqref>H45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C46:G46</xm:f>
+              <xm:sqref>H46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C47:G47</xm:f>
+              <xm:sqref>H47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C49:G49</xm:f>
+              <xm:sqref>H49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C50:G50</xm:f>
+              <xm:sqref>H50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C51:G51</xm:f>
+              <xm:sqref>H51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C52:G52</xm:f>
+              <xm:sqref>H52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C53:G53</xm:f>
+              <xm:sqref>H53</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -11728,19 +14927,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U1232"/>
   <sheetViews>
     <sheetView zoomScale="54" workbookViewId="0">
       <selection activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="175" style="27" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="16" max="16" width="18.625" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33" customHeight="1">
@@ -11791,7 +14990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="64" customFormat="1" ht="30">
+    <row r="2" spans="1:16" s="64" customFormat="1" ht="32">
       <c r="A2" s="60" t="s">
         <v>35</v>
       </c>
@@ -11853,7 +15052,7 @@
         <v>-7.8534031413612562E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="23.25">
+    <row r="4" spans="1:16" ht="23">
       <c r="A4" s="34" t="s">
         <v>60</v>
       </c>
@@ -11865,7 +15064,7 @@
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:16" ht="23.25">
+    <row r="5" spans="1:16" ht="23">
       <c r="A5" s="12" t="s">
         <v>80</v>
       </c>
@@ -11891,7 +15090,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="23.25">
+    <row r="6" spans="1:16" ht="23">
       <c r="A6" s="12" t="s">
         <v>81</v>
       </c>
@@ -11917,7 +15116,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="23.25">
+    <row r="7" spans="1:16" ht="23">
       <c r="A7" s="33" t="s">
         <v>82</v>
       </c>
@@ -11943,7 +15142,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="23.25">
+    <row r="8" spans="1:16" ht="23">
       <c r="A8" s="33" t="s">
         <v>83</v>
       </c>
@@ -11969,7 +15168,7 @@
         <v>-482</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="23.25">
+    <row r="9" spans="1:16" ht="23">
       <c r="A9" s="33" t="s">
         <v>84</v>
       </c>
@@ -11995,7 +15194,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="25.5">
+    <row r="10" spans="1:16" ht="25">
       <c r="A10" s="33" t="s">
         <v>85</v>
       </c>
@@ -12021,7 +15220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="23.25">
+    <row r="11" spans="1:16" ht="23">
       <c r="A11" s="33" t="s">
         <v>36</v>
       </c>
@@ -12047,7 +15246,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="23.25">
+    <row r="12" spans="1:16" ht="23">
       <c r="A12" s="34" t="s">
         <v>37</v>
       </c>
@@ -12059,7 +15258,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="1:16" ht="23.25">
+    <row r="13" spans="1:16" ht="23">
       <c r="A13" s="33" t="s">
         <v>86</v>
       </c>
@@ -12109,7 +15308,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="25.5">
+    <row r="14" spans="1:16" ht="25">
       <c r="A14" s="33" t="s">
         <v>62</v>
       </c>
@@ -12135,7 +15334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="23.25">
+    <row r="15" spans="1:16" ht="23">
       <c r="A15" s="33" t="s">
         <v>92</v>
       </c>
@@ -12161,7 +15360,7 @@
         <v>-1178</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="23.25">
+    <row r="16" spans="1:16" ht="23">
       <c r="A16" s="33" t="s">
         <v>89</v>
       </c>
@@ -12187,7 +15386,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="23.25">
+    <row r="17" spans="1:21" ht="23">
       <c r="A17" s="33" t="s">
         <v>79</v>
       </c>
@@ -12213,7 +15412,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="23.25">
+    <row r="18" spans="1:21" ht="23">
       <c r="A18" s="33" t="s">
         <v>90</v>
       </c>
@@ -12239,7 +15438,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="23.25">
+    <row r="19" spans="1:21" ht="23">
       <c r="A19" s="33" t="s">
         <v>91</v>
       </c>
@@ -12265,7 +15464,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="42.95" customHeight="1">
+    <row r="20" spans="1:21" ht="43" customHeight="1">
       <c r="A20" s="35" t="s">
         <v>75</v>
       </c>
@@ -12322,7 +15521,7 @@
         <v>8.302015715749915E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="64" customFormat="1" ht="30">
+    <row r="21" spans="1:21" s="64" customFormat="1" ht="32">
       <c r="A21" s="60"/>
       <c r="B21" s="61"/>
       <c r="C21" s="62"/>
@@ -12332,7 +15531,7 @@
       <c r="G21" s="62"/>
       <c r="H21" s="62"/>
     </row>
-    <row r="22" spans="1:21" ht="23.25">
+    <row r="22" spans="1:21" ht="23">
       <c r="A22" s="33" t="s">
         <v>87</v>
       </c>
@@ -12358,7 +15557,7 @@
         <v>-908</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="23.25">
+    <row r="23" spans="1:21" ht="23">
       <c r="A23" s="33" t="s">
         <v>88</v>
       </c>
@@ -12384,7 +15583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="25.5">
+    <row r="24" spans="1:21" ht="25">
       <c r="A24" s="33" t="s">
         <v>61</v>
       </c>
@@ -12410,7 +15609,7 @@
         <v>-1594</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="23.25">
+    <row r="25" spans="1:21" ht="23">
       <c r="A25" s="33" t="s">
         <v>64</v>
       </c>
@@ -12457,7 +15656,7 @@
       </c>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:21" ht="23.25">
+    <row r="26" spans="1:21" ht="23">
       <c r="A26" s="33" t="s">
         <v>65</v>
       </c>
@@ -12509,7 +15708,7 @@
       <c r="T26" s="66"/>
       <c r="U26" s="66"/>
     </row>
-    <row r="27" spans="1:21" ht="23.25">
+    <row r="27" spans="1:21" ht="23">
       <c r="A27" s="33" t="s">
         <v>63</v>
       </c>
@@ -12535,7 +15734,7 @@
         <v>-2763</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="23.25">
+    <row r="28" spans="1:21" ht="23">
       <c r="A28" s="33" t="s">
         <v>77</v>
       </c>
@@ -12561,7 +15760,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="38.1" customHeight="1">
+    <row r="29" spans="1:21" ht="38" customHeight="1">
       <c r="A29" s="35" t="s">
         <v>74</v>
       </c>
@@ -12618,7 +15817,7 @@
         <v>0.65624614625724509</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1" ht="27.75">
+    <row r="30" spans="1:21" s="1" customFormat="1" ht="28">
       <c r="A30" s="60" t="s">
         <v>66</v>
       </c>
@@ -12630,7 +15829,7 @@
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
     </row>
-    <row r="31" spans="1:21" ht="23.25">
+    <row r="31" spans="1:21" ht="23">
       <c r="A31" s="33" t="s">
         <v>68</v>
       </c>
@@ -12657,7 +15856,7 @@
       </c>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:21" ht="23.25">
+    <row r="32" spans="1:21" ht="23">
       <c r="A32" s="33" t="s">
         <v>67</v>
       </c>
@@ -12684,7 +15883,7 @@
       </c>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:15" ht="23.25">
+    <row r="33" spans="1:15" ht="23">
       <c r="A33" s="33" t="s">
         <v>70</v>
       </c>
@@ -12711,7 +15910,7 @@
       </c>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:15" ht="23.25">
+    <row r="34" spans="1:15" ht="23">
       <c r="A34" s="33" t="s">
         <v>69</v>
       </c>
@@ -12739,7 +15938,7 @@
       <c r="I34" s="9"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:15" ht="25.5">
+    <row r="35" spans="1:15" ht="25">
       <c r="A35" s="33" t="s">
         <v>93</v>
       </c>
@@ -12766,7 +15965,7 @@
       </c>
       <c r="J35" s="18"/>
     </row>
-    <row r="36" spans="1:15" ht="23.25">
+    <row r="36" spans="1:15" ht="23">
       <c r="A36" s="33" t="s">
         <v>71</v>
       </c>
@@ -12793,7 +15992,7 @@
       </c>
       <c r="J36" s="18"/>
     </row>
-    <row r="37" spans="1:15" ht="23.25">
+    <row r="37" spans="1:15" ht="23">
       <c r="A37" s="33" t="s">
         <v>78</v>
       </c>
@@ -12821,7 +16020,7 @@
       <c r="I37" s="9"/>
       <c r="J37" s="18"/>
     </row>
-    <row r="38" spans="1:15" ht="23.25">
+    <row r="38" spans="1:15" ht="23">
       <c r="A38" s="33" t="s">
         <v>76</v>
       </c>
@@ -12848,7 +16047,7 @@
       </c>
       <c r="J38" s="18"/>
     </row>
-    <row r="39" spans="1:15" ht="39.950000000000003" customHeight="1">
+    <row r="39" spans="1:15" ht="40" customHeight="1">
       <c r="A39" s="35" t="s">
         <v>72</v>
       </c>
@@ -12905,7 +16104,7 @@
         <v>-1.0611591418507844</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="23.25">
+    <row r="40" spans="1:15" ht="23">
       <c r="A40" s="33" t="s">
         <v>38</v>
       </c>
@@ -12932,7 +16131,7 @@
       </c>
       <c r="J40" s="18"/>
     </row>
-    <row r="41" spans="1:15" ht="41.1" customHeight="1">
+    <row r="41" spans="1:15" ht="41" customHeight="1">
       <c r="A41" s="35" t="s">
         <v>171</v>
       </c>
@@ -12988,7 +16187,7 @@
         <v>-1.0047888550282977</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="23.25">
+    <row r="42" spans="1:15" ht="23">
       <c r="A42" s="33" t="s">
         <v>46</v>
       </c>
@@ -13015,7 +16214,7 @@
       </c>
       <c r="J42" s="18"/>
     </row>
-    <row r="43" spans="1:15" ht="39.950000000000003" customHeight="1">
+    <row r="43" spans="1:15" ht="40" customHeight="1">
       <c r="A43" s="35" t="s">
         <v>73</v>
       </c>
@@ -13072,7 +16271,7 @@
         <v>-6.0975609756097561E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="1" customFormat="1" ht="23.25">
+    <row r="44" spans="1:15" s="1" customFormat="1" ht="23">
       <c r="A44" s="32" t="s">
         <v>39</v>
       </c>
@@ -13085,7 +16284,7 @@
       <c r="H44" s="39"/>
       <c r="K44" s="40"/>
     </row>
-    <row r="45" spans="1:15" ht="23.25">
+    <row r="45" spans="1:15" ht="23">
       <c r="A45" s="33" t="s">
         <v>40</v>
       </c>
@@ -13112,7 +16311,7 @@
       </c>
       <c r="K45" s="18"/>
     </row>
-    <row r="46" spans="1:15" ht="23.25">
+    <row r="46" spans="1:15" ht="23">
       <c r="A46" s="33" t="s">
         <v>41</v>
       </c>
@@ -13139,7 +16338,7 @@
       </c>
       <c r="K46" s="18"/>
     </row>
-    <row r="47" spans="1:15" s="1" customFormat="1" ht="25.5">
+    <row r="47" spans="1:15" s="1" customFormat="1" ht="25">
       <c r="A47" s="36" t="s">
         <v>47</v>
       </c>
@@ -13152,7 +16351,7 @@
       <c r="H47" s="39"/>
       <c r="K47" s="40"/>
     </row>
-    <row r="48" spans="1:15" ht="23.25">
+    <row r="48" spans="1:15" ht="23">
       <c r="A48" s="33" t="s">
         <v>42</v>
       </c>
@@ -13179,7 +16378,7 @@
       </c>
       <c r="K48" s="18"/>
     </row>
-    <row r="49" spans="1:15" ht="23.25">
+    <row r="49" spans="1:15" ht="23">
       <c r="A49" s="33" t="s">
         <v>43</v>
       </c>
@@ -13206,7 +16405,7 @@
       </c>
       <c r="K49" s="18"/>
     </row>
-    <row r="50" spans="1:15" ht="23.25">
+    <row r="50" spans="1:15" ht="23">
       <c r="A50" s="33" t="s">
         <v>44</v>
       </c>
@@ -13233,7 +16432,7 @@
       </c>
       <c r="K50" s="18"/>
     </row>
-    <row r="51" spans="1:15" ht="35.1" customHeight="1">
+    <row r="51" spans="1:15" ht="35" customHeight="1">
       <c r="A51" s="35" t="s">
         <v>45</v>
       </c>
@@ -14527,7 +17726,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" low="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" low="1" xr2:uid="{00000000-0003-0000-0300-000052000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14538,68 +17737,100 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B20:H20</xm:f>
-              <xm:sqref>I20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B21:H21</xm:f>
-              <xm:sqref>I21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B29:H29</xm:f>
-              <xm:sqref>I29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B30:H30</xm:f>
-              <xm:sqref>I30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B39:H39</xm:f>
-              <xm:sqref>I39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B41:H41</xm:f>
-              <xm:sqref>I41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B43:H43</xm:f>
-              <xm:sqref>I43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B44:H44</xm:f>
-              <xm:sqref>I44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B51:H51</xm:f>
-              <xm:sqref>I51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B3:H3</xm:f>
-              <xm:sqref>I3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B4:H4</xm:f>
-              <xm:sqref>I4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B12:H12</xm:f>
-              <xm:sqref>I12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B13:H13</xm:f>
-              <xm:sqref>I13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B26:H26</xm:f>
-              <xm:sqref>I26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B25:H25</xm:f>
-              <xm:sqref>I25</xm:sqref>
+              <xm:f>'CASH FLOWS'!J41:O41</xm:f>
+              <xm:sqref>P41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J42:O42</xm:f>
+              <xm:sqref>P42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J43:O43</xm:f>
+              <xm:sqref>P43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J44:O44</xm:f>
+              <xm:sqref>P44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J45:O45</xm:f>
+              <xm:sqref>P45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J46:O46</xm:f>
+              <xm:sqref>P46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J47:O47</xm:f>
+              <xm:sqref>P47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J48:O48</xm:f>
+              <xm:sqref>P48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J49:O49</xm:f>
+              <xm:sqref>P49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J50:O50</xm:f>
+              <xm:sqref>P50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J51:O51</xm:f>
+              <xm:sqref>P51</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" xr2:uid="{00000000-0003-0000-0300-000051000000}">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J39:O39</xm:f>
+              <xm:sqref>P39</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" xr2:uid="{00000000-0003-0000-0300-000050000000}">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J29:O29</xm:f>
+              <xm:sqref>P29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J28:O28</xm:f>
+              <xm:sqref>P28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J27:O27</xm:f>
+              <xm:sqref>P27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J26:O26</xm:f>
+              <xm:sqref>P26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J25:O25</xm:f>
+              <xm:sqref>P25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1" xr2:uid="{00000000-0003-0000-0300-00004F000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14683,55 +17914,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFFF0000"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J29:O29</xm:f>
-              <xm:sqref>P29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J28:O28</xm:f>
-              <xm:sqref>P28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J27:O27</xm:f>
-              <xm:sqref>P27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J26:O26</xm:f>
-              <xm:sqref>P26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J25:O25</xm:f>
-              <xm:sqref>P25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFFF0000"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J39:O39</xm:f>
-              <xm:sqref>P39</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" low="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" low="1" xr2:uid="{00000000-0003-0000-0300-00004E000000}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14742,48 +17925,64 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J41:O41</xm:f>
-              <xm:sqref>P41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J42:O42</xm:f>
-              <xm:sqref>P42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J43:O43</xm:f>
-              <xm:sqref>P43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J44:O44</xm:f>
-              <xm:sqref>P44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J45:O45</xm:f>
-              <xm:sqref>P45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J46:O46</xm:f>
-              <xm:sqref>P46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J47:O47</xm:f>
-              <xm:sqref>P47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J48:O48</xm:f>
-              <xm:sqref>P48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J49:O49</xm:f>
-              <xm:sqref>P49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J50:O50</xm:f>
-              <xm:sqref>P50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J51:O51</xm:f>
-              <xm:sqref>P51</xm:sqref>
+              <xm:f>'CASH FLOWS'!B20:H20</xm:f>
+              <xm:sqref>I20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B21:H21</xm:f>
+              <xm:sqref>I21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B29:H29</xm:f>
+              <xm:sqref>I29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B30:H30</xm:f>
+              <xm:sqref>I30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B39:H39</xm:f>
+              <xm:sqref>I39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B41:H41</xm:f>
+              <xm:sqref>I41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B43:H43</xm:f>
+              <xm:sqref>I43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B44:H44</xm:f>
+              <xm:sqref>I44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B51:H51</xm:f>
+              <xm:sqref>I51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B3:H3</xm:f>
+              <xm:sqref>I3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B4:H4</xm:f>
+              <xm:sqref>I4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B12:H12</xm:f>
+              <xm:sqref>I12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B13:H13</xm:f>
+              <xm:sqref>I13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B26:H26</xm:f>
+              <xm:sqref>I26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B25:H25</xm:f>
+              <xm:sqref>I25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -14794,21 +17993,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:M27"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="25.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="25"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="88"/>
-    <col min="2" max="2" width="153.625" style="88" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="10"/>
+    <col min="1" max="1" width="10.83203125" style="88"/>
+    <col min="2" max="2" width="153.6640625" style="88" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="10"/>
     <col min="4" max="4" width="3.5" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="13" max="13" width="27.875" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
@@ -14863,23 +18062,23 @@
       <c r="B7" s="89"/>
       <c r="C7" s="43"/>
     </row>
-    <row r="8" spans="1:13" ht="27.75">
+    <row r="8" spans="1:13" ht="27">
       <c r="A8" s="84">
         <v>6</v>
       </c>
       <c r="B8" s="89"/>
       <c r="C8" s="43"/>
-      <c r="E8" s="139" t="s">
+      <c r="E8" s="152" t="s">
         <v>179</v>
       </c>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="139"/>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="152"/>
+      <c r="K8" s="152"/>
+      <c r="L8" s="152"/>
+      <c r="M8" s="152"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="84">
@@ -14887,15 +18086,15 @@
       </c>
       <c r="B9" s="89"/>
       <c r="C9" s="43"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="84">
@@ -14903,15 +18102,15 @@
       </c>
       <c r="B10" s="89"/>
       <c r="C10" s="43"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="84">
@@ -14919,15 +18118,15 @@
       </c>
       <c r="B11" s="89"/>
       <c r="C11" s="43"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="140"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="153"/>
+      <c r="K11" s="153"/>
+      <c r="L11" s="153"/>
+      <c r="M11" s="153"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="84">
@@ -14935,15 +18134,15 @@
       </c>
       <c r="B12" s="89"/>
       <c r="C12" s="43"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="153"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="84">
@@ -14951,30 +18150,30 @@
       </c>
       <c r="B13" s="89"/>
       <c r="C13" s="43"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="140"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="140"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="153"/>
+      <c r="M13" s="153"/>
     </row>
     <row r="14" spans="1:13">
       <c r="C14" s="107">
         <f>SUM(C3:C13)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="87" t="s">
@@ -14982,15 +18181,15 @@
       </c>
       <c r="B15" s="89"/>
       <c r="C15" s="43"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="140"/>
-      <c r="L15" s="140"/>
-      <c r="M15" s="140"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="153"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="85">
@@ -14998,15 +18197,15 @@
       </c>
       <c r="B16" s="89"/>
       <c r="C16" s="43"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="140"/>
-      <c r="L16" s="140"/>
-      <c r="M16" s="140"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="85">
@@ -15014,15 +18213,15 @@
       </c>
       <c r="B17" s="89"/>
       <c r="C17" s="43"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="140"/>
-      <c r="L17" s="140"/>
-      <c r="M17" s="140"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="85">
@@ -15030,15 +18229,15 @@
       </c>
       <c r="B18" s="89"/>
       <c r="C18" s="43"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="140"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="85">
@@ -15046,15 +18245,15 @@
       </c>
       <c r="B19" s="89"/>
       <c r="C19" s="43"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="140"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="140"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="85">

--- a/Financial/SQ財報 (已修復).xlsx
+++ b/Financial/SQ財報 (已修復).xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/datanny/Desktop/stuff/美股資料/SQ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\004134.TWLIFE.000\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D1E4DD-E180-864D-BBE1-5E67C91765BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="1040" windowWidth="28800" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11595" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NOTE" sheetId="8" r:id="rId1"/>
     <sheet name="INCOME成長性" sheetId="13" r:id="rId2"/>
     <sheet name="BALANCE SHEET穩定性" sheetId="14" r:id="rId3"/>
     <sheet name="CASH FLOWS" sheetId="12" r:id="rId4"/>
-    <sheet name="基本面分析評語" sheetId="9" r:id="rId5"/>
+    <sheet name="工作表1" sheetId="15" r:id="rId5"/>
+    <sheet name="基本面分析評語" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,13 +37,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
     <author>本機超級管理員</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{728B0270-F295-2943-BF1E-109030E781B7}">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -410,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{1253019C-1692-1A4A-BE60-20EF8D326B30}">
+    <comment ref="A5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1069,7 +1069,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="A6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1094,7 +1094,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{0BB8C8F8-2456-D743-BCBD-A5A18530877E}">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1553,7 +1553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="A8" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1568,7 +1568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="A12" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1583,7 +1583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="A14" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1620,7 +1620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="A21" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1715,7 +1715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="A25" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1735,7 +1735,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="319">
   <si>
     <t>Total current assets</t>
   </si>
@@ -2879,9 +2879,6 @@
   </si>
   <si>
     <t>Current liabilities:</t>
-  </si>
-  <si>
-    <t>Long-term debt</t>
   </si>
   <si>
     <t>Other non-current liabilities</t>
@@ -3432,7 +3429,7 @@
       <rPr>
         <sz val="18"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="細明體"/>
         <family val="3"/>
         <charset val="136"/>
       </rPr>
@@ -3449,17 +3446,265 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Long-term debt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-cash interest and other</t>
+  </si>
+  <si>
+    <t>Share-based compensation</t>
+  </si>
+  <si>
+    <t>Loss (gain) on revaluation of equity investments</t>
+  </si>
+  <si>
+    <t>Bitcoin impairment losses</t>
+  </si>
+  <si>
+    <t>Changes in operating assets and liabilities:</t>
+  </si>
+  <si>
+    <t>Settlements receivable</t>
+  </si>
+  <si>
+    <t>Purchases and originations of loans</t>
+  </si>
+  <si>
+    <t>Sales, principal payments, and forgiveness of loans</t>
+  </si>
+  <si>
+    <t>Customers payable</t>
+  </si>
+  <si>
+    <t>Settlements payable</t>
+  </si>
+  <si>
+    <t>Other assets and liabilities</t>
+  </si>
+  <si>
+    <t>Cash flows from investing activities:</t>
+  </si>
+  <si>
+    <t>Purchase of marketable debt securities</t>
+  </si>
+  <si>
+    <t>Proceeds from maturities of marketable debt securities</t>
+  </si>
+  <si>
+    <t>Proceeds from sale of marketable debt securities</t>
+  </si>
+  <si>
+    <t>Purchase of marketable debt securities from customer funds</t>
+  </si>
+  <si>
+    <t>Proceeds from maturities of marketable debt securities from customer funds</t>
+  </si>
+  <si>
+    <t>Proceeds from sale of marketable debt securities from customer funds</t>
+  </si>
+  <si>
+    <t>Purchase of property and equipment</t>
+  </si>
+  <si>
+    <t>Purchase of bitcoin investments</t>
+  </si>
+  <si>
+    <t>Purchase of other investments</t>
+  </si>
+  <si>
+    <t>Proceeds from sale of equity investments</t>
+  </si>
+  <si>
+    <t>Proceeds from sale of asset group</t>
+  </si>
+  <si>
+    <t>Business combinations, net of cash acquired</t>
+  </si>
+  <si>
+    <t>Cash flows from financing activities:</t>
+  </si>
+  <si>
+    <t>Proceeds from issuance of convertible senior notes, net</t>
+  </si>
+  <si>
+    <t>Purchase of convertible senior note hedges</t>
+  </si>
+  <si>
+    <t>Proceeds from issuance of warrants</t>
+  </si>
+  <si>
+    <t>Proceeds from issuance of senior unsecured notes, net</t>
+  </si>
+  <si>
+    <t>Proceeds from PPP Liquidity Facility advances</t>
+  </si>
+  <si>
+    <t>Repayments of PPP Liquidity Facility advances</t>
+  </si>
+  <si>
+    <t>Proceeds from the exercise of stock options and purchases under the employee stock purchase plan</t>
+  </si>
+  <si>
+    <t>Payments for tax withholding related to vesting of restricted stock units</t>
+  </si>
+  <si>
+    <t>Other financing activities</t>
+  </si>
+  <si>
+    <t>Change in customer funds, restricted from use in the Company's operations</t>
+  </si>
+  <si>
+    <t>Effect of foreign exchange rate on cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Cash, cash equivalents, restricted cash and customer funds, beginning of the year</t>
+  </si>
+  <si>
+    <t>Short-term restricted cash</t>
+  </si>
+  <si>
+    <t>Long-term restricted cash</t>
+  </si>
+  <si>
+    <t>Customer funds cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Payment for termination of Starbucks warrant</t>
+  </si>
+  <si>
+    <t>Depreciation and amortization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loss on extinguishment of long-term debt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-cash lease expense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain on sale of asset group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transaction and loan losses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change in deferred income taxes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Net increase in interest-bearing deposits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjustments:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Net cash provided by operating activities                                                                                              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="MingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>淨營運現金流</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Net cash used in investing activities                                                                                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>淨投資現金流</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Net cash used in investing activities                                                                                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>淨投資現金流</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cash, cash equivalents, and restricted cash at end of period                                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="MingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>累積現金流</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Net change in cash, cash equivalents, and restricted cash                                              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>當年度總現金淨變化</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="48">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3794,9 +4039,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
     </font>
@@ -4011,11 +4263,11 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4070,7 +4322,7 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
@@ -4136,10 +4388,10 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4214,7 +4466,7 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4292,7 +4544,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -4325,7 +4577,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -4466,6 +4718,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4478,8 +4736,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4787,8 +5051,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11503729" y="4267791"/>
-          <a:ext cx="3681209" cy="751858"/>
+          <a:off x="11492989" y="4268865"/>
+          <a:ext cx="3673288" cy="749038"/>
           <a:chOff x="7209645" y="12584006"/>
           <a:chExt cx="2047648" cy="655091"/>
         </a:xfrm>
@@ -4921,8 +5185,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10078441" y="8579900"/>
-          <a:ext cx="1910299" cy="670612"/>
+          <a:off x="10083140" y="8641789"/>
+          <a:ext cx="1894860" cy="668733"/>
           <a:chOff x="6733217" y="12667288"/>
           <a:chExt cx="1052432" cy="584673"/>
         </a:xfrm>
@@ -5055,8 +5319,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8917954" y="7210770"/>
-          <a:ext cx="10915986" cy="354384"/>
+          <a:off x="8920102" y="7257489"/>
+          <a:ext cx="10848190" cy="353444"/>
           <a:chOff x="5995463" y="12880661"/>
           <a:chExt cx="6049148" cy="309203"/>
         </a:xfrm>
@@ -5277,8 +5541,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7879907" y="6779219"/>
-          <a:ext cx="5812888" cy="677074"/>
+          <a:off x="7879773" y="6822715"/>
+          <a:ext cx="5796644" cy="679357"/>
           <a:chOff x="6135038" y="12880661"/>
           <a:chExt cx="3214792" cy="591847"/>
         </a:xfrm>
@@ -5440,8 +5704,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15449613" y="7134681"/>
-          <a:ext cx="9713842" cy="1460084"/>
+          <a:off x="15468856" y="7198181"/>
+          <a:ext cx="9604160" cy="1483175"/>
           <a:chOff x="4632486" y="11895924"/>
           <a:chExt cx="5179785" cy="1254385"/>
         </a:xfrm>
@@ -5739,8 +6003,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15490427" y="4857476"/>
-          <a:ext cx="9207362" cy="1048993"/>
+          <a:off x="15509670" y="4882492"/>
+          <a:ext cx="9113073" cy="1066310"/>
           <a:chOff x="4610587" y="11511799"/>
           <a:chExt cx="5030392" cy="1367912"/>
         </a:xfrm>
@@ -5945,8 +6209,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4054930" y="3432857"/>
-          <a:ext cx="9923455" cy="986300"/>
+          <a:off x="4054930" y="3438630"/>
+          <a:ext cx="9936925" cy="999769"/>
           <a:chOff x="6324019" y="12880660"/>
           <a:chExt cx="3164800" cy="988012"/>
         </a:xfrm>
@@ -6257,8 +6521,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6150429" y="11627649"/>
-          <a:ext cx="6819376" cy="382383"/>
+          <a:off x="6150429" y="11762346"/>
+          <a:ext cx="6827073" cy="372762"/>
           <a:chOff x="6595529" y="12479002"/>
           <a:chExt cx="4474201" cy="488397"/>
         </a:xfrm>
@@ -6407,8 +6671,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="22121097" y="3664442"/>
-          <a:ext cx="5130303" cy="1070569"/>
+          <a:off x="22080688" y="3670215"/>
+          <a:ext cx="5049485" cy="1089812"/>
           <a:chOff x="4938011" y="11424112"/>
           <a:chExt cx="2797968" cy="1420521"/>
         </a:xfrm>
@@ -6638,8 +6902,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="557893" y="1950225"/>
-          <a:ext cx="3524248" cy="1796413"/>
+          <a:off x="557893" y="1936755"/>
+          <a:ext cx="3524248" cy="1817580"/>
           <a:chOff x="5414262" y="11093561"/>
           <a:chExt cx="1927325" cy="2347323"/>
         </a:xfrm>
@@ -7239,16 +7503,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>230909</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>346363</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>274206</xdr:rowOff>
+      <xdr:rowOff>291524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>806491</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>15051</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>242454</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7263,8 +7527,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19887045" y="7807615"/>
-          <a:ext cx="575582" cy="332550"/>
+          <a:off x="19171227" y="7963479"/>
+          <a:ext cx="2978728" cy="262657"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -7467,8 +7731,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24025172" y="10483675"/>
-          <a:ext cx="8618309" cy="1936592"/>
+          <a:off x="23965521" y="10601054"/>
+          <a:ext cx="8464369" cy="1944289"/>
           <a:chOff x="24016269" y="10330597"/>
           <a:chExt cx="8491940" cy="1914478"/>
         </a:xfrm>
@@ -7641,8 +7905,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21189757" y="1131451"/>
-          <a:ext cx="11766359" cy="1745674"/>
+          <a:off x="21164742" y="1104512"/>
+          <a:ext cx="11562390" cy="1768764"/>
           <a:chOff x="4938011" y="11424112"/>
           <a:chExt cx="3975790" cy="1317717"/>
         </a:xfrm>
@@ -7909,8 +8173,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7573538" y="595227"/>
-          <a:ext cx="6316676" cy="1122036"/>
+          <a:off x="7573538" y="556743"/>
+          <a:ext cx="6330146" cy="1141277"/>
           <a:chOff x="6254731" y="12479003"/>
           <a:chExt cx="3489366" cy="1487869"/>
         </a:xfrm>
@@ -8059,8 +8323,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21452018" y="471339"/>
-          <a:ext cx="8271897" cy="1503592"/>
+          <a:off x="21411609" y="432855"/>
+          <a:ext cx="8144897" cy="1528606"/>
           <a:chOff x="4099532" y="11506223"/>
           <a:chExt cx="4515652" cy="1994513"/>
         </a:xfrm>
@@ -8225,8 +8489,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20557274" y="3283282"/>
-          <a:ext cx="13183142" cy="784851"/>
+          <a:off x="20532259" y="3283282"/>
+          <a:ext cx="12963778" cy="798320"/>
           <a:chOff x="2670742" y="12289860"/>
           <a:chExt cx="7193434" cy="1069226"/>
         </a:xfrm>
@@ -8408,7 +8672,7 @@
                 <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
                   <a:extLst>
                     <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
-                      <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
+                      <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" xmlns="" val="tx"/>
                     </a:ext>
                   </a:extLst>
                 </a:hlinkClick>
@@ -8425,7 +8689,7 @@
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
                 <a:extLst>
                   <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
-                    <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
+                    <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" xmlns="" val="tx"/>
                   </a:ext>
                 </a:extLst>
               </a:hlinkClick>
@@ -8469,8 +8733,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18001991" y="4339507"/>
-          <a:ext cx="3517674" cy="367853"/>
+          <a:off x="18011613" y="4358749"/>
+          <a:ext cx="3467643" cy="373627"/>
           <a:chOff x="2765708" y="11300183"/>
           <a:chExt cx="1918876" cy="488715"/>
         </a:xfrm>
@@ -8571,6 +8835,719 @@
                 </a:solidFill>
               </a:rPr>
               <a:t>看似是單純增加投資美國與公司債券</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>727982</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>83745</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="橢圓 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCFF6EFE-8C82-3D49-A3A3-AF869B311BC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21564600" y="9048750"/>
+          <a:ext cx="575582" cy="369495"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="30000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>820511</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147407</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114285</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="62" name="群組 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="22139193" y="5100407"/>
+          <a:ext cx="7219455" cy="867423"/>
+          <a:chOff x="5022459" y="11272269"/>
+          <a:chExt cx="4002737" cy="1121942"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="63" name="直線接點 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="64" idx="1"/>
+            <a:endCxn id="33" idx="6"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="5022459" y="11272269"/>
+            <a:ext cx="2033420" cy="873307"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="64" name="文字方塊 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7055879" y="11896934"/>
+            <a:ext cx="1969317" cy="497277"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>將</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>DoorDash</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>的</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>持股出清</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 故非流動資產下降</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>285745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>242451</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="65" name="群組 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="21874307" y="9152654"/>
+          <a:ext cx="5297921" cy="857252"/>
+          <a:chOff x="5022459" y="11272270"/>
+          <a:chExt cx="2933262" cy="1108786"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="66" name="直線接點 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="70" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="5022459" y="11272270"/>
+            <a:ext cx="2033420" cy="866732"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="文字方塊 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7055879" y="11896938"/>
+            <a:ext cx="899842" cy="484118"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>TIDAL</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 的收購</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>788350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>242456</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190495</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="71" name="群組 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="22107032" y="6318146"/>
+          <a:ext cx="9013742" cy="920849"/>
+          <a:chOff x="5468507" y="11147274"/>
+          <a:chExt cx="4593918" cy="1217989"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="72" name="直線接點 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="73" idx="1"/>
+            <a:endCxn id="34" idx="6"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="5468507" y="11147274"/>
+            <a:ext cx="2848243" cy="932749"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="73" name="文字方塊 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8316751" y="11794782"/>
+            <a:ext cx="1745674" cy="570481"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>交易量</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>GPV</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>增加，導致應付款項對應增加</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>111126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>779318</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="77" name="群組 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="22149955" y="8094808"/>
+          <a:ext cx="7013863" cy="945282"/>
+          <a:chOff x="5260152" y="11000824"/>
+          <a:chExt cx="3885894" cy="1247028"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="78" name="直線接點 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="79" idx="1"/>
+            <a:endCxn id="36" idx="6"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="5260152" y="11000824"/>
+            <a:ext cx="3056598" cy="1020491"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="文字方塊 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8316750" y="11794778"/>
+            <a:ext cx="829296" cy="453074"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>就是一直借錢</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -8877,45 +9854,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView zoomScale="60" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="72.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20">
+    <row r="1" spans="1:16" ht="20.25">
       <c r="A1" s="80" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17">
+    <row r="2" spans="1:16">
       <c r="B2" s="91" t="s">
         <v>176</v>
       </c>
       <c r="C2" s="90"/>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
       <c r="K2" s="10"/>
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:16" ht="22">
-      <c r="A3" s="149"/>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
+    <row r="3" spans="1:16" ht="19.5">
+      <c r="A3" s="151"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
       <c r="E3" s="78">
         <v>2016</v>
       </c>
@@ -8954,10 +9931,10 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="18">
-      <c r="A4" s="149"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
+      <c r="A4" s="151"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
       <c r="E4" s="13">
         <v>197</v>
       </c>
@@ -8999,43 +9976,43 @@
       <c r="P4" s="71"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="149"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
+      <c r="A5" s="151"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="149"/>
-      <c r="B6" s="149"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="149"/>
+      <c r="A6" s="151"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="149"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
+      <c r="A7" s="151"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="149" t="s">
+      <c r="G7" s="151" t="s">
         <v>174</v>
       </c>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="149"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:16" ht="22">
-      <c r="A8" s="149"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
+    <row r="8" spans="1:16" ht="19.5">
+      <c r="A8" s="151"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
       <c r="E8" s="78">
         <v>2016</v>
       </c>
@@ -9074,10 +10051,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="18">
-      <c r="A9" s="149"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
+      <c r="A9" s="151"/>
+      <c r="B9" s="151"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
       <c r="E9" s="13">
         <v>6129</v>
       </c>
@@ -9119,43 +10096,43 @@
       <c r="P9" s="71"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="149"/>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
+      <c r="A10" s="151"/>
+      <c r="B10" s="151"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="149"/>
-      <c r="B11" s="149"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="149"/>
+      <c r="A11" s="151"/>
+      <c r="B11" s="151"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="151"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="149"/>
-      <c r="B12" s="149"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
+      <c r="A12" s="151"/>
+      <c r="B12" s="151"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="151"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="149" t="s">
+      <c r="G12" s="151" t="s">
         <v>175</v>
       </c>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="149"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:16" ht="22">
-      <c r="A13" s="149"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="149"/>
+    <row r="13" spans="1:16" ht="19.5">
+      <c r="A13" s="151"/>
+      <c r="B13" s="151"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="151"/>
       <c r="E13" s="78">
         <v>2016</v>
       </c>
@@ -9194,10 +10171,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="18">
-      <c r="A14" s="149"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
+      <c r="A14" s="151"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
       <c r="E14" s="13">
         <v>354014</v>
       </c>
@@ -9241,19 +10218,19 @@
     <row r="15" spans="1:16" ht="18">
       <c r="E15" s="13"/>
     </row>
-    <row r="17" spans="1:18" ht="32" customHeight="1">
+    <row r="17" spans="1:18" ht="32.1" customHeight="1">
       <c r="A17" s="80" t="s">
         <v>124</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
-    <row r="18" spans="1:18" ht="31" customHeight="1">
+    <row r="18" spans="1:18" ht="30.95" customHeight="1">
       <c r="A18" s="82" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="22">
+    <row r="19" spans="1:18" ht="19.5">
       <c r="A19" s="70" t="s">
         <v>94</v>
       </c>
@@ -9270,7 +10247,7 @@
       <c r="F19" s="94"/>
       <c r="G19" s="94"/>
     </row>
-    <row r="20" spans="1:18" ht="18">
+    <row r="20" spans="1:18" ht="18.75">
       <c r="A20" s="79" t="s">
         <v>95</v>
       </c>
@@ -9287,7 +10264,7 @@
       <c r="F20" s="95"/>
       <c r="G20" s="95"/>
     </row>
-    <row r="21" spans="1:18" ht="18">
+    <row r="21" spans="1:18" ht="18.75">
       <c r="A21" s="79" t="s">
         <v>96</v>
       </c>
@@ -9304,7 +10281,7 @@
       <c r="F21" s="95"/>
       <c r="G21" s="95"/>
     </row>
-    <row r="22" spans="1:18" ht="18">
+    <row r="22" spans="1:18" ht="18.75">
       <c r="A22" s="79" t="s">
         <v>100</v>
       </c>
@@ -9321,7 +10298,7 @@
       <c r="F22" s="95"/>
       <c r="G22" s="95"/>
     </row>
-    <row r="23" spans="1:18" ht="18">
+    <row r="23" spans="1:18" ht="18.75">
       <c r="A23" s="74" t="s">
         <v>101</v>
       </c>
@@ -9341,7 +10318,7 @@
       <c r="F23" s="96"/>
       <c r="G23" s="96"/>
     </row>
-    <row r="24" spans="1:18" ht="22">
+    <row r="24" spans="1:18" ht="19.5">
       <c r="A24" s="79" t="s">
         <v>97</v>
       </c>
@@ -9358,7 +10335,7 @@
       <c r="F24" s="94"/>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="1:18" ht="18">
+    <row r="25" spans="1:18" ht="18.75">
       <c r="A25" s="79" t="s">
         <v>98</v>
       </c>
@@ -9375,7 +10352,7 @@
       <c r="F25" s="95"/>
       <c r="G25" s="95"/>
     </row>
-    <row r="26" spans="1:18" ht="18">
+    <row r="26" spans="1:18" ht="18.75">
       <c r="A26" s="79" t="s">
         <v>99</v>
       </c>
@@ -9392,7 +10369,7 @@
       <c r="F26" s="95"/>
       <c r="G26" s="95"/>
     </row>
-    <row r="27" spans="1:18" ht="18">
+    <row r="27" spans="1:18" ht="18.75">
       <c r="A27" s="74" t="s">
         <v>101</v>
       </c>
@@ -9412,12 +10389,12 @@
       <c r="F27" s="97"/>
       <c r="G27" s="97"/>
     </row>
-    <row r="30" spans="1:18" ht="32" customHeight="1">
+    <row r="30" spans="1:18" ht="32.1" customHeight="1">
       <c r="A30" s="80" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="22">
+    <row r="31" spans="1:18" ht="19.5">
       <c r="A31" s="70" t="s">
         <v>103</v>
       </c>
@@ -9435,7 +10412,7 @@
       <c r="G31" s="94"/>
       <c r="I31" s="68"/>
     </row>
-    <row r="32" spans="1:18" ht="22">
+    <row r="32" spans="1:18" ht="19.5">
       <c r="A32" s="70" t="s">
         <v>15</v>
       </c>
@@ -9453,7 +10430,7 @@
       <c r="G32" s="95"/>
       <c r="R32" s="68"/>
     </row>
-    <row r="33" spans="1:18" ht="18">
+    <row r="33" spans="1:18" ht="18.75">
       <c r="A33" s="70" t="s">
         <v>107</v>
       </c>
@@ -9464,7 +10441,7 @@
       <c r="F33" s="95"/>
       <c r="G33" s="95"/>
     </row>
-    <row r="34" spans="1:18" ht="22">
+    <row r="34" spans="1:18" ht="19.5">
       <c r="A34" s="70" t="s">
         <v>108</v>
       </c>
@@ -9482,7 +10459,7 @@
       <c r="G34" s="95"/>
       <c r="O34" s="68"/>
     </row>
-    <row r="35" spans="1:18" ht="22">
+    <row r="35" spans="1:18" ht="19.5">
       <c r="A35" s="70" t="s">
         <v>110</v>
       </c>
@@ -9500,7 +10477,7 @@
       <c r="G35" s="95"/>
       <c r="O35" s="68"/>
     </row>
-    <row r="36" spans="1:18" ht="22">
+    <row r="36" spans="1:18" ht="19.5">
       <c r="A36" s="70" t="s">
         <v>113</v>
       </c>
@@ -9518,7 +10495,7 @@
       <c r="G36" s="95"/>
       <c r="O36" s="68"/>
     </row>
-    <row r="37" spans="1:18" ht="18">
+    <row r="37" spans="1:18" ht="18.75">
       <c r="A37" s="70" t="s">
         <v>16</v>
       </c>
@@ -9529,7 +10506,7 @@
       <c r="F37" s="95"/>
       <c r="G37" s="95"/>
     </row>
-    <row r="38" spans="1:18" ht="22">
+    <row r="38" spans="1:18" ht="19.5">
       <c r="A38" s="70" t="s">
         <v>17</v>
       </c>
@@ -9553,7 +10530,7 @@
       <c r="O38" s="67"/>
       <c r="R38" s="68"/>
     </row>
-    <row r="39" spans="1:18" ht="18">
+    <row r="39" spans="1:18" ht="18.75">
       <c r="A39" s="70" t="s">
         <v>19</v>
       </c>
@@ -9578,19 +10555,19 @@
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
     </row>
-    <row r="42" spans="1:18" ht="32" customHeight="1">
+    <row r="42" spans="1:18" ht="32.1" customHeight="1">
       <c r="A42" s="80" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="32" customHeight="1">
+    <row r="43" spans="1:18" ht="32.1" customHeight="1">
       <c r="A43" s="80" t="s">
         <v>119</v>
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
     </row>
-    <row r="44" spans="1:18" ht="32" customHeight="1">
+    <row r="44" spans="1:18" ht="32.1" customHeight="1">
       <c r="A44" s="80" t="s">
         <v>120</v>
       </c>
@@ -9605,21 +10582,21 @@
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
     </row>
-    <row r="47" spans="1:18" ht="32" customHeight="1">
+    <row r="47" spans="1:18" ht="32.1" customHeight="1">
       <c r="A47" s="80" t="s">
         <v>121</v>
       </c>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
     </row>
-    <row r="48" spans="1:18" ht="32" customHeight="1">
+    <row r="48" spans="1:18" ht="32.1" customHeight="1">
       <c r="A48" s="82" t="s">
         <v>122</v>
       </c>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
     </row>
-    <row r="49" spans="1:14" ht="22">
+    <row r="49" spans="1:14" ht="19.5">
       <c r="A49" s="70" t="s">
         <v>125</v>
       </c>
@@ -9630,7 +10607,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="22">
+    <row r="50" spans="1:14" ht="19.5">
       <c r="A50" s="79" t="s">
         <v>126</v>
       </c>
@@ -9642,7 +10619,7 @@
       </c>
       <c r="N50" s="68"/>
     </row>
-    <row r="51" spans="1:14" ht="22">
+    <row r="51" spans="1:14" ht="19.5">
       <c r="A51" s="79" t="s">
         <v>127</v>
       </c>
@@ -9654,7 +10631,7 @@
       </c>
       <c r="I51" s="68"/>
     </row>
-    <row r="52" spans="1:14" ht="22">
+    <row r="52" spans="1:14" ht="19.5">
       <c r="A52" s="79" t="s">
         <v>128</v>
       </c>
@@ -9666,7 +10643,7 @@
       </c>
       <c r="I52" s="68"/>
     </row>
-    <row r="53" spans="1:14" ht="22">
+    <row r="53" spans="1:14" ht="19.5">
       <c r="A53" s="79" t="s">
         <v>129</v>
       </c>
@@ -9678,7 +10655,7 @@
       </c>
       <c r="I53" s="68"/>
     </row>
-    <row r="54" spans="1:14" ht="22">
+    <row r="54" spans="1:14" ht="19.5">
       <c r="A54" s="79" t="s">
         <v>130</v>
       </c>
@@ -9690,7 +10667,7 @@
       </c>
       <c r="I54" s="68"/>
     </row>
-    <row r="55" spans="1:14" ht="22">
+    <row r="55" spans="1:14" ht="19.5">
       <c r="A55" s="79" t="s">
         <v>131</v>
       </c>
@@ -9702,7 +10679,7 @@
       </c>
       <c r="I55" s="68"/>
     </row>
-    <row r="56" spans="1:14" ht="22">
+    <row r="56" spans="1:14" ht="19.5">
       <c r="A56" s="74" t="s">
         <v>132</v>
       </c>
@@ -9716,7 +10693,7 @@
       </c>
       <c r="I56" s="68"/>
     </row>
-    <row r="57" spans="1:14" ht="22">
+    <row r="57" spans="1:14" ht="19.5">
       <c r="A57" s="70" t="s">
         <v>133</v>
       </c>
@@ -9728,7 +10705,7 @@
       </c>
       <c r="I57" s="68"/>
     </row>
-    <row r="58" spans="1:14" ht="18">
+    <row r="58" spans="1:14" ht="18.75">
       <c r="A58" s="74" t="s">
         <v>134</v>
       </c>
@@ -9744,12 +10721,12 @@
     <row r="59" spans="1:14">
       <c r="A59" s="67"/>
     </row>
-    <row r="60" spans="1:14" ht="22" customHeight="1">
+    <row r="60" spans="1:14" ht="21.95" customHeight="1">
       <c r="A60" s="82" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="22">
+    <row r="61" spans="1:14" ht="19.5">
       <c r="A61" s="70" t="s">
         <v>135</v>
       </c>
@@ -9760,7 +10737,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="22">
+    <row r="62" spans="1:14" ht="19.5">
       <c r="A62" s="79" t="s">
         <v>95</v>
       </c>
@@ -9773,7 +10750,7 @@
       <c r="I62" s="67"/>
       <c r="N62" s="68"/>
     </row>
-    <row r="63" spans="1:14" ht="22">
+    <row r="63" spans="1:14" ht="19.5">
       <c r="A63" s="79" t="s">
         <v>136</v>
       </c>
@@ -9785,7 +10762,7 @@
       </c>
       <c r="I63" s="68"/>
     </row>
-    <row r="64" spans="1:14" ht="22">
+    <row r="64" spans="1:14" ht="19.5">
       <c r="A64" s="74" t="s">
         <v>137</v>
       </c>
@@ -9798,12 +10775,12 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="29" customHeight="1">
+    <row r="66" spans="1:18" ht="29.1" customHeight="1">
       <c r="A66" s="82" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="22">
+    <row r="67" spans="1:18" ht="19.5">
       <c r="A67" s="71"/>
       <c r="B67" s="78">
         <v>2019</v>
@@ -9823,7 +10800,7 @@
       <c r="M67" s="67"/>
       <c r="R67" s="68"/>
     </row>
-    <row r="68" spans="1:18" ht="22">
+    <row r="68" spans="1:18" ht="19.5">
       <c r="A68" s="79" t="s">
         <v>140</v>
       </c>
@@ -9844,7 +10821,7 @@
       <c r="L68" s="68"/>
       <c r="M68" s="68"/>
     </row>
-    <row r="69" spans="1:18" ht="22">
+    <row r="69" spans="1:18" ht="19.5">
       <c r="A69" s="79" t="s">
         <v>143</v>
       </c>
@@ -9865,7 +10842,7 @@
       <c r="L69" s="68"/>
       <c r="M69" s="68"/>
     </row>
-    <row r="70" spans="1:18" ht="22">
+    <row r="70" spans="1:18" ht="19.5">
       <c r="A70" s="79" t="s">
         <v>144</v>
       </c>
@@ -9886,7 +10863,7 @@
       <c r="L70" s="68"/>
       <c r="M70" s="68"/>
     </row>
-    <row r="71" spans="1:18" ht="18">
+    <row r="71" spans="1:18" ht="18.75">
       <c r="A71" s="79" t="s">
         <v>36</v>
       </c>
@@ -9903,7 +10880,7 @@
       <c r="F71" s="95"/>
       <c r="G71" s="95"/>
     </row>
-    <row r="72" spans="1:18" ht="22">
+    <row r="72" spans="1:18" ht="19.5">
       <c r="A72" s="74" t="s">
         <v>147</v>
       </c>
@@ -9941,7 +10918,7 @@
       <c r="M75" s="21"/>
       <c r="N75" s="21"/>
     </row>
-    <row r="76" spans="1:18" ht="22">
+    <row r="76" spans="1:18" ht="19.5">
       <c r="A76" s="70" t="s">
         <v>149</v>
       </c>
@@ -9952,7 +10929,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="22">
+    <row r="77" spans="1:18" ht="19.5">
       <c r="A77" s="79" t="s">
         <v>150</v>
       </c>
@@ -9964,7 +10941,7 @@
       </c>
       <c r="N77" s="68"/>
     </row>
-    <row r="78" spans="1:18" ht="18">
+    <row r="78" spans="1:18" ht="18.75">
       <c r="A78" s="79" t="s">
         <v>151</v>
       </c>
@@ -9975,7 +10952,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="18">
+    <row r="79" spans="1:18" ht="18.75">
       <c r="A79" s="79" t="s">
         <v>152</v>
       </c>
@@ -9986,7 +10963,7 @@
         <v>18336</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="18">
+    <row r="80" spans="1:18" ht="18.75">
       <c r="A80" s="79" t="s">
         <v>153</v>
       </c>
@@ -9997,7 +10974,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="22">
+    <row r="81" spans="1:14" ht="19.5">
       <c r="A81" s="74" t="s">
         <v>154</v>
       </c>
@@ -10011,14 +10988,14 @@
       </c>
       <c r="N81" s="68"/>
     </row>
-    <row r="82" spans="1:14" ht="22">
+    <row r="82" spans="1:14" ht="19.5">
       <c r="A82" s="70" t="s">
         <v>155</v>
       </c>
       <c r="B82" s="70"/>
       <c r="C82" s="73"/>
     </row>
-    <row r="83" spans="1:14" ht="22">
+    <row r="83" spans="1:14" ht="19.5">
       <c r="A83" s="79" t="s">
         <v>151</v>
       </c>
@@ -10030,7 +11007,7 @@
       </c>
       <c r="N83" s="68"/>
     </row>
-    <row r="84" spans="1:14" ht="18">
+    <row r="84" spans="1:14" ht="18.75">
       <c r="A84" s="79" t="s">
         <v>152</v>
       </c>
@@ -10041,7 +11018,7 @@
         <v>3604</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="18">
+    <row r="85" spans="1:14" ht="18.75">
       <c r="A85" s="79" t="s">
         <v>156</v>
       </c>
@@ -10052,7 +11029,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="22">
+    <row r="86" spans="1:14" ht="19.5">
       <c r="A86" s="74" t="s">
         <v>157</v>
       </c>
@@ -10066,14 +11043,14 @@
       </c>
       <c r="N86" s="68"/>
     </row>
-    <row r="87" spans="1:14" ht="22">
+    <row r="87" spans="1:14" ht="19.5">
       <c r="A87" s="70" t="s">
         <v>158</v>
       </c>
       <c r="B87" s="73"/>
       <c r="C87" s="73"/>
     </row>
-    <row r="88" spans="1:14" ht="22">
+    <row r="88" spans="1:14" ht="19.5">
       <c r="A88" s="79" t="s">
         <v>151</v>
       </c>
@@ -10085,7 +11062,7 @@
       </c>
       <c r="N88" s="68"/>
     </row>
-    <row r="89" spans="1:14" ht="18">
+    <row r="89" spans="1:14" ht="18.75">
       <c r="A89" s="79" t="s">
         <v>152</v>
       </c>
@@ -10096,7 +11073,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="18">
+    <row r="90" spans="1:14" ht="18.75">
       <c r="A90" s="79" t="s">
         <v>156</v>
       </c>
@@ -10107,7 +11084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="18">
+    <row r="91" spans="1:14" ht="18.75">
       <c r="A91" s="79" t="s">
         <v>159</v>
       </c>
@@ -10118,7 +11095,7 @@
         <v>3207</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="22">
+    <row r="92" spans="1:14" ht="19.5">
       <c r="A92" s="74" t="s">
         <v>160</v>
       </c>
@@ -10131,7 +11108,7 @@
         <v>6797</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="17">
+    <row r="94" spans="1:14" ht="17.25">
       <c r="A94" s="81" t="s">
         <v>161</v>
       </c>
@@ -10161,7 +11138,7 @@
       <c r="G96" s="21"/>
       <c r="H96" s="21"/>
     </row>
-    <row r="97" spans="1:8" ht="34" customHeight="1">
+    <row r="97" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A97" s="80" t="s">
         <v>163</v>
       </c>
@@ -10173,7 +11150,7 @@
       <c r="G97" s="21"/>
       <c r="H97" s="21"/>
     </row>
-    <row r="98" spans="1:8" ht="20" customHeight="1">
+    <row r="98" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A98" s="83" t="s">
         <v>162</v>
       </c>
@@ -10185,22 +11162,22 @@
       <c r="G98" s="21"/>
       <c r="H98" s="21"/>
     </row>
-    <row r="99" spans="1:8" ht="20">
+    <row r="99" spans="1:8" ht="20.25">
       <c r="A99" s="80" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="17">
+    <row r="100" spans="1:8" ht="17.25">
       <c r="A100" s="82" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="17">
+    <row r="101" spans="1:8" ht="17.25">
       <c r="A101" s="82" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="20">
+    <row r="102" spans="1:8" ht="20.25">
       <c r="A102" s="80" t="s">
         <v>167</v>
       </c>
@@ -10218,7 +11195,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000002000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10229,12 +11206,12 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>NOTE!K9:O9</xm:f>
-              <xm:sqref>P9</xm:sqref>
+              <xm:f>NOTE!K14:O14</xm:f>
+              <xm:sqref>P14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000001000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10250,7 +11227,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000000000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10261,8 +11238,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>NOTE!K14:O14</xm:f>
-              <xm:sqref>P14</xm:sqref>
+              <xm:f>NOTE!K9:O9</xm:f>
+              <xm:sqref>P9</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10273,22 +11250,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ51"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="93.5" customWidth="1"/>
     <col min="2" max="3" width="12" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:88" ht="33" customHeight="1">
@@ -10390,7 +11367,7 @@
       <c r="CI1" s="21"/>
       <c r="CJ1" s="21"/>
     </row>
-    <row r="2" spans="1:88" s="111" customFormat="1" ht="23">
+    <row r="2" spans="1:88" s="111" customFormat="1" ht="23.25">
       <c r="A2" s="110" t="s">
         <v>190</v>
       </c>
@@ -10398,7 +11375,7 @@
       <c r="C2" s="112"/>
       <c r="D2" s="112"/>
     </row>
-    <row r="3" spans="1:88" ht="23">
+    <row r="3" spans="1:88" ht="23.25">
       <c r="A3" s="12" t="s">
         <v>210</v>
       </c>
@@ -10412,7 +11389,7 @@
         <v>4793146</v>
       </c>
     </row>
-    <row r="4" spans="1:88" ht="25">
+    <row r="4" spans="1:88" ht="25.5">
       <c r="A4" s="12" t="s">
         <v>214</v>
       </c>
@@ -10426,7 +11403,7 @@
         <v>2709731</v>
       </c>
     </row>
-    <row r="5" spans="1:88" ht="23">
+    <row r="5" spans="1:88" ht="23.25">
       <c r="A5" s="12" t="s">
         <v>211</v>
       </c>
@@ -10440,7 +11417,7 @@
         <v>145679</v>
       </c>
     </row>
-    <row r="6" spans="1:88" ht="23">
+    <row r="6" spans="1:88" ht="23.25">
       <c r="A6" s="12" t="s">
         <v>212</v>
       </c>
@@ -10454,7 +11431,7 @@
         <v>10012647</v>
       </c>
     </row>
-    <row r="7" spans="1:88" ht="25">
+    <row r="7" spans="1:88" ht="25.5">
       <c r="A7" s="109" t="s">
         <v>200</v>
       </c>
@@ -10482,7 +11459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:88" s="1" customFormat="1" ht="23">
+    <row r="8" spans="1:88" s="1" customFormat="1" ht="23.25">
       <c r="A8" s="110" t="s">
         <v>191</v>
       </c>
@@ -10493,7 +11470,7 @@
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:88" ht="23">
+    <row r="9" spans="1:88" ht="23.25">
       <c r="A9" s="12" t="s">
         <v>213</v>
       </c>
@@ -10509,7 +11486,7 @@
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:88" ht="23">
+    <row r="10" spans="1:88" ht="23.25">
       <c r="A10" s="12" t="s">
         <v>215</v>
       </c>
@@ -10525,7 +11502,7 @@
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:88" ht="23">
+    <row r="11" spans="1:88" ht="23.25">
       <c r="A11" s="12" t="s">
         <v>216</v>
       </c>
@@ -10541,7 +11518,7 @@
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:88" ht="23">
+    <row r="12" spans="1:88" ht="23.25">
       <c r="A12" s="12" t="s">
         <v>217</v>
       </c>
@@ -10563,7 +11540,7 @@
         <v>1.1890529829474981</v>
       </c>
     </row>
-    <row r="13" spans="1:88" s="105" customFormat="1" ht="23">
+    <row r="13" spans="1:88" s="105" customFormat="1" ht="23.25">
       <c r="A13" s="109" t="s">
         <v>201</v>
       </c>
@@ -10590,7 +11567,7 @@
       </c>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:88" ht="23">
+    <row r="14" spans="1:88" ht="23.25">
       <c r="A14" s="109" t="s">
         <v>199</v>
       </c>
@@ -10615,7 +11592,7 @@
         <v>0.61696365234767281</v>
       </c>
     </row>
-    <row r="15" spans="1:88" s="1" customFormat="1" ht="23">
+    <row r="15" spans="1:88" s="1" customFormat="1" ht="23.25">
       <c r="A15" s="110" t="s">
         <v>192</v>
       </c>
@@ -10626,7 +11603,7 @@
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:88" ht="23">
+    <row r="16" spans="1:88" ht="23.25">
       <c r="A16" s="12" t="s">
         <v>218</v>
       </c>
@@ -10642,9 +11619,9 @@
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:9" ht="25">
+    <row r="17" spans="1:9" ht="25.5">
       <c r="A17" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B17" s="13">
         <v>625126</v>
@@ -10658,7 +11635,7 @@
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:9" ht="25">
+    <row r="18" spans="1:9" ht="25.5">
       <c r="A18" s="12" t="s">
         <v>219</v>
       </c>
@@ -10674,7 +11651,7 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:9" ht="25">
+    <row r="19" spans="1:9" ht="25.5">
       <c r="A19" s="12" t="s">
         <v>221</v>
       </c>
@@ -10690,7 +11667,7 @@
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:9" ht="25">
+    <row r="20" spans="1:9" ht="25.5">
       <c r="A20" s="12" t="s">
         <v>220</v>
       </c>
@@ -10706,7 +11683,7 @@
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="1:9" ht="23">
+    <row r="21" spans="1:9" ht="23.25">
       <c r="A21" s="109" t="s">
         <v>203</v>
       </c>
@@ -10731,7 +11708,7 @@
         <v>0.54737078086667368</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="25">
+    <row r="22" spans="1:9" ht="25.5">
       <c r="A22" s="109" t="s">
         <v>202</v>
       </c>
@@ -10759,7 +11736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="23">
+    <row r="23" spans="1:9" ht="23.25">
       <c r="A23" s="12" t="s">
         <v>207</v>
       </c>
@@ -10775,7 +11752,7 @@
       <c r="F23" s="120"/>
       <c r="G23" s="120"/>
     </row>
-    <row r="24" spans="1:9" ht="23">
+    <row r="24" spans="1:9" ht="23.25">
       <c r="A24" s="12" t="s">
         <v>208</v>
       </c>
@@ -10791,7 +11768,7 @@
       <c r="F24" s="120"/>
       <c r="G24" s="120"/>
     </row>
-    <row r="25" spans="1:9" ht="25">
+    <row r="25" spans="1:9" ht="25.5">
       <c r="A25" s="12" t="s">
         <v>209</v>
       </c>
@@ -10807,7 +11784,7 @@
       <c r="F25" s="120"/>
       <c r="G25" s="120"/>
     </row>
-    <row r="26" spans="1:9" ht="23">
+    <row r="26" spans="1:9" ht="23.25">
       <c r="A26" s="109" t="s">
         <v>204</v>
       </c>
@@ -10832,7 +11809,7 @@
         <v>-0.27089786865585946</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="23">
+    <row r="27" spans="1:9" ht="23.25">
       <c r="A27" s="12" t="s">
         <v>193</v>
       </c>
@@ -10876,7 +11853,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="23">
+    <row r="29" spans="1:9" ht="23.25">
       <c r="A29" s="12" t="s">
         <v>194</v>
       </c>
@@ -10892,7 +11869,7 @@
       <c r="F29" s="120"/>
       <c r="G29" s="120"/>
     </row>
-    <row r="30" spans="1:9" ht="23">
+    <row r="30" spans="1:9" ht="23.25">
       <c r="A30" s="12" t="s">
         <v>195</v>
       </c>
@@ -10908,7 +11885,7 @@
       <c r="F30" s="120"/>
       <c r="G30" s="120"/>
     </row>
-    <row r="31" spans="1:9" ht="23">
+    <row r="31" spans="1:9" ht="23.25">
       <c r="A31" s="12"/>
       <c r="B31" s="113"/>
       <c r="C31" s="113"/>
@@ -10916,7 +11893,7 @@
       <c r="F31" s="120"/>
       <c r="G31" s="120"/>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" ht="23">
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="23.25">
       <c r="A32" s="110" t="s">
         <v>206</v>
       </c>
@@ -10927,7 +11904,7 @@
       <c r="G32" s="121"/>
       <c r="H32" s="20"/>
     </row>
-    <row r="33" spans="1:7" ht="23">
+    <row r="33" spans="1:7" ht="23.25">
       <c r="A33" s="48" t="s">
         <v>196</v>
       </c>
@@ -10949,7 +11926,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="23">
+    <row r="34" spans="1:7" ht="23.25">
       <c r="A34" s="48" t="s">
         <v>197</v>
       </c>
@@ -10971,7 +11948,7 @@
         <v>-0.24999999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="23">
+    <row r="35" spans="1:7" ht="23.25">
       <c r="A35" s="45" t="s">
         <v>198</v>
       </c>
@@ -10981,7 +11958,7 @@
       <c r="F35" s="120"/>
       <c r="G35" s="120"/>
     </row>
-    <row r="36" spans="1:7" ht="23">
+    <row r="36" spans="1:7" ht="23.25">
       <c r="A36" s="12" t="s">
         <v>196</v>
       </c>
@@ -10997,7 +11974,7 @@
       <c r="F36" s="120"/>
       <c r="G36" s="120"/>
     </row>
-    <row r="37" spans="1:7" ht="23">
+    <row r="37" spans="1:7" ht="23.25">
       <c r="A37" s="12" t="s">
         <v>197</v>
       </c>
@@ -11013,7 +11990,7 @@
       <c r="F37" s="120"/>
       <c r="G37" s="120"/>
     </row>
-    <row r="38" spans="1:7" ht="25">
+    <row r="38" spans="1:7" ht="25.5">
       <c r="A38" s="49" t="s">
         <v>178</v>
       </c>
@@ -11023,7 +12000,7 @@
       <c r="F38" s="120"/>
       <c r="G38" s="120"/>
     </row>
-    <row r="39" spans="1:7" ht="25">
+    <row r="39" spans="1:7" ht="25.5">
       <c r="A39" s="49" t="s">
         <v>24</v>
       </c>
@@ -11048,7 +12025,7 @@
         <v>5.6048581100907553</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="25">
+    <row r="40" spans="1:7" ht="25.5">
       <c r="A40" s="118" t="s">
         <v>29</v>
       </c>
@@ -11073,7 +12050,7 @@
         <v>-0.60791434409042122</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="25">
+    <row r="41" spans="1:7" ht="25.5">
       <c r="A41" s="119" t="s">
         <v>25</v>
       </c>
@@ -11098,7 +12075,7 @@
         <v>-0.5992066145792696</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="25">
+    <row r="42" spans="1:7" ht="25.5">
       <c r="A42" s="118" t="s">
         <v>222</v>
       </c>
@@ -11106,7 +12083,7 @@
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
     </row>
-    <row r="43" spans="1:7" ht="25">
+    <row r="43" spans="1:7" ht="25.5">
       <c r="A43" s="118" t="s">
         <v>223</v>
       </c>
@@ -11114,38 +12091,38 @@
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:7" ht="23">
+    <row r="44" spans="1:7" ht="23.25">
       <c r="A44" s="117"/>
       <c r="B44" s="95"/>
       <c r="C44" s="95"/>
       <c r="D44" s="95"/>
     </row>
-    <row r="46" spans="1:7" ht="25">
+    <row r="46" spans="1:7" ht="25.5">
       <c r="A46" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="25">
+    <row r="47" spans="1:7" ht="25.5">
       <c r="A47" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="25">
+    <row r="48" spans="1:7" ht="25.5">
       <c r="A48" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="25">
+    <row r="49" spans="1:1" ht="25.5">
       <c r="A49" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="25">
+    <row r="50" spans="1:1" ht="25.5">
       <c r="A50" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="25">
+    <row r="51" spans="1:1" ht="25.5">
       <c r="A51" s="7" t="s">
         <v>32</v>
       </c>
@@ -11157,7 +12134,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000013000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11168,92 +12145,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!B7:D7</xm:f>
-              <xm:sqref>E7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B8:D8</xm:f>
-              <xm:sqref>E8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B13:D13</xm:f>
-              <xm:sqref>E13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B14:D14</xm:f>
-              <xm:sqref>E14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B15:D15</xm:f>
-              <xm:sqref>E15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B21:D21</xm:f>
-              <xm:sqref>E21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B22:D22</xm:f>
-              <xm:sqref>E22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B26:D26</xm:f>
-              <xm:sqref>E26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B28:D28</xm:f>
-              <xm:sqref>E28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B31:D31</xm:f>
-              <xm:sqref>E31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B32:D32</xm:f>
-              <xm:sqref>E32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B33:D33</xm:f>
-              <xm:sqref>E33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B34:D34</xm:f>
-              <xm:sqref>E34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B35:D35</xm:f>
-              <xm:sqref>E35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B38:D38</xm:f>
-              <xm:sqref>E38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B12:D12</xm:f>
-              <xm:sqref>E12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B20:D20</xm:f>
-              <xm:sqref>E20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B19:D19</xm:f>
-              <xm:sqref>E19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B18:D18</xm:f>
-              <xm:sqref>E18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B17:D17</xm:f>
-              <xm:sqref>E17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B16:D16</xm:f>
-              <xm:sqref>E16</xm:sqref>
+              <xm:f>INCOME成長性!B41:D41</xm:f>
+              <xm:sqref>E41</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000012000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11264,60 +12161,28 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F7:G7</xm:f>
-              <xm:sqref>H7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F9:G9</xm:f>
-              <xm:sqref>H9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F10:G10</xm:f>
-              <xm:sqref>H10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F11:G11</xm:f>
-              <xm:sqref>H11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F12:G12</xm:f>
-              <xm:sqref>H12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F13:G13</xm:f>
-              <xm:sqref>H13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F14:G14</xm:f>
-              <xm:sqref>H14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F16:G16</xm:f>
-              <xm:sqref>H16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F17:G17</xm:f>
-              <xm:sqref>H17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F18:G18</xm:f>
-              <xm:sqref>H18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F19:G19</xm:f>
-              <xm:sqref>H19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F20:G20</xm:f>
-              <xm:sqref>H20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F21:G21</xm:f>
-              <xm:sqref>H21</xm:sqref>
+              <xm:f>INCOME成長性!B40:D40</xm:f>
+              <xm:sqref>E40</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000011000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B39:D39</xm:f>
+              <xm:sqref>E39</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11328,12 +12193,40 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F22:G22</xm:f>
-              <xm:sqref>H22</xm:sqref>
+              <xm:f>INCOME成長性!F34:G34</xm:f>
+              <xm:sqref>H34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F35:G35</xm:f>
+              <xm:sqref>H35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F36:G36</xm:f>
+              <xm:sqref>H36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F37:G37</xm:f>
+              <xm:sqref>H37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F38:G38</xm:f>
+              <xm:sqref>H38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F39:G39</xm:f>
+              <xm:sqref>H39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F40:G40</xm:f>
+              <xm:sqref>H40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F41:G41</xm:f>
+              <xm:sqref>H41</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000010000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11344,12 +12237,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F23:G23</xm:f>
-              <xm:sqref>H23</xm:sqref>
+              <xm:f>INCOME成長性!F33:G33</xm:f>
+              <xm:sqref>H33</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-00000F000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11360,12 +12253,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F24:G24</xm:f>
-              <xm:sqref>H24</xm:sqref>
+              <xm:f>INCOME成長性!F31:G31</xm:f>
+              <xm:sqref>H31</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-00000E000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11376,12 +12269,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F25:G25</xm:f>
-              <xm:sqref>H25</xm:sqref>
+              <xm:f>INCOME成長性!F30:G30</xm:f>
+              <xm:sqref>H30</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-00000D000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11392,12 +12285,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F26:G26</xm:f>
-              <xm:sqref>H26</xm:sqref>
+              <xm:f>INCOME成長性!F29:G29</xm:f>
+              <xm:sqref>H29</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-00000C000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11408,12 +12301,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F27:G27</xm:f>
-              <xm:sqref>H27</xm:sqref>
+              <xm:f>INCOME成長性!F28:G28</xm:f>
+              <xm:sqref>H28</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-00000B000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11424,12 +12317,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F28:G28</xm:f>
-              <xm:sqref>H28</xm:sqref>
+              <xm:f>INCOME成長性!F27:G27</xm:f>
+              <xm:sqref>H27</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-00000A000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11440,12 +12333,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F29:G29</xm:f>
-              <xm:sqref>H29</xm:sqref>
+              <xm:f>INCOME成長性!F26:G26</xm:f>
+              <xm:sqref>H26</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000009000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11456,12 +12349,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F30:G30</xm:f>
-              <xm:sqref>H30</xm:sqref>
+              <xm:f>INCOME成長性!F25:G25</xm:f>
+              <xm:sqref>H25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000008000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11472,12 +12365,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F31:G31</xm:f>
-              <xm:sqref>H31</xm:sqref>
+              <xm:f>INCOME成長性!F24:G24</xm:f>
+              <xm:sqref>H24</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000007000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11488,12 +12381,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F33:G33</xm:f>
-              <xm:sqref>H33</xm:sqref>
+              <xm:f>INCOME成長性!F23:G23</xm:f>
+              <xm:sqref>H23</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000006000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11504,40 +12397,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F34:G34</xm:f>
-              <xm:sqref>H34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F35:G35</xm:f>
-              <xm:sqref>H35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F36:G36</xm:f>
-              <xm:sqref>H36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F37:G37</xm:f>
-              <xm:sqref>H37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F38:G38</xm:f>
-              <xm:sqref>H38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F39:G39</xm:f>
-              <xm:sqref>H39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F40:G40</xm:f>
-              <xm:sqref>H40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F41:G41</xm:f>
-              <xm:sqref>H41</xm:sqref>
+              <xm:f>INCOME成長性!F22:G22</xm:f>
+              <xm:sqref>H22</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000005000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11548,12 +12413,60 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!B39:D39</xm:f>
-              <xm:sqref>E39</xm:sqref>
+              <xm:f>INCOME成長性!F7:G7</xm:f>
+              <xm:sqref>H7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F9:G9</xm:f>
+              <xm:sqref>H9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F10:G10</xm:f>
+              <xm:sqref>H10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F11:G11</xm:f>
+              <xm:sqref>H11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F12:G12</xm:f>
+              <xm:sqref>H12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F13:G13</xm:f>
+              <xm:sqref>H13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F14:G14</xm:f>
+              <xm:sqref>H14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F16:G16</xm:f>
+              <xm:sqref>H16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F17:G17</xm:f>
+              <xm:sqref>H17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F18:G18</xm:f>
+              <xm:sqref>H18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F19:G19</xm:f>
+              <xm:sqref>H19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F20:G20</xm:f>
+              <xm:sqref>H20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F21:G21</xm:f>
+              <xm:sqref>H21</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000004000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11564,24 +12477,88 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!B40:D40</xm:f>
-              <xm:sqref>E40</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0100-000003000000}">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B41:D41</xm:f>
-              <xm:sqref>E41</xm:sqref>
+              <xm:f>INCOME成長性!B7:D7</xm:f>
+              <xm:sqref>E7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B8:D8</xm:f>
+              <xm:sqref>E8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B13:D13</xm:f>
+              <xm:sqref>E13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B14:D14</xm:f>
+              <xm:sqref>E14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B15:D15</xm:f>
+              <xm:sqref>E15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B21:D21</xm:f>
+              <xm:sqref>E21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B22:D22</xm:f>
+              <xm:sqref>E22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B26:D26</xm:f>
+              <xm:sqref>E26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B28:D28</xm:f>
+              <xm:sqref>E28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B31:D31</xm:f>
+              <xm:sqref>E31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B32:D32</xm:f>
+              <xm:sqref>E32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B33:D33</xm:f>
+              <xm:sqref>E33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B34:D34</xm:f>
+              <xm:sqref>E34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B35:D35</xm:f>
+              <xm:sqref>E35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B38:D38</xm:f>
+              <xm:sqref>E38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B12:D12</xm:f>
+              <xm:sqref>E12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B20:D20</xm:f>
+              <xm:sqref>E20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B19:D19</xm:f>
+              <xm:sqref>E19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B18:D18</xm:f>
+              <xm:sqref>E18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B17:D17</xm:f>
+              <xm:sqref>E17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B16:D16</xm:f>
+              <xm:sqref>E16</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -11592,28 +12569,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="155.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="145" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="155.625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="145" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30">
+    <row r="1" spans="1:18" ht="27.75">
       <c r="A1" s="68"/>
       <c r="B1" s="137" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C1" s="4">
         <v>2017</v>
@@ -11649,14 +12626,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="23">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="22.5">
       <c r="A2" s="128" t="s">
         <v>224</v>
       </c>
       <c r="B2" s="138"/>
       <c r="G2" s="126"/>
     </row>
-    <row r="3" spans="1:18" ht="23">
+    <row r="3" spans="1:18" ht="23.25">
       <c r="A3" s="11" t="s">
         <v>53</v>
       </c>
@@ -11664,12 +12641,12 @@
       <c r="C3" s="71"/>
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
-      <c r="F3" s="154"/>
+      <c r="F3" s="150"/>
       <c r="G3" s="127"/>
     </row>
     <row r="4" spans="1:18" ht="23.25" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B4" s="146">
         <v>0.36</v>
@@ -11728,7 +12705,7 @@
     </row>
     <row r="5" spans="1:18" ht="25.5" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B5" s="146">
         <v>0.13</v>
@@ -11787,7 +12764,7 @@
     </row>
     <row r="6" spans="1:18" ht="23.25" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B6" s="146">
         <v>0.19</v>
@@ -11846,7 +12823,7 @@
     </row>
     <row r="7" spans="1:18" ht="23.25" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B7" s="146">
         <v>0.19</v>
@@ -11903,9 +12880,9 @@
         <v>0.26908225205989433</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="25">
+    <row r="8" spans="1:18" ht="25.5">
       <c r="A8" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B8" s="136">
         <v>0.05</v>
@@ -11964,7 +12941,7 @@
     </row>
     <row r="9" spans="1:18" ht="26.25" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B9" s="136">
         <v>7.0000000000000007E-2</v>
@@ -12065,7 +13042,7 @@
     </row>
     <row r="11" spans="1:18" ht="23.25" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B11" s="146">
         <v>0.13</v>
@@ -12122,9 +13099,9 @@
         <v>8.2864490389551806E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="25">
+    <row r="12" spans="1:18" ht="25.5">
       <c r="A12" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B12" s="146">
         <v>0.17</v>
@@ -12183,7 +13160,7 @@
     </row>
     <row r="13" spans="1:18" ht="23.25" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B13" s="136">
         <v>0.06</v>
@@ -12242,7 +13219,7 @@
     </row>
     <row r="14" spans="1:18" ht="23.25" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B14" s="146">
         <v>0.4</v>
@@ -12301,7 +13278,7 @@
     </row>
     <row r="15" spans="1:18" ht="23.25" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B15" s="136">
         <v>2.5000000000000001E-2</v>
@@ -12340,7 +13317,7 @@
     </row>
     <row r="16" spans="1:18" ht="25.5" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B16" s="136">
         <v>8.6999999999999994E-2</v>
@@ -12389,7 +13366,7 @@
     </row>
     <row r="17" spans="1:18" ht="24" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B17" s="146">
         <v>0.13</v>
@@ -12446,7 +13423,7 @@
         <v>0.10882609323914573</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="23">
+    <row r="18" spans="1:18" ht="23.25">
       <c r="A18" s="47" t="s">
         <v>1</v>
       </c>
@@ -12517,7 +13494,7 @@
     </row>
     <row r="21" spans="1:18" ht="23.25" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B21" s="146">
         <v>0.74</v>
@@ -12576,7 +13553,7 @@
     </row>
     <row r="22" spans="1:18" ht="23.25" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B22" s="136">
         <v>7.0000000000000007E-2</v>
@@ -12635,7 +13612,7 @@
     </row>
     <row r="23" spans="1:18" ht="23.25" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B23" s="146">
         <v>0.14000000000000001</v>
@@ -12694,7 +13671,7 @@
     </row>
     <row r="24" spans="1:18" ht="23.25" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B24" s="136">
         <v>0.01</v>
@@ -12741,9 +13718,9 @@
         <v>1.1780271361872744E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="25">
+    <row r="25" spans="1:18" ht="25.5">
       <c r="A25" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B25" s="136">
         <v>0.04</v>
@@ -12827,9 +13804,9 @@
         <v>0.3172484261181977</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="23">
+    <row r="27" spans="1:18" ht="23.25">
       <c r="A27" s="47" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="B27" s="146">
         <v>0.83</v>
@@ -12888,7 +13865,7 @@
     </row>
     <row r="28" spans="1:18" ht="23.25" customHeight="1">
       <c r="A28" s="133" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B28" s="140">
         <v>2.5999999999999999E-2</v>
@@ -12927,7 +13904,7 @@
     </row>
     <row r="29" spans="1:18" ht="23.25" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B29" s="136">
         <v>0.06</v>
@@ -12976,7 +13953,7 @@
     </row>
     <row r="30" spans="1:18" ht="24" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B30" s="136">
         <v>0.08</v>
@@ -13033,9 +14010,9 @@
         <v>4.3044802746572339E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="23">
+    <row r="31" spans="1:18" ht="23.25">
       <c r="A31" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B31" s="139"/>
       <c r="C31" s="8">
@@ -13077,7 +14054,7 @@
     </row>
     <row r="32" spans="1:18" ht="23.25" customHeight="1">
       <c r="A32" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B32" s="136"/>
       <c r="C32" s="13"/>
@@ -13092,7 +14069,7 @@
     </row>
     <row r="33" spans="1:12" ht="24.75" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B33" s="136"/>
       <c r="C33" s="13"/>
@@ -13105,9 +14082,9 @@
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
     </row>
-    <row r="34" spans="1:12" ht="23">
+    <row r="34" spans="1:12" ht="23.25">
       <c r="A34" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B34" s="136"/>
       <c r="C34" s="13"/>
@@ -13120,9 +14097,9 @@
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
     </row>
-    <row r="35" spans="1:12" ht="23">
+    <row r="35" spans="1:12" ht="23.25">
       <c r="A35" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B35" s="136"/>
       <c r="C35" s="13"/>
@@ -13135,9 +14112,9 @@
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
     </row>
-    <row r="36" spans="1:12" ht="23">
+    <row r="36" spans="1:12" ht="23.25">
       <c r="A36" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B36" s="136"/>
       <c r="C36" s="13"/>
@@ -13152,7 +14129,7 @@
     </row>
     <row r="37" spans="1:12" ht="23.25" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B37" s="136"/>
       <c r="C37" s="2">
@@ -13189,7 +14166,7 @@
     </row>
     <row r="38" spans="1:12" ht="48" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B38" s="136"/>
       <c r="C38" s="2">
@@ -13226,7 +14203,7 @@
     </row>
     <row r="39" spans="1:12" ht="60" customHeight="1">
       <c r="A39" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B39" s="136"/>
       <c r="C39" s="2">
@@ -13263,7 +14240,7 @@
     </row>
     <row r="40" spans="1:12" ht="60" customHeight="1">
       <c r="A40" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B40" s="139"/>
       <c r="C40" s="8">
@@ -13303,9 +14280,9 @@
         <v>0.2205000132385182</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="23">
+    <row r="41" spans="1:12" ht="23.25">
       <c r="A41" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B41" s="136"/>
       <c r="C41" s="2"/>
@@ -13324,7 +14301,7 @@
     </row>
     <row r="42" spans="1:12" ht="25.5" customHeight="1">
       <c r="A42" s="47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B42" s="139"/>
       <c r="C42" s="8">
@@ -13366,7 +14343,7 @@
     </row>
     <row r="43" spans="1:12" ht="24" customHeight="1">
       <c r="A43" s="47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B43" s="139"/>
       <c r="C43" s="8">
@@ -13406,7 +14383,7 @@
         <v>0.41098266891600932</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="25">
+    <row r="44" spans="1:12" ht="25.5">
       <c r="A44" s="49" t="s">
         <v>49</v>
       </c>
@@ -13448,7 +14425,7 @@
         <v>2.9042899253259768E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="25">
+    <row r="45" spans="1:12" ht="25.5">
       <c r="A45" s="51" t="s">
         <v>50</v>
       </c>
@@ -13463,7 +14440,7 @@
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
     </row>
-    <row r="46" spans="1:12" ht="25">
+    <row r="46" spans="1:12" ht="25.5">
       <c r="A46" s="49" t="s">
         <v>51</v>
       </c>
@@ -13505,7 +14482,7 @@
         <v>0.20964990082795909</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="25">
+    <row r="47" spans="1:12" ht="25.5">
       <c r="A47" s="51" t="s">
         <v>52</v>
       </c>
@@ -13520,7 +14497,7 @@
       <c r="K47" s="18"/>
       <c r="L47" s="18"/>
     </row>
-    <row r="48" spans="1:12" ht="25">
+    <row r="48" spans="1:12" ht="25.5">
       <c r="A48" s="49" t="s">
         <v>54</v>
       </c>
@@ -13550,7 +14527,7 @@
         <v>0.36605192648260126</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="25">
+    <row r="49" spans="1:16" ht="25.5">
       <c r="A49" s="51" t="s">
         <v>55</v>
       </c>
@@ -13565,7 +14542,7 @@
       <c r="K49" s="18"/>
       <c r="L49" s="18"/>
     </row>
-    <row r="50" spans="1:16" ht="25">
+    <row r="50" spans="1:16" ht="25.5">
       <c r="A50" s="49" t="s">
         <v>56</v>
       </c>
@@ -13595,7 +14572,7 @@
         <v>0.19163464438754474</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="25">
+    <row r="51" spans="1:16" ht="25.5">
       <c r="A51" s="49" t="s">
         <v>57</v>
       </c>
@@ -13625,7 +14602,7 @@
         <v>-0.26796340562626741</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="25">
+    <row r="52" spans="1:16" ht="25.5">
       <c r="A52" s="51" t="s">
         <v>58</v>
       </c>
@@ -13640,7 +14617,7 @@
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
     </row>
-    <row r="53" spans="1:16" ht="25">
+    <row r="53" spans="1:16" ht="25.5">
       <c r="A53" s="49" t="s">
         <v>59</v>
       </c>
@@ -13685,21 +14662,21 @@
       <c r="B56" s="141"/>
       <c r="G56" s="124"/>
     </row>
-    <row r="57" spans="1:16" ht="25">
+    <row r="57" spans="1:16" ht="25.5">
       <c r="A57" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B57" s="142"/>
       <c r="G57" s="124"/>
     </row>
-    <row r="58" spans="1:16" ht="25">
+    <row r="58" spans="1:16" ht="25.5">
       <c r="A58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B58" s="142"/>
       <c r="G58" s="124"/>
     </row>
-    <row r="59" spans="1:16" ht="25">
+    <row r="59" spans="1:16" ht="25.5">
       <c r="A59" s="7" t="s">
         <v>12</v>
       </c>
@@ -13709,7 +14686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="25">
+    <row r="60" spans="1:16" ht="25.5">
       <c r="A60" s="7" t="s">
         <v>14</v>
       </c>
@@ -13741,12 +14718,12 @@
       <c r="B65" s="141"/>
       <c r="G65" s="124"/>
     </row>
-    <row r="66" spans="1:7" ht="22">
+    <row r="66" spans="1:7" ht="19.5">
       <c r="A66" s="123"/>
       <c r="B66" s="143"/>
       <c r="G66" s="68"/>
     </row>
-    <row r="67" spans="1:7" ht="22">
+    <row r="67" spans="1:7" ht="19.5">
       <c r="A67" s="124"/>
       <c r="B67" s="141"/>
       <c r="G67" s="68"/>
@@ -13801,12 +14778,12 @@
       <c r="B79" s="141"/>
       <c r="G79" s="124"/>
     </row>
-    <row r="80" spans="1:7" ht="22">
+    <row r="80" spans="1:7" ht="19.5">
       <c r="A80" s="124"/>
       <c r="B80" s="141"/>
       <c r="G80" s="68"/>
     </row>
-    <row r="81" spans="1:7" ht="22">
+    <row r="81" spans="1:7" ht="19.5">
       <c r="A81" s="124"/>
       <c r="B81" s="141"/>
       <c r="G81" s="68"/>
@@ -13860,7 +14837,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00004D000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -13871,12 +14848,144 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I53:L53</xm:f>
-              <xm:sqref>M53</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C4:G4</xm:f>
+              <xm:sqref>H4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C20:G20</xm:f>
+              <xm:sqref>H20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C21:G21</xm:f>
+              <xm:sqref>H21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C22:G22</xm:f>
+              <xm:sqref>H22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C23:G23</xm:f>
+              <xm:sqref>H23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C24:G24</xm:f>
+              <xm:sqref>H24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C25:G25</xm:f>
+              <xm:sqref>H25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C26:G26</xm:f>
+              <xm:sqref>H26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C27:G27</xm:f>
+              <xm:sqref>H27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C28:G28</xm:f>
+              <xm:sqref>H28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C29:G29</xm:f>
+              <xm:sqref>H29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C30:G30</xm:f>
+              <xm:sqref>H30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C31:G31</xm:f>
+              <xm:sqref>H31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C32:G32</xm:f>
+              <xm:sqref>H32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C33:G33</xm:f>
+              <xm:sqref>H33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C34:G34</xm:f>
+              <xm:sqref>H34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C35:G35</xm:f>
+              <xm:sqref>H35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C36:G36</xm:f>
+              <xm:sqref>H36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C37:G37</xm:f>
+              <xm:sqref>H37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C38:G38</xm:f>
+              <xm:sqref>H38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C39:G39</xm:f>
+              <xm:sqref>H39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C40:G40</xm:f>
+              <xm:sqref>H40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C41:G41</xm:f>
+              <xm:sqref>H41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C42:G42</xm:f>
+              <xm:sqref>H42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C43:G43</xm:f>
+              <xm:sqref>H43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C44:G44</xm:f>
+              <xm:sqref>H44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C45:G45</xm:f>
+              <xm:sqref>H45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C46:G46</xm:f>
+              <xm:sqref>H46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C47:G47</xm:f>
+              <xm:sqref>H47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C49:G49</xm:f>
+              <xm:sqref>H49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C50:G50</xm:f>
+              <xm:sqref>H50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C51:G51</xm:f>
+              <xm:sqref>H51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C52:G52</xm:f>
+              <xm:sqref>H52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!C53:G53</xm:f>
+              <xm:sqref>H53</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00004C000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -13887,12 +14996,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I52:L52</xm:f>
-              <xm:sqref>M52</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C48:G48</xm:f>
+              <xm:sqref>H48</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00004B000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -13903,12 +15012,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I51:L51</xm:f>
-              <xm:sqref>M51</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C5:G5</xm:f>
+              <xm:sqref>H5</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00004A000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -13919,12 +15028,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I50:L50</xm:f>
-              <xm:sqref>M50</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C6:G6</xm:f>
+              <xm:sqref>H6</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000049000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -13935,12 +15044,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I49:L49</xm:f>
-              <xm:sqref>M49</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C7:G7</xm:f>
+              <xm:sqref>H7</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000048000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -13951,12 +15060,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I48:L48</xm:f>
-              <xm:sqref>M48</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C8:G8</xm:f>
+              <xm:sqref>H8</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000047000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -13967,12 +15076,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I47:L47</xm:f>
-              <xm:sqref>M47</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C9:G9</xm:f>
+              <xm:sqref>H9</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000046000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -13983,12 +15092,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I46:L46</xm:f>
-              <xm:sqref>M46</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C10:G10</xm:f>
+              <xm:sqref>H10</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000045000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -13999,12 +15108,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I45:L45</xm:f>
-              <xm:sqref>M45</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C11:G11</xm:f>
+              <xm:sqref>H11</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000044000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14015,12 +15124,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I44:L44</xm:f>
-              <xm:sqref>M44</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C12:G12</xm:f>
+              <xm:sqref>H12</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000043000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14031,12 +15140,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I43:L43</xm:f>
-              <xm:sqref>M43</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C13:G13</xm:f>
+              <xm:sqref>H13</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000042000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14047,12 +15156,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I42:L42</xm:f>
-              <xm:sqref>M42</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C14:G14</xm:f>
+              <xm:sqref>H14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000041000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14063,12 +15172,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I41:L41</xm:f>
-              <xm:sqref>M41</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C15:G15</xm:f>
+              <xm:sqref>H15</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000040000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14079,12 +15188,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I40:L40</xm:f>
-              <xm:sqref>M40</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C16:G16</xm:f>
+              <xm:sqref>H16</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00003F000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14095,12 +15204,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I39:L39</xm:f>
-              <xm:sqref>M39</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C17:G17</xm:f>
+              <xm:sqref>H17</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00003E000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14111,12 +15220,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I38:L38</xm:f>
-              <xm:sqref>M38</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!C18:G18</xm:f>
+              <xm:sqref>H18</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00003D000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14127,12 +15236,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I37:L37</xm:f>
-              <xm:sqref>M37</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I4:L4</xm:f>
+              <xm:sqref>M4</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00003C000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14143,12 +15252,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I31:L31</xm:f>
-              <xm:sqref>M31</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I5:L5</xm:f>
+              <xm:sqref>M5</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00003B000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14159,12 +15268,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I30:L30</xm:f>
-              <xm:sqref>M30</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I6:L6</xm:f>
+              <xm:sqref>M6</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00003A000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14175,12 +15284,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I29:L29</xm:f>
-              <xm:sqref>M29</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I7:L7</xm:f>
+              <xm:sqref>M7</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000039000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14191,12 +15300,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I27:L27</xm:f>
-              <xm:sqref>M27</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I8:L8</xm:f>
+              <xm:sqref>M8</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000038000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14207,12 +15316,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I26:L26</xm:f>
-              <xm:sqref>M26</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I9:L9</xm:f>
+              <xm:sqref>M9</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000037000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14223,12 +15332,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I25:L25</xm:f>
-              <xm:sqref>M25</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I10:L10</xm:f>
+              <xm:sqref>M10</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000036000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14239,12 +15348,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I24:L24</xm:f>
-              <xm:sqref>M24</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I11:L11</xm:f>
+              <xm:sqref>M11</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000035000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14255,12 +15364,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I23:L23</xm:f>
-              <xm:sqref>M23</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I12:L12</xm:f>
+              <xm:sqref>M12</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000034000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14271,12 +15380,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I22:L22</xm:f>
-              <xm:sqref>M22</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I13:L13</xm:f>
+              <xm:sqref>M13</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000033000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14287,12 +15396,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I21:L21</xm:f>
-              <xm:sqref>M21</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I14:L14</xm:f>
+              <xm:sqref>M14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000032000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14303,12 +15412,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I18:L18</xm:f>
-              <xm:sqref>M18</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I15:L15</xm:f>
+              <xm:sqref>M15</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000031000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14319,12 +15428,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I17:L17</xm:f>
-              <xm:sqref>M17</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I16:L16</xm:f>
+              <xm:sqref>M16</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000030000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14335,12 +15444,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I16:L16</xm:f>
-              <xm:sqref>M16</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I17:L17</xm:f>
+              <xm:sqref>M17</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00002F000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14351,12 +15460,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I15:L15</xm:f>
-              <xm:sqref>M15</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I18:L18</xm:f>
+              <xm:sqref>M18</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00002E000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14367,12 +15476,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I14:L14</xm:f>
-              <xm:sqref>M14</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I21:L21</xm:f>
+              <xm:sqref>M21</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00002D000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14383,12 +15492,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I13:L13</xm:f>
-              <xm:sqref>M13</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I22:L22</xm:f>
+              <xm:sqref>M22</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00002C000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14399,12 +15508,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I12:L12</xm:f>
-              <xm:sqref>M12</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I23:L23</xm:f>
+              <xm:sqref>M23</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00002B000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14415,12 +15524,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I11:L11</xm:f>
-              <xm:sqref>M11</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I24:L24</xm:f>
+              <xm:sqref>M24</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00002A000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14431,12 +15540,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I10:L10</xm:f>
-              <xm:sqref>M10</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I25:L25</xm:f>
+              <xm:sqref>M25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000029000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14447,12 +15556,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I9:L9</xm:f>
-              <xm:sqref>M9</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I26:L26</xm:f>
+              <xm:sqref>M26</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000028000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14463,12 +15572,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I8:L8</xm:f>
-              <xm:sqref>M8</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I27:L27</xm:f>
+              <xm:sqref>M27</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000027000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14479,12 +15588,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I7:L7</xm:f>
-              <xm:sqref>M7</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I29:L29</xm:f>
+              <xm:sqref>M29</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000026000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14495,12 +15604,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I6:L6</xm:f>
-              <xm:sqref>M6</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I30:L30</xm:f>
+              <xm:sqref>M30</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000025000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14511,12 +15620,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I5:L5</xm:f>
-              <xm:sqref>M5</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I31:L31</xm:f>
+              <xm:sqref>M31</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000024000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14527,12 +15636,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!I4:L4</xm:f>
-              <xm:sqref>M4</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I37:L37</xm:f>
+              <xm:sqref>M37</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000023000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14543,12 +15652,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C18:G18</xm:f>
-              <xm:sqref>H18</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I38:L38</xm:f>
+              <xm:sqref>M38</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000022000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14559,12 +15668,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C17:G17</xm:f>
-              <xm:sqref>H17</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I39:L39</xm:f>
+              <xm:sqref>M39</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000021000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14575,12 +15684,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C16:G16</xm:f>
-              <xm:sqref>H16</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I40:L40</xm:f>
+              <xm:sqref>M40</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000020000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14591,12 +15700,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C15:G15</xm:f>
-              <xm:sqref>H15</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I41:L41</xm:f>
+              <xm:sqref>M41</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00001F000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14607,12 +15716,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C14:G14</xm:f>
-              <xm:sqref>H14</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I42:L42</xm:f>
+              <xm:sqref>M42</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00001E000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14623,12 +15732,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C13:G13</xm:f>
-              <xm:sqref>H13</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I43:L43</xm:f>
+              <xm:sqref>M43</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00001D000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14639,12 +15748,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C12:G12</xm:f>
-              <xm:sqref>H12</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I44:L44</xm:f>
+              <xm:sqref>M44</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00001C000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14655,12 +15764,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C11:G11</xm:f>
-              <xm:sqref>H11</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I45:L45</xm:f>
+              <xm:sqref>M45</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00001B000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14671,12 +15780,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C10:G10</xm:f>
-              <xm:sqref>H10</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I46:L46</xm:f>
+              <xm:sqref>M46</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-00001A000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14687,12 +15796,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C9:G9</xm:f>
-              <xm:sqref>H9</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I47:L47</xm:f>
+              <xm:sqref>M47</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000019000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14703,12 +15812,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C8:G8</xm:f>
-              <xm:sqref>H8</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I48:L48</xm:f>
+              <xm:sqref>M48</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000018000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14719,12 +15828,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C7:G7</xm:f>
-              <xm:sqref>H7</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I49:L49</xm:f>
+              <xm:sqref>M49</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000017000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14735,12 +15844,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C6:G6</xm:f>
-              <xm:sqref>H6</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I50:L50</xm:f>
+              <xm:sqref>M50</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000016000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14751,12 +15860,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C5:G5</xm:f>
-              <xm:sqref>H5</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I51:L51</xm:f>
+              <xm:sqref>M51</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000015000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14767,12 +15876,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C48:G48</xm:f>
-              <xm:sqref>H48</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I52:L52</xm:f>
+              <xm:sqref>M52</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{00000000-0003-0000-0200-000014000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14783,140 +15892,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C4:G4</xm:f>
-              <xm:sqref>H4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C20:G20</xm:f>
-              <xm:sqref>H20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C21:G21</xm:f>
-              <xm:sqref>H21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C22:G22</xm:f>
-              <xm:sqref>H22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C23:G23</xm:f>
-              <xm:sqref>H23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C24:G24</xm:f>
-              <xm:sqref>H24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C25:G25</xm:f>
-              <xm:sqref>H25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C26:G26</xm:f>
-              <xm:sqref>H26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C27:G27</xm:f>
-              <xm:sqref>H27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C28:G28</xm:f>
-              <xm:sqref>H28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C29:G29</xm:f>
-              <xm:sqref>H29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C30:G30</xm:f>
-              <xm:sqref>H30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C31:G31</xm:f>
-              <xm:sqref>H31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C32:G32</xm:f>
-              <xm:sqref>H32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C33:G33</xm:f>
-              <xm:sqref>H33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C34:G34</xm:f>
-              <xm:sqref>H34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C35:G35</xm:f>
-              <xm:sqref>H35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C36:G36</xm:f>
-              <xm:sqref>H36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C37:G37</xm:f>
-              <xm:sqref>H37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C38:G38</xm:f>
-              <xm:sqref>H38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C39:G39</xm:f>
-              <xm:sqref>H39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C40:G40</xm:f>
-              <xm:sqref>H40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C41:G41</xm:f>
-              <xm:sqref>H41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C42:G42</xm:f>
-              <xm:sqref>H42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C43:G43</xm:f>
-              <xm:sqref>H43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C44:G44</xm:f>
-              <xm:sqref>H44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C45:G45</xm:f>
-              <xm:sqref>H45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C46:G46</xm:f>
-              <xm:sqref>H46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C47:G47</xm:f>
-              <xm:sqref>H47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C49:G49</xm:f>
-              <xm:sqref>H49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C50:G50</xm:f>
-              <xm:sqref>H50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C51:G51</xm:f>
-              <xm:sqref>H51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C52:G52</xm:f>
-              <xm:sqref>H52</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!C53:G53</xm:f>
-              <xm:sqref>H53</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!I53:L53</xm:f>
+              <xm:sqref>M53</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -14927,19 +15904,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1232"/>
   <sheetViews>
-    <sheetView zoomScale="54" workbookViewId="0">
-      <selection activeCell="O62" sqref="O62"/>
+    <sheetView topLeftCell="B1" zoomScale="54" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="175" style="27" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" customWidth="1"/>
+    <col min="16" max="16" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33" customHeight="1">
@@ -14990,7 +15967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="64" customFormat="1" ht="32">
+    <row r="2" spans="1:16" s="64" customFormat="1" ht="30">
       <c r="A2" s="60" t="s">
         <v>35</v>
       </c>
@@ -15052,7 +16029,7 @@
         <v>-7.8534031413612562E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="23">
+    <row r="4" spans="1:16" ht="23.25">
       <c r="A4" s="34" t="s">
         <v>60</v>
       </c>
@@ -15064,7 +16041,7 @@
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:16" ht="23">
+    <row r="5" spans="1:16" ht="23.25">
       <c r="A5" s="12" t="s">
         <v>80</v>
       </c>
@@ -15090,7 +16067,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="23">
+    <row r="6" spans="1:16" ht="23.25">
       <c r="A6" s="12" t="s">
         <v>81</v>
       </c>
@@ -15116,7 +16093,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="23">
+    <row r="7" spans="1:16" ht="23.25">
       <c r="A7" s="33" t="s">
         <v>82</v>
       </c>
@@ -15142,7 +16119,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="23">
+    <row r="8" spans="1:16" ht="23.25">
       <c r="A8" s="33" t="s">
         <v>83</v>
       </c>
@@ -15168,7 +16145,7 @@
         <v>-482</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="23">
+    <row r="9" spans="1:16" ht="23.25">
       <c r="A9" s="33" t="s">
         <v>84</v>
       </c>
@@ -15194,7 +16171,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="25">
+    <row r="10" spans="1:16" ht="25.5">
       <c r="A10" s="33" t="s">
         <v>85</v>
       </c>
@@ -15220,7 +16197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="23">
+    <row r="11" spans="1:16" ht="23.25">
       <c r="A11" s="33" t="s">
         <v>36</v>
       </c>
@@ -15246,7 +16223,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="23">
+    <row r="12" spans="1:16" ht="23.25">
       <c r="A12" s="34" t="s">
         <v>37</v>
       </c>
@@ -15258,7 +16235,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="1:16" ht="23">
+    <row r="13" spans="1:16" ht="23.25">
       <c r="A13" s="33" t="s">
         <v>86</v>
       </c>
@@ -15308,7 +16285,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="25">
+    <row r="14" spans="1:16" ht="25.5">
       <c r="A14" s="33" t="s">
         <v>62</v>
       </c>
@@ -15334,7 +16311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="23">
+    <row r="15" spans="1:16" ht="23.25">
       <c r="A15" s="33" t="s">
         <v>92</v>
       </c>
@@ -15360,7 +16337,7 @@
         <v>-1178</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="23">
+    <row r="16" spans="1:16" ht="23.25">
       <c r="A16" s="33" t="s">
         <v>89</v>
       </c>
@@ -15386,7 +16363,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="23">
+    <row r="17" spans="1:21" ht="23.25">
       <c r="A17" s="33" t="s">
         <v>79</v>
       </c>
@@ -15412,7 +16389,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="23">
+    <row r="18" spans="1:21" ht="23.25">
       <c r="A18" s="33" t="s">
         <v>90</v>
       </c>
@@ -15438,7 +16415,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="23">
+    <row r="19" spans="1:21" ht="23.25">
       <c r="A19" s="33" t="s">
         <v>91</v>
       </c>
@@ -15464,7 +16441,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="43" customHeight="1">
+    <row r="20" spans="1:21" ht="42.95" customHeight="1">
       <c r="A20" s="35" t="s">
         <v>75</v>
       </c>
@@ -15521,7 +16498,7 @@
         <v>8.302015715749915E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="64" customFormat="1" ht="32">
+    <row r="21" spans="1:21" s="64" customFormat="1" ht="30">
       <c r="A21" s="60"/>
       <c r="B21" s="61"/>
       <c r="C21" s="62"/>
@@ -15531,7 +16508,7 @@
       <c r="G21" s="62"/>
       <c r="H21" s="62"/>
     </row>
-    <row r="22" spans="1:21" ht="23">
+    <row r="22" spans="1:21" ht="23.25">
       <c r="A22" s="33" t="s">
         <v>87</v>
       </c>
@@ -15557,7 +16534,7 @@
         <v>-908</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="23">
+    <row r="23" spans="1:21" ht="23.25">
       <c r="A23" s="33" t="s">
         <v>88</v>
       </c>
@@ -15583,7 +16560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="25">
+    <row r="24" spans="1:21" ht="25.5">
       <c r="A24" s="33" t="s">
         <v>61</v>
       </c>
@@ -15609,7 +16586,7 @@
         <v>-1594</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="23">
+    <row r="25" spans="1:21" ht="23.25">
       <c r="A25" s="33" t="s">
         <v>64</v>
       </c>
@@ -15656,7 +16633,7 @@
       </c>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:21" ht="23">
+    <row r="26" spans="1:21" ht="23.25">
       <c r="A26" s="33" t="s">
         <v>65</v>
       </c>
@@ -15708,7 +16685,7 @@
       <c r="T26" s="66"/>
       <c r="U26" s="66"/>
     </row>
-    <row r="27" spans="1:21" ht="23">
+    <row r="27" spans="1:21" ht="23.25">
       <c r="A27" s="33" t="s">
         <v>63</v>
       </c>
@@ -15734,7 +16711,7 @@
         <v>-2763</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="23">
+    <row r="28" spans="1:21" ht="23.25">
       <c r="A28" s="33" t="s">
         <v>77</v>
       </c>
@@ -15760,7 +16737,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="38" customHeight="1">
+    <row r="29" spans="1:21" ht="38.1" customHeight="1">
       <c r="A29" s="35" t="s">
         <v>74</v>
       </c>
@@ -15817,7 +16794,7 @@
         <v>0.65624614625724509</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1" ht="28">
+    <row r="30" spans="1:21" s="1" customFormat="1" ht="27.75">
       <c r="A30" s="60" t="s">
         <v>66</v>
       </c>
@@ -15829,7 +16806,7 @@
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
     </row>
-    <row r="31" spans="1:21" ht="23">
+    <row r="31" spans="1:21" ht="23.25">
       <c r="A31" s="33" t="s">
         <v>68</v>
       </c>
@@ -15856,7 +16833,7 @@
       </c>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:21" ht="23">
+    <row r="32" spans="1:21" ht="23.25">
       <c r="A32" s="33" t="s">
         <v>67</v>
       </c>
@@ -15883,7 +16860,7 @@
       </c>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:15" ht="23">
+    <row r="33" spans="1:15" ht="23.25">
       <c r="A33" s="33" t="s">
         <v>70</v>
       </c>
@@ -15910,7 +16887,7 @@
       </c>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:15" ht="23">
+    <row r="34" spans="1:15" ht="23.25">
       <c r="A34" s="33" t="s">
         <v>69</v>
       </c>
@@ -15938,7 +16915,7 @@
       <c r="I34" s="9"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:15" ht="25">
+    <row r="35" spans="1:15" ht="25.5">
       <c r="A35" s="33" t="s">
         <v>93</v>
       </c>
@@ -15965,7 +16942,7 @@
       </c>
       <c r="J35" s="18"/>
     </row>
-    <row r="36" spans="1:15" ht="23">
+    <row r="36" spans="1:15" ht="23.25">
       <c r="A36" s="33" t="s">
         <v>71</v>
       </c>
@@ -15992,7 +16969,7 @@
       </c>
       <c r="J36" s="18"/>
     </row>
-    <row r="37" spans="1:15" ht="23">
+    <row r="37" spans="1:15" ht="23.25">
       <c r="A37" s="33" t="s">
         <v>78</v>
       </c>
@@ -16020,7 +16997,7 @@
       <c r="I37" s="9"/>
       <c r="J37" s="18"/>
     </row>
-    <row r="38" spans="1:15" ht="23">
+    <row r="38" spans="1:15" ht="23.25">
       <c r="A38" s="33" t="s">
         <v>76</v>
       </c>
@@ -16047,7 +17024,7 @@
       </c>
       <c r="J38" s="18"/>
     </row>
-    <row r="39" spans="1:15" ht="40" customHeight="1">
+    <row r="39" spans="1:15" ht="39.950000000000003" customHeight="1">
       <c r="A39" s="35" t="s">
         <v>72</v>
       </c>
@@ -16104,7 +17081,7 @@
         <v>-1.0611591418507844</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="23">
+    <row r="40" spans="1:15" ht="23.25">
       <c r="A40" s="33" t="s">
         <v>38</v>
       </c>
@@ -16131,7 +17108,7 @@
       </c>
       <c r="J40" s="18"/>
     </row>
-    <row r="41" spans="1:15" ht="41" customHeight="1">
+    <row r="41" spans="1:15" ht="41.1" customHeight="1">
       <c r="A41" s="35" t="s">
         <v>171</v>
       </c>
@@ -16140,7 +17117,7 @@
         <v>-5145</v>
       </c>
       <c r="C41" s="38">
-        <f t="shared" si="8"/>
+        <f>C20+C29+C39+C40</f>
         <v>-708</v>
       </c>
       <c r="D41" s="38">
@@ -16187,7 +17164,7 @@
         <v>-1.0047888550282977</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="23">
+    <row r="42" spans="1:15" ht="23.25">
       <c r="A42" s="33" t="s">
         <v>46</v>
       </c>
@@ -16214,7 +17191,7 @@
       </c>
       <c r="J42" s="18"/>
     </row>
-    <row r="43" spans="1:15" ht="40" customHeight="1">
+    <row r="43" spans="1:15" ht="39.950000000000003" customHeight="1">
       <c r="A43" s="35" t="s">
         <v>73</v>
       </c>
@@ -16223,7 +17200,7 @@
         <v>-2944</v>
       </c>
       <c r="C43" s="37">
-        <f t="shared" si="10"/>
+        <f>SUM(C41:C42)</f>
         <v>6119</v>
       </c>
       <c r="D43" s="37">
@@ -16271,7 +17248,7 @@
         <v>-6.0975609756097561E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="1" customFormat="1" ht="23">
+    <row r="44" spans="1:15" s="1" customFormat="1" ht="23.25">
       <c r="A44" s="32" t="s">
         <v>39</v>
       </c>
@@ -16284,7 +17261,7 @@
       <c r="H44" s="39"/>
       <c r="K44" s="40"/>
     </row>
-    <row r="45" spans="1:15" ht="23">
+    <row r="45" spans="1:15" ht="23.25">
       <c r="A45" s="33" t="s">
         <v>40</v>
       </c>
@@ -16311,7 +17288,7 @@
       </c>
       <c r="K45" s="18"/>
     </row>
-    <row r="46" spans="1:15" ht="23">
+    <row r="46" spans="1:15" ht="23.25">
       <c r="A46" s="33" t="s">
         <v>41</v>
       </c>
@@ -16338,7 +17315,7 @@
       </c>
       <c r="K46" s="18"/>
     </row>
-    <row r="47" spans="1:15" s="1" customFormat="1" ht="25">
+    <row r="47" spans="1:15" s="1" customFormat="1" ht="25.5">
       <c r="A47" s="36" t="s">
         <v>47</v>
       </c>
@@ -16351,7 +17328,7 @@
       <c r="H47" s="39"/>
       <c r="K47" s="40"/>
     </row>
-    <row r="48" spans="1:15" ht="23">
+    <row r="48" spans="1:15" ht="23.25">
       <c r="A48" s="33" t="s">
         <v>42</v>
       </c>
@@ -16378,7 +17355,7 @@
       </c>
       <c r="K48" s="18"/>
     </row>
-    <row r="49" spans="1:15" ht="23">
+    <row r="49" spans="1:15" ht="23.25">
       <c r="A49" s="33" t="s">
         <v>43</v>
       </c>
@@ -16405,7 +17382,7 @@
       </c>
       <c r="K49" s="18"/>
     </row>
-    <row r="50" spans="1:15" ht="23">
+    <row r="50" spans="1:15" ht="23.25">
       <c r="A50" s="33" t="s">
         <v>44</v>
       </c>
@@ -16432,7 +17409,7 @@
       </c>
       <c r="K50" s="18"/>
     </row>
-    <row r="51" spans="1:15" ht="35" customHeight="1">
+    <row r="51" spans="1:15" ht="35.1" customHeight="1">
       <c r="A51" s="35" t="s">
         <v>45</v>
       </c>
@@ -17726,7 +18703,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" low="1" xr2:uid="{00000000-0003-0000-0300-000052000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" low="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -17737,52 +18714,152 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J41:O41</xm:f>
-              <xm:sqref>P41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J42:O42</xm:f>
-              <xm:sqref>P42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J43:O43</xm:f>
-              <xm:sqref>P43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J44:O44</xm:f>
-              <xm:sqref>P44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J45:O45</xm:f>
-              <xm:sqref>P45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J46:O46</xm:f>
-              <xm:sqref>P46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J47:O47</xm:f>
-              <xm:sqref>P47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J48:O48</xm:f>
-              <xm:sqref>P48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J49:O49</xm:f>
-              <xm:sqref>P49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J50:O50</xm:f>
-              <xm:sqref>P50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J51:O51</xm:f>
-              <xm:sqref>P51</xm:sqref>
+              <xm:f>'CASH FLOWS'!B20:H20</xm:f>
+              <xm:sqref>I20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B21:H21</xm:f>
+              <xm:sqref>I21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B29:H29</xm:f>
+              <xm:sqref>I29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B30:H30</xm:f>
+              <xm:sqref>I30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B39:H39</xm:f>
+              <xm:sqref>I39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B41:H41</xm:f>
+              <xm:sqref>I41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B43:H43</xm:f>
+              <xm:sqref>I43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B44:H44</xm:f>
+              <xm:sqref>I44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B51:H51</xm:f>
+              <xm:sqref>I51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B3:H3</xm:f>
+              <xm:sqref>I3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B4:H4</xm:f>
+              <xm:sqref>I4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B12:H12</xm:f>
+              <xm:sqref>I12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B13:H13</xm:f>
+              <xm:sqref>I13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B26:H26</xm:f>
+              <xm:sqref>I26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B25:H25</xm:f>
+              <xm:sqref>I25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" xr2:uid="{00000000-0003-0000-0300-000051000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FF92D050"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J20:O20</xm:f>
+              <xm:sqref>P20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J19:O19</xm:f>
+              <xm:sqref>P19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J18:O18</xm:f>
+              <xm:sqref>P18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J17:O17</xm:f>
+              <xm:sqref>P17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J16:O16</xm:f>
+              <xm:sqref>P16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J15:O15</xm:f>
+              <xm:sqref>P15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J14:O14</xm:f>
+              <xm:sqref>P14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J13:O13</xm:f>
+              <xm:sqref>P13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J12:O12</xm:f>
+              <xm:sqref>P12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J11:O11</xm:f>
+              <xm:sqref>P11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J10:O10</xm:f>
+              <xm:sqref>P10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J9:O9</xm:f>
+              <xm:sqref>P9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J8:O8</xm:f>
+              <xm:sqref>P8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J7:O7</xm:f>
+              <xm:sqref>P7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J6:O6</xm:f>
+              <xm:sqref>P6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J5:O5</xm:f>
+              <xm:sqref>P5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J4:O4</xm:f>
+              <xm:sqref>P4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J3:O3</xm:f>
+              <xm:sqref>P3</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -17793,12 +18870,28 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J39:O39</xm:f>
-              <xm:sqref>P39</xm:sqref>
+              <xm:f>'CASH FLOWS'!J29:O29</xm:f>
+              <xm:sqref>P29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J28:O28</xm:f>
+              <xm:sqref>P28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J27:O27</xm:f>
+              <xm:sqref>P27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J26:O26</xm:f>
+              <xm:sqref>P26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J25:O25</xm:f>
+              <xm:sqref>P25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" xr2:uid="{00000000-0003-0000-0300-000050000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -17809,112 +18902,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J29:O29</xm:f>
-              <xm:sqref>P29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J28:O28</xm:f>
-              <xm:sqref>P28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J27:O27</xm:f>
-              <xm:sqref>P27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J26:O26</xm:f>
-              <xm:sqref>P26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J25:O25</xm:f>
-              <xm:sqref>P25</xm:sqref>
+              <xm:f>'CASH FLOWS'!J39:O39</xm:f>
+              <xm:sqref>P39</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1" xr2:uid="{00000000-0003-0000-0300-00004F000000}">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFFF0000"/>
-          <x14:colorLow rgb="FF92D050"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J20:O20</xm:f>
-              <xm:sqref>P20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J19:O19</xm:f>
-              <xm:sqref>P19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J18:O18</xm:f>
-              <xm:sqref>P18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J17:O17</xm:f>
-              <xm:sqref>P17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J16:O16</xm:f>
-              <xm:sqref>P16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J15:O15</xm:f>
-              <xm:sqref>P15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J14:O14</xm:f>
-              <xm:sqref>P14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J13:O13</xm:f>
-              <xm:sqref>P13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J12:O12</xm:f>
-              <xm:sqref>P12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J11:O11</xm:f>
-              <xm:sqref>P11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J10:O10</xm:f>
-              <xm:sqref>P10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J9:O9</xm:f>
-              <xm:sqref>P9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J8:O8</xm:f>
-              <xm:sqref>P8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J7:O7</xm:f>
-              <xm:sqref>P7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J6:O6</xm:f>
-              <xm:sqref>P6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J5:O5</xm:f>
-              <xm:sqref>P5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J4:O4</xm:f>
-              <xm:sqref>P4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J3:O3</xm:f>
-              <xm:sqref>P3</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" low="1" xr2:uid="{00000000-0003-0000-0300-00004E000000}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" low="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -17925,64 +18918,48 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B20:H20</xm:f>
-              <xm:sqref>I20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B21:H21</xm:f>
-              <xm:sqref>I21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B29:H29</xm:f>
-              <xm:sqref>I29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B30:H30</xm:f>
-              <xm:sqref>I30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B39:H39</xm:f>
-              <xm:sqref>I39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B41:H41</xm:f>
-              <xm:sqref>I41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B43:H43</xm:f>
-              <xm:sqref>I43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B44:H44</xm:f>
-              <xm:sqref>I44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B51:H51</xm:f>
-              <xm:sqref>I51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B3:H3</xm:f>
-              <xm:sqref>I3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B4:H4</xm:f>
-              <xm:sqref>I4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B12:H12</xm:f>
-              <xm:sqref>I12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B13:H13</xm:f>
-              <xm:sqref>I13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B26:H26</xm:f>
-              <xm:sqref>I26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B25:H25</xm:f>
-              <xm:sqref>I25</xm:sqref>
+              <xm:f>'CASH FLOWS'!J41:O41</xm:f>
+              <xm:sqref>P41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J42:O42</xm:f>
+              <xm:sqref>P42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J43:O43</xm:f>
+              <xm:sqref>P43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J44:O44</xm:f>
+              <xm:sqref>P44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J45:O45</xm:f>
+              <xm:sqref>P45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J46:O46</xm:f>
+              <xm:sqref>P46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J47:O47</xm:f>
+              <xm:sqref>P47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J48:O48</xm:f>
+              <xm:sqref>P48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J49:O49</xm:f>
+              <xm:sqref>P49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J50:O50</xm:f>
+              <xm:sqref>P50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J51:O51</xm:f>
+              <xm:sqref>P51</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -17993,21 +18970,1123 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="135.875" customWidth="1"/>
+    <col min="2" max="4" width="14.375" style="149" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27.75">
+      <c r="A1" s="71"/>
+      <c r="B1" s="29">
+        <v>2021</v>
+      </c>
+      <c r="C1" s="29">
+        <v>2020</v>
+      </c>
+      <c r="D1" s="29">
+        <v>2019</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="A2" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A3" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="53">
+        <v>158826</v>
+      </c>
+      <c r="C3" s="53">
+        <v>213105</v>
+      </c>
+      <c r="D3" s="53">
+        <v>375446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="24" customHeight="1">
+      <c r="A4" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" s="156"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5" s="53">
+        <v>134757</v>
+      </c>
+      <c r="C5" s="53">
+        <v>84212</v>
+      </c>
+      <c r="D5" s="53">
+        <v>75598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A6" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="53">
+        <v>31104</v>
+      </c>
+      <c r="C6" s="53">
+        <v>76129</v>
+      </c>
+      <c r="D6" s="53">
+        <v>33478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="39" customHeight="1">
+      <c r="A7" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="53">
+        <v>6651</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" s="53">
+        <v>83137</v>
+      </c>
+      <c r="C8" s="53">
+        <v>70253</v>
+      </c>
+      <c r="D8" s="53">
+        <v>29696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A9" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="53">
+        <v>608040</v>
+      </c>
+      <c r="C9" s="53">
+        <v>397800</v>
+      </c>
+      <c r="D9" s="53">
+        <v>297863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="53">
+        <v>-373445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="24" customHeight="1">
+      <c r="A11" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="53">
+        <v>-35492</v>
+      </c>
+      <c r="C11" s="53">
+        <v>-295297</v>
+      </c>
+      <c r="D11" s="53">
+        <v>12326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="B12" s="53">
+        <v>187991</v>
+      </c>
+      <c r="C12" s="53">
+        <v>177670</v>
+      </c>
+      <c r="D12" s="53">
+        <v>126959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A13" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" s="53">
+        <v>71126</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A14" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" s="53">
+        <v>-10435</v>
+      </c>
+      <c r="C14" s="53">
+        <v>-8016</v>
+      </c>
+      <c r="D14" s="53">
+        <v>-1376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A15" s="157" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+    </row>
+    <row r="16" spans="1:8" ht="39" customHeight="1">
+      <c r="A16" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="53">
+        <v>-346217</v>
+      </c>
+      <c r="C16" s="53">
+        <v>-547484</v>
+      </c>
+      <c r="D16" s="53">
+        <v>-326596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A17" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="B17" s="53">
+        <v>-3227172</v>
+      </c>
+      <c r="C17" s="53">
+        <v>-1837137</v>
+      </c>
+      <c r="D17" s="53">
+        <v>-2266738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="24" customHeight="1">
+      <c r="A18" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="B18" s="53">
+        <v>3067344</v>
+      </c>
+      <c r="C18" s="53">
+        <v>1505406</v>
+      </c>
+      <c r="D18" s="53">
+        <v>2168682</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A19" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="B19" s="53">
+        <v>171555</v>
+      </c>
+      <c r="C19" s="53">
+        <v>371598</v>
+      </c>
+      <c r="D19" s="53">
+        <v>181520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A20" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20" s="53">
+        <v>15249</v>
+      </c>
+      <c r="C20" s="53">
+        <v>143528</v>
+      </c>
+      <c r="D20" s="53">
+        <v>41697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A21" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21" s="53">
+        <v>-61983</v>
+      </c>
+      <c r="C21" s="53">
+        <v>-185308</v>
+      </c>
+      <c r="D21" s="53">
+        <v>-47480</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="32.25" customHeight="1">
+      <c r="A22" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22" s="38">
+        <f>SUM(B3:B21)</f>
+        <v>847830</v>
+      </c>
+      <c r="C22" s="38">
+        <f t="shared" ref="C22" si="0">SUM(C3:C21)</f>
+        <v>173110</v>
+      </c>
+      <c r="D22" s="38">
+        <f>SUM(D3:D21)</f>
+        <v>327630</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A23" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+    </row>
+    <row r="24" spans="1:4" ht="23.25">
+      <c r="A24" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="B24" s="53">
+        <v>-2714560</v>
+      </c>
+      <c r="C24" s="53">
+        <v>-1322362</v>
+      </c>
+      <c r="D24" s="53">
+        <v>-992583</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="23.25">
+      <c r="A25" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="B25" s="53">
+        <v>831019</v>
+      </c>
+      <c r="C25" s="53">
+        <v>607134</v>
+      </c>
+      <c r="D25" s="53">
+        <v>430888</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="23.25">
+      <c r="A26" s="52" t="s">
+        <v>278</v>
+      </c>
+      <c r="B26" s="53">
+        <v>617097</v>
+      </c>
+      <c r="C26" s="53">
+        <v>585427</v>
+      </c>
+      <c r="D26" s="53">
+        <v>548619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="23.25">
+      <c r="A27" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="B27" s="53">
+        <v>-488851</v>
+      </c>
+      <c r="C27" s="53">
+        <v>-642252</v>
+      </c>
+      <c r="D27" s="53">
+        <v>-311499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="23.25">
+      <c r="A28" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="B28" s="53">
+        <v>505501</v>
+      </c>
+      <c r="C28" s="53">
+        <v>382887</v>
+      </c>
+      <c r="D28" s="53">
+        <v>158055</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="23.25">
+      <c r="A29" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="B29" s="53">
+        <v>35071</v>
+      </c>
+      <c r="C29" s="53">
+        <v>51430</v>
+      </c>
+      <c r="D29" s="53">
+        <v>17493</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="23.25">
+      <c r="A30" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="B30" s="53">
+        <v>-134320</v>
+      </c>
+      <c r="C30" s="53">
+        <v>-138402</v>
+      </c>
+      <c r="D30" s="53">
+        <v>-62498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="23.25">
+      <c r="A31" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="B31" s="53">
+        <v>-170000</v>
+      </c>
+      <c r="C31" s="53">
+        <v>-50000</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="23.25">
+      <c r="A32" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32" s="53">
+        <v>-48510</v>
+      </c>
+      <c r="C32" s="53">
+        <v>-1277</v>
+      </c>
+      <c r="D32" s="53">
+        <v>-15250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="23.25">
+      <c r="A33" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="B33" s="53">
+        <v>420644</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="53">
+        <v>33016</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="23.25">
+      <c r="A34" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="53">
+        <v>309324</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="23.25">
+      <c r="A35" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="B35" s="53">
+        <v>-163970</v>
+      </c>
+      <c r="C35" s="53">
+        <v>-79221</v>
+      </c>
+      <c r="D35" s="53">
+        <v>-20372</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="24" customHeight="1">
+      <c r="A36" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="B36" s="38">
+        <f t="shared" ref="B36" si="1">SUM(B24:B35)</f>
+        <v>-1310879</v>
+      </c>
+      <c r="C36" s="38">
+        <f>SUM(C24:C35)</f>
+        <v>-606636</v>
+      </c>
+      <c r="D36" s="38">
+        <f>SUM(D24:D35)</f>
+        <v>95193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A37" s="60" t="s">
+        <v>288</v>
+      </c>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+    </row>
+    <row r="38" spans="1:4" ht="23.25">
+      <c r="A38" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="53">
+        <v>2116544</v>
+      </c>
+      <c r="D38" s="53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="23.25">
+      <c r="A39" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="B39" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="53">
+        <v>-338145</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="23.25">
+      <c r="A40" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="B40" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="53">
+        <v>232095</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="23.25">
+      <c r="A41" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="B41" s="53">
+        <v>1971828</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="23.25">
+      <c r="A42" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="B42" s="53">
+        <v>681539</v>
+      </c>
+      <c r="C42" s="53">
+        <v>464094</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="23.25">
+      <c r="A43" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="B43" s="53">
+        <v>-648100</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="23.25">
+      <c r="A44" s="52" t="s">
+        <v>304</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="23.25">
+      <c r="A45" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="B45" s="53">
+        <v>126719</v>
+      </c>
+      <c r="C45" s="53">
+        <v>161985</v>
+      </c>
+      <c r="D45" s="53">
+        <v>118514</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="23.25">
+      <c r="A46" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="B46" s="53">
+        <v>-323011</v>
+      </c>
+      <c r="C46" s="53">
+        <v>-314019</v>
+      </c>
+      <c r="D46" s="53">
+        <v>-212264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="27.75" customHeight="1">
+      <c r="A47" s="52" t="s">
+        <v>311</v>
+      </c>
+      <c r="B47" s="53">
+        <v>59844</v>
+      </c>
+      <c r="C47" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A48" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="B48" s="53">
+        <v>-9948</v>
+      </c>
+      <c r="C48" s="53">
+        <v>-7359</v>
+      </c>
+      <c r="D48" s="53">
+        <v>-5124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="45.75" customHeight="1">
+      <c r="A49" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="B49" s="53">
+        <v>793163</v>
+      </c>
+      <c r="C49" s="53">
+        <v>1361540</v>
+      </c>
+      <c r="D49" s="53">
+        <v>342275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="38.25" customHeight="1">
+      <c r="A50" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="B50" s="38">
+        <f t="shared" ref="B50:C50" si="2">SUM(B38:B49)</f>
+        <v>2652034</v>
+      </c>
+      <c r="C50" s="38">
+        <f t="shared" si="2"/>
+        <v>3676735</v>
+      </c>
+      <c r="D50" s="38">
+        <f>SUM(D38:D49)</f>
+        <v>243401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30.75" customHeight="1">
+      <c r="A51" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="B51" s="53">
+        <v>-7066</v>
+      </c>
+      <c r="C51" s="53">
+        <v>12995</v>
+      </c>
+      <c r="D51" s="53">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="24" customHeight="1">
+      <c r="A52" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="B52" s="38">
+        <f>B51+B50+B36+B22</f>
+        <v>2181919</v>
+      </c>
+      <c r="C52" s="38">
+        <f t="shared" ref="C52:D52" si="3">C51+C50+C36+C22</f>
+        <v>3256204</v>
+      </c>
+      <c r="D52" s="38">
+        <f t="shared" si="3"/>
+        <v>670065</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="24" customHeight="1">
+      <c r="A53" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B53" s="53">
+        <v>4793171</v>
+      </c>
+      <c r="C53" s="53">
+        <v>1536967</v>
+      </c>
+      <c r="D53" s="53">
+        <v>866902</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="24" customHeight="1">
+      <c r="A54" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="B54" s="38">
+        <f>SUM(B52:B53)</f>
+        <v>6975090</v>
+      </c>
+      <c r="C54" s="38">
+        <f t="shared" ref="C54:D54" si="4">SUM(C52:C53)</f>
+        <v>4793171</v>
+      </c>
+      <c r="D54" s="38">
+        <f t="shared" si="4"/>
+        <v>1536967</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="1" customFormat="1" ht="25.5">
+      <c r="A55" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+    </row>
+    <row r="56" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A56" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="B56" s="53">
+        <v>4443669</v>
+      </c>
+      <c r="C56" s="53">
+        <v>3158058</v>
+      </c>
+      <c r="D56" s="53">
+        <v>1047118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A57" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="B57" s="53">
+        <v>18778</v>
+      </c>
+      <c r="C57" s="53">
+        <v>30279</v>
+      </c>
+      <c r="D57" s="53">
+        <v>38873</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A58" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="B58" s="53">
+        <v>71702</v>
+      </c>
+      <c r="C58" s="53">
+        <v>13526</v>
+      </c>
+      <c r="D58" s="53">
+        <v>12715</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A59" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="B59" s="53">
+        <v>2400941</v>
+      </c>
+      <c r="C59" s="53">
+        <v>1591308</v>
+      </c>
+      <c r="D59" s="53">
+        <v>438261</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="22.5">
+      <c r="A60" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="B60" s="38">
+        <f>SUM(B56:B59)</f>
+        <v>6935090</v>
+      </c>
+      <c r="C60" s="38">
+        <f t="shared" ref="C60:D60" si="5">SUM(C56:C59)</f>
+        <v>4793171</v>
+      </c>
+      <c r="D60" s="38">
+        <f t="shared" si="5"/>
+        <v>1536967</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" low="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>工作表1!B50:D50</xm:f>
+              <xm:sqref>E50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B51:D51</xm:f>
+              <xm:sqref>E51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B52:D52</xm:f>
+              <xm:sqref>E52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B53:D53</xm:f>
+              <xm:sqref>E53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B54:D54</xm:f>
+              <xm:sqref>E54</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" low="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>工作表1!B49:D49</xm:f>
+              <xm:sqref>E49</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" low="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>工作表1!B48:D48</xm:f>
+              <xm:sqref>E48</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" low="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>工作表1!B45:D45</xm:f>
+              <xm:sqref>E45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B46:D46</xm:f>
+              <xm:sqref>E46</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" low="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>工作表1!B42:D42</xm:f>
+              <xm:sqref>E42</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" low="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>工作表1!B24:D24</xm:f>
+              <xm:sqref>E24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B25:D25</xm:f>
+              <xm:sqref>E25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B26:D26</xm:f>
+              <xm:sqref>E26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B27:D27</xm:f>
+              <xm:sqref>E27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B28:D28</xm:f>
+              <xm:sqref>E28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B29:D29</xm:f>
+              <xm:sqref>E29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B30:D30</xm:f>
+              <xm:sqref>E30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B31:D31</xm:f>
+              <xm:sqref>E31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B32:D32</xm:f>
+              <xm:sqref>E32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B35:D35</xm:f>
+              <xm:sqref>E35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B36:D36</xm:f>
+              <xm:sqref>E36</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" low="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>工作表1!B3:D3</xm:f>
+              <xm:sqref>E3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B4:D4</xm:f>
+              <xm:sqref>E4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B5:D5</xm:f>
+              <xm:sqref>E5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B6:D6</xm:f>
+              <xm:sqref>E6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B8:D8</xm:f>
+              <xm:sqref>E8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B9:D9</xm:f>
+              <xm:sqref>E9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B10:D10</xm:f>
+              <xm:sqref>E10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B11:D11</xm:f>
+              <xm:sqref>E11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B12:D12</xm:f>
+              <xm:sqref>E12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B14:D14</xm:f>
+              <xm:sqref>E14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B15:D15</xm:f>
+              <xm:sqref>E15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B16:D16</xm:f>
+              <xm:sqref>E16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B17:D17</xm:f>
+              <xm:sqref>E17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B18:D18</xm:f>
+              <xm:sqref>E18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B19:D19</xm:f>
+              <xm:sqref>E19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B20:D20</xm:f>
+              <xm:sqref>E20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B21:D21</xm:f>
+              <xm:sqref>E21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>工作表1!B22:D22</xm:f>
+              <xm:sqref>E22</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M27"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="88"/>
-    <col min="2" max="2" width="153.6640625" style="88" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="10.875" style="88"/>
+    <col min="2" max="2" width="153.625" style="88" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="10"/>
     <col min="4" max="4" width="3.5" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="27.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="13" max="13" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
@@ -18062,23 +20141,23 @@
       <c r="B7" s="89"/>
       <c r="C7" s="43"/>
     </row>
-    <row r="8" spans="1:13" ht="27">
+    <row r="8" spans="1:13" ht="27.75">
       <c r="A8" s="84">
         <v>6</v>
       </c>
       <c r="B8" s="89"/>
       <c r="C8" s="43"/>
-      <c r="E8" s="152" t="s">
+      <c r="E8" s="154" t="s">
         <v>179</v>
       </c>
-      <c r="F8" s="152"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="152"/>
-      <c r="K8" s="152"/>
-      <c r="L8" s="152"/>
-      <c r="M8" s="152"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="154"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="84">
@@ -18086,15 +20165,15 @@
       </c>
       <c r="B9" s="89"/>
       <c r="C9" s="43"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="151"/>
-      <c r="J9" s="151"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="84">
@@ -18102,15 +20181,15 @@
       </c>
       <c r="B10" s="89"/>
       <c r="C10" s="43"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="151"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="153"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="84">
@@ -18118,15 +20197,15 @@
       </c>
       <c r="B11" s="89"/>
       <c r="C11" s="43"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="153"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="153"/>
-      <c r="M11" s="153"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="155"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="84">
@@ -18134,15 +20213,15 @@
       </c>
       <c r="B12" s="89"/>
       <c r="C12" s="43"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="153"/>
-      <c r="M12" s="153"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="155"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="84">
@@ -18150,30 +20229,30 @@
       </c>
       <c r="B13" s="89"/>
       <c r="C13" s="43"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="153"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="153"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="155"/>
     </row>
     <row r="14" spans="1:13">
       <c r="C14" s="107">
         <f>SUM(C3:C13)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="155"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="87" t="s">
@@ -18181,15 +20260,15 @@
       </c>
       <c r="B15" s="89"/>
       <c r="C15" s="43"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="155"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="85">
@@ -18197,15 +20276,15 @@
       </c>
       <c r="B16" s="89"/>
       <c r="C16" s="43"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="85">
@@ -18213,15 +20292,15 @@
       </c>
       <c r="B17" s="89"/>
       <c r="C17" s="43"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="155"/>
+      <c r="K17" s="155"/>
+      <c r="L17" s="155"/>
+      <c r="M17" s="155"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="85">
@@ -18229,15 +20308,15 @@
       </c>
       <c r="B18" s="89"/>
       <c r="C18" s="43"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="155"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="155"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="85">
@@ -18245,15 +20324,15 @@
       </c>
       <c r="B19" s="89"/>
       <c r="C19" s="43"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="155"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="85">
